--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -1,39 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" rupBuild="4506" lastEdited="4" lowestEdited="4"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38224B71-8CDA-4DA5-BC06-35E95BB2FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2690" windowWidth="25410" windowHeight="15040" tabRatio="517"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CountryMaster" sheetId="1" r:id="flId1"/>
-    <sheet name="WPP" sheetId="2" r:id="flId2"/>
-    <sheet name="GBD" sheetId="3" r:id="flId3"/>
-    <sheet name="DisabilityWeights" sheetId="4" r:id="flId4"/>
-    <sheet name="Revision Log" sheetId="5" r:id="flId5"/>
+    <sheet name="CountryMaster" sheetId="1" r:id="rId1"/>
+    <sheet name="WPP" sheetId="2" r:id="rId2"/>
+    <sheet name="GBD" sheetId="3" r:id="rId3"/>
+    <sheet name="DisabilityWeights" sheetId="4" r:id="rId4"/>
+    <sheet name="Revision Log" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3902" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1458">
   <si>
     <t>Country Code</t>
   </si>
@@ -2303,7 +2294,7 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t xml:space="preserve">Changed 36 UPD files that ended with "_NOAIDS" to "_R1", as requested by Jill.  Here is the list of countries on one line, as requested: Bahamas,Belize,Botswana,Burkina Faso,Cameroon,Central African Republic,Chad,Congo,Democratic Republic of the Congo,Djiboiti,Equatorial Guinea,Tritrea,Gabon,Gambia,Ghana,Guinea,Guinea-Bissau,Jamaica,Kenya,Lesotho,Liberia,Malawi,Mali,Mozambique,Namibia,Rwanda,Sierra Leone,South Africa,South Sudan,Swaziland,Thailand,Togo,Uganda,United Republic of Tanzania,Zambia,Zimbabwe</t>
+    <t>Changed 36 UPD files that ended with "_NOAIDS" to "_R1", as requested by Jill.  Here is the list of countries on one line, as requested: Bahamas,Belize,Botswana,Burkina Faso,Cameroon,Central African Republic,Chad,Congo,Democratic Republic of the Congo,Djiboiti,Equatorial Guinea,Tritrea,Gabon,Gambia,Ghana,Guinea,Guinea-Bissau,Jamaica,Kenya,Lesotho,Liberia,Malawi,Mali,Mozambique,Namibia,Rwanda,Sierra Leone,South Africa,South Sudan,Swaziland,Thailand,Togo,Uganda,United Republic of Tanzania,Zambia,Zimbabwe</t>
   </si>
   <si>
     <t>ISO</t>
@@ -4404,13 +4395,16 @@
   </si>
   <si>
     <t>DHS 1999, DHS 2005, MICS 2009, DHS 2010, MICS 2014, DHS 2015, MICS 2019</t>
+  </si>
+  <si>
+    <t>SAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4440,7 +4434,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color auto="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4464,22 +4457,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" numFmtId="0" fillId="0" borderId="0"/>
-    <xf fontId="3" numFmtId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf fontId="0" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf applyFont="1" applyAlignment="1" fontId="1" numFmtId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" fontId="0" numFmtId="49" fillId="0" borderId="0" xfId="0"/>
-    <xf applyFont="1" fontId="2" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf applyFont="1" fontId="2" numFmtId="0" fillId="0" borderId="0" xfId="1"/>
-    <xf applyFont="1" fontId="4" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4790,15 +4783,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I377" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F257" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I257" sqref="I257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -4834,7 +4829,7 @@
     <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4938,7 +4933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5018,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8</v>
       </c>
@@ -5089,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12</v>
       </c>
@@ -5163,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>24</v>
       </c>
@@ -5243,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>28</v>
       </c>
@@ -5311,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>32</v>
       </c>
@@ -5385,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>51</v>
       </c>
@@ -5459,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>533</v>
       </c>
@@ -5521,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>36</v>
       </c>
@@ -5592,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>40</v>
       </c>
@@ -5660,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>31</v>
       </c>
@@ -5731,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>44</v>
       </c>
@@ -5805,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>48</v>
       </c>
@@ -5876,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>50</v>
       </c>
@@ -5950,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>52</v>
       </c>
@@ -6021,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>112</v>
       </c>
@@ -6095,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>56</v>
       </c>
@@ -6163,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>84</v>
       </c>
@@ -6237,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>204</v>
       </c>
@@ -6323,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>204</v>
       </c>
@@ -6403,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>204</v>
       </c>
@@ -6483,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>204</v>
       </c>
@@ -6563,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>204</v>
       </c>
@@ -6643,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>204</v>
       </c>
@@ -6723,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>204</v>
       </c>
@@ -6803,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>204</v>
       </c>
@@ -6883,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>204</v>
       </c>
@@ -6963,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>204</v>
       </c>
@@ -7043,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>204</v>
       </c>
@@ -7123,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>204</v>
       </c>
@@ -7203,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>204</v>
       </c>
@@ -7283,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>64</v>
       </c>
@@ -7357,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>68</v>
       </c>
@@ -7434,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>70</v>
       </c>
@@ -7505,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>72</v>
       </c>
@@ -7591,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>76</v>
       </c>
@@ -7668,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>96</v>
       </c>
@@ -7739,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>100</v>
       </c>
@@ -7810,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>854</v>
       </c>
@@ -7896,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>108</v>
       </c>
@@ -7976,7 +7971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>116</v>
       </c>
@@ -8056,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>120</v>
       </c>
@@ -8142,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>124</v>
       </c>
@@ -8210,7 +8205,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>132</v>
       </c>
@@ -8284,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>140</v>
       </c>
@@ -8370,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>148</v>
       </c>
@@ -8456,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>830</v>
       </c>
@@ -8518,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>152</v>
       </c>
@@ -8595,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>156</v>
       </c>
@@ -8672,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>344</v>
       </c>
@@ -8734,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>446</v>
       </c>
@@ -8796,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>158</v>
       </c>
@@ -8861,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>170</v>
       </c>
@@ -8935,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>174</v>
       </c>
@@ -9009,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>178</v>
       </c>
@@ -9095,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>188</v>
       </c>
@@ -9169,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>384</v>
       </c>
@@ -9252,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>384</v>
       </c>
@@ -9332,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>384</v>
       </c>
@@ -9412,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>384</v>
       </c>
@@ -9492,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>384</v>
       </c>
@@ -9572,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>384</v>
       </c>
@@ -9652,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>384</v>
       </c>
@@ -9732,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>384</v>
       </c>
@@ -9812,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>384</v>
       </c>
@@ -9892,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>384</v>
       </c>
@@ -9972,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>384</v>
       </c>
@@ -10052,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>384</v>
       </c>
@@ -10132,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>191</v>
       </c>
@@ -10206,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>192</v>
       </c>
@@ -10280,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>531</v>
       </c>
@@ -10342,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>196</v>
       </c>
@@ -10413,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>203</v>
       </c>
@@ -10487,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>408</v>
       </c>
@@ -10558,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>180</v>
       </c>
@@ -10644,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>208</v>
       </c>
@@ -10715,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>262</v>
       </c>
@@ -10789,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>212</v>
       </c>
@@ -10854,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>214</v>
       </c>
@@ -10934,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>218</v>
       </c>
@@ -11014,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>818</v>
       </c>
@@ -11088,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>222</v>
       </c>
@@ -11168,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>226</v>
       </c>
@@ -11248,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>232</v>
       </c>
@@ -11328,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>233</v>
       </c>
@@ -11399,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>231</v>
       </c>
@@ -11485,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>231</v>
       </c>
@@ -11565,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>231</v>
       </c>
@@ -11645,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>231</v>
       </c>
@@ -11725,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>231</v>
       </c>
@@ -11805,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>231</v>
       </c>
@@ -11885,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>231</v>
       </c>
@@ -11965,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>231</v>
       </c>
@@ -12045,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>231</v>
       </c>
@@ -12125,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>231</v>
       </c>
@@ -12205,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>231</v>
       </c>
@@ -12285,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>231</v>
       </c>
@@ -12365,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>231</v>
       </c>
@@ -12445,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>242</v>
       </c>
@@ -12519,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>246</v>
       </c>
@@ -12587,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>250</v>
       </c>
@@ -12658,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>254</v>
       </c>
@@ -12720,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>258</v>
       </c>
@@ -12782,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>266</v>
       </c>
@@ -12868,7 +12863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>270</v>
       </c>
@@ -12948,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>268</v>
       </c>
@@ -13022,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>276</v>
       </c>
@@ -13090,7 +13085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>288</v>
       </c>
@@ -13176,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>300</v>
       </c>
@@ -13247,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>308</v>
       </c>
@@ -13321,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>312</v>
       </c>
@@ -13383,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>316</v>
       </c>
@@ -13445,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>320</v>
       </c>
@@ -13525,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>324</v>
       </c>
@@ -13611,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>624</v>
       </c>
@@ -13691,7 +13686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>328</v>
       </c>
@@ -13765,7 +13760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>332</v>
       </c>
@@ -13842,7 +13837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>332</v>
       </c>
@@ -13919,7 +13914,7 @@
       </c>
       <c r="AH119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>332</v>
       </c>
@@ -13996,7 +13991,7 @@
       </c>
       <c r="AH120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>332</v>
       </c>
@@ -14073,7 +14068,7 @@
       </c>
       <c r="AH121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>332</v>
       </c>
@@ -14150,7 +14145,7 @@
       </c>
       <c r="AH122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>332</v>
       </c>
@@ -14227,7 +14222,7 @@
       </c>
       <c r="AH123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>332</v>
       </c>
@@ -14304,7 +14299,7 @@
       </c>
       <c r="AH124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>332</v>
       </c>
@@ -14381,7 +14376,7 @@
       </c>
       <c r="AH125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>332</v>
       </c>
@@ -14458,7 +14453,7 @@
       </c>
       <c r="AH126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>332</v>
       </c>
@@ -14535,7 +14530,7 @@
       </c>
       <c r="AH127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>332</v>
       </c>
@@ -14612,7 +14607,7 @@
       </c>
       <c r="AH128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>340</v>
       </c>
@@ -14686,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>348</v>
       </c>
@@ -14757,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>352</v>
       </c>
@@ -14828,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>356</v>
       </c>
@@ -14905,7 +14900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>356</v>
       </c>
@@ -14943,7 +14938,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>356</v>
       </c>
@@ -14981,7 +14976,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>356</v>
       </c>
@@ -15019,7 +15014,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>356</v>
       </c>
@@ -15057,7 +15052,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>356</v>
       </c>
@@ -15095,7 +15090,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>356</v>
       </c>
@@ -15133,7 +15128,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>356</v>
       </c>
@@ -15171,7 +15166,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>356</v>
       </c>
@@ -15209,7 +15204,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>356</v>
       </c>
@@ -15247,7 +15242,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>356</v>
       </c>
@@ -15285,7 +15280,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>356</v>
       </c>
@@ -15323,7 +15318,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>356</v>
       </c>
@@ -15361,7 +15356,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>356</v>
       </c>
@@ -15399,7 +15394,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>356</v>
       </c>
@@ -15437,7 +15432,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>356</v>
       </c>
@@ -15475,7 +15470,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>356</v>
       </c>
@@ -15513,7 +15508,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>356</v>
       </c>
@@ -15551,7 +15546,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>356</v>
       </c>
@@ -15589,7 +15584,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>356</v>
       </c>
@@ -15627,7 +15622,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>356</v>
       </c>
@@ -15665,7 +15660,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>356</v>
       </c>
@@ -15703,7 +15698,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>356</v>
       </c>
@@ -15741,7 +15736,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>356</v>
       </c>
@@ -15779,7 +15774,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>356</v>
       </c>
@@ -15817,7 +15812,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>356</v>
       </c>
@@ -15855,7 +15850,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>356</v>
       </c>
@@ -15893,7 +15888,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>356</v>
       </c>
@@ -15931,7 +15926,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>356</v>
       </c>
@@ -15969,7 +15964,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>356</v>
       </c>
@@ -16007,7 +16002,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>356</v>
       </c>
@@ -16045,7 +16040,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>356</v>
       </c>
@@ -16083,7 +16078,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>356</v>
       </c>
@@ -16121,7 +16116,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>356</v>
       </c>
@@ -16159,7 +16154,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>356</v>
       </c>
@@ -16197,7 +16192,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>356</v>
       </c>
@@ -16235,7 +16230,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>360</v>
       </c>
@@ -16315,7 +16310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>364</v>
       </c>
@@ -16386,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>368</v>
       </c>
@@ -16457,7 +16452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>372</v>
       </c>
@@ -16528,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>376</v>
       </c>
@@ -16596,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>380</v>
       </c>
@@ -16667,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>388</v>
       </c>
@@ -16738,7 +16733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>392</v>
       </c>
@@ -16806,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>400</v>
       </c>
@@ -16880,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>398</v>
       </c>
@@ -16951,7 +16946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>404</v>
       </c>
@@ -17037,7 +17032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>404</v>
       </c>
@@ -17117,7 +17112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>404</v>
       </c>
@@ -17197,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>404</v>
       </c>
@@ -17277,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>404</v>
       </c>
@@ -17357,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>404</v>
       </c>
@@ -17437,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>404</v>
       </c>
@@ -17517,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>404</v>
       </c>
@@ -17597,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>404</v>
       </c>
@@ -17677,7 +17672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>296</v>
       </c>
@@ -17748,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>412</v>
       </c>
@@ -17820,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>414</v>
       </c>
@@ -17894,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>417</v>
       </c>
@@ -17968,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>418</v>
       </c>
@@ -18042,7 +18037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>428</v>
       </c>
@@ -18113,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>422</v>
       </c>
@@ -18187,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>426</v>
       </c>
@@ -18273,7 +18268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>430</v>
       </c>
@@ -18353,7 +18348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>434</v>
       </c>
@@ -18424,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>440</v>
       </c>
@@ -18498,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>442</v>
       </c>
@@ -18569,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>450</v>
       </c>
@@ -18655,7 +18650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>454</v>
       </c>
@@ -18741,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>458</v>
       </c>
@@ -18821,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>462</v>
       </c>
@@ -18895,7 +18890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>466</v>
       </c>
@@ -18981,7 +18976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>470</v>
       </c>
@@ -19052,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>474</v>
       </c>
@@ -19114,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>478</v>
       </c>
@@ -19194,7 +19189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>480</v>
       </c>
@@ -19268,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>175</v>
       </c>
@@ -19330,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>484</v>
       </c>
@@ -19410,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>583</v>
       </c>
@@ -19481,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>496</v>
       </c>
@@ -19561,7 +19556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>499</v>
       </c>
@@ -19635,7 +19630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>504</v>
       </c>
@@ -19712,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>508</v>
       </c>
@@ -19798,7 +19793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>508</v>
       </c>
@@ -19878,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>508</v>
       </c>
@@ -19958,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>508</v>
       </c>
@@ -20038,7 +20033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>508</v>
       </c>
@@ -20118,7 +20113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>508</v>
       </c>
@@ -20198,7 +20193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>508</v>
       </c>
@@ -20278,7 +20273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>508</v>
       </c>
@@ -20358,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>508</v>
       </c>
@@ -20438,7 +20433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>508</v>
       </c>
@@ -20518,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>508</v>
       </c>
@@ -20598,7 +20593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>508</v>
       </c>
@@ -20678,7 +20673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>104</v>
       </c>
@@ -20758,7 +20753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>516</v>
       </c>
@@ -20844,7 +20839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>524</v>
       </c>
@@ -20924,7 +20919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>528</v>
       </c>
@@ -20995,7 +20990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>540</v>
       </c>
@@ -21057,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>554</v>
       </c>
@@ -21128,7 +21123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>558</v>
       </c>
@@ -21202,7 +21197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>562</v>
       </c>
@@ -21288,7 +21283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>566</v>
       </c>
@@ -21371,7 +21366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>566</v>
       </c>
@@ -21451,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>566</v>
       </c>
@@ -21531,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>566</v>
       </c>
@@ -21611,7 +21606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>566</v>
       </c>
@@ -21691,7 +21686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>566</v>
       </c>
@@ -21771,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>566</v>
       </c>
@@ -21851,7 +21846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>566</v>
       </c>
@@ -21931,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>566</v>
       </c>
@@ -22011,7 +22006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>566</v>
       </c>
@@ -22091,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>566</v>
       </c>
@@ -22171,7 +22166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>566</v>
       </c>
@@ -22251,7 +22246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>566</v>
       </c>
@@ -22331,7 +22326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>566</v>
       </c>
@@ -22411,7 +22406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>566</v>
       </c>
@@ -22491,7 +22486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>566</v>
       </c>
@@ -22571,7 +22566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>566</v>
       </c>
@@ -22651,7 +22646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>566</v>
       </c>
@@ -22731,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>566</v>
       </c>
@@ -22811,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>566</v>
       </c>
@@ -22891,7 +22886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>566</v>
       </c>
@@ -22971,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>566</v>
       </c>
@@ -23051,7 +23046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>566</v>
       </c>
@@ -23131,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>566</v>
       </c>
@@ -23211,7 +23206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>566</v>
       </c>
@@ -23291,7 +23286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>566</v>
       </c>
@@ -23371,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>566</v>
       </c>
@@ -23451,7 +23446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>566</v>
       </c>
@@ -23531,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>566</v>
       </c>
@@ -23611,7 +23606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>566</v>
       </c>
@@ -23691,7 +23686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>566</v>
       </c>
@@ -23771,7 +23766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>566</v>
       </c>
@@ -23851,7 +23846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>566</v>
       </c>
@@ -23931,7 +23926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>566</v>
       </c>
@@ -24011,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>566</v>
       </c>
@@ -24091,7 +24086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>566</v>
       </c>
@@ -24171,7 +24166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>566</v>
       </c>
@@ -24251,7 +24246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>566</v>
       </c>
@@ -24331,7 +24326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>578</v>
       </c>
@@ -24399,7 +24394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>275</v>
       </c>
@@ -24467,7 +24462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>512</v>
       </c>
@@ -24538,7 +24533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>586</v>
       </c>
@@ -24618,7 +24613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>591</v>
       </c>
@@ -24698,7 +24693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>598</v>
       </c>
@@ -24778,7 +24773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>600</v>
       </c>
@@ -24858,7 +24853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>604</v>
       </c>
@@ -24938,7 +24933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>608</v>
       </c>
@@ -25018,7 +25013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>616</v>
       </c>
@@ -25089,7 +25084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>620</v>
       </c>
@@ -25160,7 +25155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>630</v>
       </c>
@@ -25222,7 +25217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>634</v>
       </c>
@@ -25296,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>410</v>
       </c>
@@ -25367,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>498</v>
       </c>
@@ -25441,7 +25436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>498</v>
       </c>
@@ -25517,7 +25512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>498</v>
       </c>
@@ -25593,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>638</v>
       </c>
@@ -25655,7 +25650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>642</v>
       </c>
@@ -25729,7 +25724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>643</v>
       </c>
@@ -25800,7 +25795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>646</v>
       </c>
@@ -25886,7 +25881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>659</v>
       </c>
@@ -25957,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>662</v>
       </c>
@@ -26028,7 +26023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>670</v>
       </c>
@@ -26099,7 +26094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>882</v>
       </c>
@@ -26170,13 +26165,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>5733</v>
       </c>
       <c r="B297" t="s">
         <v>520</v>
       </c>
+      <c r="C297" t="s">
+        <v>1457</v>
+      </c>
       <c r="D297">
         <v>0</v>
       </c>
@@ -26238,7 +26236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>678</v>
       </c>
@@ -26312,7 +26310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>682</v>
       </c>
@@ -26383,7 +26381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>686</v>
       </c>
@@ -26469,7 +26467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>688</v>
       </c>
@@ -26543,7 +26541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>690</v>
       </c>
@@ -26611,7 +26609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>694</v>
       </c>
@@ -26697,7 +26695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>702</v>
       </c>
@@ -26768,7 +26766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>703</v>
       </c>
@@ -26842,7 +26840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>705</v>
       </c>
@@ -26916,7 +26914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>90</v>
       </c>
@@ -26987,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>706</v>
       </c>
@@ -27064,7 +27062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>710</v>
       </c>
@@ -27150,7 +27148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>728</v>
       </c>
@@ -27230,7 +27228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>724</v>
       </c>
@@ -27298,7 +27296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>144</v>
       </c>
@@ -27372,7 +27370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>729</v>
       </c>
@@ -27446,7 +27444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>740</v>
       </c>
@@ -27517,7 +27515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>748</v>
       </c>
@@ -27603,7 +27601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>752</v>
       </c>
@@ -27671,7 +27669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>756</v>
       </c>
@@ -27739,7 +27737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>760</v>
       </c>
@@ -27813,7 +27811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>762</v>
       </c>
@@ -27887,7 +27885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>807</v>
       </c>
@@ -27961,7 +27959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>764</v>
       </c>
@@ -27978,7 +27976,7 @@
         <v>596</v>
       </c>
       <c r="G321">
-        <v>33.13</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="H321" t="s">
         <v>597</v>
@@ -28041,7 +28039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>626</v>
       </c>
@@ -28115,7 +28113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>768</v>
       </c>
@@ -28201,7 +28199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
         <v>768</v>
       </c>
@@ -28281,7 +28279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>768</v>
       </c>
@@ -28361,7 +28359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
         <v>768</v>
       </c>
@@ -28441,7 +28439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>768</v>
       </c>
@@ -28521,7 +28519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>768</v>
       </c>
@@ -28601,7 +28599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>768</v>
       </c>
@@ -28681,7 +28679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>776</v>
       </c>
@@ -28752,7 +28750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>780</v>
       </c>
@@ -28826,7 +28824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>788</v>
       </c>
@@ -28903,7 +28901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>792</v>
       </c>
@@ -28974,7 +28972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>795</v>
       </c>
@@ -29045,7 +29043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>800</v>
       </c>
@@ -29131,7 +29129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>800</v>
       </c>
@@ -29211,7 +29209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>800</v>
       </c>
@@ -29291,7 +29289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>800</v>
       </c>
@@ -29371,7 +29369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>800</v>
       </c>
@@ -29451,7 +29449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>800</v>
       </c>
@@ -29531,7 +29529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>800</v>
       </c>
@@ -29611,7 +29609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>800</v>
       </c>
@@ -29691,7 +29689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>800</v>
       </c>
@@ -29771,7 +29769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
         <v>800</v>
       </c>
@@ -29851,7 +29849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>804</v>
       </c>
@@ -29922,7 +29920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>784</v>
       </c>
@@ -29993,7 +29991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>826</v>
       </c>
@@ -30061,7 +30059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>834</v>
       </c>
@@ -30147,7 +30145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>834</v>
       </c>
@@ -30227,7 +30225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>834</v>
       </c>
@@ -30307,7 +30305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>834</v>
       </c>
@@ -30387,7 +30385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
         <v>834</v>
       </c>
@@ -30467,7 +30465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>834</v>
       </c>
@@ -30547,7 +30545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
         <v>834</v>
       </c>
@@ -30627,7 +30625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>834</v>
       </c>
@@ -30707,7 +30705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
         <v>834</v>
       </c>
@@ -30787,7 +30785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>834</v>
       </c>
@@ -30867,7 +30865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
         <v>834</v>
       </c>
@@ -30947,7 +30945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>834</v>
       </c>
@@ -31027,7 +31025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
         <v>834</v>
       </c>
@@ -31107,7 +31105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <v>834</v>
       </c>
@@ -31187,7 +31185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
         <v>834</v>
       </c>
@@ -31267,7 +31265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <v>834</v>
       </c>
@@ -31347,7 +31345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
         <v>834</v>
       </c>
@@ -31427,7 +31425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <v>834</v>
       </c>
@@ -31507,7 +31505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
         <v>834</v>
       </c>
@@ -31587,7 +31585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <v>834</v>
       </c>
@@ -31667,7 +31665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
         <v>834</v>
       </c>
@@ -31747,7 +31745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <v>834</v>
       </c>
@@ -31827,7 +31825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
         <v>834</v>
       </c>
@@ -31907,7 +31905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <v>834</v>
       </c>
@@ -31987,7 +31985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
         <v>834</v>
       </c>
@@ -32067,7 +32065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <v>834</v>
       </c>
@@ -32147,7 +32145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
         <v>834</v>
       </c>
@@ -32227,7 +32225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <v>834</v>
       </c>
@@ -32307,7 +32305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>840</v>
       </c>
@@ -32372,7 +32370,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>850</v>
       </c>
@@ -32431,7 +32429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>858</v>
       </c>
@@ -32505,7 +32503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>860</v>
       </c>
@@ -32576,7 +32574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>548</v>
       </c>
@@ -32644,7 +32642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>862</v>
       </c>
@@ -32715,7 +32713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>704</v>
       </c>
@@ -32792,7 +32790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>732</v>
       </c>
@@ -32854,7 +32852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>887</v>
       </c>
@@ -32928,7 +32926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>894</v>
       </c>
@@ -33014,7 +33012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
         <v>894</v>
       </c>
@@ -33094,7 +33092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <v>894</v>
       </c>
@@ -33174,7 +33172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
         <v>894</v>
       </c>
@@ -33254,7 +33252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <v>894</v>
       </c>
@@ -33334,7 +33332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
         <v>894</v>
       </c>
@@ -33414,7 +33412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <v>894</v>
       </c>
@@ -33494,7 +33492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
         <v>894</v>
       </c>
@@ -33574,7 +33572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <v>894</v>
       </c>
@@ -33654,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
         <v>894</v>
       </c>
@@ -33734,7 +33732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <v>894</v>
       </c>
@@ -33814,7 +33812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>716</v>
       </c>
@@ -33900,7 +33898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <v>716</v>
       </c>
@@ -33980,7 +33978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
         <v>716</v>
       </c>
@@ -34060,7 +34058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
         <v>716</v>
       </c>
@@ -34140,7 +34138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
         <v>716</v>
       </c>
@@ -34220,7 +34218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
         <v>716</v>
       </c>
@@ -34300,7 +34298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
         <v>716</v>
       </c>
@@ -34380,7 +34378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
         <v>716</v>
       </c>
@@ -34460,7 +34458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
         <v>716</v>
       </c>
@@ -34540,7 +34538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
         <v>716</v>
       </c>
@@ -34620,7 +34618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
         <v>716</v>
       </c>
@@ -34702,26 +34700,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup usePrinterDefaults="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="52.1796875" customWidth="1"/>
     <col min="3" max="4" width="73.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>668</v>
       </c>
@@ -34735,7 +34732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>903</v>
       </c>
@@ -34749,7 +34746,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>935</v>
       </c>
@@ -34763,7 +34760,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>927</v>
       </c>
@@ -34777,7 +34774,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>915</v>
       </c>
@@ -34791,7 +34788,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>916</v>
       </c>
@@ -34805,7 +34802,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5500</v>
       </c>
@@ -34819,7 +34816,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>910</v>
       </c>
@@ -34833,7 +34830,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1832</v>
       </c>
@@ -34847,7 +34844,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>906</v>
       </c>
@@ -34861,7 +34858,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>923</v>
       </c>
@@ -34875,7 +34872,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>908</v>
       </c>
@@ -34889,7 +34886,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1829</v>
       </c>
@@ -34903,7 +34900,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1503</v>
       </c>
@@ -34917,7 +34914,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>904</v>
       </c>
@@ -34931,7 +34928,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>941</v>
       </c>
@@ -34945,7 +34942,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>902</v>
       </c>
@@ -34959,7 +34956,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>948</v>
       </c>
@@ -34973,7 +34970,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>934</v>
       </c>
@@ -34987,7 +34984,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1501</v>
       </c>
@@ -35001,7 +34998,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -35015,7 +35012,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>928</v>
       </c>
@@ -35029,7 +35026,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>954</v>
       </c>
@@ -35043,7 +35040,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>911</v>
       </c>
@@ -35057,7 +35054,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1517</v>
       </c>
@@ -35071,7 +35068,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>901</v>
       </c>
@@ -35085,7 +35082,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1518</v>
       </c>
@@ -35099,7 +35096,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>912</v>
       </c>
@@ -35113,7 +35110,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>905</v>
       </c>
@@ -35127,7 +35124,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1833</v>
       </c>
@@ -35141,7 +35138,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>924</v>
       </c>
@@ -35155,7 +35152,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1835</v>
       </c>
@@ -35169,7 +35166,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>909</v>
       </c>
@@ -35183,7 +35180,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>957</v>
       </c>
@@ -35197,7 +35194,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>931</v>
       </c>
@@ -35211,7 +35208,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5501</v>
       </c>
@@ -35225,7 +35222,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1831</v>
       </c>
@@ -35239,7 +35236,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>920</v>
       </c>
@@ -35253,7 +35250,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>913</v>
       </c>
@@ -35267,7 +35264,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>925</v>
       </c>
@@ -35281,7 +35278,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1834</v>
       </c>
@@ -35295,7 +35292,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1502</v>
       </c>
@@ -35309,7 +35306,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>914</v>
       </c>
@@ -35323,7 +35320,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>922</v>
       </c>
@@ -35337,7 +35334,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>926</v>
       </c>
@@ -35351,7 +35348,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>900</v>
       </c>
@@ -35367,23 +35364,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="flId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.453125" customWidth="1"/>
     <col min="2" max="2" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>703</v>
       </c>
@@ -35391,7 +35388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>31100</v>
       </c>
@@ -35399,7 +35396,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>31101</v>
       </c>
@@ -35407,7 +35404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>31102</v>
       </c>
@@ -35415,7 +35412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>31103</v>
       </c>
@@ -35423,7 +35420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>31104</v>
       </c>
@@ -35431,7 +35428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>31105</v>
       </c>
@@ -35439,7 +35436,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>31106</v>
       </c>
@@ -35447,7 +35444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>31107</v>
       </c>
@@ -35455,7 +35452,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>31108</v>
       </c>
@@ -35463,7 +35460,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>31109</v>
       </c>
@@ -35471,7 +35468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>31110</v>
       </c>
@@ -35479,7 +35476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>31111</v>
       </c>
@@ -35487,7 +35484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>31112</v>
       </c>
@@ -35495,7 +35492,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>31113</v>
       </c>
@@ -35503,7 +35500,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>31114</v>
       </c>
@@ -35511,7 +35508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>31115</v>
       </c>
@@ -35519,7 +35516,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>31116</v>
       </c>
@@ -35527,7 +35524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>31117</v>
       </c>
@@ -35535,7 +35532,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>31118</v>
       </c>
@@ -35543,7 +35540,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>31119</v>
       </c>
@@ -35551,7 +35548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>31120</v>
       </c>
@@ -35561,19 +35558,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="flId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>670</v>
       </c>
@@ -35581,7 +35578,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -35661,7 +35658,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>686</v>
       </c>
@@ -35669,79 +35666,79 @@
         <v>124</v>
       </c>
       <c r="C3">
-        <v>0.017950172</v>
+        <v>1.7950172E-2</v>
       </c>
       <c r="D3">
-        <v>0.028451617</v>
+        <v>2.8451616999999998E-2</v>
       </c>
       <c r="E3">
-        <v>0.038953062</v>
+        <v>3.8953061999999997E-2</v>
       </c>
       <c r="F3">
-        <v>0.049454507</v>
+        <v>4.9454507000000002E-2</v>
       </c>
       <c r="G3">
-        <v>0.059955951</v>
+        <v>5.9955951E-2</v>
       </c>
       <c r="H3">
-        <v>0.070457396</v>
+        <v>7.0457396000000005E-2</v>
       </c>
       <c r="I3">
-        <v>0.086209564</v>
+        <v>8.6209564000000002E-2</v>
       </c>
       <c r="J3">
         <v>0.107212453</v>
       </c>
       <c r="K3">
-        <v>0.128215343</v>
+        <v>0.12821534300000001</v>
       </c>
       <c r="L3">
-        <v>0.149218233</v>
+        <v>0.14921823300000001</v>
       </c>
       <c r="M3">
         <v>0.170221123</v>
       </c>
       <c r="N3">
-        <v>0.196474735</v>
+        <v>0.19647473500000001</v>
       </c>
       <c r="O3">
-        <v>0.018761085</v>
+        <v>1.8761085E-2</v>
       </c>
       <c r="P3">
-        <v>0.029412012</v>
+        <v>2.9412012000000001E-2</v>
       </c>
       <c r="Q3">
-        <v>0.040062939</v>
+        <v>4.0062938999999999E-2</v>
       </c>
       <c r="R3">
-        <v>0.050713866</v>
+        <v>5.0713866000000003E-2</v>
       </c>
       <c r="S3">
-        <v>0.061364793</v>
+        <v>6.1364793000000001E-2</v>
       </c>
       <c r="T3">
-        <v>0.07201572</v>
+        <v>7.2015720000000005E-2</v>
       </c>
       <c r="U3">
-        <v>0.087992111</v>
+        <v>8.7992110999999998E-2</v>
       </c>
       <c r="V3">
-        <v>0.109293964</v>
+        <v>0.10929396399999999</v>
       </c>
       <c r="W3">
         <v>0.130595818</v>
       </c>
       <c r="X3">
-        <v>0.151897672</v>
+        <v>0.15189767200000001</v>
       </c>
       <c r="Y3">
-        <v>0.173199526</v>
+        <v>0.17319952599999999</v>
       </c>
       <c r="Z3">
         <v>0.199826844</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>687</v>
       </c>
@@ -35749,64 +35746,64 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>0.031003078</v>
+        <v>3.1003078E-2</v>
       </c>
       <c r="D4">
-        <v>0.044371762</v>
+        <v>4.4371762000000002E-2</v>
       </c>
       <c r="E4">
-        <v>0.057740447</v>
+        <v>5.7740447E-2</v>
       </c>
       <c r="F4">
-        <v>0.071109132</v>
+        <v>7.1109132000000005E-2</v>
       </c>
       <c r="G4">
-        <v>0.084477817</v>
+        <v>8.4477816999999997E-2</v>
       </c>
       <c r="H4">
-        <v>0.097846502</v>
+        <v>9.7846502000000002E-2</v>
       </c>
       <c r="I4">
         <v>0.117899529</v>
       </c>
       <c r="J4">
-        <v>0.144636898</v>
+        <v>0.14463689800000001</v>
       </c>
       <c r="K4">
         <v>0.171374268</v>
       </c>
       <c r="L4">
-        <v>0.198111637</v>
+        <v>0.19811163700000001</v>
       </c>
       <c r="M4">
-        <v>0.224849007</v>
+        <v>0.22484900699999999</v>
       </c>
       <c r="N4">
-        <v>0.258270719</v>
+        <v>0.25827071899999998</v>
       </c>
       <c r="O4">
-        <v>0.034381024</v>
+        <v>3.4381024000000003E-2</v>
       </c>
       <c r="P4">
-        <v>0.047372732</v>
+        <v>4.7372732000000001E-2</v>
       </c>
       <c r="Q4">
-        <v>0.06036444</v>
+        <v>6.0364439999999998E-2</v>
       </c>
       <c r="R4">
-        <v>0.073356148</v>
+        <v>7.3356147999999996E-2</v>
       </c>
       <c r="S4">
-        <v>0.086347856</v>
+        <v>8.6347856000000001E-2</v>
       </c>
       <c r="T4">
-        <v>0.099339564</v>
+        <v>9.9339564000000005E-2</v>
       </c>
       <c r="U4">
-        <v>0.118827126</v>
+        <v>0.11882712600000001</v>
       </c>
       <c r="V4">
-        <v>0.144810542</v>
+        <v>0.14481054199999999</v>
       </c>
       <c r="W4">
         <v>0.170793958</v>
@@ -35815,13 +35812,13 @@
         <v>0.196777374</v>
       </c>
       <c r="Y4">
-        <v>0.22276079</v>
+        <v>0.22276078999999999</v>
       </c>
       <c r="Z4">
-        <v>0.25524006</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.25524005999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>688</v>
       </c>
@@ -35829,79 +35826,79 @@
         <v>163</v>
       </c>
       <c r="C5">
-        <v>0.025336837</v>
+        <v>2.5336837000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.036289687</v>
+        <v>3.6289687000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0.047242538</v>
+        <v>4.7242538000000001E-2</v>
       </c>
       <c r="F5">
-        <v>0.058195388</v>
+        <v>5.8195388000000001E-2</v>
       </c>
       <c r="G5">
-        <v>0.069148239</v>
+        <v>6.9148239E-2</v>
       </c>
       <c r="H5">
-        <v>0.080101089</v>
+        <v>8.0101089E-2</v>
       </c>
       <c r="I5">
-        <v>0.096530365</v>
+        <v>9.6530365000000007E-2</v>
       </c>
       <c r="J5">
-        <v>0.118436066</v>
+        <v>0.11843606600000001</v>
       </c>
       <c r="K5">
-        <v>0.140341767</v>
+        <v>0.14034176700000001</v>
       </c>
       <c r="L5">
-        <v>0.162247468</v>
+        <v>0.16224746800000001</v>
       </c>
       <c r="M5">
-        <v>0.184153169</v>
+        <v>0.18415316900000001</v>
       </c>
       <c r="N5">
-        <v>0.211535295</v>
+        <v>0.21153529500000001</v>
       </c>
       <c r="O5">
-        <v>0.022542375</v>
+        <v>2.2542375E-2</v>
       </c>
       <c r="P5">
-        <v>0.033223636</v>
+        <v>3.3223636000000001E-2</v>
       </c>
       <c r="Q5">
-        <v>0.043904897</v>
+        <v>4.3904896999999998E-2</v>
       </c>
       <c r="R5">
-        <v>0.054586157</v>
+        <v>5.4586157000000003E-2</v>
       </c>
       <c r="S5">
-        <v>0.065267418</v>
+        <v>6.5267417999999994E-2</v>
       </c>
       <c r="T5">
-        <v>0.075948679</v>
+        <v>7.5948679000000005E-2</v>
       </c>
       <c r="U5">
-        <v>0.09197057</v>
+        <v>9.1970570000000001E-2</v>
       </c>
       <c r="V5">
         <v>0.113333091</v>
       </c>
       <c r="W5">
-        <v>0.134695612</v>
+        <v>0.13469561199999999</v>
       </c>
       <c r="X5">
-        <v>0.156058134</v>
+        <v>0.15605813399999999</v>
       </c>
       <c r="Y5">
-        <v>0.177420655</v>
+        <v>0.17742065500000001</v>
       </c>
       <c r="Z5">
-        <v>0.204123807</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.20412380699999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>689</v>
       </c>
@@ -35909,19 +35906,19 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>0.038096154</v>
+        <v>3.8096154E-2</v>
       </c>
       <c r="D6">
-        <v>0.053409444</v>
+        <v>5.3409444E-2</v>
       </c>
       <c r="E6">
-        <v>0.068722733</v>
+        <v>6.8722732999999994E-2</v>
       </c>
       <c r="F6">
-        <v>0.084036023</v>
+        <v>8.4036023000000001E-2</v>
       </c>
       <c r="G6">
-        <v>0.099349313</v>
+        <v>9.9349312999999995E-2</v>
       </c>
       <c r="H6">
         <v>0.114662602</v>
@@ -35930,31 +35927,31 @@
         <v>0.137632537</v>
       </c>
       <c r="J6">
-        <v>0.168259116</v>
+        <v>0.16825911599999999</v>
       </c>
       <c r="K6">
         <v>0.198885696</v>
       </c>
       <c r="L6">
-        <v>0.229512275</v>
+        <v>0.22951227499999999</v>
       </c>
       <c r="M6">
-        <v>0.260138854</v>
+        <v>0.26013885399999997</v>
       </c>
       <c r="N6">
-        <v>0.298422079</v>
+        <v>0.29842207900000001</v>
       </c>
       <c r="O6">
-        <v>0.042669197</v>
+        <v>4.2669196999999999E-2</v>
       </c>
       <c r="P6">
-        <v>0.057781166</v>
+        <v>5.7781166000000002E-2</v>
       </c>
       <c r="Q6">
-        <v>0.072893136</v>
+        <v>7.2893135999999997E-2</v>
       </c>
       <c r="R6">
-        <v>0.088005106</v>
+        <v>8.8005106E-2</v>
       </c>
       <c r="S6">
         <v>0.103117075</v>
@@ -35963,7 +35960,7 @@
         <v>0.118229045</v>
       </c>
       <c r="U6">
-        <v>0.140896999</v>
+        <v>0.14089699899999999</v>
       </c>
       <c r="V6">
         <v>0.171120939</v>
@@ -35972,16 +35969,16 @@
         <v>0.201344878</v>
       </c>
       <c r="X6">
-        <v>0.231568817</v>
+        <v>0.23156881700000001</v>
       </c>
       <c r="Y6">
-        <v>0.261792756</v>
+        <v>0.26179275600000002</v>
       </c>
       <c r="Z6">
-        <v>0.29957268</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.29957267999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>690</v>
       </c>
@@ -35989,55 +35986,55 @@
         <v>137</v>
       </c>
       <c r="C7">
-        <v>0.033563088</v>
+        <v>3.3563087999999998E-2</v>
       </c>
       <c r="D7">
-        <v>0.047287214</v>
+        <v>4.7287214000000001E-2</v>
       </c>
       <c r="E7">
-        <v>0.061011339</v>
+        <v>6.1011338999999998E-2</v>
       </c>
       <c r="F7">
-        <v>0.074735464</v>
+        <v>7.4735464000000001E-2</v>
       </c>
       <c r="G7">
-        <v>0.088459589</v>
+        <v>8.8459589000000005E-2</v>
       </c>
       <c r="H7">
-        <v>0.102183714</v>
+        <v>0.10218371399999999</v>
       </c>
       <c r="I7">
         <v>0.122769901</v>
       </c>
       <c r="J7">
-        <v>0.150218151</v>
+        <v>0.15021815099999999</v>
       </c>
       <c r="K7">
         <v>0.177666402</v>
       </c>
       <c r="L7">
-        <v>0.205114652</v>
+        <v>0.20511465200000001</v>
       </c>
       <c r="M7">
-        <v>0.232562902</v>
+        <v>0.23256290199999999</v>
       </c>
       <c r="N7">
-        <v>0.266873214</v>
+        <v>0.26687321400000003</v>
       </c>
       <c r="O7">
-        <v>0.031125096</v>
+        <v>3.1125096000000001E-2</v>
       </c>
       <c r="P7">
-        <v>0.04498853</v>
+        <v>4.4988529999999999E-2</v>
       </c>
       <c r="Q7">
-        <v>0.058851965</v>
+        <v>5.8851964999999999E-2</v>
       </c>
       <c r="R7">
-        <v>0.072715399</v>
+        <v>7.2715399E-2</v>
       </c>
       <c r="S7">
-        <v>0.086578833</v>
+        <v>8.6578832999999994E-2</v>
       </c>
       <c r="T7">
         <v>0.100442268</v>
@@ -36049,19 +36046,19 @@
         <v>0.148964289</v>
       </c>
       <c r="W7">
-        <v>0.176691158</v>
+        <v>0.17669115799999999</v>
       </c>
       <c r="X7">
         <v>0.204418027</v>
       </c>
       <c r="Y7">
-        <v>0.232144896</v>
+        <v>0.23214489599999999</v>
       </c>
       <c r="Z7">
-        <v>0.266803482</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.26680348199999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -36069,79 +36066,79 @@
         <v>66</v>
       </c>
       <c r="C8">
-        <v>0.021689887</v>
+        <v>2.1689887000000001E-2</v>
       </c>
       <c r="D8">
-        <v>0.033993712</v>
+        <v>3.3993712000000002E-2</v>
       </c>
       <c r="E8">
-        <v>0.046297536</v>
+        <v>4.6297536E-2</v>
       </c>
       <c r="F8">
-        <v>0.05860136</v>
+        <v>5.8601359999999998E-2</v>
       </c>
       <c r="G8">
-        <v>0.070905184</v>
+        <v>7.0905183999999996E-2</v>
       </c>
       <c r="H8">
-        <v>0.083209008</v>
+        <v>8.3209008000000001E-2</v>
       </c>
       <c r="I8">
         <v>0.101664744</v>
       </c>
       <c r="J8">
-        <v>0.126272393</v>
+        <v>0.12627239300000001</v>
       </c>
       <c r="K8">
-        <v>0.150880041</v>
+        <v>0.15088004099999999</v>
       </c>
       <c r="L8">
         <v>0.175487689</v>
       </c>
       <c r="M8">
-        <v>0.200095337</v>
+        <v>0.20009533700000001</v>
       </c>
       <c r="N8">
         <v>0.230854898</v>
       </c>
       <c r="O8">
-        <v>0.022745659</v>
+        <v>2.2745659000000001E-2</v>
       </c>
       <c r="P8">
-        <v>0.035300034</v>
+        <v>3.5300034000000001E-2</v>
       </c>
       <c r="Q8">
-        <v>0.047854408</v>
+        <v>4.7854408000000001E-2</v>
       </c>
       <c r="R8">
-        <v>0.060408783</v>
+        <v>6.0408783000000001E-2</v>
       </c>
       <c r="S8">
-        <v>0.072963157</v>
+        <v>7.2963157000000001E-2</v>
       </c>
       <c r="T8">
-        <v>0.085517532</v>
+        <v>8.5517531999999993E-2</v>
       </c>
       <c r="U8">
         <v>0.104349093</v>
       </c>
       <c r="V8">
-        <v>0.129457842</v>
+        <v>0.12945784199999999</v>
       </c>
       <c r="W8">
         <v>0.154566591</v>
       </c>
       <c r="X8">
-        <v>0.179675341</v>
+        <v>0.17967534099999999</v>
       </c>
       <c r="Y8">
         <v>0.20478409</v>
       </c>
       <c r="Z8">
-        <v>0.236170026</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.23617002600000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -36149,79 +36146,79 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>0.045956355</v>
+        <v>4.5956354999999997E-2</v>
       </c>
       <c r="D9">
-        <v>0.061179053</v>
+        <v>6.1179052999999997E-2</v>
       </c>
       <c r="E9">
-        <v>0.076401752</v>
+        <v>7.6401752000000003E-2</v>
       </c>
       <c r="F9">
-        <v>0.091624451</v>
+        <v>9.1624450999999996E-2</v>
       </c>
       <c r="G9">
         <v>0.106847149</v>
       </c>
       <c r="H9">
-        <v>0.122069848</v>
+        <v>0.12206984799999999</v>
       </c>
       <c r="I9">
         <v>0.144903896</v>
       </c>
       <c r="J9">
-        <v>0.175349293</v>
+        <v>0.17534929299999999</v>
       </c>
       <c r="K9">
         <v>0.20579469</v>
       </c>
       <c r="L9">
-        <v>0.236240088</v>
+        <v>0.23624008799999999</v>
       </c>
       <c r="M9">
         <v>0.266685485</v>
       </c>
       <c r="N9">
-        <v>0.304742231</v>
+        <v>0.30474223099999997</v>
       </c>
       <c r="O9">
-        <v>0.048051175</v>
+        <v>4.8051175000000002E-2</v>
       </c>
       <c r="P9">
-        <v>0.062052373</v>
+        <v>6.2052373000000001E-2</v>
       </c>
       <c r="Q9">
-        <v>0.07605357</v>
+        <v>7.6053570000000001E-2</v>
       </c>
       <c r="R9">
-        <v>0.090054767</v>
+        <v>9.0054766999999994E-2</v>
       </c>
       <c r="S9">
         <v>0.104055964</v>
       </c>
       <c r="T9">
-        <v>0.118057161</v>
+        <v>0.11805716099999999</v>
       </c>
       <c r="U9">
-        <v>0.139058957</v>
+        <v>0.13905895700000001</v>
       </c>
       <c r="V9">
         <v>0.167061352</v>
       </c>
       <c r="W9">
-        <v>0.195063746</v>
+        <v>0.19506374600000001</v>
       </c>
       <c r="X9">
         <v>0.22306614</v>
       </c>
       <c r="Y9">
-        <v>0.251068535</v>
+        <v>0.25106853499999998</v>
       </c>
       <c r="Z9">
-        <v>0.286071528</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.28607152800000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>691</v>
       </c>
@@ -36229,61 +36226,61 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>0.027863054</v>
+        <v>2.7863054000000002E-2</v>
       </c>
       <c r="D10">
-        <v>0.041703515</v>
+        <v>4.1703514999999997E-2</v>
       </c>
       <c r="E10">
-        <v>0.055543975</v>
+        <v>5.5543975000000002E-2</v>
       </c>
       <c r="F10">
-        <v>0.069384436</v>
+        <v>6.9384435999999994E-2</v>
       </c>
       <c r="G10">
-        <v>0.083224896</v>
+        <v>8.3224896000000007E-2</v>
       </c>
       <c r="H10">
-        <v>0.097065357</v>
+        <v>9.7065357000000005E-2</v>
       </c>
       <c r="I10">
         <v>0.117826047</v>
       </c>
       <c r="J10">
-        <v>0.145506968</v>
+        <v>0.14550696799999999</v>
       </c>
       <c r="K10">
-        <v>0.173187889</v>
+        <v>0.17318788900000001</v>
       </c>
       <c r="L10">
-        <v>0.20086881</v>
+        <v>0.20086881000000001</v>
       </c>
       <c r="M10">
-        <v>0.228549731</v>
+        <v>0.22854973100000001</v>
       </c>
       <c r="N10">
-        <v>0.263150882</v>
+        <v>0.26315088199999997</v>
       </c>
       <c r="O10">
-        <v>0.025109324</v>
+        <v>2.5109323999999999E-2</v>
       </c>
       <c r="P10">
-        <v>0.038458959</v>
+        <v>3.8458959000000001E-2</v>
       </c>
       <c r="Q10">
-        <v>0.051808594</v>
+        <v>5.1808593999999999E-2</v>
       </c>
       <c r="R10">
-        <v>0.06515823</v>
+        <v>6.5158229999999998E-2</v>
       </c>
       <c r="S10">
-        <v>0.078507865</v>
+        <v>7.8507864999999996E-2</v>
       </c>
       <c r="T10">
-        <v>0.0918575</v>
+        <v>9.1857499999999995E-2</v>
       </c>
       <c r="U10">
-        <v>0.111881953</v>
+        <v>0.11188195300000001</v>
       </c>
       <c r="V10">
         <v>0.138581224</v>
@@ -36295,13 +36292,13 @@
         <v>0.191979766</v>
       </c>
       <c r="Y10">
-        <v>0.218679036</v>
+        <v>0.21867903599999999</v>
       </c>
       <c r="Z10">
-        <v>0.252053125</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.25205312499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>692</v>
       </c>
@@ -36309,19 +36306,19 @@
         <v>92</v>
       </c>
       <c r="C11">
-        <v>0.034940372</v>
+        <v>3.4940371999999997E-2</v>
       </c>
       <c r="D11">
-        <v>0.04853252</v>
+        <v>4.8532520000000003E-2</v>
       </c>
       <c r="E11">
-        <v>0.062124669</v>
+        <v>6.2124669E-2</v>
       </c>
       <c r="F11">
-        <v>0.075716817</v>
+        <v>7.5716817000000006E-2</v>
       </c>
       <c r="G11">
-        <v>0.089308966</v>
+        <v>8.9308966000000004E-2</v>
       </c>
       <c r="H11">
         <v>0.102901114</v>
@@ -36333,55 +36330,55 @@
         <v>0.150473634</v>
       </c>
       <c r="K11">
-        <v>0.177657931</v>
+        <v>0.17765793099999999</v>
       </c>
       <c r="L11">
-        <v>0.204842228</v>
+        <v>0.20484222799999999</v>
       </c>
       <c r="M11">
-        <v>0.232026524</v>
+        <v>0.23202652400000001</v>
       </c>
       <c r="N11">
-        <v>0.266006896</v>
+        <v>0.26600689599999999</v>
       </c>
       <c r="O11">
-        <v>0.029936845</v>
+        <v>2.9936845E-2</v>
       </c>
       <c r="P11">
-        <v>0.042734446</v>
+        <v>4.2734446000000002E-2</v>
       </c>
       <c r="Q11">
-        <v>0.055532047</v>
+        <v>5.5532047000000001E-2</v>
       </c>
       <c r="R11">
-        <v>0.068329648</v>
+        <v>6.8329648000000007E-2</v>
       </c>
       <c r="S11">
-        <v>0.081127249</v>
+        <v>8.1127248999999999E-2</v>
       </c>
       <c r="T11">
-        <v>0.09392485</v>
+        <v>9.3924850000000004E-2</v>
       </c>
       <c r="U11">
-        <v>0.113121251</v>
+        <v>0.11312125100000001</v>
       </c>
       <c r="V11">
-        <v>0.138716453</v>
+        <v>0.13871645299999999</v>
       </c>
       <c r="W11">
         <v>0.164311654</v>
       </c>
       <c r="X11">
-        <v>0.189906856</v>
+        <v>0.18990685600000001</v>
       </c>
       <c r="Y11">
         <v>0.215502058</v>
       </c>
       <c r="Z11">
-        <v>0.24749606</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.24749605999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>693</v>
       </c>
@@ -36389,58 +36386,58 @@
         <v>72</v>
       </c>
       <c r="C12">
-        <v>0.020538446</v>
+        <v>2.0538445999999998E-2</v>
       </c>
       <c r="D12">
-        <v>0.033189611</v>
+        <v>3.3189611000000001E-2</v>
       </c>
       <c r="E12">
-        <v>0.045840775</v>
+        <v>4.5840775E-2</v>
       </c>
       <c r="F12">
-        <v>0.05849194</v>
+        <v>5.8491939999999999E-2</v>
       </c>
       <c r="G12">
-        <v>0.071143104</v>
+        <v>7.1143103999999999E-2</v>
       </c>
       <c r="H12">
-        <v>0.083794269</v>
+        <v>8.3794269000000005E-2</v>
       </c>
       <c r="I12">
-        <v>0.102771016</v>
+        <v>0.10277101600000001</v>
       </c>
       <c r="J12">
-        <v>0.128073344</v>
+        <v>0.12807334400000001</v>
       </c>
       <c r="K12">
-        <v>0.153375673</v>
+        <v>0.15337567299999999</v>
       </c>
       <c r="L12">
         <v>0.178678002</v>
       </c>
       <c r="M12">
-        <v>0.203980331</v>
+        <v>0.20398033099999999</v>
       </c>
       <c r="N12">
-        <v>0.235608243</v>
+        <v>0.23560824299999999</v>
       </c>
       <c r="O12">
-        <v>0.022021964</v>
+        <v>2.2021964000000002E-2</v>
       </c>
       <c r="P12">
-        <v>0.034744973</v>
+        <v>3.4744972999999998E-2</v>
       </c>
       <c r="Q12">
-        <v>0.047467981</v>
+        <v>4.7467980999999999E-2</v>
       </c>
       <c r="R12">
-        <v>0.06019099</v>
+        <v>6.019099E-2</v>
       </c>
       <c r="S12">
-        <v>0.072913999</v>
+        <v>7.2913998999999993E-2</v>
       </c>
       <c r="T12">
-        <v>0.085637008</v>
+        <v>8.5637008000000001E-2</v>
       </c>
       <c r="U12">
         <v>0.104721521</v>
@@ -36449,19 +36446,19 @@
         <v>0.130167539</v>
       </c>
       <c r="W12">
-        <v>0.155613557</v>
+        <v>0.15561355700000001</v>
       </c>
       <c r="X12">
         <v>0.181059574</v>
       </c>
       <c r="Y12">
-        <v>0.206505592</v>
+        <v>0.20650559199999999</v>
       </c>
       <c r="Z12">
-        <v>0.238313114</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.23831311399999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>694</v>
       </c>
@@ -36469,19 +36466,19 @@
         <v>108</v>
       </c>
       <c r="C13">
-        <v>0.038826988</v>
+        <v>3.8826988E-2</v>
       </c>
       <c r="D13">
-        <v>0.051610845</v>
+        <v>5.1610845000000002E-2</v>
       </c>
       <c r="E13">
-        <v>0.064394702</v>
+        <v>6.4394701999999998E-2</v>
       </c>
       <c r="F13">
-        <v>0.07717856</v>
+        <v>7.7178559999999993E-2</v>
       </c>
       <c r="G13">
-        <v>0.089962417</v>
+        <v>8.9962417000000003E-2</v>
       </c>
       <c r="H13">
         <v>0.102746274</v>
@@ -36490,34 +36487,34 @@
         <v>0.12192206</v>
       </c>
       <c r="J13">
-        <v>0.147489774</v>
+        <v>0.14748977399999999</v>
       </c>
       <c r="K13">
-        <v>0.173057489</v>
+        <v>0.17305748900000001</v>
       </c>
       <c r="L13">
         <v>0.198625203</v>
       </c>
       <c r="M13">
-        <v>0.224192918</v>
+        <v>0.22419291799999999</v>
       </c>
       <c r="N13">
         <v>0.256152561</v>
       </c>
       <c r="O13">
-        <v>0.036088505</v>
+        <v>3.6088505E-2</v>
       </c>
       <c r="P13">
-        <v>0.049281858</v>
+        <v>4.9281857999999998E-2</v>
       </c>
       <c r="Q13">
-        <v>0.062475212</v>
+        <v>6.2475212000000002E-2</v>
       </c>
       <c r="R13">
-        <v>0.075668566</v>
+        <v>7.5668566000000007E-2</v>
       </c>
       <c r="S13">
-        <v>0.08886192</v>
+        <v>8.8861919999999997E-2</v>
       </c>
       <c r="T13">
         <v>0.102055274</v>
@@ -36529,19 +36526,19 @@
         <v>0.148232012</v>
       </c>
       <c r="W13">
-        <v>0.17461872</v>
+        <v>0.17461872000000001</v>
       </c>
       <c r="X13">
-        <v>0.201005428</v>
+        <v>0.20100542800000001</v>
       </c>
       <c r="Y13">
         <v>0.227392135</v>
       </c>
       <c r="Z13">
-        <v>0.26037552</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.26037552000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>695</v>
       </c>
@@ -36549,67 +36546,67 @@
         <v>176</v>
       </c>
       <c r="C14">
-        <v>0.029709166</v>
+        <v>2.9709165999999999E-2</v>
       </c>
       <c r="D14">
-        <v>0.042101131</v>
+        <v>4.2101131E-2</v>
       </c>
       <c r="E14">
-        <v>0.054493095</v>
+        <v>5.4493094999999998E-2</v>
       </c>
       <c r="F14">
-        <v>0.066885059</v>
+        <v>6.6885058999999997E-2</v>
       </c>
       <c r="G14">
-        <v>0.079277024</v>
+        <v>7.9277024000000001E-2</v>
       </c>
       <c r="H14">
-        <v>0.091668988</v>
+        <v>9.1668988000000007E-2</v>
       </c>
       <c r="I14">
         <v>0.110256934</v>
       </c>
       <c r="J14">
-        <v>0.135040863</v>
+        <v>0.13504086300000001</v>
       </c>
       <c r="K14">
-        <v>0.159824791</v>
+        <v>0.15982479099999999</v>
       </c>
       <c r="L14">
         <v>0.18460872</v>
       </c>
       <c r="M14">
-        <v>0.209392649</v>
+        <v>0.20939264899999999</v>
       </c>
       <c r="N14">
-        <v>0.240372559</v>
+        <v>0.24037255900000001</v>
       </c>
       <c r="O14">
-        <v>0.027596235</v>
+        <v>2.7596235E-2</v>
       </c>
       <c r="P14">
-        <v>0.040654953</v>
+        <v>4.0654953000000001E-2</v>
       </c>
       <c r="Q14">
-        <v>0.05371367</v>
+        <v>5.3713669999999998E-2</v>
       </c>
       <c r="R14">
-        <v>0.066772388</v>
+        <v>6.6772388000000002E-2</v>
       </c>
       <c r="S14">
-        <v>0.079831105</v>
+        <v>7.9831104999999999E-2</v>
       </c>
       <c r="T14">
-        <v>0.092889823</v>
+        <v>9.2889822999999996E-2</v>
       </c>
       <c r="U14">
-        <v>0.112477899</v>
+        <v>0.11247789900000001</v>
       </c>
       <c r="V14">
-        <v>0.138595334</v>
+        <v>0.13859533399999999</v>
       </c>
       <c r="W14">
-        <v>0.164712769</v>
+        <v>0.16471276900000001</v>
       </c>
       <c r="X14">
         <v>0.190830204</v>
@@ -36621,7 +36618,7 @@
         <v>0.249594433</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>696</v>
       </c>
@@ -36629,58 +36626,58 @@
         <v>54</v>
       </c>
       <c r="C15">
-        <v>0.023089864</v>
+        <v>2.3089864000000002E-2</v>
       </c>
       <c r="D15">
-        <v>0.036878746</v>
+        <v>3.6878745999999997E-2</v>
       </c>
       <c r="E15">
-        <v>0.050667628</v>
+        <v>5.0667627999999999E-2</v>
       </c>
       <c r="F15">
-        <v>0.06445651</v>
+        <v>6.4456509999999995E-2</v>
       </c>
       <c r="G15">
-        <v>0.078245391</v>
+        <v>7.8245390999999997E-2</v>
       </c>
       <c r="H15">
-        <v>0.092034273</v>
+        <v>9.2034273E-2</v>
       </c>
       <c r="I15">
         <v>0.112717595</v>
       </c>
       <c r="J15">
-        <v>0.140295359</v>
+        <v>0.14029535900000001</v>
       </c>
       <c r="K15">
-        <v>0.167873122</v>
+        <v>0.16787312200000001</v>
       </c>
       <c r="L15">
-        <v>0.195450886</v>
+        <v>0.19545088599999999</v>
       </c>
       <c r="M15">
         <v>0.223028649</v>
       </c>
       <c r="N15">
-        <v>0.257500853</v>
+        <v>0.25750085299999997</v>
       </c>
       <c r="O15">
-        <v>0.020670161</v>
+        <v>2.0670160999999999E-2</v>
       </c>
       <c r="P15">
-        <v>0.034618394</v>
+        <v>3.4618393999999997E-2</v>
       </c>
       <c r="Q15">
-        <v>0.048566628</v>
+        <v>4.8566628000000001E-2</v>
       </c>
       <c r="R15">
-        <v>0.062514862</v>
+        <v>6.2514862000000004E-2</v>
       </c>
       <c r="S15">
-        <v>0.076463096</v>
+        <v>7.6463095999999994E-2</v>
       </c>
       <c r="T15">
-        <v>0.09041133</v>
+        <v>9.0411329999999998E-2</v>
       </c>
       <c r="U15">
         <v>0.11133368</v>
@@ -36689,19 +36686,19 @@
         <v>0.139230148</v>
       </c>
       <c r="W15">
-        <v>0.167126616</v>
+        <v>0.16712661600000001</v>
       </c>
       <c r="X15">
-        <v>0.195023083</v>
+        <v>0.19502308300000001</v>
       </c>
       <c r="Y15">
-        <v>0.222919551</v>
+        <v>0.22291955099999999</v>
       </c>
       <c r="Z15">
         <v>0.257790136</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>697</v>
       </c>
@@ -36709,19 +36706,19 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>0.034617762</v>
+        <v>3.4617762000000003E-2</v>
       </c>
       <c r="D16">
-        <v>0.047754705</v>
+        <v>4.7754705000000001E-2</v>
       </c>
       <c r="E16">
-        <v>0.060891649</v>
+        <v>6.0891648999999999E-2</v>
       </c>
       <c r="F16">
-        <v>0.074028593</v>
+        <v>7.4028593000000004E-2</v>
       </c>
       <c r="G16">
-        <v>0.087165537</v>
+        <v>8.7165537000000001E-2</v>
       </c>
       <c r="H16">
         <v>0.10030248</v>
@@ -36733,31 +36730,31 @@
         <v>0.146281784</v>
       </c>
       <c r="K16">
-        <v>0.172555671</v>
+        <v>0.17255567099999999</v>
       </c>
       <c r="L16">
-        <v>0.198829559</v>
+        <v>0.19882955899999999</v>
       </c>
       <c r="M16">
-        <v>0.225103446</v>
+        <v>0.22510344600000001</v>
       </c>
       <c r="N16">
         <v>0.257945806</v>
       </c>
       <c r="O16">
-        <v>0.032450693</v>
+        <v>3.2450693000000003E-2</v>
       </c>
       <c r="P16">
-        <v>0.046112636</v>
+        <v>4.6112635999999999E-2</v>
       </c>
       <c r="Q16">
-        <v>0.059774578</v>
+        <v>5.9774578000000002E-2</v>
       </c>
       <c r="R16">
-        <v>0.073436521</v>
+        <v>7.3436521000000005E-2</v>
       </c>
       <c r="S16">
-        <v>0.087098463</v>
+        <v>8.7098463000000001E-2</v>
       </c>
       <c r="T16">
         <v>0.100760406</v>
@@ -36766,22 +36763,22 @@
         <v>0.121253319</v>
       </c>
       <c r="V16">
-        <v>0.148577204</v>
+        <v>0.14857720399999999</v>
       </c>
       <c r="W16">
-        <v>0.175901089</v>
+        <v>0.17590108900000001</v>
       </c>
       <c r="X16">
         <v>0.203224974</v>
       </c>
       <c r="Y16">
-        <v>0.230548859</v>
+        <v>0.23054885899999999</v>
       </c>
       <c r="Z16">
-        <v>0.264703715</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.26470371500000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>698</v>
       </c>
@@ -36789,19 +36786,19 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>0.028542662</v>
+        <v>2.8542662E-2</v>
       </c>
       <c r="D17">
-        <v>0.043148786</v>
+        <v>4.3148786000000001E-2</v>
       </c>
       <c r="E17">
-        <v>0.05775491</v>
+        <v>5.775491E-2</v>
       </c>
       <c r="F17">
-        <v>0.072361034</v>
+        <v>7.2361034000000005E-2</v>
       </c>
       <c r="G17">
-        <v>0.086967158</v>
+        <v>8.6967158000000003E-2</v>
       </c>
       <c r="H17">
         <v>0.101573281</v>
@@ -36810,10 +36807,10 @@
         <v>0.123482467</v>
       </c>
       <c r="J17">
-        <v>0.152694714</v>
+        <v>0.15269471400000001</v>
       </c>
       <c r="K17">
-        <v>0.181906962</v>
+        <v>0.18190696200000001</v>
       </c>
       <c r="L17">
         <v>0.21111921</v>
@@ -36822,46 +36819,46 @@
         <v>0.240331457</v>
       </c>
       <c r="N17">
-        <v>0.276846766</v>
+        <v>0.27684676600000002</v>
       </c>
       <c r="O17">
-        <v>0.032818234</v>
+        <v>3.2818234000000002E-2</v>
       </c>
       <c r="P17">
-        <v>0.048428776</v>
+        <v>4.8428776E-2</v>
       </c>
       <c r="Q17">
-        <v>0.064039318</v>
+        <v>6.4039317999999998E-2</v>
       </c>
       <c r="R17">
-        <v>0.07964986</v>
+        <v>7.9649860000000003E-2</v>
       </c>
       <c r="S17">
-        <v>0.095260402</v>
+        <v>9.5260401999999994E-2</v>
       </c>
       <c r="T17">
         <v>0.110870944</v>
       </c>
       <c r="U17">
-        <v>0.134286757</v>
+        <v>0.13428675700000001</v>
       </c>
       <c r="V17">
-        <v>0.165507842</v>
+        <v>0.16550784199999999</v>
       </c>
       <c r="W17">
         <v>0.196728926</v>
       </c>
       <c r="X17">
-        <v>0.22795001</v>
+        <v>0.22795001000000001</v>
       </c>
       <c r="Y17">
-        <v>0.259171094</v>
+        <v>0.25917109399999999</v>
       </c>
       <c r="Z17">
         <v>0.298197449</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -36869,31 +36866,31 @@
         <v>144</v>
       </c>
       <c r="C18">
-        <v>0.019532239</v>
+        <v>1.9532239E-2</v>
       </c>
       <c r="D18">
-        <v>0.032265567</v>
+        <v>3.2265567000000002E-2</v>
       </c>
       <c r="E18">
-        <v>0.044998895</v>
+        <v>4.4998894999999997E-2</v>
       </c>
       <c r="F18">
-        <v>0.057732223</v>
+        <v>5.7732222999999999E-2</v>
       </c>
       <c r="G18">
-        <v>0.070465551</v>
+        <v>7.0465551000000001E-2</v>
       </c>
       <c r="H18">
-        <v>0.083198879</v>
+        <v>8.3198879000000003E-2</v>
       </c>
       <c r="I18">
         <v>0.102298872</v>
       </c>
       <c r="J18">
-        <v>0.127765528</v>
+        <v>0.12776552799999999</v>
       </c>
       <c r="K18">
-        <v>0.153232184</v>
+        <v>0.15323218399999999</v>
       </c>
       <c r="L18">
         <v>0.178698841</v>
@@ -36905,43 +36902,43 @@
         <v>0.235998817</v>
       </c>
       <c r="O18">
-        <v>0.020810976</v>
+        <v>2.0810975999999998E-2</v>
       </c>
       <c r="P18">
-        <v>0.033738371</v>
+        <v>3.3738371000000003E-2</v>
       </c>
       <c r="Q18">
-        <v>0.046665766</v>
+        <v>4.6665765999999997E-2</v>
       </c>
       <c r="R18">
-        <v>0.059593161</v>
+        <v>5.9593160999999999E-2</v>
       </c>
       <c r="S18">
-        <v>0.072520556</v>
+        <v>7.2520556E-2</v>
       </c>
       <c r="T18">
-        <v>0.085447951</v>
+        <v>8.5447950999999994E-2</v>
       </c>
       <c r="U18">
-        <v>0.104839043</v>
+        <v>0.10483904300000001</v>
       </c>
       <c r="V18">
-        <v>0.130693833</v>
+        <v>0.13069383300000001</v>
       </c>
       <c r="W18">
         <v>0.156548623</v>
       </c>
       <c r="X18">
-        <v>0.182403413</v>
+        <v>0.18240341299999999</v>
       </c>
       <c r="Y18">
         <v>0.208258203</v>
       </c>
       <c r="Z18">
-        <v>0.24057669</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.24057669000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -36949,19 +36946,19 @@
         <v>245</v>
       </c>
       <c r="C19">
-        <v>0.038031263</v>
+        <v>3.8031263000000003E-2</v>
       </c>
       <c r="D19">
-        <v>0.054100956</v>
+        <v>5.4100955999999999E-2</v>
       </c>
       <c r="E19">
-        <v>0.070170649</v>
+        <v>7.0170649000000002E-2</v>
       </c>
       <c r="F19">
-        <v>0.086240342</v>
+        <v>8.6240341999999998E-2</v>
       </c>
       <c r="G19">
-        <v>0.102310036</v>
+        <v>0.10231003599999999</v>
       </c>
       <c r="H19">
         <v>0.118379729</v>
@@ -36970,43 +36967,43 @@
         <v>0.142484269</v>
       </c>
       <c r="J19">
-        <v>0.174623655</v>
+        <v>0.17462365499999999</v>
       </c>
       <c r="K19">
-        <v>0.206763041</v>
+        <v>0.20676304100000001</v>
       </c>
       <c r="L19">
         <v>0.238902428</v>
       </c>
       <c r="M19">
-        <v>0.271041814</v>
+        <v>0.27104181399999999</v>
       </c>
       <c r="N19">
         <v>0.311216047</v>
       </c>
       <c r="O19">
-        <v>0.036267289</v>
+        <v>3.6267289000000001E-2</v>
       </c>
       <c r="P19">
-        <v>0.052950473</v>
+        <v>5.2950472999999998E-2</v>
       </c>
       <c r="Q19">
-        <v>0.069633658</v>
+        <v>6.9633658000000001E-2</v>
       </c>
       <c r="R19">
-        <v>0.086316842</v>
+        <v>8.6316842000000005E-2</v>
       </c>
       <c r="S19">
-        <v>0.103000026</v>
+        <v>0.10300002599999999</v>
       </c>
       <c r="T19">
         <v>0.119683211</v>
       </c>
       <c r="U19">
-        <v>0.144707987</v>
+        <v>0.14470798700000001</v>
       </c>
       <c r="V19">
-        <v>0.178074356</v>
+        <v>0.17807435599999999</v>
       </c>
       <c r="W19">
         <v>0.211440725</v>
@@ -37015,13 +37012,13 @@
         <v>0.244807093</v>
       </c>
       <c r="Y19">
-        <v>0.278173462</v>
+        <v>0.27817346199999998</v>
       </c>
       <c r="Z19">
         <v>0.319881423</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>699</v>
       </c>
@@ -37029,13 +37026,13 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>0.060134284</v>
+        <v>6.0134284000000003E-2</v>
       </c>
       <c r="D20">
-        <v>0.074656416</v>
+        <v>7.4656416000000003E-2</v>
       </c>
       <c r="E20">
-        <v>0.089178548</v>
+        <v>8.9178547999999996E-2</v>
       </c>
       <c r="F20">
         <v>0.10370068</v>
@@ -37047,31 +37044,31 @@
         <v>0.132744945</v>
       </c>
       <c r="I20">
-        <v>0.154528143</v>
+        <v>0.15452814300000001</v>
       </c>
       <c r="J20">
-        <v>0.183572408</v>
+        <v>0.18357240799999999</v>
       </c>
       <c r="K20">
-        <v>0.212616673</v>
+        <v>0.21261667300000001</v>
       </c>
       <c r="L20">
-        <v>0.241660937</v>
+        <v>0.24166093699999999</v>
       </c>
       <c r="M20">
-        <v>0.270705202</v>
+        <v>0.27070520199999998</v>
       </c>
       <c r="N20">
-        <v>0.307010533</v>
+        <v>0.30701053299999997</v>
       </c>
       <c r="O20">
-        <v>0.060234625</v>
+        <v>6.0234625E-2</v>
       </c>
       <c r="P20">
-        <v>0.074461594</v>
+        <v>7.4461594000000006E-2</v>
       </c>
       <c r="Q20">
-        <v>0.088688563</v>
+        <v>8.8688562999999998E-2</v>
       </c>
       <c r="R20">
         <v>0.102915533</v>
@@ -37080,28 +37077,28 @@
         <v>0.117142502</v>
       </c>
       <c r="T20">
-        <v>0.131369471</v>
+        <v>0.13136947099999999</v>
       </c>
       <c r="U20">
         <v>0.152709925</v>
       </c>
       <c r="V20">
-        <v>0.181163863</v>
+        <v>0.18116386300000001</v>
       </c>
       <c r="W20">
-        <v>0.209617801</v>
+        <v>0.20961780099999999</v>
       </c>
       <c r="X20">
         <v>0.238071739</v>
       </c>
       <c r="Y20">
-        <v>0.266525678</v>
+        <v>0.26652567799999999</v>
       </c>
       <c r="Z20">
-        <v>0.302093101</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.30209310099999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>700</v>
       </c>
@@ -37109,16 +37106,16 @@
         <v>133</v>
       </c>
       <c r="C21">
-        <v>0.048559841</v>
+        <v>4.8559840999999999E-2</v>
       </c>
       <c r="D21">
-        <v>0.063595201</v>
+        <v>6.3595201000000004E-2</v>
       </c>
       <c r="E21">
-        <v>0.07863056</v>
+        <v>7.8630560000000002E-2</v>
       </c>
       <c r="F21">
-        <v>0.09366592</v>
+        <v>9.366592E-2</v>
       </c>
       <c r="G21">
         <v>0.10870128</v>
@@ -37127,7 +37124,7 @@
         <v>0.123736639</v>
       </c>
       <c r="I21">
-        <v>0.146289679</v>
+        <v>0.14628967900000001</v>
       </c>
       <c r="J21">
         <v>0.176360398</v>
@@ -37136,34 +37133,34 @@
         <v>0.206431117</v>
       </c>
       <c r="L21">
-        <v>0.236501837</v>
+        <v>0.23650183699999999</v>
       </c>
       <c r="M21">
-        <v>0.266572556</v>
+        <v>0.26657255600000002</v>
       </c>
       <c r="N21">
-        <v>0.304160955</v>
+        <v>0.30416095500000001</v>
       </c>
       <c r="O21">
-        <v>0.050216369</v>
+        <v>5.0216368999999997E-2</v>
       </c>
       <c r="P21">
-        <v>0.065222638</v>
+        <v>6.5222637999999999E-2</v>
       </c>
       <c r="Q21">
-        <v>0.080228908</v>
+        <v>8.0228908000000002E-2</v>
       </c>
       <c r="R21">
-        <v>0.095235177</v>
+        <v>9.5235177000000004E-2</v>
       </c>
       <c r="S21">
-        <v>0.110241446</v>
+        <v>0.11024144600000001</v>
       </c>
       <c r="T21">
-        <v>0.125247716</v>
+        <v>0.12524771600000001</v>
       </c>
       <c r="U21">
-        <v>0.14775712</v>
+        <v>0.14775711999999999</v>
       </c>
       <c r="V21">
         <v>0.177769658</v>
@@ -37172,16 +37169,16 @@
         <v>0.207782197</v>
       </c>
       <c r="X21">
-        <v>0.237794735</v>
+        <v>0.23779473500000001</v>
       </c>
       <c r="Y21">
-        <v>0.267807274</v>
+        <v>0.26780727399999998</v>
       </c>
       <c r="Z21">
-        <v>0.305322947</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.30532294700000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>701</v>
       </c>
@@ -37189,16 +37186,16 @@
         <v>116</v>
       </c>
       <c r="C22">
-        <v>0.051099436</v>
+        <v>5.1099435999999998E-2</v>
       </c>
       <c r="D22">
-        <v>0.065445584</v>
+        <v>6.5445584000000001E-2</v>
       </c>
       <c r="E22">
-        <v>0.079791732</v>
+        <v>7.9791732000000004E-2</v>
       </c>
       <c r="F22">
-        <v>0.09413788</v>
+        <v>9.4137879999999993E-2</v>
       </c>
       <c r="G22">
         <v>0.108484029</v>
@@ -37207,34 +37204,34 @@
         <v>0.122830177</v>
       </c>
       <c r="I22">
-        <v>0.144349399</v>
+        <v>0.14434939899999999</v>
       </c>
       <c r="J22">
-        <v>0.173041696</v>
+        <v>0.17304169599999999</v>
       </c>
       <c r="K22">
         <v>0.201733992</v>
       </c>
       <c r="L22">
-        <v>0.230426289</v>
+        <v>0.23042628900000001</v>
       </c>
       <c r="M22">
-        <v>0.259118585</v>
+        <v>0.25911858500000001</v>
       </c>
       <c r="N22">
-        <v>0.294983956</v>
+        <v>0.29498395599999999</v>
       </c>
       <c r="O22">
-        <v>0.052423446</v>
+        <v>5.2423445999999999E-2</v>
       </c>
       <c r="P22">
-        <v>0.066081933</v>
+        <v>6.6081932999999995E-2</v>
       </c>
       <c r="Q22">
-        <v>0.079740421</v>
+        <v>7.9740421000000006E-2</v>
       </c>
       <c r="R22">
-        <v>0.093398908</v>
+        <v>9.3398908000000003E-2</v>
       </c>
       <c r="S22">
         <v>0.107057396</v>
@@ -37249,19 +37246,19 @@
         <v>0.16852059</v>
       </c>
       <c r="W22">
-        <v>0.195837565</v>
+        <v>0.19583756499999999</v>
       </c>
       <c r="X22">
-        <v>0.223154541</v>
+        <v>0.22315454100000001</v>
       </c>
       <c r="Y22">
-        <v>0.250471516</v>
+        <v>0.25047151600000001</v>
       </c>
       <c r="Z22">
-        <v>0.284617735</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.28461773499999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>702</v>
       </c>
@@ -37269,49 +37266,49 @@
         <v>102</v>
       </c>
       <c r="C23">
-        <v>0.05364057</v>
+        <v>5.3640569999999999E-2</v>
       </c>
       <c r="D23">
-        <v>0.06800936</v>
+        <v>6.8009360000000005E-2</v>
       </c>
       <c r="E23">
-        <v>0.08237815</v>
+        <v>8.2378149999999997E-2</v>
       </c>
       <c r="F23">
-        <v>0.096746941</v>
+        <v>9.6746941000000003E-2</v>
       </c>
       <c r="G23">
         <v>0.111115731</v>
       </c>
       <c r="H23">
-        <v>0.125484521</v>
+        <v>0.12548452099999999</v>
       </c>
       <c r="I23">
-        <v>0.147037706</v>
+        <v>0.14703770599999999</v>
       </c>
       <c r="J23">
         <v>0.175775287</v>
       </c>
       <c r="K23">
-        <v>0.204512867</v>
+        <v>0.20451286699999999</v>
       </c>
       <c r="L23">
         <v>0.233250448</v>
       </c>
       <c r="M23">
-        <v>0.261988028</v>
+        <v>0.26198802799999998</v>
       </c>
       <c r="N23">
-        <v>0.297910004</v>
+        <v>0.29791000400000001</v>
       </c>
       <c r="O23">
-        <v>0.057437643</v>
+        <v>5.7437642999999997E-2</v>
       </c>
       <c r="P23">
-        <v>0.071978006</v>
+        <v>7.1978005999999997E-2</v>
       </c>
       <c r="Q23">
-        <v>0.08651837</v>
+        <v>8.6518369999999997E-2</v>
       </c>
       <c r="R23">
         <v>0.101058733</v>
@@ -37320,7 +37317,7 @@
         <v>0.115599096</v>
       </c>
       <c r="T23">
-        <v>0.130139459</v>
+        <v>0.13013945900000001</v>
       </c>
       <c r="U23">
         <v>0.151950004</v>
@@ -37335,27 +37332,26 @@
         <v>0.239192184</v>
       </c>
       <c r="Y23">
-        <v>0.26827291</v>
+        <v>0.26827290999999998</v>
       </c>
       <c r="Z23">
-        <v>0.304623818</v>
+        <v>0.30462381799999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup usePrinterDefaults="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.7265625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.453125" style="2" customWidth="1"/>
@@ -37363,7 +37359,7 @@
     <col min="4" max="4" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>749</v>
       </c>
@@ -37377,7 +37373,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>753</v>
       </c>
@@ -37393,7 +37389,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="flId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37600,18 +37596,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37633,14 +37629,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639808B5-4725-4AE9-9DF1-1833AC18DC8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -37654,4 +37642,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38224B71-8CDA-4DA5-BC06-35E95BB2FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1424D40-CB90-4576-BDB0-A23C534A0EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryMaster" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1459">
   <si>
     <t>Country Code</t>
   </si>
@@ -4398,6 +4398,9 @@
   </si>
   <si>
     <t>SAMP</t>
+  </si>
+  <si>
+    <t>LC</t>
   </si>
 </sst>
 </file>
@@ -4790,46 +4793,46 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I257" sqref="I257"/>
+      <selection pane="bottomRight" activeCell="I284" sqref="I284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.6328125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.6640625" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.26953125" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.21875" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>28</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>32</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>51</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>533</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>36</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>40</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>31</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>44</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>52</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>112</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>56</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>84</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>204</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>204</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>204</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>204</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>204</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>204</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>204</v>
       </c>
@@ -6798,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>204</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>204</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>204</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>204</v>
       </c>
@@ -7118,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>204</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>204</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>64</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>68</v>
       </c>
@@ -7429,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>70</v>
       </c>
@@ -7500,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>72</v>
       </c>
@@ -7586,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>76</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>96</v>
       </c>
@@ -7734,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>100</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>854</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>108</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>116</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>120</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>124</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>132</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>140</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>148</v>
       </c>
@@ -8451,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>830</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>152</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>156</v>
       </c>
@@ -8667,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>344</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>446</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>158</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>170</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>174</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>178</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>188</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>384</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>384</v>
       </c>
@@ -9327,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>384</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>384</v>
       </c>
@@ -9487,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>384</v>
       </c>
@@ -9567,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>384</v>
       </c>
@@ -9647,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>384</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>384</v>
       </c>
@@ -9807,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>384</v>
       </c>
@@ -9887,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>384</v>
       </c>
@@ -9967,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>384</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>384</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>191</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>192</v>
       </c>
@@ -10275,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>531</v>
       </c>
@@ -10337,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>196</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>203</v>
       </c>
@@ -10482,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>408</v>
       </c>
@@ -10553,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>180</v>
       </c>
@@ -10639,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>208</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>262</v>
       </c>
@@ -10784,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>212</v>
       </c>
@@ -10849,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>214</v>
       </c>
@@ -10929,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>218</v>
       </c>
@@ -11009,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>818</v>
       </c>
@@ -11083,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>222</v>
       </c>
@@ -11163,7 +11166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>226</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>232</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>233</v>
       </c>
@@ -11394,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>231</v>
       </c>
@@ -11480,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>231</v>
       </c>
@@ -11560,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>231</v>
       </c>
@@ -11640,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>231</v>
       </c>
@@ -11720,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>231</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>231</v>
       </c>
@@ -11880,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>231</v>
       </c>
@@ -11960,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>231</v>
       </c>
@@ -12040,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>231</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>231</v>
       </c>
@@ -12200,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>231</v>
       </c>
@@ -12280,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>231</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>231</v>
       </c>
@@ -12440,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>242</v>
       </c>
@@ -12514,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>246</v>
       </c>
@@ -12582,7 +12585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>250</v>
       </c>
@@ -12653,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>254</v>
       </c>
@@ -12715,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>258</v>
       </c>
@@ -12777,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>266</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>270</v>
       </c>
@@ -12943,7 +12946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>268</v>
       </c>
@@ -13017,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>276</v>
       </c>
@@ -13085,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>288</v>
       </c>
@@ -13171,7 +13174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>300</v>
       </c>
@@ -13242,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>308</v>
       </c>
@@ -13316,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>312</v>
       </c>
@@ -13378,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>316</v>
       </c>
@@ -13440,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>320</v>
       </c>
@@ -13520,7 +13523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>324</v>
       </c>
@@ -13606,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>624</v>
       </c>
@@ -13686,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>328</v>
       </c>
@@ -13760,7 +13763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>332</v>
       </c>
@@ -13837,7 +13840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>332</v>
       </c>
@@ -13914,7 +13917,7 @@
       </c>
       <c r="AH119" s="3"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>332</v>
       </c>
@@ -13991,7 +13994,7 @@
       </c>
       <c r="AH120" s="3"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>332</v>
       </c>
@@ -14068,7 +14071,7 @@
       </c>
       <c r="AH121" s="3"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>332</v>
       </c>
@@ -14145,7 +14148,7 @@
       </c>
       <c r="AH122" s="3"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>332</v>
       </c>
@@ -14222,7 +14225,7 @@
       </c>
       <c r="AH123" s="3"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>332</v>
       </c>
@@ -14299,7 +14302,7 @@
       </c>
       <c r="AH124" s="3"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>332</v>
       </c>
@@ -14376,7 +14379,7 @@
       </c>
       <c r="AH125" s="3"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>332</v>
       </c>
@@ -14453,7 +14456,7 @@
       </c>
       <c r="AH126" s="3"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>332</v>
       </c>
@@ -14530,7 +14533,7 @@
       </c>
       <c r="AH127" s="3"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>332</v>
       </c>
@@ -14607,7 +14610,7 @@
       </c>
       <c r="AH128" s="3"/>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>340</v>
       </c>
@@ -14681,7 +14684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>348</v>
       </c>
@@ -14752,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>352</v>
       </c>
@@ -14823,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>356</v>
       </c>
@@ -14900,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>356</v>
       </c>
@@ -14938,7 +14941,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>356</v>
       </c>
@@ -14976,7 +14979,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>356</v>
       </c>
@@ -15014,7 +15017,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>356</v>
       </c>
@@ -15052,7 +15055,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>356</v>
       </c>
@@ -15090,7 +15093,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>356</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>356</v>
       </c>
@@ -15166,7 +15169,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>356</v>
       </c>
@@ -15204,7 +15207,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>356</v>
       </c>
@@ -15242,7 +15245,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>356</v>
       </c>
@@ -15280,7 +15283,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>356</v>
       </c>
@@ -15318,7 +15321,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>356</v>
       </c>
@@ -15356,7 +15359,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>356</v>
       </c>
@@ -15394,7 +15397,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>356</v>
       </c>
@@ -15432,7 +15435,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>356</v>
       </c>
@@ -15470,7 +15473,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>356</v>
       </c>
@@ -15508,7 +15511,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>356</v>
       </c>
@@ -15546,7 +15549,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>356</v>
       </c>
@@ -15584,7 +15587,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>356</v>
       </c>
@@ -15622,7 +15625,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>356</v>
       </c>
@@ -15660,7 +15663,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>356</v>
       </c>
@@ -15698,7 +15701,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>356</v>
       </c>
@@ -15736,7 +15739,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>356</v>
       </c>
@@ -15774,7 +15777,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>356</v>
       </c>
@@ -15812,7 +15815,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>356</v>
       </c>
@@ -15850,7 +15853,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>356</v>
       </c>
@@ -15888,7 +15891,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>356</v>
       </c>
@@ -15926,7 +15929,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>356</v>
       </c>
@@ -15964,7 +15967,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>356</v>
       </c>
@@ -16002,7 +16005,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>356</v>
       </c>
@@ -16040,7 +16043,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>356</v>
       </c>
@@ -16078,7 +16081,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>356</v>
       </c>
@@ -16116,7 +16119,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>356</v>
       </c>
@@ -16154,7 +16157,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>356</v>
       </c>
@@ -16192,7 +16195,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>356</v>
       </c>
@@ -16230,7 +16233,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>360</v>
       </c>
@@ -16310,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>364</v>
       </c>
@@ -16381,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>368</v>
       </c>
@@ -16452,7 +16455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>372</v>
       </c>
@@ -16523,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>376</v>
       </c>
@@ -16591,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>380</v>
       </c>
@@ -16662,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>388</v>
       </c>
@@ -16733,7 +16736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>392</v>
       </c>
@@ -16801,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>400</v>
       </c>
@@ -16875,7 +16878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>398</v>
       </c>
@@ -16946,7 +16949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>404</v>
       </c>
@@ -17032,7 +17035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>404</v>
       </c>
@@ -17112,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>404</v>
       </c>
@@ -17192,7 +17195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>404</v>
       </c>
@@ -17272,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>404</v>
       </c>
@@ -17352,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>404</v>
       </c>
@@ -17432,7 +17435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>404</v>
       </c>
@@ -17512,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>404</v>
       </c>
@@ -17592,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>404</v>
       </c>
@@ -17672,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>296</v>
       </c>
@@ -17743,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>412</v>
       </c>
@@ -17815,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>414</v>
       </c>
@@ -17889,7 +17892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>417</v>
       </c>
@@ -17963,7 +17966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>418</v>
       </c>
@@ -18037,7 +18040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>428</v>
       </c>
@@ -18108,7 +18111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>422</v>
       </c>
@@ -18182,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>426</v>
       </c>
@@ -18268,7 +18271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>430</v>
       </c>
@@ -18348,7 +18351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>434</v>
       </c>
@@ -18419,7 +18422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>440</v>
       </c>
@@ -18493,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>442</v>
       </c>
@@ -18564,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>450</v>
       </c>
@@ -18650,7 +18653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>454</v>
       </c>
@@ -18736,7 +18739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>458</v>
       </c>
@@ -18816,7 +18819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>462</v>
       </c>
@@ -18890,7 +18893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>466</v>
       </c>
@@ -18976,7 +18979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>470</v>
       </c>
@@ -19047,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>474</v>
       </c>
@@ -19109,7 +19112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>478</v>
       </c>
@@ -19189,7 +19192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>480</v>
       </c>
@@ -19263,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>175</v>
       </c>
@@ -19325,7 +19328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>484</v>
       </c>
@@ -19405,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>583</v>
       </c>
@@ -19476,7 +19479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>496</v>
       </c>
@@ -19556,7 +19559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>499</v>
       </c>
@@ -19630,7 +19633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>504</v>
       </c>
@@ -19707,7 +19710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>508</v>
       </c>
@@ -19793,7 +19796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>508</v>
       </c>
@@ -19873,7 +19876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>508</v>
       </c>
@@ -19953,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>508</v>
       </c>
@@ -20033,7 +20036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>508</v>
       </c>
@@ -20113,7 +20116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>508</v>
       </c>
@@ -20193,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>508</v>
       </c>
@@ -20273,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>508</v>
       </c>
@@ -20353,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>508</v>
       </c>
@@ -20433,7 +20436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>508</v>
       </c>
@@ -20513,7 +20516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>508</v>
       </c>
@@ -20593,7 +20596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>508</v>
       </c>
@@ -20673,7 +20676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>104</v>
       </c>
@@ -20753,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>516</v>
       </c>
@@ -20839,7 +20842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>524</v>
       </c>
@@ -20919,7 +20922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>528</v>
       </c>
@@ -20990,7 +20993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>540</v>
       </c>
@@ -21052,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>554</v>
       </c>
@@ -21123,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>558</v>
       </c>
@@ -21197,7 +21200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>562</v>
       </c>
@@ -21283,7 +21286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>566</v>
       </c>
@@ -21366,7 +21369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>566</v>
       </c>
@@ -21446,7 +21449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>566</v>
       </c>
@@ -21526,7 +21529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>566</v>
       </c>
@@ -21606,7 +21609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>566</v>
       </c>
@@ -21686,7 +21689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>566</v>
       </c>
@@ -21766,7 +21769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>566</v>
       </c>
@@ -21846,7 +21849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>566</v>
       </c>
@@ -21926,7 +21929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>566</v>
       </c>
@@ -22006,7 +22009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>566</v>
       </c>
@@ -22086,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>566</v>
       </c>
@@ -22166,7 +22169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>566</v>
       </c>
@@ -22246,7 +22249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>566</v>
       </c>
@@ -22326,7 +22329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>566</v>
       </c>
@@ -22406,7 +22409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>566</v>
       </c>
@@ -22486,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>566</v>
       </c>
@@ -22566,7 +22569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>566</v>
       </c>
@@ -22646,7 +22649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>566</v>
       </c>
@@ -22726,7 +22729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>566</v>
       </c>
@@ -22806,7 +22809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>566</v>
       </c>
@@ -22886,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>566</v>
       </c>
@@ -22966,7 +22969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>566</v>
       </c>
@@ -23046,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>566</v>
       </c>
@@ -23126,7 +23129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>566</v>
       </c>
@@ -23206,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>566</v>
       </c>
@@ -23286,7 +23289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>566</v>
       </c>
@@ -23366,7 +23369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>566</v>
       </c>
@@ -23446,7 +23449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>566</v>
       </c>
@@ -23526,7 +23529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>566</v>
       </c>
@@ -23606,7 +23609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>566</v>
       </c>
@@ -23686,7 +23689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>566</v>
       </c>
@@ -23766,7 +23769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>566</v>
       </c>
@@ -23846,7 +23849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>566</v>
       </c>
@@ -23926,7 +23929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>566</v>
       </c>
@@ -24006,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>566</v>
       </c>
@@ -24086,7 +24089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>566</v>
       </c>
@@ -24166,7 +24169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>566</v>
       </c>
@@ -24246,7 +24249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>566</v>
       </c>
@@ -24326,7 +24329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>578</v>
       </c>
@@ -24394,7 +24397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>275</v>
       </c>
@@ -24462,7 +24465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>512</v>
       </c>
@@ -24533,7 +24536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>586</v>
       </c>
@@ -24613,7 +24616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>591</v>
       </c>
@@ -24693,7 +24696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>598</v>
       </c>
@@ -24773,7 +24776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>600</v>
       </c>
@@ -24853,7 +24856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>604</v>
       </c>
@@ -24933,7 +24936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>608</v>
       </c>
@@ -25013,7 +25016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>616</v>
       </c>
@@ -25084,7 +25087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>620</v>
       </c>
@@ -25155,7 +25158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>630</v>
       </c>
@@ -25217,7 +25220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>634</v>
       </c>
@@ -25291,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>410</v>
       </c>
@@ -25362,7 +25365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>498</v>
       </c>
@@ -25436,7 +25439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>498</v>
       </c>
@@ -25512,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>498</v>
       </c>
@@ -25588,7 +25591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>638</v>
       </c>
@@ -25650,7 +25653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>642</v>
       </c>
@@ -25724,7 +25727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>643</v>
       </c>
@@ -25795,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>646</v>
       </c>
@@ -25881,7 +25884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>659</v>
       </c>
@@ -25952,7 +25955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>662</v>
       </c>
@@ -26023,7 +26026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>670</v>
       </c>
@@ -26094,7 +26097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>882</v>
       </c>
@@ -26165,7 +26168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>5733</v>
       </c>
@@ -26182,10 +26185,10 @@
         <v>277</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H297" t="s">
-        <v>277</v>
+        <v>1458</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>521</v>
@@ -26236,7 +26239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>678</v>
       </c>
@@ -26310,7 +26313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>682</v>
       </c>
@@ -26381,7 +26384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>686</v>
       </c>
@@ -26467,7 +26470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>688</v>
       </c>
@@ -26541,7 +26544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>690</v>
       </c>
@@ -26609,7 +26612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>694</v>
       </c>
@@ -26695,7 +26698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>702</v>
       </c>
@@ -26766,7 +26769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>703</v>
       </c>
@@ -26840,7 +26843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>705</v>
       </c>
@@ -26914,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>90</v>
       </c>
@@ -26985,7 +26988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>706</v>
       </c>
@@ -27062,7 +27065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>710</v>
       </c>
@@ -27148,7 +27151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>728</v>
       </c>
@@ -27228,7 +27231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>724</v>
       </c>
@@ -27296,7 +27299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>144</v>
       </c>
@@ -27370,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>729</v>
       </c>
@@ -27444,7 +27447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>740</v>
       </c>
@@ -27515,7 +27518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>748</v>
       </c>
@@ -27601,7 +27604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>752</v>
       </c>
@@ -27669,7 +27672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>756</v>
       </c>
@@ -27737,7 +27740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>760</v>
       </c>
@@ -27811,7 +27814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>762</v>
       </c>
@@ -27885,7 +27888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>807</v>
       </c>
@@ -27959,7 +27962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>764</v>
       </c>
@@ -28039,7 +28042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>626</v>
       </c>
@@ -28113,7 +28116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>768</v>
       </c>
@@ -28199,7 +28202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>768</v>
       </c>
@@ -28279,7 +28282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>768</v>
       </c>
@@ -28359,7 +28362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>768</v>
       </c>
@@ -28439,7 +28442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>768</v>
       </c>
@@ -28519,7 +28522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>768</v>
       </c>
@@ -28599,7 +28602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>768</v>
       </c>
@@ -28679,7 +28682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>776</v>
       </c>
@@ -28750,7 +28753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>780</v>
       </c>
@@ -28824,7 +28827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>788</v>
       </c>
@@ -28901,7 +28904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>792</v>
       </c>
@@ -28972,7 +28975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>795</v>
       </c>
@@ -29043,7 +29046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>800</v>
       </c>
@@ -29129,7 +29132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>800</v>
       </c>
@@ -29209,7 +29212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>800</v>
       </c>
@@ -29289,7 +29292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>800</v>
       </c>
@@ -29369,7 +29372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>800</v>
       </c>
@@ -29449,7 +29452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>800</v>
       </c>
@@ -29529,7 +29532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>800</v>
       </c>
@@ -29609,7 +29612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>800</v>
       </c>
@@ -29689,7 +29692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>800</v>
       </c>
@@ -29769,7 +29772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>800</v>
       </c>
@@ -29849,7 +29852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>804</v>
       </c>
@@ -29920,7 +29923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>784</v>
       </c>
@@ -29991,7 +29994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>826</v>
       </c>
@@ -30059,7 +30062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>834</v>
       </c>
@@ -30145,7 +30148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>834</v>
       </c>
@@ -30225,7 +30228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>834</v>
       </c>
@@ -30305,7 +30308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>834</v>
       </c>
@@ -30385,7 +30388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>834</v>
       </c>
@@ -30465,7 +30468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>834</v>
       </c>
@@ -30545,7 +30548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>834</v>
       </c>
@@ -30625,7 +30628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>834</v>
       </c>
@@ -30705,7 +30708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>834</v>
       </c>
@@ -30785,7 +30788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>834</v>
       </c>
@@ -30865,7 +30868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>834</v>
       </c>
@@ -30945,7 +30948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>834</v>
       </c>
@@ -31025,7 +31028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>834</v>
       </c>
@@ -31105,7 +31108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>834</v>
       </c>
@@ -31185,7 +31188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>834</v>
       </c>
@@ -31265,7 +31268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>834</v>
       </c>
@@ -31345,7 +31348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>834</v>
       </c>
@@ -31425,7 +31428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>834</v>
       </c>
@@ -31505,7 +31508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>834</v>
       </c>
@@ -31585,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>834</v>
       </c>
@@ -31665,7 +31668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>834</v>
       </c>
@@ -31745,7 +31748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>834</v>
       </c>
@@ -31825,7 +31828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>834</v>
       </c>
@@ -31905,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>834</v>
       </c>
@@ -31985,7 +31988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>834</v>
       </c>
@@ -32065,7 +32068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>834</v>
       </c>
@@ -32145,7 +32148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>834</v>
       </c>
@@ -32225,7 +32228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>834</v>
       </c>
@@ -32305,7 +32308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>840</v>
       </c>
@@ -32370,7 +32373,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="377" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>850</v>
       </c>
@@ -32429,7 +32432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>858</v>
       </c>
@@ -32503,7 +32506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>860</v>
       </c>
@@ -32574,7 +32577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>548</v>
       </c>
@@ -32642,7 +32645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>862</v>
       </c>
@@ -32713,7 +32716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>704</v>
       </c>
@@ -32790,7 +32793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>732</v>
       </c>
@@ -32852,7 +32855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>887</v>
       </c>
@@ -32926,7 +32929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>894</v>
       </c>
@@ -33012,7 +33015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>894</v>
       </c>
@@ -33092,7 +33095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>894</v>
       </c>
@@ -33172,7 +33175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>894</v>
       </c>
@@ -33252,7 +33255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>894</v>
       </c>
@@ -33332,7 +33335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>894</v>
       </c>
@@ -33412,7 +33415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>894</v>
       </c>
@@ -33492,7 +33495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>894</v>
       </c>
@@ -33572,7 +33575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>894</v>
       </c>
@@ -33652,7 +33655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>894</v>
       </c>
@@ -33732,7 +33735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>894</v>
       </c>
@@ -33812,7 +33815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>716</v>
       </c>
@@ -33898,7 +33901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>716</v>
       </c>
@@ -33978,7 +33981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>716</v>
       </c>
@@ -34058,7 +34061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>716</v>
       </c>
@@ -34138,7 +34141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>716</v>
       </c>
@@ -34218,7 +34221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>716</v>
       </c>
@@ -34298,7 +34301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>716</v>
       </c>
@@ -34378,7 +34381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>716</v>
       </c>
@@ -34458,7 +34461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>716</v>
       </c>
@@ -34538,7 +34541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>716</v>
       </c>
@@ -34618,7 +34621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>716</v>
       </c>
@@ -34711,14 +34714,14 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="52.1796875" customWidth="1"/>
-    <col min="3" max="4" width="73.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="3" max="4" width="73.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>668</v>
       </c>
@@ -34732,7 +34735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>903</v>
       </c>
@@ -34746,7 +34749,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>935</v>
       </c>
@@ -34760,7 +34763,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>927</v>
       </c>
@@ -34774,7 +34777,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>915</v>
       </c>
@@ -34788,7 +34791,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>916</v>
       </c>
@@ -34802,7 +34805,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5500</v>
       </c>
@@ -34816,7 +34819,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>910</v>
       </c>
@@ -34830,7 +34833,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1832</v>
       </c>
@@ -34844,7 +34847,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>906</v>
       </c>
@@ -34858,7 +34861,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>923</v>
       </c>
@@ -34872,7 +34875,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>908</v>
       </c>
@@ -34886,7 +34889,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1829</v>
       </c>
@@ -34900,7 +34903,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1503</v>
       </c>
@@ -34914,7 +34917,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>904</v>
       </c>
@@ -34928,7 +34931,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>941</v>
       </c>
@@ -34942,7 +34945,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>902</v>
       </c>
@@ -34956,7 +34959,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>948</v>
       </c>
@@ -34970,7 +34973,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>934</v>
       </c>
@@ -34984,7 +34987,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1501</v>
       </c>
@@ -34998,7 +35001,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -35012,7 +35015,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>928</v>
       </c>
@@ -35026,7 +35029,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>954</v>
       </c>
@@ -35040,7 +35043,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>911</v>
       </c>
@@ -35054,7 +35057,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1517</v>
       </c>
@@ -35068,7 +35071,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>901</v>
       </c>
@@ -35082,7 +35085,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1518</v>
       </c>
@@ -35096,7 +35099,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>912</v>
       </c>
@@ -35110,7 +35113,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>905</v>
       </c>
@@ -35124,7 +35127,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1833</v>
       </c>
@@ -35138,7 +35141,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>924</v>
       </c>
@@ -35152,7 +35155,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1835</v>
       </c>
@@ -35166,7 +35169,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>909</v>
       </c>
@@ -35180,7 +35183,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>957</v>
       </c>
@@ -35194,7 +35197,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>931</v>
       </c>
@@ -35208,7 +35211,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5501</v>
       </c>
@@ -35222,7 +35225,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1831</v>
       </c>
@@ -35236,7 +35239,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>920</v>
       </c>
@@ -35250,7 +35253,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>913</v>
       </c>
@@ -35264,7 +35267,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>925</v>
       </c>
@@ -35278,7 +35281,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1834</v>
       </c>
@@ -35292,7 +35295,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1502</v>
       </c>
@@ -35306,7 +35309,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>914</v>
       </c>
@@ -35320,7 +35323,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>922</v>
       </c>
@@ -35334,7 +35337,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>926</v>
       </c>
@@ -35348,7 +35351,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>900</v>
       </c>
@@ -35374,13 +35377,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>703</v>
       </c>
@@ -35388,7 +35391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>31100</v>
       </c>
@@ -35396,7 +35399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>31101</v>
       </c>
@@ -35404,7 +35407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>31102</v>
       </c>
@@ -35412,7 +35415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>31103</v>
       </c>
@@ -35420,7 +35423,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>31104</v>
       </c>
@@ -35428,7 +35431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>31105</v>
       </c>
@@ -35436,7 +35439,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>31106</v>
       </c>
@@ -35444,7 +35447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31107</v>
       </c>
@@ -35452,7 +35455,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>31108</v>
       </c>
@@ -35460,7 +35463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>31109</v>
       </c>
@@ -35468,7 +35471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>31110</v>
       </c>
@@ -35476,7 +35479,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>31111</v>
       </c>
@@ -35484,7 +35487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>31112</v>
       </c>
@@ -35492,7 +35495,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31113</v>
       </c>
@@ -35500,7 +35503,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31114</v>
       </c>
@@ -35508,7 +35511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>31115</v>
       </c>
@@ -35516,7 +35519,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>31116</v>
       </c>
@@ -35524,7 +35527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31117</v>
       </c>
@@ -35532,7 +35535,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>31118</v>
       </c>
@@ -35540,7 +35543,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>31119</v>
       </c>
@@ -35548,7 +35551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>31120</v>
       </c>
@@ -35568,9 +35571,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>670</v>
       </c>
@@ -35578,7 +35581,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -35658,7 +35661,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>686</v>
       </c>
@@ -35738,7 +35741,7 @@
         <v>0.199826844</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>687</v>
       </c>
@@ -35818,7 +35821,7 @@
         <v>0.25524005999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>688</v>
       </c>
@@ -35898,7 +35901,7 @@
         <v>0.20412380699999999</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>689</v>
       </c>
@@ -35978,7 +35981,7 @@
         <v>0.29957267999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>690</v>
       </c>
@@ -36058,7 +36061,7 @@
         <v>0.26680348199999998</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -36138,7 +36141,7 @@
         <v>0.23617002600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -36218,7 +36221,7 @@
         <v>0.28607152800000002</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>691</v>
       </c>
@@ -36298,7 +36301,7 @@
         <v>0.25205312499999999</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>692</v>
       </c>
@@ -36378,7 +36381,7 @@
         <v>0.24749605999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>693</v>
       </c>
@@ -36458,7 +36461,7 @@
         <v>0.23831311399999999</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>694</v>
       </c>
@@ -36538,7 +36541,7 @@
         <v>0.26037552000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>695</v>
       </c>
@@ -36618,7 +36621,7 @@
         <v>0.249594433</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>696</v>
       </c>
@@ -36698,7 +36701,7 @@
         <v>0.257790136</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>697</v>
       </c>
@@ -36778,7 +36781,7 @@
         <v>0.26470371500000001</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>698</v>
       </c>
@@ -36858,7 +36861,7 @@
         <v>0.298197449</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -36938,7 +36941,7 @@
         <v>0.24057669000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -37018,7 +37021,7 @@
         <v>0.319881423</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>699</v>
       </c>
@@ -37098,7 +37101,7 @@
         <v>0.30209310099999998</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>700</v>
       </c>
@@ -37178,7 +37181,7 @@
         <v>0.30532294700000001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>701</v>
       </c>
@@ -37258,7 +37261,7 @@
         <v>0.28461773499999998</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>702</v>
       </c>
@@ -37351,15 +37354,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="22.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>749</v>
       </c>
@@ -37373,7 +37376,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>753</v>
       </c>
@@ -37394,6 +37397,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016926C673858A24ABD1F0F68A585E074" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1931556e2b88a0a7c72249bbb83367d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c9bee02-199a-488a-b277-ba7f212fbf06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="613c55408f90ae378c42e0f4853623d2" ns3:_="">
     <xsd:import namespace="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
@@ -37595,35 +37613,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC31D53-F79F-4F2D-98CF-E26337BE3FD1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37645,9 +37638,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC31D53-F79F-4F2D-98CF-E26337BE3FD1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1424D40-CB90-4576-BDB0-A23C534A0EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A221A0-2510-406D-98CE-E7D0B663A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryMaster" sheetId="1" r:id="rId1"/>
@@ -4790,10 +4790,10 @@
   <dimension ref="A1:AH406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I284" sqref="I284"/>
+      <selection pane="bottomRight" activeCell="H300" sqref="H300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26182,7 +26182,7 @@
         <v>0</v>
       </c>
       <c r="F297" t="s">
-        <v>277</v>
+        <v>1458</v>
       </c>
       <c r="G297">
         <v>100</v>
@@ -37397,21 +37397,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016926C673858A24ABD1F0F68A585E074" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1931556e2b88a0a7c72249bbb83367d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c9bee02-199a-488a-b277-ba7f212fbf06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="613c55408f90ae378c42e0f4853623d2" ns3:_="">
     <xsd:import namespace="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
@@ -37613,10 +37598,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC31D53-F79F-4F2D-98CF-E26337BE3FD1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37638,19 +37648,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC31D53-F79F-4F2D-98CF-E26337BE3FD1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" rupBuild="4506" lastEdited="4" lowestEdited="4"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A221A0-2510-406D-98CE-E7D0B663A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="517"/>
   </bookViews>
   <sheets>
-    <sheet name="CountryMaster" sheetId="1" r:id="rId1"/>
-    <sheet name="WPP" sheetId="2" r:id="rId2"/>
-    <sheet name="GBD" sheetId="3" r:id="rId3"/>
-    <sheet name="DisabilityWeights" sheetId="4" r:id="rId4"/>
-    <sheet name="Revision Log" sheetId="5" r:id="rId5"/>
+    <sheet name="CountryMaster" sheetId="1" r:id="flId1"/>
+    <sheet name="WPP" sheetId="2" r:id="flId2"/>
+    <sheet name="GBD" sheetId="3" r:id="flId3"/>
+    <sheet name="DisabilityWeights" sheetId="4" r:id="flId4"/>
+    <sheet name="Revision Log" sheetId="5" r:id="flId5"/>
   </sheets>
-  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2294,7 +2292,7 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>Changed 36 UPD files that ended with "_NOAIDS" to "_R1", as requested by Jill.  Here is the list of countries on one line, as requested: Bahamas,Belize,Botswana,Burkina Faso,Cameroon,Central African Republic,Chad,Congo,Democratic Republic of the Congo,Djiboiti,Equatorial Guinea,Tritrea,Gabon,Gambia,Ghana,Guinea,Guinea-Bissau,Jamaica,Kenya,Lesotho,Liberia,Malawi,Mali,Mozambique,Namibia,Rwanda,Sierra Leone,South Africa,South Sudan,Swaziland,Thailand,Togo,Uganda,United Republic of Tanzania,Zambia,Zimbabwe</t>
+    <t xml:space="preserve">Changed 36 UPD files that ended with "_NOAIDS" to "_R1", as requested by Jill.  Here is the list of countries on one line, as requested: Bahamas,Belize,Botswana,Burkina Faso,Cameroon,Central African Republic,Chad,Congo,Democratic Republic of the Congo,Djiboiti,Equatorial Guinea,Tritrea,Gabon,Gambia,Ghana,Guinea,Guinea-Bissau,Jamaica,Kenya,Lesotho,Liberia,Malawi,Mali,Mozambique,Namibia,Rwanda,Sierra Leone,South Africa,South Sudan,Swaziland,Thailand,Togo,Uganda,United Republic of Tanzania,Zambia,Zimbabwe</t>
   </si>
   <si>
     <t>ISO</t>
@@ -4406,8 +4404,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4437,6 +4435,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color auto="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4460,22 +4459,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf fontId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="3" numFmtId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyFont="1" applyAlignment="1" fontId="1" numFmtId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyNumberFormat="1" fontId="0" numFmtId="49" fillId="0" borderId="0" xfId="0"/>
+    <xf applyFont="1" fontId="2" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyFont="1" fontId="2" numFmtId="0" fillId="0" borderId="0" xfId="1"/>
+    <xf applyFont="1" fontId="4" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4786,17 +4785,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AH406"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F281" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H300" sqref="H300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -4832,7 +4829,7 @@
     <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4936,7 +4933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5016,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -5087,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>12</v>
       </c>
@@ -5161,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>24</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>28</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>32</v>
       </c>
@@ -5383,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>51</v>
       </c>
@@ -5457,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>533</v>
       </c>
@@ -5519,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>36</v>
       </c>
@@ -5590,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>40</v>
       </c>
@@ -5658,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>31</v>
       </c>
@@ -5729,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>44</v>
       </c>
@@ -5803,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>48</v>
       </c>
@@ -5874,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>50</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>52</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>112</v>
       </c>
@@ -6093,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>56</v>
       </c>
@@ -6161,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>84</v>
       </c>
@@ -6235,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>204</v>
       </c>
@@ -6321,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="3">
         <v>204</v>
       </c>
@@ -6401,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="3">
         <v>204</v>
       </c>
@@ -6481,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="3">
         <v>204</v>
       </c>
@@ -6561,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="3">
         <v>204</v>
       </c>
@@ -6641,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="3">
         <v>204</v>
       </c>
@@ -6721,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="3">
         <v>204</v>
       </c>
@@ -6801,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="3">
         <v>204</v>
       </c>
@@ -6881,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="3">
         <v>204</v>
       </c>
@@ -6961,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="3">
         <v>204</v>
       </c>
@@ -7041,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="3">
         <v>204</v>
       </c>
@@ -7121,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="3">
         <v>204</v>
       </c>
@@ -7201,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="3">
         <v>204</v>
       </c>
@@ -7281,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33">
         <v>64</v>
       </c>
@@ -7355,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34">
         <v>68</v>
       </c>
@@ -7432,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35">
         <v>70</v>
       </c>
@@ -7503,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36">
         <v>72</v>
       </c>
@@ -7589,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37">
         <v>76</v>
       </c>
@@ -7666,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38">
         <v>96</v>
       </c>
@@ -7737,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39">
         <v>100</v>
       </c>
@@ -7808,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40">
         <v>854</v>
       </c>
@@ -7894,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41">
         <v>108</v>
       </c>
@@ -7974,7 +7971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42">
         <v>116</v>
       </c>
@@ -8054,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43">
         <v>120</v>
       </c>
@@ -8140,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44">
         <v>124</v>
       </c>
@@ -8208,7 +8205,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45">
         <v>132</v>
       </c>
@@ -8282,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46">
         <v>140</v>
       </c>
@@ -8368,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47">
         <v>148</v>
       </c>
@@ -8454,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48">
         <v>830</v>
       </c>
@@ -8516,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49">
         <v>152</v>
       </c>
@@ -8593,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50">
         <v>156</v>
       </c>
@@ -8670,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51">
         <v>344</v>
       </c>
@@ -8732,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52">
         <v>446</v>
       </c>
@@ -8794,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53">
         <v>158</v>
       </c>
@@ -8859,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54">
         <v>170</v>
       </c>
@@ -8933,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55">
         <v>174</v>
       </c>
@@ -9007,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56">
         <v>178</v>
       </c>
@@ -9093,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57">
         <v>188</v>
       </c>
@@ -9167,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58">
         <v>384</v>
       </c>
@@ -9250,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="3">
         <v>384</v>
       </c>
@@ -9330,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="3">
         <v>384</v>
       </c>
@@ -9410,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="3">
         <v>384</v>
       </c>
@@ -9490,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="3">
         <v>384</v>
       </c>
@@ -9570,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="3">
         <v>384</v>
       </c>
@@ -9650,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="3">
         <v>384</v>
       </c>
@@ -9730,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="3">
         <v>384</v>
       </c>
@@ -9810,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="3">
         <v>384</v>
       </c>
@@ -9890,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="3">
         <v>384</v>
       </c>
@@ -9970,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="3">
         <v>384</v>
       </c>
@@ -10050,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="3">
         <v>384</v>
       </c>
@@ -10130,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70">
         <v>191</v>
       </c>
@@ -10204,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71">
       <c r="A71">
         <v>192</v>
       </c>
@@ -10278,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72">
       <c r="A72">
         <v>531</v>
       </c>
@@ -10340,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73">
         <v>196</v>
       </c>
@@ -10411,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74">
         <v>203</v>
       </c>
@@ -10485,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75">
       <c r="A75">
         <v>408</v>
       </c>
@@ -10556,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76">
         <v>180</v>
       </c>
@@ -10642,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77">
       <c r="A77">
         <v>208</v>
       </c>
@@ -10713,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78">
       <c r="A78">
         <v>262</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79">
       <c r="A79">
         <v>212</v>
       </c>
@@ -10852,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80">
       <c r="A80">
         <v>214</v>
       </c>
@@ -10932,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81">
       <c r="A81">
         <v>218</v>
       </c>
@@ -11012,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82">
       <c r="A82">
         <v>818</v>
       </c>
@@ -11086,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83">
         <v>222</v>
       </c>
@@ -11166,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84">
       <c r="A84">
         <v>226</v>
       </c>
@@ -11246,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85">
       <c r="A85">
         <v>232</v>
       </c>
@@ -11326,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86">
       <c r="A86">
         <v>233</v>
       </c>
@@ -11397,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87">
       <c r="A87">
         <v>231</v>
       </c>
@@ -11483,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88">
       <c r="A88" s="3">
         <v>231</v>
       </c>
@@ -11563,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89">
       <c r="A89" s="3">
         <v>231</v>
       </c>
@@ -11643,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90">
       <c r="A90" s="3">
         <v>231</v>
       </c>
@@ -11723,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91">
       <c r="A91" s="3">
         <v>231</v>
       </c>
@@ -11803,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92">
       <c r="A92" s="3">
         <v>231</v>
       </c>
@@ -11883,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93">
       <c r="A93" s="3">
         <v>231</v>
       </c>
@@ -11963,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94">
       <c r="A94" s="3">
         <v>231</v>
       </c>
@@ -12043,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95">
       <c r="A95" s="3">
         <v>231</v>
       </c>
@@ -12123,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96">
       <c r="A96" s="3">
         <v>231</v>
       </c>
@@ -12203,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97">
       <c r="A97" s="3">
         <v>231</v>
       </c>
@@ -12283,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98">
       <c r="A98" s="3">
         <v>231</v>
       </c>
@@ -12363,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99">
       <c r="A99" s="3">
         <v>231</v>
       </c>
@@ -12443,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100">
       <c r="A100">
         <v>242</v>
       </c>
@@ -12517,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101">
       <c r="A101">
         <v>246</v>
       </c>
@@ -12585,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102">
       <c r="A102">
         <v>250</v>
       </c>
@@ -12656,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103">
       <c r="A103">
         <v>254</v>
       </c>
@@ -12718,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104">
       <c r="A104">
         <v>258</v>
       </c>
@@ -12780,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105">
       <c r="A105">
         <v>266</v>
       </c>
@@ -12866,7 +12863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106">
       <c r="A106">
         <v>270</v>
       </c>
@@ -12946,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107">
       <c r="A107">
         <v>268</v>
       </c>
@@ -13020,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108">
       <c r="A108">
         <v>276</v>
       </c>
@@ -13088,7 +13085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109">
       <c r="A109">
         <v>288</v>
       </c>
@@ -13174,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110">
       <c r="A110">
         <v>300</v>
       </c>
@@ -13245,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111">
       <c r="A111">
         <v>308</v>
       </c>
@@ -13319,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112">
       <c r="A112">
         <v>312</v>
       </c>
@@ -13381,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="113">
       <c r="A113">
         <v>316</v>
       </c>
@@ -13443,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="114">
       <c r="A114">
         <v>320</v>
       </c>
@@ -13523,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="115">
       <c r="A115">
         <v>324</v>
       </c>
@@ -13609,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="116">
       <c r="A116">
         <v>624</v>
       </c>
@@ -13689,7 +13686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="117">
       <c r="A117">
         <v>328</v>
       </c>
@@ -13763,7 +13760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="118">
       <c r="A118">
         <v>332</v>
       </c>
@@ -13840,7 +13837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="119">
       <c r="A119" s="3">
         <v>332</v>
       </c>
@@ -13917,7 +13914,7 @@
       </c>
       <c r="AH119" s="3"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="120">
       <c r="A120" s="3">
         <v>332</v>
       </c>
@@ -13994,7 +13991,7 @@
       </c>
       <c r="AH120" s="3"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="121">
       <c r="A121" s="3">
         <v>332</v>
       </c>
@@ -14071,7 +14068,7 @@
       </c>
       <c r="AH121" s="3"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="122">
       <c r="A122" s="3">
         <v>332</v>
       </c>
@@ -14148,7 +14145,7 @@
       </c>
       <c r="AH122" s="3"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="123">
       <c r="A123" s="3">
         <v>332</v>
       </c>
@@ -14225,7 +14222,7 @@
       </c>
       <c r="AH123" s="3"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="124">
       <c r="A124" s="3">
         <v>332</v>
       </c>
@@ -14302,7 +14299,7 @@
       </c>
       <c r="AH124" s="3"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="125">
       <c r="A125" s="3">
         <v>332</v>
       </c>
@@ -14379,7 +14376,7 @@
       </c>
       <c r="AH125" s="3"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="126">
       <c r="A126" s="3">
         <v>332</v>
       </c>
@@ -14456,7 +14453,7 @@
       </c>
       <c r="AH126" s="3"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="127">
       <c r="A127" s="3">
         <v>332</v>
       </c>
@@ -14533,7 +14530,7 @@
       </c>
       <c r="AH127" s="3"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="128">
       <c r="A128" s="3">
         <v>332</v>
       </c>
@@ -14610,7 +14607,7 @@
       </c>
       <c r="AH128" s="3"/>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="129">
       <c r="A129">
         <v>340</v>
       </c>
@@ -14684,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="130">
       <c r="A130">
         <v>348</v>
       </c>
@@ -14755,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="131">
       <c r="A131">
         <v>352</v>
       </c>
@@ -14826,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="132">
       <c r="A132">
         <v>356</v>
       </c>
@@ -14903,7 +14900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="133">
       <c r="A133">
         <v>356</v>
       </c>
@@ -14941,7 +14938,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="134">
       <c r="A134">
         <v>356</v>
       </c>
@@ -14979,7 +14976,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="135">
       <c r="A135">
         <v>356</v>
       </c>
@@ -15017,7 +15014,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="136">
       <c r="A136">
         <v>356</v>
       </c>
@@ -15055,7 +15052,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="137">
       <c r="A137">
         <v>356</v>
       </c>
@@ -15093,7 +15090,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="138">
       <c r="A138">
         <v>356</v>
       </c>
@@ -15131,7 +15128,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="139">
       <c r="A139">
         <v>356</v>
       </c>
@@ -15169,7 +15166,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="140">
       <c r="A140">
         <v>356</v>
       </c>
@@ -15207,7 +15204,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="141">
       <c r="A141">
         <v>356</v>
       </c>
@@ -15245,7 +15242,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="142">
       <c r="A142">
         <v>356</v>
       </c>
@@ -15283,7 +15280,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="143">
       <c r="A143">
         <v>356</v>
       </c>
@@ -15321,7 +15318,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="144">
       <c r="A144">
         <v>356</v>
       </c>
@@ -15359,7 +15356,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145">
       <c r="A145">
         <v>356</v>
       </c>
@@ -15397,7 +15394,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146">
       <c r="A146">
         <v>356</v>
       </c>
@@ -15435,7 +15432,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147">
       <c r="A147">
         <v>356</v>
       </c>
@@ -15473,7 +15470,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148">
       <c r="A148">
         <v>356</v>
       </c>
@@ -15511,7 +15508,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149">
       <c r="A149">
         <v>356</v>
       </c>
@@ -15549,7 +15546,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150">
       <c r="A150">
         <v>356</v>
       </c>
@@ -15587,7 +15584,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151">
       <c r="A151">
         <v>356</v>
       </c>
@@ -15625,7 +15622,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152">
       <c r="A152">
         <v>356</v>
       </c>
@@ -15663,7 +15660,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153">
       <c r="A153">
         <v>356</v>
       </c>
@@ -15701,7 +15698,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154">
       <c r="A154">
         <v>356</v>
       </c>
@@ -15739,7 +15736,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155">
       <c r="A155">
         <v>356</v>
       </c>
@@ -15777,7 +15774,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156">
       <c r="A156">
         <v>356</v>
       </c>
@@ -15815,7 +15812,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157">
       <c r="A157">
         <v>356</v>
       </c>
@@ -15853,7 +15850,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158">
       <c r="A158">
         <v>356</v>
       </c>
@@ -15891,7 +15888,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159">
       <c r="A159">
         <v>356</v>
       </c>
@@ -15929,7 +15926,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160">
       <c r="A160">
         <v>356</v>
       </c>
@@ -15967,7 +15964,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="161">
       <c r="A161">
         <v>356</v>
       </c>
@@ -16005,7 +16002,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="162">
       <c r="A162">
         <v>356</v>
       </c>
@@ -16043,7 +16040,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="163">
       <c r="A163">
         <v>356</v>
       </c>
@@ -16081,7 +16078,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="164">
       <c r="A164">
         <v>356</v>
       </c>
@@ -16119,7 +16116,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="165">
       <c r="A165">
         <v>356</v>
       </c>
@@ -16157,7 +16154,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="166">
       <c r="A166">
         <v>356</v>
       </c>
@@ -16195,7 +16192,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="167">
       <c r="A167">
         <v>356</v>
       </c>
@@ -16233,7 +16230,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="168">
       <c r="A168">
         <v>360</v>
       </c>
@@ -16313,7 +16310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="169">
       <c r="A169">
         <v>364</v>
       </c>
@@ -16384,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="170">
       <c r="A170">
         <v>368</v>
       </c>
@@ -16455,7 +16452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="171">
       <c r="A171">
         <v>372</v>
       </c>
@@ -16526,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="172">
       <c r="A172">
         <v>376</v>
       </c>
@@ -16594,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="173">
       <c r="A173">
         <v>380</v>
       </c>
@@ -16665,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="174">
       <c r="A174">
         <v>388</v>
       </c>
@@ -16736,7 +16733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="175">
       <c r="A175">
         <v>392</v>
       </c>
@@ -16804,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="176">
       <c r="A176">
         <v>400</v>
       </c>
@@ -16878,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="177">
       <c r="A177">
         <v>398</v>
       </c>
@@ -16949,7 +16946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="178">
       <c r="A178">
         <v>404</v>
       </c>
@@ -17035,7 +17032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="179">
       <c r="A179" s="3">
         <v>404</v>
       </c>
@@ -17115,7 +17112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="180">
       <c r="A180" s="3">
         <v>404</v>
       </c>
@@ -17195,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="181">
       <c r="A181" s="3">
         <v>404</v>
       </c>
@@ -17275,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="182">
       <c r="A182" s="3">
         <v>404</v>
       </c>
@@ -17355,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="183">
       <c r="A183" s="3">
         <v>404</v>
       </c>
@@ -17435,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="184">
       <c r="A184" s="3">
         <v>404</v>
       </c>
@@ -17515,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="185">
       <c r="A185" s="3">
         <v>404</v>
       </c>
@@ -17595,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="186">
       <c r="A186" s="3">
         <v>404</v>
       </c>
@@ -17675,7 +17672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="187">
       <c r="A187">
         <v>296</v>
       </c>
@@ -17746,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="188">
       <c r="A188" s="5">
         <v>412</v>
       </c>
@@ -17818,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="189">
       <c r="A189">
         <v>414</v>
       </c>
@@ -17892,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="190">
       <c r="A190">
         <v>417</v>
       </c>
@@ -17966,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="191">
       <c r="A191">
         <v>418</v>
       </c>
@@ -18040,7 +18037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="192">
       <c r="A192">
         <v>428</v>
       </c>
@@ -18111,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="193">
       <c r="A193">
         <v>422</v>
       </c>
@@ -18185,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="194">
       <c r="A194">
         <v>426</v>
       </c>
@@ -18271,7 +18268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="195">
       <c r="A195">
         <v>430</v>
       </c>
@@ -18351,7 +18348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="196">
       <c r="A196">
         <v>434</v>
       </c>
@@ -18422,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="197">
       <c r="A197">
         <v>440</v>
       </c>
@@ -18496,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="198">
       <c r="A198">
         <v>442</v>
       </c>
@@ -18567,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="199">
       <c r="A199">
         <v>450</v>
       </c>
@@ -18653,7 +18650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="200">
       <c r="A200">
         <v>454</v>
       </c>
@@ -18739,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="201">
       <c r="A201">
         <v>458</v>
       </c>
@@ -18819,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="202">
       <c r="A202">
         <v>462</v>
       </c>
@@ -18893,7 +18890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="203">
       <c r="A203">
         <v>466</v>
       </c>
@@ -18979,7 +18976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="204">
       <c r="A204">
         <v>470</v>
       </c>
@@ -19050,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="205">
       <c r="A205">
         <v>474</v>
       </c>
@@ -19112,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="206">
       <c r="A206">
         <v>478</v>
       </c>
@@ -19192,7 +19189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="207">
       <c r="A207">
         <v>480</v>
       </c>
@@ -19266,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="208">
       <c r="A208">
         <v>175</v>
       </c>
@@ -19328,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="209">
       <c r="A209">
         <v>484</v>
       </c>
@@ -19408,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="210">
       <c r="A210">
         <v>583</v>
       </c>
@@ -19479,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="211">
       <c r="A211">
         <v>496</v>
       </c>
@@ -19559,7 +19556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="212">
       <c r="A212">
         <v>499</v>
       </c>
@@ -19633,7 +19630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="213">
       <c r="A213">
         <v>504</v>
       </c>
@@ -19710,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="214">
       <c r="A214">
         <v>508</v>
       </c>
@@ -19796,7 +19793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="215">
       <c r="A215" s="3">
         <v>508</v>
       </c>
@@ -19876,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="216">
       <c r="A216" s="3">
         <v>508</v>
       </c>
@@ -19956,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="217">
       <c r="A217" s="3">
         <v>508</v>
       </c>
@@ -20036,7 +20033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="218">
       <c r="A218" s="3">
         <v>508</v>
       </c>
@@ -20116,7 +20113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="219">
       <c r="A219" s="3">
         <v>508</v>
       </c>
@@ -20196,7 +20193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="220">
       <c r="A220" s="3">
         <v>508</v>
       </c>
@@ -20276,7 +20273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="221">
       <c r="A221" s="3">
         <v>508</v>
       </c>
@@ -20356,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="222">
       <c r="A222" s="3">
         <v>508</v>
       </c>
@@ -20436,7 +20433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="223">
       <c r="A223" s="3">
         <v>508</v>
       </c>
@@ -20516,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="224">
       <c r="A224" s="3">
         <v>508</v>
       </c>
@@ -20596,7 +20593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="225">
       <c r="A225" s="3">
         <v>508</v>
       </c>
@@ -20676,7 +20673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="226">
       <c r="A226">
         <v>104</v>
       </c>
@@ -20756,7 +20753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="227">
       <c r="A227">
         <v>516</v>
       </c>
@@ -20842,7 +20839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="228">
       <c r="A228">
         <v>524</v>
       </c>
@@ -20922,7 +20919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="229">
       <c r="A229">
         <v>528</v>
       </c>
@@ -20993,7 +20990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="230">
       <c r="A230">
         <v>540</v>
       </c>
@@ -21055,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="231">
       <c r="A231">
         <v>554</v>
       </c>
@@ -21126,7 +21123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="232">
       <c r="A232">
         <v>558</v>
       </c>
@@ -21200,7 +21197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="233">
       <c r="A233">
         <v>562</v>
       </c>
@@ -21286,7 +21283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="234">
       <c r="A234">
         <v>566</v>
       </c>
@@ -21369,7 +21366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="235">
       <c r="A235" s="3">
         <v>566</v>
       </c>
@@ -21449,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="236">
       <c r="A236" s="3">
         <v>566</v>
       </c>
@@ -21529,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="237">
       <c r="A237" s="3">
         <v>566</v>
       </c>
@@ -21609,7 +21606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="238">
       <c r="A238" s="3">
         <v>566</v>
       </c>
@@ -21689,7 +21686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="239">
       <c r="A239" s="3">
         <v>566</v>
       </c>
@@ -21769,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="240">
       <c r="A240" s="3">
         <v>566</v>
       </c>
@@ -21849,7 +21846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="241">
       <c r="A241" s="3">
         <v>566</v>
       </c>
@@ -21929,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="242">
       <c r="A242" s="3">
         <v>566</v>
       </c>
@@ -22009,7 +22006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="243">
       <c r="A243" s="3">
         <v>566</v>
       </c>
@@ -22089,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="244">
       <c r="A244" s="3">
         <v>566</v>
       </c>
@@ -22169,7 +22166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="245">
       <c r="A245" s="3">
         <v>566</v>
       </c>
@@ -22249,7 +22246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="246">
       <c r="A246" s="3">
         <v>566</v>
       </c>
@@ -22329,7 +22326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="247">
       <c r="A247" s="3">
         <v>566</v>
       </c>
@@ -22409,7 +22406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="248">
       <c r="A248" s="3">
         <v>566</v>
       </c>
@@ -22489,7 +22486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="249">
       <c r="A249" s="3">
         <v>566</v>
       </c>
@@ -22569,7 +22566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="250">
       <c r="A250" s="3">
         <v>566</v>
       </c>
@@ -22649,7 +22646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="251">
       <c r="A251" s="3">
         <v>566</v>
       </c>
@@ -22729,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="252">
       <c r="A252" s="3">
         <v>566</v>
       </c>
@@ -22809,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="253">
       <c r="A253" s="3">
         <v>566</v>
       </c>
@@ -22889,7 +22886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="254">
       <c r="A254" s="3">
         <v>566</v>
       </c>
@@ -22969,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="255">
       <c r="A255" s="3">
         <v>566</v>
       </c>
@@ -23049,7 +23046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="256">
       <c r="A256" s="3">
         <v>566</v>
       </c>
@@ -23129,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="257">
       <c r="A257" s="3">
         <v>566</v>
       </c>
@@ -23209,7 +23206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="258">
       <c r="A258" s="3">
         <v>566</v>
       </c>
@@ -23289,7 +23286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="259">
       <c r="A259" s="3">
         <v>566</v>
       </c>
@@ -23369,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="260">
       <c r="A260" s="3">
         <v>566</v>
       </c>
@@ -23449,7 +23446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="261">
       <c r="A261" s="3">
         <v>566</v>
       </c>
@@ -23529,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="262">
       <c r="A262" s="3">
         <v>566</v>
       </c>
@@ -23609,7 +23606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="263">
       <c r="A263" s="3">
         <v>566</v>
       </c>
@@ -23689,7 +23686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="264">
       <c r="A264" s="3">
         <v>566</v>
       </c>
@@ -23769,7 +23766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="265">
       <c r="A265" s="3">
         <v>566</v>
       </c>
@@ -23849,7 +23846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="266">
       <c r="A266" s="3">
         <v>566</v>
       </c>
@@ -23929,7 +23926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="267">
       <c r="A267" s="3">
         <v>566</v>
       </c>
@@ -24009,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="268">
       <c r="A268" s="3">
         <v>566</v>
       </c>
@@ -24089,7 +24086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="269">
       <c r="A269" s="3">
         <v>566</v>
       </c>
@@ -24169,7 +24166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="270">
       <c r="A270" s="3">
         <v>566</v>
       </c>
@@ -24249,7 +24246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="271">
       <c r="A271" s="3">
         <v>566</v>
       </c>
@@ -24329,7 +24326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="272">
       <c r="A272">
         <v>578</v>
       </c>
@@ -24397,7 +24394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="273">
       <c r="A273">
         <v>275</v>
       </c>
@@ -24465,7 +24462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="274">
       <c r="A274">
         <v>512</v>
       </c>
@@ -24536,7 +24533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="275">
       <c r="A275">
         <v>586</v>
       </c>
@@ -24616,7 +24613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="276">
       <c r="A276">
         <v>591</v>
       </c>
@@ -24696,7 +24693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="277">
       <c r="A277">
         <v>598</v>
       </c>
@@ -24776,7 +24773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="278">
       <c r="A278">
         <v>600</v>
       </c>
@@ -24856,7 +24853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="279">
       <c r="A279">
         <v>604</v>
       </c>
@@ -24936,7 +24933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="280">
       <c r="A280">
         <v>608</v>
       </c>
@@ -25016,7 +25013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="281">
       <c r="A281">
         <v>616</v>
       </c>
@@ -25087,7 +25084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="282">
       <c r="A282">
         <v>620</v>
       </c>
@@ -25158,7 +25155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="283">
       <c r="A283">
         <v>630</v>
       </c>
@@ -25220,7 +25217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="284">
       <c r="A284">
         <v>634</v>
       </c>
@@ -25294,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="285">
       <c r="A285">
         <v>410</v>
       </c>
@@ -25365,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="286">
       <c r="A286">
         <v>498</v>
       </c>
@@ -25439,7 +25436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="287">
       <c r="A287" s="3">
         <v>498</v>
       </c>
@@ -25515,7 +25512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="288">
       <c r="A288" s="3">
         <v>498</v>
       </c>
@@ -25591,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="289">
       <c r="A289">
         <v>638</v>
       </c>
@@ -25653,7 +25650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="290">
       <c r="A290">
         <v>642</v>
       </c>
@@ -25727,7 +25724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="291">
       <c r="A291">
         <v>643</v>
       </c>
@@ -25798,7 +25795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="292">
       <c r="A292">
         <v>646</v>
       </c>
@@ -25884,7 +25881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="293">
       <c r="A293">
         <v>659</v>
       </c>
@@ -25955,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="294">
       <c r="A294">
         <v>662</v>
       </c>
@@ -26026,7 +26023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="295">
       <c r="A295">
         <v>670</v>
       </c>
@@ -26097,7 +26094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="296">
       <c r="A296">
         <v>882</v>
       </c>
@@ -26168,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="297">
       <c r="A297">
         <v>5733</v>
       </c>
@@ -26239,7 +26236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="298">
       <c r="A298">
         <v>678</v>
       </c>
@@ -26313,7 +26310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="299">
       <c r="A299">
         <v>682</v>
       </c>
@@ -26384,7 +26381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="300">
       <c r="A300">
         <v>686</v>
       </c>
@@ -26470,7 +26467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="301">
       <c r="A301">
         <v>688</v>
       </c>
@@ -26544,7 +26541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="302">
       <c r="A302">
         <v>690</v>
       </c>
@@ -26612,7 +26609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="303">
       <c r="A303">
         <v>694</v>
       </c>
@@ -26698,7 +26695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="304">
       <c r="A304">
         <v>702</v>
       </c>
@@ -26769,7 +26766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="305">
       <c r="A305">
         <v>703</v>
       </c>
@@ -26843,7 +26840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="306">
       <c r="A306">
         <v>705</v>
       </c>
@@ -26917,7 +26914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="307">
       <c r="A307">
         <v>90</v>
       </c>
@@ -26988,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="308">
       <c r="A308">
         <v>706</v>
       </c>
@@ -27065,7 +27062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="309">
       <c r="A309">
         <v>710</v>
       </c>
@@ -27151,7 +27148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="310">
       <c r="A310">
         <v>728</v>
       </c>
@@ -27231,7 +27228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="311">
       <c r="A311">
         <v>724</v>
       </c>
@@ -27299,7 +27296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="312">
       <c r="A312">
         <v>144</v>
       </c>
@@ -27373,7 +27370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="313">
       <c r="A313">
         <v>729</v>
       </c>
@@ -27447,7 +27444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="314">
       <c r="A314">
         <v>740</v>
       </c>
@@ -27518,7 +27515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="315">
       <c r="A315">
         <v>748</v>
       </c>
@@ -27604,7 +27601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="316">
       <c r="A316">
         <v>752</v>
       </c>
@@ -27672,7 +27669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="317">
       <c r="A317">
         <v>756</v>
       </c>
@@ -27740,7 +27737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="318">
       <c r="A318">
         <v>760</v>
       </c>
@@ -27814,7 +27811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="319">
       <c r="A319">
         <v>762</v>
       </c>
@@ -27888,7 +27885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="320">
       <c r="A320">
         <v>807</v>
       </c>
@@ -27962,7 +27959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="321">
       <c r="A321">
         <v>764</v>
       </c>
@@ -27979,7 +27976,7 @@
         <v>596</v>
       </c>
       <c r="G321">
-        <v>33.130000000000003</v>
+        <v>33.13</v>
       </c>
       <c r="H321" t="s">
         <v>597</v>
@@ -28042,7 +28039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="322">
       <c r="A322">
         <v>626</v>
       </c>
@@ -28116,7 +28113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="323">
       <c r="A323">
         <v>768</v>
       </c>
@@ -28202,7 +28199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="324">
       <c r="A324" s="3">
         <v>768</v>
       </c>
@@ -28282,7 +28279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="325">
       <c r="A325" s="3">
         <v>768</v>
       </c>
@@ -28362,7 +28359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="326">
       <c r="A326" s="3">
         <v>768</v>
       </c>
@@ -28442,7 +28439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="327">
       <c r="A327" s="3">
         <v>768</v>
       </c>
@@ -28522,7 +28519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="328">
       <c r="A328" s="3">
         <v>768</v>
       </c>
@@ -28602,7 +28599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="329">
       <c r="A329" s="3">
         <v>768</v>
       </c>
@@ -28682,7 +28679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="330">
       <c r="A330">
         <v>776</v>
       </c>
@@ -28753,7 +28750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="331">
       <c r="A331">
         <v>780</v>
       </c>
@@ -28827,7 +28824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="332">
       <c r="A332">
         <v>788</v>
       </c>
@@ -28904,7 +28901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="333">
       <c r="A333">
         <v>792</v>
       </c>
@@ -28975,7 +28972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="334">
       <c r="A334">
         <v>795</v>
       </c>
@@ -29046,7 +29043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="335">
       <c r="A335">
         <v>800</v>
       </c>
@@ -29132,7 +29129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="336">
       <c r="A336" s="3">
         <v>800</v>
       </c>
@@ -29212,7 +29209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="337">
       <c r="A337" s="3">
         <v>800</v>
       </c>
@@ -29292,7 +29289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="338">
       <c r="A338" s="3">
         <v>800</v>
       </c>
@@ -29372,7 +29369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="339">
       <c r="A339" s="3">
         <v>800</v>
       </c>
@@ -29452,7 +29449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="340">
       <c r="A340" s="3">
         <v>800</v>
       </c>
@@ -29532,7 +29529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="341">
       <c r="A341" s="3">
         <v>800</v>
       </c>
@@ -29612,7 +29609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="342">
       <c r="A342" s="3">
         <v>800</v>
       </c>
@@ -29692,7 +29689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="343">
       <c r="A343" s="3">
         <v>800</v>
       </c>
@@ -29772,7 +29769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="344">
       <c r="A344" s="3">
         <v>800</v>
       </c>
@@ -29852,7 +29849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="345">
       <c r="A345">
         <v>804</v>
       </c>
@@ -29923,7 +29920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="346">
       <c r="A346">
         <v>784</v>
       </c>
@@ -29994,7 +29991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="347">
       <c r="A347">
         <v>826</v>
       </c>
@@ -30062,7 +30059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="348">
       <c r="A348">
         <v>834</v>
       </c>
@@ -30148,7 +30145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="349">
       <c r="A349" s="3">
         <v>834</v>
       </c>
@@ -30228,7 +30225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="350">
       <c r="A350" s="3">
         <v>834</v>
       </c>
@@ -30308,7 +30305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="351">
       <c r="A351" s="3">
         <v>834</v>
       </c>
@@ -30388,7 +30385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="352">
       <c r="A352" s="3">
         <v>834</v>
       </c>
@@ -30468,7 +30465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="353">
       <c r="A353" s="3">
         <v>834</v>
       </c>
@@ -30548,7 +30545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="354">
       <c r="A354" s="3">
         <v>834</v>
       </c>
@@ -30628,7 +30625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="355">
       <c r="A355" s="3">
         <v>834</v>
       </c>
@@ -30708,7 +30705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="356">
       <c r="A356" s="3">
         <v>834</v>
       </c>
@@ -30788,7 +30785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="357">
       <c r="A357" s="3">
         <v>834</v>
       </c>
@@ -30868,7 +30865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="358">
       <c r="A358" s="3">
         <v>834</v>
       </c>
@@ -30948,7 +30945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="359">
       <c r="A359" s="3">
         <v>834</v>
       </c>
@@ -31028,7 +31025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="360">
       <c r="A360" s="3">
         <v>834</v>
       </c>
@@ -31108,7 +31105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="361">
       <c r="A361" s="3">
         <v>834</v>
       </c>
@@ -31188,7 +31185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="362">
       <c r="A362" s="3">
         <v>834</v>
       </c>
@@ -31268,7 +31265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="363">
       <c r="A363" s="3">
         <v>834</v>
       </c>
@@ -31348,7 +31345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="364">
       <c r="A364" s="3">
         <v>834</v>
       </c>
@@ -31428,7 +31425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="365">
       <c r="A365" s="3">
         <v>834</v>
       </c>
@@ -31508,7 +31505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="366">
       <c r="A366" s="3">
         <v>834</v>
       </c>
@@ -31588,7 +31585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="367">
       <c r="A367" s="3">
         <v>834</v>
       </c>
@@ -31668,7 +31665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="368">
       <c r="A368" s="3">
         <v>834</v>
       </c>
@@ -31748,7 +31745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="369">
       <c r="A369" s="3">
         <v>834</v>
       </c>
@@ -31828,7 +31825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="370">
       <c r="A370" s="3">
         <v>834</v>
       </c>
@@ -31908,7 +31905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="371">
       <c r="A371" s="3">
         <v>834</v>
       </c>
@@ -31988,7 +31985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="372">
       <c r="A372" s="3">
         <v>834</v>
       </c>
@@ -32068,7 +32065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="373">
       <c r="A373" s="3">
         <v>834</v>
       </c>
@@ -32148,7 +32145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="374">
       <c r="A374" s="3">
         <v>834</v>
       </c>
@@ -32228,7 +32225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="375">
       <c r="A375" s="3">
         <v>834</v>
       </c>
@@ -32308,7 +32305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="376">
       <c r="A376">
         <v>840</v>
       </c>
@@ -32373,7 +32370,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="377" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="377">
       <c r="A377">
         <v>850</v>
       </c>
@@ -32432,7 +32429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="378">
       <c r="A378">
         <v>858</v>
       </c>
@@ -32506,7 +32503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="379">
       <c r="A379">
         <v>860</v>
       </c>
@@ -32577,7 +32574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="380">
       <c r="A380">
         <v>548</v>
       </c>
@@ -32645,7 +32642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="381">
       <c r="A381">
         <v>862</v>
       </c>
@@ -32716,7 +32713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="382">
       <c r="A382">
         <v>704</v>
       </c>
@@ -32793,7 +32790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="383">
       <c r="A383">
         <v>732</v>
       </c>
@@ -32855,7 +32852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="384">
       <c r="A384">
         <v>887</v>
       </c>
@@ -32929,7 +32926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="385">
       <c r="A385">
         <v>894</v>
       </c>
@@ -33015,7 +33012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="386">
       <c r="A386" s="3">
         <v>894</v>
       </c>
@@ -33095,7 +33092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="387">
       <c r="A387" s="3">
         <v>894</v>
       </c>
@@ -33175,7 +33172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="388">
       <c r="A388" s="3">
         <v>894</v>
       </c>
@@ -33255,7 +33252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="389">
       <c r="A389" s="3">
         <v>894</v>
       </c>
@@ -33335,7 +33332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="390">
       <c r="A390" s="3">
         <v>894</v>
       </c>
@@ -33415,7 +33412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="391">
       <c r="A391" s="3">
         <v>894</v>
       </c>
@@ -33495,7 +33492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="392">
       <c r="A392" s="3">
         <v>894</v>
       </c>
@@ -33575,7 +33572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="393">
       <c r="A393" s="3">
         <v>894</v>
       </c>
@@ -33655,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="394">
       <c r="A394" s="3">
         <v>894</v>
       </c>
@@ -33735,7 +33732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="395">
       <c r="A395" s="3">
         <v>894</v>
       </c>
@@ -33815,7 +33812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="396">
       <c r="A396">
         <v>716</v>
       </c>
@@ -33901,7 +33898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="397">
       <c r="A397" s="3">
         <v>716</v>
       </c>
@@ -33981,7 +33978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="398">
       <c r="A398" s="3">
         <v>716</v>
       </c>
@@ -34061,7 +34058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="399">
       <c r="A399" s="3">
         <v>716</v>
       </c>
@@ -34141,7 +34138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="400">
       <c r="A400" s="3">
         <v>716</v>
       </c>
@@ -34221,7 +34218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="401">
       <c r="A401" s="3">
         <v>716</v>
       </c>
@@ -34301,7 +34298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="402">
       <c r="A402" s="3">
         <v>716</v>
       </c>
@@ -34381,7 +34378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="403">
       <c r="A403" s="3">
         <v>716</v>
       </c>
@@ -34461,7 +34458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="404">
       <c r="A404" s="3">
         <v>716</v>
       </c>
@@ -34541,7 +34538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="405">
       <c r="A405" s="3">
         <v>716</v>
       </c>
@@ -34621,7 +34618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="406">
       <c r="A406" s="3">
         <v>716</v>
       </c>
@@ -34703,25 +34700,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup usePrinterDefaults="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A1" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="52.21875" customWidth="1"/>
     <col min="3" max="4" width="73.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>668</v>
       </c>
@@ -34735,7 +34733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>903</v>
       </c>
@@ -34749,7 +34747,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>935</v>
       </c>
@@ -34763,7 +34761,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>927</v>
       </c>
@@ -34777,7 +34775,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>915</v>
       </c>
@@ -34791,7 +34789,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>916</v>
       </c>
@@ -34805,7 +34803,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>5500</v>
       </c>
@@ -34819,7 +34817,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>910</v>
       </c>
@@ -34833,7 +34831,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>1832</v>
       </c>
@@ -34847,7 +34845,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>906</v>
       </c>
@@ -34861,7 +34859,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>923</v>
       </c>
@@ -34875,7 +34873,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>908</v>
       </c>
@@ -34889,7 +34887,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>1829</v>
       </c>
@@ -34903,7 +34901,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>1503</v>
       </c>
@@ -34917,7 +34915,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>904</v>
       </c>
@@ -34931,7 +34929,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>941</v>
       </c>
@@ -34945,7 +34943,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>902</v>
       </c>
@@ -34959,7 +34957,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>948</v>
       </c>
@@ -34973,7 +34971,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>934</v>
       </c>
@@ -34987,7 +34985,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>1501</v>
       </c>
@@ -35001,7 +34999,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -35015,7 +35013,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22">
         <v>928</v>
       </c>
@@ -35029,7 +35027,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23">
         <v>954</v>
       </c>
@@ -35043,7 +35041,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24">
         <v>911</v>
       </c>
@@ -35057,7 +35055,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25">
         <v>1517</v>
       </c>
@@ -35071,7 +35069,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26">
         <v>901</v>
       </c>
@@ -35085,7 +35083,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27">
         <v>1518</v>
       </c>
@@ -35099,7 +35097,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28">
         <v>912</v>
       </c>
@@ -35113,7 +35111,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29">
         <v>905</v>
       </c>
@@ -35127,7 +35125,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30">
         <v>1833</v>
       </c>
@@ -35141,7 +35139,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31">
         <v>924</v>
       </c>
@@ -35155,7 +35153,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32">
         <v>1835</v>
       </c>
@@ -35169,7 +35167,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33">
         <v>909</v>
       </c>
@@ -35183,7 +35181,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34">
         <v>957</v>
       </c>
@@ -35197,7 +35195,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35">
         <v>931</v>
       </c>
@@ -35211,7 +35209,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36">
         <v>5501</v>
       </c>
@@ -35225,7 +35223,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37">
         <v>1831</v>
       </c>
@@ -35239,7 +35237,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38">
         <v>920</v>
       </c>
@@ -35253,7 +35251,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39">
         <v>913</v>
       </c>
@@ -35267,7 +35265,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40">
         <v>925</v>
       </c>
@@ -35281,7 +35279,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41">
         <v>1834</v>
       </c>
@@ -35295,7 +35293,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42">
         <v>1502</v>
       </c>
@@ -35309,7 +35307,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43">
         <v>914</v>
       </c>
@@ -35323,7 +35321,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44">
         <v>922</v>
       </c>
@@ -35337,7 +35335,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45">
         <v>926</v>
       </c>
@@ -35351,7 +35349,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46">
         <v>900</v>
       </c>
@@ -35367,23 +35365,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="flId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="52.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>703</v>
       </c>
@@ -35391,7 +35389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>31100</v>
       </c>
@@ -35399,7 +35397,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>31101</v>
       </c>
@@ -35407,7 +35405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>31102</v>
       </c>
@@ -35415,7 +35413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>31103</v>
       </c>
@@ -35423,7 +35421,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>31104</v>
       </c>
@@ -35431,7 +35429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>31105</v>
       </c>
@@ -35439,7 +35437,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>31106</v>
       </c>
@@ -35447,7 +35445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>31107</v>
       </c>
@@ -35455,7 +35453,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>31108</v>
       </c>
@@ -35463,7 +35461,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>31109</v>
       </c>
@@ -35471,7 +35469,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>31110</v>
       </c>
@@ -35479,7 +35477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>31111</v>
       </c>
@@ -35487,7 +35485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>31112</v>
       </c>
@@ -35495,7 +35493,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>31113</v>
       </c>
@@ -35503,7 +35501,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>31114</v>
       </c>
@@ -35511,7 +35509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>31115</v>
       </c>
@@ -35519,7 +35517,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>31116</v>
       </c>
@@ -35527,7 +35525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>31117</v>
       </c>
@@ -35535,7 +35533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>31118</v>
       </c>
@@ -35543,7 +35541,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21">
         <v>31119</v>
       </c>
@@ -35551,7 +35549,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22">
         <v>31120</v>
       </c>
@@ -35561,19 +35559,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="flId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="C1" t="s">
         <v>670</v>
       </c>
@@ -35581,7 +35579,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -35661,7 +35659,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>686</v>
       </c>
@@ -35669,79 +35667,79 @@
         <v>124</v>
       </c>
       <c r="C3">
-        <v>1.7950172E-2</v>
+        <v>0.017950172</v>
       </c>
       <c r="D3">
-        <v>2.8451616999999998E-2</v>
+        <v>0.028451617</v>
       </c>
       <c r="E3">
-        <v>3.8953061999999997E-2</v>
+        <v>0.038953062</v>
       </c>
       <c r="F3">
-        <v>4.9454507000000002E-2</v>
+        <v>0.049454507</v>
       </c>
       <c r="G3">
-        <v>5.9955951E-2</v>
+        <v>0.059955951</v>
       </c>
       <c r="H3">
-        <v>7.0457396000000005E-2</v>
+        <v>0.070457396</v>
       </c>
       <c r="I3">
-        <v>8.6209564000000002E-2</v>
+        <v>0.086209564</v>
       </c>
       <c r="J3">
         <v>0.107212453</v>
       </c>
       <c r="K3">
-        <v>0.12821534300000001</v>
+        <v>0.128215343</v>
       </c>
       <c r="L3">
-        <v>0.14921823300000001</v>
+        <v>0.149218233</v>
       </c>
       <c r="M3">
         <v>0.170221123</v>
       </c>
       <c r="N3">
-        <v>0.19647473500000001</v>
+        <v>0.196474735</v>
       </c>
       <c r="O3">
-        <v>1.8761085E-2</v>
+        <v>0.018761085</v>
       </c>
       <c r="P3">
-        <v>2.9412012000000001E-2</v>
+        <v>0.029412012</v>
       </c>
       <c r="Q3">
-        <v>4.0062938999999999E-2</v>
+        <v>0.040062939</v>
       </c>
       <c r="R3">
-        <v>5.0713866000000003E-2</v>
+        <v>0.050713866</v>
       </c>
       <c r="S3">
-        <v>6.1364793000000001E-2</v>
+        <v>0.061364793</v>
       </c>
       <c r="T3">
-        <v>7.2015720000000005E-2</v>
+        <v>0.07201572</v>
       </c>
       <c r="U3">
-        <v>8.7992110999999998E-2</v>
+        <v>0.087992111</v>
       </c>
       <c r="V3">
-        <v>0.10929396399999999</v>
+        <v>0.109293964</v>
       </c>
       <c r="W3">
         <v>0.130595818</v>
       </c>
       <c r="X3">
-        <v>0.15189767200000001</v>
+        <v>0.151897672</v>
       </c>
       <c r="Y3">
-        <v>0.17319952599999999</v>
+        <v>0.173199526</v>
       </c>
       <c r="Z3">
         <v>0.199826844</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>687</v>
       </c>
@@ -35749,64 +35747,64 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>3.1003078E-2</v>
+        <v>0.031003078</v>
       </c>
       <c r="D4">
-        <v>4.4371762000000002E-2</v>
+        <v>0.044371762</v>
       </c>
       <c r="E4">
-        <v>5.7740447E-2</v>
+        <v>0.057740447</v>
       </c>
       <c r="F4">
-        <v>7.1109132000000005E-2</v>
+        <v>0.071109132</v>
       </c>
       <c r="G4">
-        <v>8.4477816999999997E-2</v>
+        <v>0.084477817</v>
       </c>
       <c r="H4">
-        <v>9.7846502000000002E-2</v>
+        <v>0.097846502</v>
       </c>
       <c r="I4">
         <v>0.117899529</v>
       </c>
       <c r="J4">
-        <v>0.14463689800000001</v>
+        <v>0.144636898</v>
       </c>
       <c r="K4">
         <v>0.171374268</v>
       </c>
       <c r="L4">
-        <v>0.19811163700000001</v>
+        <v>0.198111637</v>
       </c>
       <c r="M4">
-        <v>0.22484900699999999</v>
+        <v>0.224849007</v>
       </c>
       <c r="N4">
-        <v>0.25827071899999998</v>
+        <v>0.258270719</v>
       </c>
       <c r="O4">
-        <v>3.4381024000000003E-2</v>
+        <v>0.034381024</v>
       </c>
       <c r="P4">
-        <v>4.7372732000000001E-2</v>
+        <v>0.047372732</v>
       </c>
       <c r="Q4">
-        <v>6.0364439999999998E-2</v>
+        <v>0.06036444</v>
       </c>
       <c r="R4">
-        <v>7.3356147999999996E-2</v>
+        <v>0.073356148</v>
       </c>
       <c r="S4">
-        <v>8.6347856000000001E-2</v>
+        <v>0.086347856</v>
       </c>
       <c r="T4">
-        <v>9.9339564000000005E-2</v>
+        <v>0.099339564</v>
       </c>
       <c r="U4">
-        <v>0.11882712600000001</v>
+        <v>0.118827126</v>
       </c>
       <c r="V4">
-        <v>0.14481054199999999</v>
+        <v>0.144810542</v>
       </c>
       <c r="W4">
         <v>0.170793958</v>
@@ -35815,13 +35813,13 @@
         <v>0.196777374</v>
       </c>
       <c r="Y4">
-        <v>0.22276078999999999</v>
+        <v>0.22276079</v>
       </c>
       <c r="Z4">
-        <v>0.25524005999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.25524006</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>688</v>
       </c>
@@ -35829,79 +35827,79 @@
         <v>163</v>
       </c>
       <c r="C5">
-        <v>2.5336837000000001E-2</v>
+        <v>0.025336837</v>
       </c>
       <c r="D5">
-        <v>3.6289687000000001E-2</v>
+        <v>0.036289687</v>
       </c>
       <c r="E5">
-        <v>4.7242538000000001E-2</v>
+        <v>0.047242538</v>
       </c>
       <c r="F5">
-        <v>5.8195388000000001E-2</v>
+        <v>0.058195388</v>
       </c>
       <c r="G5">
-        <v>6.9148239E-2</v>
+        <v>0.069148239</v>
       </c>
       <c r="H5">
-        <v>8.0101089E-2</v>
+        <v>0.080101089</v>
       </c>
       <c r="I5">
-        <v>9.6530365000000007E-2</v>
+        <v>0.096530365</v>
       </c>
       <c r="J5">
-        <v>0.11843606600000001</v>
+        <v>0.118436066</v>
       </c>
       <c r="K5">
-        <v>0.14034176700000001</v>
+        <v>0.140341767</v>
       </c>
       <c r="L5">
-        <v>0.16224746800000001</v>
+        <v>0.162247468</v>
       </c>
       <c r="M5">
-        <v>0.18415316900000001</v>
+        <v>0.184153169</v>
       </c>
       <c r="N5">
-        <v>0.21153529500000001</v>
+        <v>0.211535295</v>
       </c>
       <c r="O5">
-        <v>2.2542375E-2</v>
+        <v>0.022542375</v>
       </c>
       <c r="P5">
-        <v>3.3223636000000001E-2</v>
+        <v>0.033223636</v>
       </c>
       <c r="Q5">
-        <v>4.3904896999999998E-2</v>
+        <v>0.043904897</v>
       </c>
       <c r="R5">
-        <v>5.4586157000000003E-2</v>
+        <v>0.054586157</v>
       </c>
       <c r="S5">
-        <v>6.5267417999999994E-2</v>
+        <v>0.065267418</v>
       </c>
       <c r="T5">
-        <v>7.5948679000000005E-2</v>
+        <v>0.075948679</v>
       </c>
       <c r="U5">
-        <v>9.1970570000000001E-2</v>
+        <v>0.09197057</v>
       </c>
       <c r="V5">
         <v>0.113333091</v>
       </c>
       <c r="W5">
-        <v>0.13469561199999999</v>
+        <v>0.134695612</v>
       </c>
       <c r="X5">
-        <v>0.15605813399999999</v>
+        <v>0.156058134</v>
       </c>
       <c r="Y5">
-        <v>0.17742065500000001</v>
+        <v>0.177420655</v>
       </c>
       <c r="Z5">
-        <v>0.20412380699999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.204123807</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>689</v>
       </c>
@@ -35909,19 +35907,19 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>3.8096154E-2</v>
+        <v>0.038096154</v>
       </c>
       <c r="D6">
-        <v>5.3409444E-2</v>
+        <v>0.053409444</v>
       </c>
       <c r="E6">
-        <v>6.8722732999999994E-2</v>
+        <v>0.068722733</v>
       </c>
       <c r="F6">
-        <v>8.4036023000000001E-2</v>
+        <v>0.084036023</v>
       </c>
       <c r="G6">
-        <v>9.9349312999999995E-2</v>
+        <v>0.099349313</v>
       </c>
       <c r="H6">
         <v>0.114662602</v>
@@ -35930,31 +35928,31 @@
         <v>0.137632537</v>
       </c>
       <c r="J6">
-        <v>0.16825911599999999</v>
+        <v>0.168259116</v>
       </c>
       <c r="K6">
         <v>0.198885696</v>
       </c>
       <c r="L6">
-        <v>0.22951227499999999</v>
+        <v>0.229512275</v>
       </c>
       <c r="M6">
-        <v>0.26013885399999997</v>
+        <v>0.260138854</v>
       </c>
       <c r="N6">
-        <v>0.29842207900000001</v>
+        <v>0.298422079</v>
       </c>
       <c r="O6">
-        <v>4.2669196999999999E-2</v>
+        <v>0.042669197</v>
       </c>
       <c r="P6">
-        <v>5.7781166000000002E-2</v>
+        <v>0.057781166</v>
       </c>
       <c r="Q6">
-        <v>7.2893135999999997E-2</v>
+        <v>0.072893136</v>
       </c>
       <c r="R6">
-        <v>8.8005106E-2</v>
+        <v>0.088005106</v>
       </c>
       <c r="S6">
         <v>0.103117075</v>
@@ -35963,7 +35961,7 @@
         <v>0.118229045</v>
       </c>
       <c r="U6">
-        <v>0.14089699899999999</v>
+        <v>0.140896999</v>
       </c>
       <c r="V6">
         <v>0.171120939</v>
@@ -35972,16 +35970,16 @@
         <v>0.201344878</v>
       </c>
       <c r="X6">
-        <v>0.23156881700000001</v>
+        <v>0.231568817</v>
       </c>
       <c r="Y6">
-        <v>0.26179275600000002</v>
+        <v>0.261792756</v>
       </c>
       <c r="Z6">
-        <v>0.29957267999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.29957268</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>690</v>
       </c>
@@ -35989,55 +35987,55 @@
         <v>137</v>
       </c>
       <c r="C7">
-        <v>3.3563087999999998E-2</v>
+        <v>0.033563088</v>
       </c>
       <c r="D7">
-        <v>4.7287214000000001E-2</v>
+        <v>0.047287214</v>
       </c>
       <c r="E7">
-        <v>6.1011338999999998E-2</v>
+        <v>0.061011339</v>
       </c>
       <c r="F7">
-        <v>7.4735464000000001E-2</v>
+        <v>0.074735464</v>
       </c>
       <c r="G7">
-        <v>8.8459589000000005E-2</v>
+        <v>0.088459589</v>
       </c>
       <c r="H7">
-        <v>0.10218371399999999</v>
+        <v>0.102183714</v>
       </c>
       <c r="I7">
         <v>0.122769901</v>
       </c>
       <c r="J7">
-        <v>0.15021815099999999</v>
+        <v>0.150218151</v>
       </c>
       <c r="K7">
         <v>0.177666402</v>
       </c>
       <c r="L7">
-        <v>0.20511465200000001</v>
+        <v>0.205114652</v>
       </c>
       <c r="M7">
-        <v>0.23256290199999999</v>
+        <v>0.232562902</v>
       </c>
       <c r="N7">
-        <v>0.26687321400000003</v>
+        <v>0.266873214</v>
       </c>
       <c r="O7">
-        <v>3.1125096000000001E-2</v>
+        <v>0.031125096</v>
       </c>
       <c r="P7">
-        <v>4.4988529999999999E-2</v>
+        <v>0.04498853</v>
       </c>
       <c r="Q7">
-        <v>5.8851964999999999E-2</v>
+        <v>0.058851965</v>
       </c>
       <c r="R7">
-        <v>7.2715399E-2</v>
+        <v>0.072715399</v>
       </c>
       <c r="S7">
-        <v>8.6578832999999994E-2</v>
+        <v>0.086578833</v>
       </c>
       <c r="T7">
         <v>0.100442268</v>
@@ -36049,19 +36047,19 @@
         <v>0.148964289</v>
       </c>
       <c r="W7">
-        <v>0.17669115799999999</v>
+        <v>0.176691158</v>
       </c>
       <c r="X7">
         <v>0.204418027</v>
       </c>
       <c r="Y7">
-        <v>0.23214489599999999</v>
+        <v>0.232144896</v>
       </c>
       <c r="Z7">
-        <v>0.26680348199999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.266803482</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -36069,79 +36067,79 @@
         <v>66</v>
       </c>
       <c r="C8">
-        <v>2.1689887000000001E-2</v>
+        <v>0.021689887</v>
       </c>
       <c r="D8">
-        <v>3.3993712000000002E-2</v>
+        <v>0.033993712</v>
       </c>
       <c r="E8">
-        <v>4.6297536E-2</v>
+        <v>0.046297536</v>
       </c>
       <c r="F8">
-        <v>5.8601359999999998E-2</v>
+        <v>0.05860136</v>
       </c>
       <c r="G8">
-        <v>7.0905183999999996E-2</v>
+        <v>0.070905184</v>
       </c>
       <c r="H8">
-        <v>8.3209008000000001E-2</v>
+        <v>0.083209008</v>
       </c>
       <c r="I8">
         <v>0.101664744</v>
       </c>
       <c r="J8">
-        <v>0.12627239300000001</v>
+        <v>0.126272393</v>
       </c>
       <c r="K8">
-        <v>0.15088004099999999</v>
+        <v>0.150880041</v>
       </c>
       <c r="L8">
         <v>0.175487689</v>
       </c>
       <c r="M8">
-        <v>0.20009533700000001</v>
+        <v>0.200095337</v>
       </c>
       <c r="N8">
         <v>0.230854898</v>
       </c>
       <c r="O8">
-        <v>2.2745659000000001E-2</v>
+        <v>0.022745659</v>
       </c>
       <c r="P8">
-        <v>3.5300034000000001E-2</v>
+        <v>0.035300034</v>
       </c>
       <c r="Q8">
-        <v>4.7854408000000001E-2</v>
+        <v>0.047854408</v>
       </c>
       <c r="R8">
-        <v>6.0408783000000001E-2</v>
+        <v>0.060408783</v>
       </c>
       <c r="S8">
-        <v>7.2963157000000001E-2</v>
+        <v>0.072963157</v>
       </c>
       <c r="T8">
-        <v>8.5517531999999993E-2</v>
+        <v>0.085517532</v>
       </c>
       <c r="U8">
         <v>0.104349093</v>
       </c>
       <c r="V8">
-        <v>0.12945784199999999</v>
+        <v>0.129457842</v>
       </c>
       <c r="W8">
         <v>0.154566591</v>
       </c>
       <c r="X8">
-        <v>0.17967534099999999</v>
+        <v>0.179675341</v>
       </c>
       <c r="Y8">
         <v>0.20478409</v>
       </c>
       <c r="Z8">
-        <v>0.23617002600000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.236170026</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -36149,79 +36147,79 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>4.5956354999999997E-2</v>
+        <v>0.045956355</v>
       </c>
       <c r="D9">
-        <v>6.1179052999999997E-2</v>
+        <v>0.061179053</v>
       </c>
       <c r="E9">
-        <v>7.6401752000000003E-2</v>
+        <v>0.076401752</v>
       </c>
       <c r="F9">
-        <v>9.1624450999999996E-2</v>
+        <v>0.091624451</v>
       </c>
       <c r="G9">
         <v>0.106847149</v>
       </c>
       <c r="H9">
-        <v>0.12206984799999999</v>
+        <v>0.122069848</v>
       </c>
       <c r="I9">
         <v>0.144903896</v>
       </c>
       <c r="J9">
-        <v>0.17534929299999999</v>
+        <v>0.175349293</v>
       </c>
       <c r="K9">
         <v>0.20579469</v>
       </c>
       <c r="L9">
-        <v>0.23624008799999999</v>
+        <v>0.236240088</v>
       </c>
       <c r="M9">
         <v>0.266685485</v>
       </c>
       <c r="N9">
-        <v>0.30474223099999997</v>
+        <v>0.304742231</v>
       </c>
       <c r="O9">
-        <v>4.8051175000000002E-2</v>
+        <v>0.048051175</v>
       </c>
       <c r="P9">
-        <v>6.2052373000000001E-2</v>
+        <v>0.062052373</v>
       </c>
       <c r="Q9">
-        <v>7.6053570000000001E-2</v>
+        <v>0.07605357</v>
       </c>
       <c r="R9">
-        <v>9.0054766999999994E-2</v>
+        <v>0.090054767</v>
       </c>
       <c r="S9">
         <v>0.104055964</v>
       </c>
       <c r="T9">
-        <v>0.11805716099999999</v>
+        <v>0.118057161</v>
       </c>
       <c r="U9">
-        <v>0.13905895700000001</v>
+        <v>0.139058957</v>
       </c>
       <c r="V9">
         <v>0.167061352</v>
       </c>
       <c r="W9">
-        <v>0.19506374600000001</v>
+        <v>0.195063746</v>
       </c>
       <c r="X9">
         <v>0.22306614</v>
       </c>
       <c r="Y9">
-        <v>0.25106853499999998</v>
+        <v>0.251068535</v>
       </c>
       <c r="Z9">
-        <v>0.28607152800000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.286071528</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>691</v>
       </c>
@@ -36229,61 +36227,61 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>2.7863054000000002E-2</v>
+        <v>0.027863054</v>
       </c>
       <c r="D10">
-        <v>4.1703514999999997E-2</v>
+        <v>0.041703515</v>
       </c>
       <c r="E10">
-        <v>5.5543975000000002E-2</v>
+        <v>0.055543975</v>
       </c>
       <c r="F10">
-        <v>6.9384435999999994E-2</v>
+        <v>0.069384436</v>
       </c>
       <c r="G10">
-        <v>8.3224896000000007E-2</v>
+        <v>0.083224896</v>
       </c>
       <c r="H10">
-        <v>9.7065357000000005E-2</v>
+        <v>0.097065357</v>
       </c>
       <c r="I10">
         <v>0.117826047</v>
       </c>
       <c r="J10">
-        <v>0.14550696799999999</v>
+        <v>0.145506968</v>
       </c>
       <c r="K10">
-        <v>0.17318788900000001</v>
+        <v>0.173187889</v>
       </c>
       <c r="L10">
-        <v>0.20086881000000001</v>
+        <v>0.20086881</v>
       </c>
       <c r="M10">
-        <v>0.22854973100000001</v>
+        <v>0.228549731</v>
       </c>
       <c r="N10">
-        <v>0.26315088199999997</v>
+        <v>0.263150882</v>
       </c>
       <c r="O10">
-        <v>2.5109323999999999E-2</v>
+        <v>0.025109324</v>
       </c>
       <c r="P10">
-        <v>3.8458959000000001E-2</v>
+        <v>0.038458959</v>
       </c>
       <c r="Q10">
-        <v>5.1808593999999999E-2</v>
+        <v>0.051808594</v>
       </c>
       <c r="R10">
-        <v>6.5158229999999998E-2</v>
+        <v>0.06515823</v>
       </c>
       <c r="S10">
-        <v>7.8507864999999996E-2</v>
+        <v>0.078507865</v>
       </c>
       <c r="T10">
-        <v>9.1857499999999995E-2</v>
+        <v>0.0918575</v>
       </c>
       <c r="U10">
-        <v>0.11188195300000001</v>
+        <v>0.111881953</v>
       </c>
       <c r="V10">
         <v>0.138581224</v>
@@ -36295,13 +36293,13 @@
         <v>0.191979766</v>
       </c>
       <c r="Y10">
-        <v>0.21867903599999999</v>
+        <v>0.218679036</v>
       </c>
       <c r="Z10">
-        <v>0.25205312499999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.252053125</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>692</v>
       </c>
@@ -36309,19 +36307,19 @@
         <v>92</v>
       </c>
       <c r="C11">
-        <v>3.4940371999999997E-2</v>
+        <v>0.034940372</v>
       </c>
       <c r="D11">
-        <v>4.8532520000000003E-2</v>
+        <v>0.04853252</v>
       </c>
       <c r="E11">
-        <v>6.2124669E-2</v>
+        <v>0.062124669</v>
       </c>
       <c r="F11">
-        <v>7.5716817000000006E-2</v>
+        <v>0.075716817</v>
       </c>
       <c r="G11">
-        <v>8.9308966000000004E-2</v>
+        <v>0.089308966</v>
       </c>
       <c r="H11">
         <v>0.102901114</v>
@@ -36333,55 +36331,55 @@
         <v>0.150473634</v>
       </c>
       <c r="K11">
-        <v>0.17765793099999999</v>
+        <v>0.177657931</v>
       </c>
       <c r="L11">
-        <v>0.20484222799999999</v>
+        <v>0.204842228</v>
       </c>
       <c r="M11">
-        <v>0.23202652400000001</v>
+        <v>0.232026524</v>
       </c>
       <c r="N11">
-        <v>0.26600689599999999</v>
+        <v>0.266006896</v>
       </c>
       <c r="O11">
-        <v>2.9936845E-2</v>
+        <v>0.029936845</v>
       </c>
       <c r="P11">
-        <v>4.2734446000000002E-2</v>
+        <v>0.042734446</v>
       </c>
       <c r="Q11">
-        <v>5.5532047000000001E-2</v>
+        <v>0.055532047</v>
       </c>
       <c r="R11">
-        <v>6.8329648000000007E-2</v>
+        <v>0.068329648</v>
       </c>
       <c r="S11">
-        <v>8.1127248999999999E-2</v>
+        <v>0.081127249</v>
       </c>
       <c r="T11">
-        <v>9.3924850000000004E-2</v>
+        <v>0.09392485</v>
       </c>
       <c r="U11">
-        <v>0.11312125100000001</v>
+        <v>0.113121251</v>
       </c>
       <c r="V11">
-        <v>0.13871645299999999</v>
+        <v>0.138716453</v>
       </c>
       <c r="W11">
         <v>0.164311654</v>
       </c>
       <c r="X11">
-        <v>0.18990685600000001</v>
+        <v>0.189906856</v>
       </c>
       <c r="Y11">
         <v>0.215502058</v>
       </c>
       <c r="Z11">
-        <v>0.24749605999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.24749606</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>693</v>
       </c>
@@ -36389,58 +36387,58 @@
         <v>72</v>
       </c>
       <c r="C12">
-        <v>2.0538445999999998E-2</v>
+        <v>0.020538446</v>
       </c>
       <c r="D12">
-        <v>3.3189611000000001E-2</v>
+        <v>0.033189611</v>
       </c>
       <c r="E12">
-        <v>4.5840775E-2</v>
+        <v>0.045840775</v>
       </c>
       <c r="F12">
-        <v>5.8491939999999999E-2</v>
+        <v>0.05849194</v>
       </c>
       <c r="G12">
-        <v>7.1143103999999999E-2</v>
+        <v>0.071143104</v>
       </c>
       <c r="H12">
-        <v>8.3794269000000005E-2</v>
+        <v>0.083794269</v>
       </c>
       <c r="I12">
-        <v>0.10277101600000001</v>
+        <v>0.102771016</v>
       </c>
       <c r="J12">
-        <v>0.12807334400000001</v>
+        <v>0.128073344</v>
       </c>
       <c r="K12">
-        <v>0.15337567299999999</v>
+        <v>0.153375673</v>
       </c>
       <c r="L12">
         <v>0.178678002</v>
       </c>
       <c r="M12">
-        <v>0.20398033099999999</v>
+        <v>0.203980331</v>
       </c>
       <c r="N12">
-        <v>0.23560824299999999</v>
+        <v>0.235608243</v>
       </c>
       <c r="O12">
-        <v>2.2021964000000002E-2</v>
+        <v>0.022021964</v>
       </c>
       <c r="P12">
-        <v>3.4744972999999998E-2</v>
+        <v>0.034744973</v>
       </c>
       <c r="Q12">
-        <v>4.7467980999999999E-2</v>
+        <v>0.047467981</v>
       </c>
       <c r="R12">
-        <v>6.019099E-2</v>
+        <v>0.06019099</v>
       </c>
       <c r="S12">
-        <v>7.2913998999999993E-2</v>
+        <v>0.072913999</v>
       </c>
       <c r="T12">
-        <v>8.5637008000000001E-2</v>
+        <v>0.085637008</v>
       </c>
       <c r="U12">
         <v>0.104721521</v>
@@ -36449,19 +36447,19 @@
         <v>0.130167539</v>
       </c>
       <c r="W12">
-        <v>0.15561355700000001</v>
+        <v>0.155613557</v>
       </c>
       <c r="X12">
         <v>0.181059574</v>
       </c>
       <c r="Y12">
-        <v>0.20650559199999999</v>
+        <v>0.206505592</v>
       </c>
       <c r="Z12">
-        <v>0.23831311399999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.238313114</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>694</v>
       </c>
@@ -36469,19 +36467,19 @@
         <v>108</v>
       </c>
       <c r="C13">
-        <v>3.8826988E-2</v>
+        <v>0.038826988</v>
       </c>
       <c r="D13">
-        <v>5.1610845000000002E-2</v>
+        <v>0.051610845</v>
       </c>
       <c r="E13">
-        <v>6.4394701999999998E-2</v>
+        <v>0.064394702</v>
       </c>
       <c r="F13">
-        <v>7.7178559999999993E-2</v>
+        <v>0.07717856</v>
       </c>
       <c r="G13">
-        <v>8.9962417000000003E-2</v>
+        <v>0.089962417</v>
       </c>
       <c r="H13">
         <v>0.102746274</v>
@@ -36490,34 +36488,34 @@
         <v>0.12192206</v>
       </c>
       <c r="J13">
-        <v>0.14748977399999999</v>
+        <v>0.147489774</v>
       </c>
       <c r="K13">
-        <v>0.17305748900000001</v>
+        <v>0.173057489</v>
       </c>
       <c r="L13">
         <v>0.198625203</v>
       </c>
       <c r="M13">
-        <v>0.22419291799999999</v>
+        <v>0.224192918</v>
       </c>
       <c r="N13">
         <v>0.256152561</v>
       </c>
       <c r="O13">
-        <v>3.6088505E-2</v>
+        <v>0.036088505</v>
       </c>
       <c r="P13">
-        <v>4.9281857999999998E-2</v>
+        <v>0.049281858</v>
       </c>
       <c r="Q13">
-        <v>6.2475212000000002E-2</v>
+        <v>0.062475212</v>
       </c>
       <c r="R13">
-        <v>7.5668566000000007E-2</v>
+        <v>0.075668566</v>
       </c>
       <c r="S13">
-        <v>8.8861919999999997E-2</v>
+        <v>0.08886192</v>
       </c>
       <c r="T13">
         <v>0.102055274</v>
@@ -36529,19 +36527,19 @@
         <v>0.148232012</v>
       </c>
       <c r="W13">
-        <v>0.17461872000000001</v>
+        <v>0.17461872</v>
       </c>
       <c r="X13">
-        <v>0.20100542800000001</v>
+        <v>0.201005428</v>
       </c>
       <c r="Y13">
         <v>0.227392135</v>
       </c>
       <c r="Z13">
-        <v>0.26037552000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.26037552</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>695</v>
       </c>
@@ -36549,67 +36547,67 @@
         <v>176</v>
       </c>
       <c r="C14">
-        <v>2.9709165999999999E-2</v>
+        <v>0.029709166</v>
       </c>
       <c r="D14">
-        <v>4.2101131E-2</v>
+        <v>0.042101131</v>
       </c>
       <c r="E14">
-        <v>5.4493094999999998E-2</v>
+        <v>0.054493095</v>
       </c>
       <c r="F14">
-        <v>6.6885058999999997E-2</v>
+        <v>0.066885059</v>
       </c>
       <c r="G14">
-        <v>7.9277024000000001E-2</v>
+        <v>0.079277024</v>
       </c>
       <c r="H14">
-        <v>9.1668988000000007E-2</v>
+        <v>0.091668988</v>
       </c>
       <c r="I14">
         <v>0.110256934</v>
       </c>
       <c r="J14">
-        <v>0.13504086300000001</v>
+        <v>0.135040863</v>
       </c>
       <c r="K14">
-        <v>0.15982479099999999</v>
+        <v>0.159824791</v>
       </c>
       <c r="L14">
         <v>0.18460872</v>
       </c>
       <c r="M14">
-        <v>0.20939264899999999</v>
+        <v>0.209392649</v>
       </c>
       <c r="N14">
-        <v>0.24037255900000001</v>
+        <v>0.240372559</v>
       </c>
       <c r="O14">
-        <v>2.7596235E-2</v>
+        <v>0.027596235</v>
       </c>
       <c r="P14">
-        <v>4.0654953000000001E-2</v>
+        <v>0.040654953</v>
       </c>
       <c r="Q14">
-        <v>5.3713669999999998E-2</v>
+        <v>0.05371367</v>
       </c>
       <c r="R14">
-        <v>6.6772388000000002E-2</v>
+        <v>0.066772388</v>
       </c>
       <c r="S14">
-        <v>7.9831104999999999E-2</v>
+        <v>0.079831105</v>
       </c>
       <c r="T14">
-        <v>9.2889822999999996E-2</v>
+        <v>0.092889823</v>
       </c>
       <c r="U14">
-        <v>0.11247789900000001</v>
+        <v>0.112477899</v>
       </c>
       <c r="V14">
-        <v>0.13859533399999999</v>
+        <v>0.138595334</v>
       </c>
       <c r="W14">
-        <v>0.16471276900000001</v>
+        <v>0.164712769</v>
       </c>
       <c r="X14">
         <v>0.190830204</v>
@@ -36621,7 +36619,7 @@
         <v>0.249594433</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>696</v>
       </c>
@@ -36629,58 +36627,58 @@
         <v>54</v>
       </c>
       <c r="C15">
-        <v>2.3089864000000002E-2</v>
+        <v>0.023089864</v>
       </c>
       <c r="D15">
-        <v>3.6878745999999997E-2</v>
+        <v>0.036878746</v>
       </c>
       <c r="E15">
-        <v>5.0667627999999999E-2</v>
+        <v>0.050667628</v>
       </c>
       <c r="F15">
-        <v>6.4456509999999995E-2</v>
+        <v>0.06445651</v>
       </c>
       <c r="G15">
-        <v>7.8245390999999997E-2</v>
+        <v>0.078245391</v>
       </c>
       <c r="H15">
-        <v>9.2034273E-2</v>
+        <v>0.092034273</v>
       </c>
       <c r="I15">
         <v>0.112717595</v>
       </c>
       <c r="J15">
-        <v>0.14029535900000001</v>
+        <v>0.140295359</v>
       </c>
       <c r="K15">
-        <v>0.16787312200000001</v>
+        <v>0.167873122</v>
       </c>
       <c r="L15">
-        <v>0.19545088599999999</v>
+        <v>0.195450886</v>
       </c>
       <c r="M15">
         <v>0.223028649</v>
       </c>
       <c r="N15">
-        <v>0.25750085299999997</v>
+        <v>0.257500853</v>
       </c>
       <c r="O15">
-        <v>2.0670160999999999E-2</v>
+        <v>0.020670161</v>
       </c>
       <c r="P15">
-        <v>3.4618393999999997E-2</v>
+        <v>0.034618394</v>
       </c>
       <c r="Q15">
-        <v>4.8566628000000001E-2</v>
+        <v>0.048566628</v>
       </c>
       <c r="R15">
-        <v>6.2514862000000004E-2</v>
+        <v>0.062514862</v>
       </c>
       <c r="S15">
-        <v>7.6463095999999994E-2</v>
+        <v>0.076463096</v>
       </c>
       <c r="T15">
-        <v>9.0411329999999998E-2</v>
+        <v>0.09041133</v>
       </c>
       <c r="U15">
         <v>0.11133368</v>
@@ -36689,19 +36687,19 @@
         <v>0.139230148</v>
       </c>
       <c r="W15">
-        <v>0.16712661600000001</v>
+        <v>0.167126616</v>
       </c>
       <c r="X15">
-        <v>0.19502308300000001</v>
+        <v>0.195023083</v>
       </c>
       <c r="Y15">
-        <v>0.22291955099999999</v>
+        <v>0.222919551</v>
       </c>
       <c r="Z15">
         <v>0.257790136</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>697</v>
       </c>
@@ -36709,19 +36707,19 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>3.4617762000000003E-2</v>
+        <v>0.034617762</v>
       </c>
       <c r="D16">
-        <v>4.7754705000000001E-2</v>
+        <v>0.047754705</v>
       </c>
       <c r="E16">
-        <v>6.0891648999999999E-2</v>
+        <v>0.060891649</v>
       </c>
       <c r="F16">
-        <v>7.4028593000000004E-2</v>
+        <v>0.074028593</v>
       </c>
       <c r="G16">
-        <v>8.7165537000000001E-2</v>
+        <v>0.087165537</v>
       </c>
       <c r="H16">
         <v>0.10030248</v>
@@ -36733,31 +36731,31 @@
         <v>0.146281784</v>
       </c>
       <c r="K16">
-        <v>0.17255567099999999</v>
+        <v>0.172555671</v>
       </c>
       <c r="L16">
-        <v>0.19882955899999999</v>
+        <v>0.198829559</v>
       </c>
       <c r="M16">
-        <v>0.22510344600000001</v>
+        <v>0.225103446</v>
       </c>
       <c r="N16">
         <v>0.257945806</v>
       </c>
       <c r="O16">
-        <v>3.2450693000000003E-2</v>
+        <v>0.032450693</v>
       </c>
       <c r="P16">
-        <v>4.6112635999999999E-2</v>
+        <v>0.046112636</v>
       </c>
       <c r="Q16">
-        <v>5.9774578000000002E-2</v>
+        <v>0.059774578</v>
       </c>
       <c r="R16">
-        <v>7.3436521000000005E-2</v>
+        <v>0.073436521</v>
       </c>
       <c r="S16">
-        <v>8.7098463000000001E-2</v>
+        <v>0.087098463</v>
       </c>
       <c r="T16">
         <v>0.100760406</v>
@@ -36766,22 +36764,22 @@
         <v>0.121253319</v>
       </c>
       <c r="V16">
-        <v>0.14857720399999999</v>
+        <v>0.148577204</v>
       </c>
       <c r="W16">
-        <v>0.17590108900000001</v>
+        <v>0.175901089</v>
       </c>
       <c r="X16">
         <v>0.203224974</v>
       </c>
       <c r="Y16">
-        <v>0.23054885899999999</v>
+        <v>0.230548859</v>
       </c>
       <c r="Z16">
-        <v>0.26470371500000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.264703715</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>698</v>
       </c>
@@ -36789,19 +36787,19 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>2.8542662E-2</v>
+        <v>0.028542662</v>
       </c>
       <c r="D17">
-        <v>4.3148786000000001E-2</v>
+        <v>0.043148786</v>
       </c>
       <c r="E17">
-        <v>5.775491E-2</v>
+        <v>0.05775491</v>
       </c>
       <c r="F17">
-        <v>7.2361034000000005E-2</v>
+        <v>0.072361034</v>
       </c>
       <c r="G17">
-        <v>8.6967158000000003E-2</v>
+        <v>0.086967158</v>
       </c>
       <c r="H17">
         <v>0.101573281</v>
@@ -36810,10 +36808,10 @@
         <v>0.123482467</v>
       </c>
       <c r="J17">
-        <v>0.15269471400000001</v>
+        <v>0.152694714</v>
       </c>
       <c r="K17">
-        <v>0.18190696200000001</v>
+        <v>0.181906962</v>
       </c>
       <c r="L17">
         <v>0.21111921</v>
@@ -36822,46 +36820,46 @@
         <v>0.240331457</v>
       </c>
       <c r="N17">
-        <v>0.27684676600000002</v>
+        <v>0.276846766</v>
       </c>
       <c r="O17">
-        <v>3.2818234000000002E-2</v>
+        <v>0.032818234</v>
       </c>
       <c r="P17">
-        <v>4.8428776E-2</v>
+        <v>0.048428776</v>
       </c>
       <c r="Q17">
-        <v>6.4039317999999998E-2</v>
+        <v>0.064039318</v>
       </c>
       <c r="R17">
-        <v>7.9649860000000003E-2</v>
+        <v>0.07964986</v>
       </c>
       <c r="S17">
-        <v>9.5260401999999994E-2</v>
+        <v>0.095260402</v>
       </c>
       <c r="T17">
         <v>0.110870944</v>
       </c>
       <c r="U17">
-        <v>0.13428675700000001</v>
+        <v>0.134286757</v>
       </c>
       <c r="V17">
-        <v>0.16550784199999999</v>
+        <v>0.165507842</v>
       </c>
       <c r="W17">
         <v>0.196728926</v>
       </c>
       <c r="X17">
-        <v>0.22795001000000001</v>
+        <v>0.22795001</v>
       </c>
       <c r="Y17">
-        <v>0.25917109399999999</v>
+        <v>0.259171094</v>
       </c>
       <c r="Z17">
         <v>0.298197449</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -36869,31 +36867,31 @@
         <v>144</v>
       </c>
       <c r="C18">
-        <v>1.9532239E-2</v>
+        <v>0.019532239</v>
       </c>
       <c r="D18">
-        <v>3.2265567000000002E-2</v>
+        <v>0.032265567</v>
       </c>
       <c r="E18">
-        <v>4.4998894999999997E-2</v>
+        <v>0.044998895</v>
       </c>
       <c r="F18">
-        <v>5.7732222999999999E-2</v>
+        <v>0.057732223</v>
       </c>
       <c r="G18">
-        <v>7.0465551000000001E-2</v>
+        <v>0.070465551</v>
       </c>
       <c r="H18">
-        <v>8.3198879000000003E-2</v>
+        <v>0.083198879</v>
       </c>
       <c r="I18">
         <v>0.102298872</v>
       </c>
       <c r="J18">
-        <v>0.12776552799999999</v>
+        <v>0.127765528</v>
       </c>
       <c r="K18">
-        <v>0.15323218399999999</v>
+        <v>0.153232184</v>
       </c>
       <c r="L18">
         <v>0.178698841</v>
@@ -36905,43 +36903,43 @@
         <v>0.235998817</v>
       </c>
       <c r="O18">
-        <v>2.0810975999999998E-2</v>
+        <v>0.020810976</v>
       </c>
       <c r="P18">
-        <v>3.3738371000000003E-2</v>
+        <v>0.033738371</v>
       </c>
       <c r="Q18">
-        <v>4.6665765999999997E-2</v>
+        <v>0.046665766</v>
       </c>
       <c r="R18">
-        <v>5.9593160999999999E-2</v>
+        <v>0.059593161</v>
       </c>
       <c r="S18">
-        <v>7.2520556E-2</v>
+        <v>0.072520556</v>
       </c>
       <c r="T18">
-        <v>8.5447950999999994E-2</v>
+        <v>0.085447951</v>
       </c>
       <c r="U18">
-        <v>0.10483904300000001</v>
+        <v>0.104839043</v>
       </c>
       <c r="V18">
-        <v>0.13069383300000001</v>
+        <v>0.130693833</v>
       </c>
       <c r="W18">
         <v>0.156548623</v>
       </c>
       <c r="X18">
-        <v>0.18240341299999999</v>
+        <v>0.182403413</v>
       </c>
       <c r="Y18">
         <v>0.208258203</v>
       </c>
       <c r="Z18">
-        <v>0.24057669000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.24057669</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -36949,19 +36947,19 @@
         <v>245</v>
       </c>
       <c r="C19">
-        <v>3.8031263000000003E-2</v>
+        <v>0.038031263</v>
       </c>
       <c r="D19">
-        <v>5.4100955999999999E-2</v>
+        <v>0.054100956</v>
       </c>
       <c r="E19">
-        <v>7.0170649000000002E-2</v>
+        <v>0.070170649</v>
       </c>
       <c r="F19">
-        <v>8.6240341999999998E-2</v>
+        <v>0.086240342</v>
       </c>
       <c r="G19">
-        <v>0.10231003599999999</v>
+        <v>0.102310036</v>
       </c>
       <c r="H19">
         <v>0.118379729</v>
@@ -36970,43 +36968,43 @@
         <v>0.142484269</v>
       </c>
       <c r="J19">
-        <v>0.17462365499999999</v>
+        <v>0.174623655</v>
       </c>
       <c r="K19">
-        <v>0.20676304100000001</v>
+        <v>0.206763041</v>
       </c>
       <c r="L19">
         <v>0.238902428</v>
       </c>
       <c r="M19">
-        <v>0.27104181399999999</v>
+        <v>0.271041814</v>
       </c>
       <c r="N19">
         <v>0.311216047</v>
       </c>
       <c r="O19">
-        <v>3.6267289000000001E-2</v>
+        <v>0.036267289</v>
       </c>
       <c r="P19">
-        <v>5.2950472999999998E-2</v>
+        <v>0.052950473</v>
       </c>
       <c r="Q19">
-        <v>6.9633658000000001E-2</v>
+        <v>0.069633658</v>
       </c>
       <c r="R19">
-        <v>8.6316842000000005E-2</v>
+        <v>0.086316842</v>
       </c>
       <c r="S19">
-        <v>0.10300002599999999</v>
+        <v>0.103000026</v>
       </c>
       <c r="T19">
         <v>0.119683211</v>
       </c>
       <c r="U19">
-        <v>0.14470798700000001</v>
+        <v>0.144707987</v>
       </c>
       <c r="V19">
-        <v>0.17807435599999999</v>
+        <v>0.178074356</v>
       </c>
       <c r="W19">
         <v>0.211440725</v>
@@ -37015,13 +37013,13 @@
         <v>0.244807093</v>
       </c>
       <c r="Y19">
-        <v>0.27817346199999998</v>
+        <v>0.278173462</v>
       </c>
       <c r="Z19">
         <v>0.319881423</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>699</v>
       </c>
@@ -37029,13 +37027,13 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>6.0134284000000003E-2</v>
+        <v>0.060134284</v>
       </c>
       <c r="D20">
-        <v>7.4656416000000003E-2</v>
+        <v>0.074656416</v>
       </c>
       <c r="E20">
-        <v>8.9178547999999996E-2</v>
+        <v>0.089178548</v>
       </c>
       <c r="F20">
         <v>0.10370068</v>
@@ -37047,31 +37045,31 @@
         <v>0.132744945</v>
       </c>
       <c r="I20">
-        <v>0.15452814300000001</v>
+        <v>0.154528143</v>
       </c>
       <c r="J20">
-        <v>0.18357240799999999</v>
+        <v>0.183572408</v>
       </c>
       <c r="K20">
-        <v>0.21261667300000001</v>
+        <v>0.212616673</v>
       </c>
       <c r="L20">
-        <v>0.24166093699999999</v>
+        <v>0.241660937</v>
       </c>
       <c r="M20">
-        <v>0.27070520199999998</v>
+        <v>0.270705202</v>
       </c>
       <c r="N20">
-        <v>0.30701053299999997</v>
+        <v>0.307010533</v>
       </c>
       <c r="O20">
-        <v>6.0234625E-2</v>
+        <v>0.060234625</v>
       </c>
       <c r="P20">
-        <v>7.4461594000000006E-2</v>
+        <v>0.074461594</v>
       </c>
       <c r="Q20">
-        <v>8.8688562999999998E-2</v>
+        <v>0.088688563</v>
       </c>
       <c r="R20">
         <v>0.102915533</v>
@@ -37080,28 +37078,28 @@
         <v>0.117142502</v>
       </c>
       <c r="T20">
-        <v>0.13136947099999999</v>
+        <v>0.131369471</v>
       </c>
       <c r="U20">
         <v>0.152709925</v>
       </c>
       <c r="V20">
-        <v>0.18116386300000001</v>
+        <v>0.181163863</v>
       </c>
       <c r="W20">
-        <v>0.20961780099999999</v>
+        <v>0.209617801</v>
       </c>
       <c r="X20">
         <v>0.238071739</v>
       </c>
       <c r="Y20">
-        <v>0.26652567799999999</v>
+        <v>0.266525678</v>
       </c>
       <c r="Z20">
-        <v>0.30209310099999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.302093101</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>700</v>
       </c>
@@ -37109,16 +37107,16 @@
         <v>133</v>
       </c>
       <c r="C21">
-        <v>4.8559840999999999E-2</v>
+        <v>0.048559841</v>
       </c>
       <c r="D21">
-        <v>6.3595201000000004E-2</v>
+        <v>0.063595201</v>
       </c>
       <c r="E21">
-        <v>7.8630560000000002E-2</v>
+        <v>0.07863056</v>
       </c>
       <c r="F21">
-        <v>9.366592E-2</v>
+        <v>0.09366592</v>
       </c>
       <c r="G21">
         <v>0.10870128</v>
@@ -37127,7 +37125,7 @@
         <v>0.123736639</v>
       </c>
       <c r="I21">
-        <v>0.14628967900000001</v>
+        <v>0.146289679</v>
       </c>
       <c r="J21">
         <v>0.176360398</v>
@@ -37136,34 +37134,34 @@
         <v>0.206431117</v>
       </c>
       <c r="L21">
-        <v>0.23650183699999999</v>
+        <v>0.236501837</v>
       </c>
       <c r="M21">
-        <v>0.26657255600000002</v>
+        <v>0.266572556</v>
       </c>
       <c r="N21">
-        <v>0.30416095500000001</v>
+        <v>0.304160955</v>
       </c>
       <c r="O21">
-        <v>5.0216368999999997E-2</v>
+        <v>0.050216369</v>
       </c>
       <c r="P21">
-        <v>6.5222637999999999E-2</v>
+        <v>0.065222638</v>
       </c>
       <c r="Q21">
-        <v>8.0228908000000002E-2</v>
+        <v>0.080228908</v>
       </c>
       <c r="R21">
-        <v>9.5235177000000004E-2</v>
+        <v>0.095235177</v>
       </c>
       <c r="S21">
-        <v>0.11024144600000001</v>
+        <v>0.110241446</v>
       </c>
       <c r="T21">
-        <v>0.12524771600000001</v>
+        <v>0.125247716</v>
       </c>
       <c r="U21">
-        <v>0.14775711999999999</v>
+        <v>0.14775712</v>
       </c>
       <c r="V21">
         <v>0.177769658</v>
@@ -37172,16 +37170,16 @@
         <v>0.207782197</v>
       </c>
       <c r="X21">
-        <v>0.23779473500000001</v>
+        <v>0.237794735</v>
       </c>
       <c r="Y21">
-        <v>0.26780727399999998</v>
+        <v>0.267807274</v>
       </c>
       <c r="Z21">
-        <v>0.30532294700000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.305322947</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>701</v>
       </c>
@@ -37189,16 +37187,16 @@
         <v>116</v>
       </c>
       <c r="C22">
-        <v>5.1099435999999998E-2</v>
+        <v>0.051099436</v>
       </c>
       <c r="D22">
-        <v>6.5445584000000001E-2</v>
+        <v>0.065445584</v>
       </c>
       <c r="E22">
-        <v>7.9791732000000004E-2</v>
+        <v>0.079791732</v>
       </c>
       <c r="F22">
-        <v>9.4137879999999993E-2</v>
+        <v>0.09413788</v>
       </c>
       <c r="G22">
         <v>0.108484029</v>
@@ -37207,34 +37205,34 @@
         <v>0.122830177</v>
       </c>
       <c r="I22">
-        <v>0.14434939899999999</v>
+        <v>0.144349399</v>
       </c>
       <c r="J22">
-        <v>0.17304169599999999</v>
+        <v>0.173041696</v>
       </c>
       <c r="K22">
         <v>0.201733992</v>
       </c>
       <c r="L22">
-        <v>0.23042628900000001</v>
+        <v>0.230426289</v>
       </c>
       <c r="M22">
-        <v>0.25911858500000001</v>
+        <v>0.259118585</v>
       </c>
       <c r="N22">
-        <v>0.29498395599999999</v>
+        <v>0.294983956</v>
       </c>
       <c r="O22">
-        <v>5.2423445999999999E-2</v>
+        <v>0.052423446</v>
       </c>
       <c r="P22">
-        <v>6.6081932999999995E-2</v>
+        <v>0.066081933</v>
       </c>
       <c r="Q22">
-        <v>7.9740421000000006E-2</v>
+        <v>0.079740421</v>
       </c>
       <c r="R22">
-        <v>9.3398908000000003E-2</v>
+        <v>0.093398908</v>
       </c>
       <c r="S22">
         <v>0.107057396</v>
@@ -37249,19 +37247,19 @@
         <v>0.16852059</v>
       </c>
       <c r="W22">
-        <v>0.19583756499999999</v>
+        <v>0.195837565</v>
       </c>
       <c r="X22">
-        <v>0.22315454100000001</v>
+        <v>0.223154541</v>
       </c>
       <c r="Y22">
-        <v>0.25047151600000001</v>
+        <v>0.250471516</v>
       </c>
       <c r="Z22">
-        <v>0.28461773499999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.284617735</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>702</v>
       </c>
@@ -37269,49 +37267,49 @@
         <v>102</v>
       </c>
       <c r="C23">
-        <v>5.3640569999999999E-2</v>
+        <v>0.05364057</v>
       </c>
       <c r="D23">
-        <v>6.8009360000000005E-2</v>
+        <v>0.06800936</v>
       </c>
       <c r="E23">
-        <v>8.2378149999999997E-2</v>
+        <v>0.08237815</v>
       </c>
       <c r="F23">
-        <v>9.6746941000000003E-2</v>
+        <v>0.096746941</v>
       </c>
       <c r="G23">
         <v>0.111115731</v>
       </c>
       <c r="H23">
-        <v>0.12548452099999999</v>
+        <v>0.125484521</v>
       </c>
       <c r="I23">
-        <v>0.14703770599999999</v>
+        <v>0.147037706</v>
       </c>
       <c r="J23">
         <v>0.175775287</v>
       </c>
       <c r="K23">
-        <v>0.20451286699999999</v>
+        <v>0.204512867</v>
       </c>
       <c r="L23">
         <v>0.233250448</v>
       </c>
       <c r="M23">
-        <v>0.26198802799999998</v>
+        <v>0.261988028</v>
       </c>
       <c r="N23">
-        <v>0.29791000400000001</v>
+        <v>0.297910004</v>
       </c>
       <c r="O23">
-        <v>5.7437642999999997E-2</v>
+        <v>0.057437643</v>
       </c>
       <c r="P23">
-        <v>7.1978005999999997E-2</v>
+        <v>0.071978006</v>
       </c>
       <c r="Q23">
-        <v>8.6518369999999997E-2</v>
+        <v>0.08651837</v>
       </c>
       <c r="R23">
         <v>0.101058733</v>
@@ -37320,7 +37318,7 @@
         <v>0.115599096</v>
       </c>
       <c r="T23">
-        <v>0.13013945900000001</v>
+        <v>0.130139459</v>
       </c>
       <c r="U23">
         <v>0.151950004</v>
@@ -37335,26 +37333,27 @@
         <v>0.239192184</v>
       </c>
       <c r="Y23">
-        <v>0.26827290999999998</v>
+        <v>0.26827291</v>
       </c>
       <c r="Z23">
-        <v>0.30462381799999999</v>
+        <v>0.304623818</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup usePrinterDefaults="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
@@ -37362,7 +37361,7 @@
     <col min="4" max="4" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>749</v>
       </c>
@@ -37376,7 +37375,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>753</v>
       </c>
@@ -37392,7 +37391,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="flId1"/>
 </worksheet>
 </file>
 

--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1460">
   <si>
     <t>Country Code</t>
   </si>
@@ -4065,9 +4065,6 @@
     <t>UNAIDS 2023</t>
   </si>
   <si>
-    <t>MICS 2000, MICS 2010, DHS 2015</t>
-  </si>
-  <si>
     <t>RHS 2002, MICS 2005, DHS 2008, DHS 2017</t>
   </si>
   <si>
@@ -4095,9 +4092,6 @@
     <t>MICS 2005, MICS 2006, MICS 2011, MICS 2012, MICS 2015</t>
   </si>
   <si>
-    <t>DHS 1996, DHS 2001, DHS 2006, DHS 2011, MICS 2014, DHS 2017</t>
-  </si>
-  <si>
     <t>DHS 1998, MICS 2000, DHS 2003, DHS 2008, NSS 2016</t>
   </si>
   <si>
@@ -4110,9 +4104,6 @@
     <t>DHS 1996, NSS 2006, UNICEF SOWC 2009-2013 2009, NSS 2013, NSS 2019</t>
   </si>
   <si>
-    <t>DHS 1998, DHS 2003, MICS 2006, DHS 2010, MIS 2014</t>
-  </si>
-  <si>
     <t>MICS 2000, MICS 2005, DHS 2010, MIS 2012, DHS 2016</t>
   </si>
   <si>
@@ -4131,9 +4122,6 @@
     <t>DHS 1996, MICS 2000, DHS 2004, DHS 2005, MICS 2010, DHS 2014, MICS 2019</t>
   </si>
   <si>
-    <t>DHS 1996, MICS 2000, DHS 2012</t>
-  </si>
-  <si>
     <t>DHS 2005, DHS 2011, MICS 2014</t>
   </si>
   <si>
@@ -4143,9 +4131,6 @@
     <t>MICS 2011, MICS 2018</t>
   </si>
   <si>
-    <t>DHS 1998, MICS 2000, AIS 2005, MICS 2006, DHS 2011, MICS 2016</t>
-  </si>
-  <si>
     <t>MICS 2006, MICS 2010, MICS 2014, MICS 2019</t>
   </si>
   <si>
@@ -4185,9 +4170,6 @@
     <t>MICS 2005, MICS 2018</t>
   </si>
   <si>
-    <t>DHS 1998, DHS 2003, MICS 2006, DHS 2008, MICS 2011, DHS 2014, MICS 2017</t>
-  </si>
-  <si>
     <t>DHS 1998, RHS 2002, RHS 2008, DHS 2014</t>
   </si>
   <si>
@@ -4302,9 +4284,6 @@
     <t>RHS 1998, RHS 2004, RHS 2008, MICS 2016</t>
   </si>
   <si>
-    <t>DHS 1996, DHS 2000, DHS 2004, DHS 2005, DHS 2006, DHS 2007, DHS 2008, DHS 2009, DHS 2010, DHS 2011, DHS 2012, DHS 2013, DHS 2014, DHS 2015, DHS 2016, DHS 2017, DHS 2018, DHS 2019, DHS 2020, DHS 2021</t>
-  </si>
-  <si>
     <t>DHS 1998, MICS 2000, DHS 2003, DHS 2008, DHS 2013, DHS 2017, DHS 2022</t>
   </si>
   <si>
@@ -4344,21 +4323,12 @@
     <t>MICS 2006, MICS 2010, MICS 2018</t>
   </si>
   <si>
-    <t>MICS 2000, DHS 2006, MICS 2010, MICS 2014</t>
-  </si>
-  <si>
     <t>MICS 2000, MICS 2005, DHS 2012, DHS 2017</t>
   </si>
   <si>
-    <t>DHS 1996, DHS 1999, DHS 2004, DHS 2010, DHS 2015</t>
-  </si>
-  <si>
     <t>MICS 2005, MICS 2011, MICS 2018</t>
   </si>
   <si>
-    <t>MICS 2005, MICS 2012, MICS 2015, MICS 2019</t>
-  </si>
-  <si>
     <t>DHS 1998, MICS 2006, MICS 2010, DHS 2013, MICS 2017</t>
   </si>
   <si>
@@ -4386,9 +4356,6 @@
     <t>DHS 1997, MICS 2000, DHS 2002, MICS 2006, MICS 2010, MICS 2013, MICS 2020</t>
   </si>
   <si>
-    <t>DHS 1997, MICS 2006, DHS 2013</t>
-  </si>
-  <si>
     <t>DHS 1996, MICS 1999, DHS 2001, DHS 2007, DHS 2013, DHS 2018</t>
   </si>
   <si>
@@ -4399,6 +4366,42 @@
   </si>
   <si>
     <t>LC</t>
+  </si>
+  <si>
+    <t>MICS 2000, MICS 2010, DHS 2015, MICS 2022</t>
+  </si>
+  <si>
+    <t>DHS 1996, DHS 2001, DHS 2006, DHS 2011, MICS 2014, DHS 2017, MICS 2021</t>
+  </si>
+  <si>
+    <t>DHS 1998, DHS 2003, MICS 2006, DHS 2010, MIS 2014, DHS 2021</t>
+  </si>
+  <si>
+    <t>DHS 1996, MICS 2000, DHS 2012, MICS 2022</t>
+  </si>
+  <si>
+    <t>DHS 1998, MICS 2000, AIS 2005, MICS 2006, DHS 2011, MICS 2016, DHS 2021</t>
+  </si>
+  <si>
+    <t>DHS 1998, DHS 2003, MICS 2006, DHS 2008, MICS 2011, DHS 2014, MICS 2017, DHS 2022</t>
+  </si>
+  <si>
+    <t>DHS 1996, DHS 2000, DHS 2004, DHS 2005, DHS 2006, DHS 2007, DHS 2008, DHS 2009, DHS 2010, DHS 2011, DHS 2012, DHS 2013, DHS 2014, DHS 2015, DHS 2016, DHS 2017, DHS 2018, DHS 2019, DHS 2020, DHS 2021, DHS 2022</t>
+  </si>
+  <si>
+    <t>MICS 2000, DHS 2006, MICS 2010, MICS 2014, MICS 2021</t>
+  </si>
+  <si>
+    <t>DHS 1996, DHS 1999, DHS 2004, DHS 2010, DHS 2015, DHS 2022</t>
+  </si>
+  <si>
+    <t>MICS 2005, MICS 2012, MICS 2015, MICS 2019, MICS 2022</t>
+  </si>
+  <si>
+    <t>MICS 2006, MICS 2011, MICS 2022</t>
+  </si>
+  <si>
+    <t>DHS 1997, MICS 2006, DHS 2013, MICS 2022</t>
   </si>
 </sst>
 </file>
@@ -4998,7 +5001,7 @@
         <v>1221</v>
       </c>
       <c r="X2" t="s">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="AA2" t="s">
         <v>966</v>
@@ -5072,7 +5075,7 @@
         <v>1222</v>
       </c>
       <c r="X3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="AE3" t="s">
         <v>708</v>
@@ -5143,7 +5146,7 @@
         <v>1223</v>
       </c>
       <c r="X4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="AA4" t="s">
         <v>966</v>
@@ -5220,7 +5223,7 @@
         <v>1224</v>
       </c>
       <c r="X5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="AA5" t="s">
         <v>966</v>
@@ -5365,7 +5368,7 @@
         <v>1226</v>
       </c>
       <c r="X7" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="AA7" t="s">
         <v>966</v>
@@ -5439,7 +5442,7 @@
         <v>1227</v>
       </c>
       <c r="X8" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="AA8" t="s">
         <v>966</v>
@@ -5711,7 +5714,7 @@
         <v>1228</v>
       </c>
       <c r="X12" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AA12" t="s">
         <v>966</v>
@@ -5930,7 +5933,7 @@
         <v>1229</v>
       </c>
       <c r="X15" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AA15" t="s">
         <v>966</v>
@@ -6075,7 +6078,7 @@
         <v>1231</v>
       </c>
       <c r="X17" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="AA17" t="s">
         <v>966</v>
@@ -6217,7 +6220,7 @@
         <v>1232</v>
       </c>
       <c r="X19" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="AA19" t="s">
         <v>966</v>
@@ -6300,7 +6303,7 @@
         <v>1233</v>
       </c>
       <c r="X20" t="s">
-        <v>1357</v>
+        <v>1449</v>
       </c>
       <c r="AA20" t="s">
         <v>966</v>
@@ -7417,7 +7420,7 @@
         <v>1235</v>
       </c>
       <c r="X34" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="AA34" t="s">
         <v>966</v>
@@ -7485,7 +7488,7 @@
         <v>1236</v>
       </c>
       <c r="X35" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="AA35" t="s">
         <v>759</v>
@@ -7568,7 +7571,7 @@
         <v>759</v>
       </c>
       <c r="X36" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="AA36" t="s">
         <v>966</v>
@@ -7648,7 +7651,7 @@
         <v>1237</v>
       </c>
       <c r="X37" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="AA37" t="s">
         <v>966</v>
@@ -7873,7 +7876,7 @@
         <v>1240</v>
       </c>
       <c r="X40" t="s">
-        <v>1362</v>
+        <v>1450</v>
       </c>
       <c r="AA40" t="s">
         <v>966</v>
@@ -7953,7 +7956,7 @@
         <v>1241</v>
       </c>
       <c r="X41" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="AA41" t="s">
         <v>966</v>
@@ -8036,7 +8039,7 @@
         <v>1242</v>
       </c>
       <c r="X42" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="AA42" t="s">
         <v>966</v>
@@ -8119,7 +8122,7 @@
         <v>1243</v>
       </c>
       <c r="X43" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="AA43" t="s">
         <v>966</v>
@@ -8267,7 +8270,7 @@
         <v>1244</v>
       </c>
       <c r="X45" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="AA45" t="s">
         <v>966</v>
@@ -8347,7 +8350,7 @@
         <v>1245</v>
       </c>
       <c r="X46" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="AA46" t="s">
         <v>966</v>
@@ -8433,7 +8436,7 @@
         <v>1246</v>
       </c>
       <c r="X47" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="AA47" t="s">
         <v>966</v>
@@ -8915,7 +8918,7 @@
         <v>1249</v>
       </c>
       <c r="X54" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="AA54" t="s">
         <v>966</v>
@@ -8989,7 +8992,7 @@
         <v>1250</v>
       </c>
       <c r="X55" t="s">
-        <v>1369</v>
+        <v>1451</v>
       </c>
       <c r="AA55" t="s">
         <v>759</v>
@@ -9072,7 +9075,7 @@
         <v>1251</v>
       </c>
       <c r="X56" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="AA56" t="s">
         <v>966</v>
@@ -9149,7 +9152,7 @@
         <v>1252</v>
       </c>
       <c r="X57" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="AA57" t="s">
         <v>966</v>
@@ -9232,7 +9235,7 @@
         <v>1253</v>
       </c>
       <c r="X58" t="s">
-        <v>1373</v>
+        <v>1452</v>
       </c>
       <c r="AA58" t="s">
         <v>966</v>
@@ -10260,7 +10263,7 @@
         <v>1255</v>
       </c>
       <c r="X71" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="AA71" t="s">
         <v>966</v>
@@ -10538,7 +10541,7 @@
         <v>1257</v>
       </c>
       <c r="X75" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="AA75" t="s">
         <v>966</v>
@@ -10621,7 +10624,7 @@
         <v>1258</v>
       </c>
       <c r="X76" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="AA76" t="s">
         <v>966</v>
@@ -10914,7 +10917,7 @@
         <v>1260</v>
       </c>
       <c r="X80" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="AA80" t="s">
         <v>966</v>
@@ -10994,7 +10997,7 @@
         <v>1261</v>
       </c>
       <c r="X81" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="AA81" t="s">
         <v>966</v>
@@ -11065,7 +11068,7 @@
         <v>1262</v>
       </c>
       <c r="X82" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="AA82" t="s">
         <v>966</v>
@@ -11148,7 +11151,7 @@
         <v>1263</v>
       </c>
       <c r="X83" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="AA83" t="s">
         <v>966</v>
@@ -11225,7 +11228,7 @@
         <v>1264</v>
       </c>
       <c r="X84" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="AA84" t="s">
         <v>966</v>
@@ -11305,7 +11308,7 @@
         <v>1265</v>
       </c>
       <c r="X85" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="AA85" t="s">
         <v>966</v>
@@ -11462,7 +11465,7 @@
         <v>1266</v>
       </c>
       <c r="X87" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="AA87" t="s">
         <v>966</v>
@@ -12499,7 +12502,7 @@
         <v>1267</v>
       </c>
       <c r="X100" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="AA100" t="s">
         <v>966</v>
@@ -12845,7 +12848,7 @@
         <v>1268</v>
       </c>
       <c r="X105" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="AA105" t="s">
         <v>966</v>
@@ -12925,7 +12928,7 @@
         <v>1269</v>
       </c>
       <c r="X106" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="AA106" t="s">
         <v>966</v>
@@ -13002,7 +13005,7 @@
         <v>1270</v>
       </c>
       <c r="X107" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="AA107" t="s">
         <v>966</v>
@@ -13153,7 +13156,7 @@
         <v>1271</v>
       </c>
       <c r="X109" t="s">
-        <v>1387</v>
+        <v>1453</v>
       </c>
       <c r="AA109" t="s">
         <v>966</v>
@@ -13505,7 +13508,7 @@
         <v>1272</v>
       </c>
       <c r="X114" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="AA114" t="s">
         <v>966</v>
@@ -13588,7 +13591,7 @@
         <v>1273</v>
       </c>
       <c r="X115" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="AA115" t="s">
         <v>966</v>
@@ -13668,7 +13671,7 @@
         <v>1274</v>
       </c>
       <c r="X116" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="AA116" t="s">
         <v>966</v>
@@ -13745,7 +13748,7 @@
         <v>1275</v>
       </c>
       <c r="X117" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="AA117" t="s">
         <v>966</v>
@@ -13822,7 +13825,7 @@
         <v>1276</v>
       </c>
       <c r="X118" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="AA118" t="s">
         <v>966</v>
@@ -14666,7 +14669,7 @@
         <v>1277</v>
       </c>
       <c r="X129" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="AA129" t="s">
         <v>966</v>
@@ -14885,7 +14888,7 @@
         <v>1278</v>
       </c>
       <c r="X132" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="AA132" t="s">
         <v>966</v>
@@ -16295,7 +16298,7 @@
         <v>1279</v>
       </c>
       <c r="X168" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="AA168" t="s">
         <v>966</v>
@@ -16437,7 +16440,7 @@
         <v>1280</v>
       </c>
       <c r="X170" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="AA170" t="s">
         <v>759</v>
@@ -16718,7 +16721,7 @@
         <v>1225</v>
       </c>
       <c r="X174" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="AA174" t="s">
         <v>966</v>
@@ -16860,7 +16863,7 @@
         <v>1281</v>
       </c>
       <c r="X176" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="AA176" t="s">
         <v>759</v>
@@ -16931,7 +16934,7 @@
         <v>1282</v>
       </c>
       <c r="X177" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="AA177" t="s">
         <v>966</v>
@@ -17014,7 +17017,7 @@
         <v>1283</v>
       </c>
       <c r="X178" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="AA178" t="s">
         <v>966</v>
@@ -17728,7 +17731,7 @@
         <v>1284</v>
       </c>
       <c r="X187" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="AA187" t="s">
         <v>759</v>
@@ -17948,7 +17951,7 @@
         <v>1286</v>
       </c>
       <c r="X190" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="AA190" t="s">
         <v>966</v>
@@ -18022,7 +18025,7 @@
         <v>1287</v>
       </c>
       <c r="X191" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="AA191" t="s">
         <v>966</v>
@@ -18250,7 +18253,7 @@
         <v>1288</v>
       </c>
       <c r="X194" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="AA194" t="s">
         <v>966</v>
@@ -18330,7 +18333,7 @@
         <v>1289</v>
       </c>
       <c r="X195" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="AA195" t="s">
         <v>966</v>
@@ -18632,7 +18635,7 @@
         <v>1291</v>
       </c>
       <c r="X199" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="AA199" t="s">
         <v>966</v>
@@ -18718,7 +18721,7 @@
         <v>1292</v>
       </c>
       <c r="X200" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="AA200" t="s">
         <v>966</v>
@@ -18875,7 +18878,7 @@
         <v>1293</v>
       </c>
       <c r="X202" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="AA202" t="s">
         <v>966</v>
@@ -18958,7 +18961,7 @@
         <v>1294</v>
       </c>
       <c r="X203" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="AA203" t="s">
         <v>966</v>
@@ -19171,7 +19174,7 @@
         <v>1295</v>
       </c>
       <c r="X206" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="AA206" t="s">
         <v>966</v>
@@ -19390,7 +19393,7 @@
         <v>1297</v>
       </c>
       <c r="X209" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="AA209" t="s">
         <v>966</v>
@@ -19541,7 +19544,7 @@
         <v>1298</v>
       </c>
       <c r="X211" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="AA211" t="s">
         <v>966</v>
@@ -19615,7 +19618,7 @@
         <v>1299</v>
       </c>
       <c r="X212" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="AA212" t="s">
         <v>966</v>
@@ -19689,7 +19692,7 @@
         <v>1300</v>
       </c>
       <c r="X213" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="AA213" t="s">
         <v>966</v>
@@ -19775,7 +19778,7 @@
         <v>1301</v>
       </c>
       <c r="X214" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="AA214" t="s">
         <v>966</v>
@@ -20738,7 +20741,7 @@
         <v>1224</v>
       </c>
       <c r="X226" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="AA226" t="s">
         <v>966</v>
@@ -20821,7 +20824,7 @@
         <v>1302</v>
       </c>
       <c r="X227" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="AA227" t="s">
         <v>966</v>
@@ -20904,7 +20907,7 @@
         <v>1303</v>
       </c>
       <c r="X228" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="AA228" t="s">
         <v>966</v>
@@ -21182,7 +21185,7 @@
         <v>1304</v>
       </c>
       <c r="X232" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="AA232" t="s">
         <v>966</v>
@@ -21265,7 +21268,7 @@
         <v>1305</v>
       </c>
       <c r="X233" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="AA233" t="s">
         <v>966</v>
@@ -21348,7 +21351,7 @@
         <v>1306</v>
       </c>
       <c r="X234" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="AA234" t="s">
         <v>966</v>
@@ -24450,7 +24453,7 @@
         <v>1307</v>
       </c>
       <c r="X273" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="AA273" t="s">
         <v>759</v>
@@ -24598,7 +24601,7 @@
         <v>1308</v>
       </c>
       <c r="X275" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="AA275" t="s">
         <v>966</v>
@@ -24758,7 +24761,7 @@
         <v>1310</v>
       </c>
       <c r="X277" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="AA277" t="s">
         <v>966</v>
@@ -24838,7 +24841,7 @@
         <v>1311</v>
       </c>
       <c r="X278" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="AA278" t="s">
         <v>966</v>
@@ -24918,7 +24921,7 @@
         <v>1312</v>
       </c>
       <c r="X279" t="s">
-        <v>1426</v>
+        <v>1454</v>
       </c>
       <c r="AA279" t="s">
         <v>966</v>
@@ -24998,7 +25001,7 @@
         <v>1313</v>
       </c>
       <c r="X280" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="AA280" t="s">
         <v>966</v>
@@ -25421,7 +25424,7 @@
         <v>1315</v>
       </c>
       <c r="X286" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="AA286" t="s">
         <v>966</v>
@@ -25863,7 +25866,7 @@
         <v>1316</v>
       </c>
       <c r="X292" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="AA292" t="s">
         <v>966</v>
@@ -26150,7 +26153,7 @@
         <v>1317</v>
       </c>
       <c r="X296" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="AA296" t="s">
         <v>759</v>
@@ -26173,19 +26176,19 @@
         <v>520</v>
       </c>
       <c r="C297" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="F297" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="G297">
         <v>100</v>
       </c>
       <c r="H297" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>521</v>
@@ -26295,7 +26298,7 @@
         <v>1318</v>
       </c>
       <c r="X298" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="AA298" t="s">
         <v>966</v>
@@ -26449,7 +26452,7 @@
         <v>1319</v>
       </c>
       <c r="X300" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="AA300" t="s">
         <v>966</v>
@@ -26526,7 +26529,7 @@
         <v>1320</v>
       </c>
       <c r="X301" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="AA301" t="s">
         <v>966</v>
@@ -26677,7 +26680,7 @@
         <v>1321</v>
       </c>
       <c r="X303" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="AA303" t="s">
         <v>966</v>
@@ -27130,7 +27133,7 @@
         <v>1322</v>
       </c>
       <c r="X309" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="AA309" t="s">
         <v>966</v>
@@ -27210,7 +27213,7 @@
         <v>1323</v>
       </c>
       <c r="X310" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="AA310" t="s">
         <v>759</v>
@@ -27355,7 +27358,7 @@
         <v>1324</v>
       </c>
       <c r="X312" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="AA312" t="s">
         <v>966</v>
@@ -27426,7 +27429,7 @@
         <v>1263</v>
       </c>
       <c r="X313" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="AA313" t="s">
         <v>966</v>
@@ -27500,7 +27503,7 @@
         <v>1325</v>
       </c>
       <c r="X314" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="AA314" t="s">
         <v>966</v>
@@ -27583,7 +27586,7 @@
         <v>1326</v>
       </c>
       <c r="X315" t="s">
-        <v>1440</v>
+        <v>1455</v>
       </c>
       <c r="AA315" t="s">
         <v>966</v>
@@ -27870,7 +27873,7 @@
         <v>1328</v>
       </c>
       <c r="X319" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="AA319" t="s">
         <v>966</v>
@@ -27944,7 +27947,7 @@
         <v>1254</v>
       </c>
       <c r="X320" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="AA320" t="s">
         <v>759</v>
@@ -28024,7 +28027,7 @@
         <v>759</v>
       </c>
       <c r="X321" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
       <c r="AA321" t="s">
         <v>966</v>
@@ -28098,7 +28101,7 @@
         <v>1293</v>
       </c>
       <c r="X322" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="AA322" t="s">
         <v>759</v>
@@ -28181,7 +28184,7 @@
         <v>1329</v>
       </c>
       <c r="X323" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="AA323" t="s">
         <v>966</v>
@@ -28735,7 +28738,7 @@
         <v>1317</v>
       </c>
       <c r="X330" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="AA330" t="s">
         <v>759</v>
@@ -28809,7 +28812,7 @@
         <v>1330</v>
       </c>
       <c r="X331" t="s">
-        <v>1359</v>
+        <v>1458</v>
       </c>
       <c r="AA331" t="s">
         <v>966</v>
@@ -28883,7 +28886,7 @@
         <v>1252</v>
       </c>
       <c r="X332" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="AA332" t="s">
         <v>966</v>
@@ -28957,7 +28960,7 @@
         <v>1331</v>
       </c>
       <c r="X333" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="AA333" t="s">
         <v>966</v>
@@ -29028,7 +29031,7 @@
         <v>1332</v>
       </c>
       <c r="X334" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="AA334" t="s">
         <v>759</v>
@@ -29111,7 +29114,7 @@
         <v>1333</v>
       </c>
       <c r="X335" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="AA335" t="s">
         <v>966</v>
@@ -29905,7 +29908,7 @@
         <v>1334</v>
       </c>
       <c r="X345" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="AA345" t="s">
         <v>966</v>
@@ -30127,7 +30130,7 @@
         <v>1335</v>
       </c>
       <c r="X348" t="s">
-        <v>1442</v>
+        <v>1456</v>
       </c>
       <c r="AA348" t="s">
         <v>966</v>
@@ -32559,7 +32562,7 @@
         <v>1336</v>
       </c>
       <c r="X379" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="AA379" t="s">
         <v>966</v>
@@ -32630,7 +32633,7 @@
         <v>1238</v>
       </c>
       <c r="X380" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="AE380" t="s">
         <v>708</v>
@@ -32775,7 +32778,7 @@
         <v>1337</v>
       </c>
       <c r="X382" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="AA382" t="s">
         <v>966</v>
@@ -32911,7 +32914,7 @@
         <v>1338</v>
       </c>
       <c r="X384" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="AA384" t="s">
         <v>966</v>
@@ -32994,7 +32997,7 @@
         <v>1339</v>
       </c>
       <c r="X385" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="AA385" t="s">
         <v>966</v>
@@ -33880,7 +33883,7 @@
         <v>1340</v>
       </c>
       <c r="X396" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="AA396" t="s">
         <v>966</v>

--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A221A0-2510-406D-98CE-E7D0B663A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C734B8-2892-46C8-B9A1-52CC766AF5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryMaster" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1462">
   <si>
     <t>Country Code</t>
   </si>
@@ -4401,6 +4401,15 @@
   </si>
   <si>
     <t>LC</t>
+  </si>
+  <si>
+    <t>UNAIDS 2022</t>
+  </si>
+  <si>
+    <t>Avenir 2023</t>
+  </si>
+  <si>
+    <t>UNAIDS 2021</t>
   </si>
 </sst>
 </file>
@@ -4790,49 +4799,49 @@
   <dimension ref="A1:AH406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C376" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H300" sqref="H300"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.7109375" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4936,7 +4945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5016,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -5161,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -5241,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>28</v>
       </c>
@@ -5309,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -5383,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>51</v>
       </c>
@@ -5457,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>533</v>
       </c>
@@ -5519,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>36</v>
       </c>
@@ -5590,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -5658,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>31</v>
       </c>
@@ -5678,7 +5687,7 @@
         <v>978</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -5710,6 +5719,9 @@
       <c r="U12" t="s">
         <v>968</v>
       </c>
+      <c r="V12" t="s">
+        <v>1459</v>
+      </c>
       <c r="W12" t="s">
         <v>1228</v>
       </c>
@@ -5729,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>44</v>
       </c>
@@ -5803,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>48</v>
       </c>
@@ -5823,7 +5835,7 @@
         <v>980</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -5855,6 +5867,9 @@
       <c r="U14" t="s">
         <v>968</v>
       </c>
+      <c r="V14" t="s">
+        <v>1459</v>
+      </c>
       <c r="W14" t="s">
         <v>759</v>
       </c>
@@ -5874,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50</v>
       </c>
@@ -5948,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>52</v>
       </c>
@@ -5968,7 +5983,7 @@
         <v>982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -6000,6 +6015,9 @@
       <c r="U16" t="s">
         <v>968</v>
       </c>
+      <c r="V16" t="s">
+        <v>1459</v>
+      </c>
       <c r="W16" t="s">
         <v>1230</v>
       </c>
@@ -6019,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>112</v>
       </c>
@@ -6093,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
@@ -6161,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>84</v>
       </c>
@@ -6235,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>204</v>
       </c>
@@ -6321,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>204</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>204</v>
       </c>
@@ -6481,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>204</v>
       </c>
@@ -6561,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>204</v>
       </c>
@@ -6641,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>204</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>204</v>
       </c>
@@ -6801,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>204</v>
       </c>
@@ -6881,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>204</v>
       </c>
@@ -6961,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>204</v>
       </c>
@@ -7041,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>204</v>
       </c>
@@ -7121,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>204</v>
       </c>
@@ -7201,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>204</v>
       </c>
@@ -7281,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>64</v>
       </c>
@@ -7355,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>68</v>
       </c>
@@ -7432,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>70</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>72</v>
       </c>
@@ -7589,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>76</v>
       </c>
@@ -7615,7 +7633,7 @@
         <v>992</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7647,6 +7665,9 @@
       <c r="U37" t="s">
         <v>968</v>
       </c>
+      <c r="V37" t="s">
+        <v>1460</v>
+      </c>
       <c r="W37" t="s">
         <v>1237</v>
       </c>
@@ -7666,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>96</v>
       </c>
@@ -7737,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>100</v>
       </c>
@@ -7808,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>854</v>
       </c>
@@ -7894,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>108</v>
       </c>
@@ -7974,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>116</v>
       </c>
@@ -8054,7 +8075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>120</v>
       </c>
@@ -8140,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>124</v>
       </c>
@@ -8208,7 +8229,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>132</v>
       </c>
@@ -8282,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>140</v>
       </c>
@@ -8368,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>148</v>
       </c>
@@ -8454,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>830</v>
       </c>
@@ -8516,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>152</v>
       </c>
@@ -8593,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>156</v>
       </c>
@@ -8619,7 +8640,7 @@
         <v>1004</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -8651,6 +8672,9 @@
       <c r="U50" t="s">
         <v>968</v>
       </c>
+      <c r="V50" t="s">
+        <v>1460</v>
+      </c>
       <c r="W50" t="s">
         <v>1248</v>
       </c>
@@ -8670,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>344</v>
       </c>
@@ -8732,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>446</v>
       </c>
@@ -8794,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>158</v>
       </c>
@@ -8859,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>170</v>
       </c>
@@ -8933,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>174</v>
       </c>
@@ -9007,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>178</v>
       </c>
@@ -9093,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>188</v>
       </c>
@@ -9167,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>384</v>
       </c>
@@ -9250,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>384</v>
       </c>
@@ -9330,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>384</v>
       </c>
@@ -9410,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>384</v>
       </c>
@@ -9490,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>384</v>
       </c>
@@ -9570,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>384</v>
       </c>
@@ -9650,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>384</v>
       </c>
@@ -9730,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>384</v>
       </c>
@@ -9810,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>384</v>
       </c>
@@ -9890,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>384</v>
       </c>
@@ -9970,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>384</v>
       </c>
@@ -10050,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>384</v>
       </c>
@@ -10130,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>191</v>
       </c>
@@ -10204,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>192</v>
       </c>
@@ -10278,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>531</v>
       </c>
@@ -10340,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>196</v>
       </c>
@@ -10411,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>203</v>
       </c>
@@ -10485,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>408</v>
       </c>
@@ -10556,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>180</v>
       </c>
@@ -10642,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>208</v>
       </c>
@@ -10713,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>262</v>
       </c>
@@ -10733,7 +10757,7 @@
         <v>1021</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -10765,6 +10789,9 @@
       <c r="U78" t="s">
         <v>968</v>
       </c>
+      <c r="V78" t="s">
+        <v>1459</v>
+      </c>
       <c r="W78" t="s">
         <v>1259</v>
       </c>
@@ -10787,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>212</v>
       </c>
@@ -10852,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>214</v>
       </c>
@@ -10932,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>218</v>
       </c>
@@ -11012,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>818</v>
       </c>
@@ -11032,7 +11059,7 @@
         <v>1025</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -11064,6 +11091,9 @@
       <c r="U82" t="s">
         <v>968</v>
       </c>
+      <c r="V82" t="s">
+        <v>1461</v>
+      </c>
       <c r="W82" t="s">
         <v>1262</v>
       </c>
@@ -11086,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>222</v>
       </c>
@@ -11166,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>226</v>
       </c>
@@ -11246,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>232</v>
       </c>
@@ -11326,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>233</v>
       </c>
@@ -11346,7 +11376,7 @@
         <v>1029</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -11378,6 +11408,9 @@
       <c r="U86" t="s">
         <v>968</v>
       </c>
+      <c r="V86" t="s">
+        <v>1461</v>
+      </c>
       <c r="W86" t="s">
         <v>1239</v>
       </c>
@@ -11397,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>231</v>
       </c>
@@ -11483,7 +11516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>231</v>
       </c>
@@ -11563,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>231</v>
       </c>
@@ -11643,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>231</v>
       </c>
@@ -11723,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>231</v>
       </c>
@@ -11803,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>231</v>
       </c>
@@ -11883,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>231</v>
       </c>
@@ -11963,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>231</v>
       </c>
@@ -12043,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>231</v>
       </c>
@@ -12123,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>231</v>
       </c>
@@ -12203,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>231</v>
       </c>
@@ -12283,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>231</v>
       </c>
@@ -12363,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>231</v>
       </c>
@@ -12443,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>242</v>
       </c>
@@ -12517,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>246</v>
       </c>
@@ -12585,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>250</v>
       </c>
@@ -12656,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>254</v>
       </c>
@@ -12718,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>258</v>
       </c>
@@ -12780,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>266</v>
       </c>
@@ -12866,7 +12899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>270</v>
       </c>
@@ -12946,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>268</v>
       </c>
@@ -13020,7 +13053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>276</v>
       </c>
@@ -13088,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>288</v>
       </c>
@@ -13174,7 +13207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>300</v>
       </c>
@@ -13245,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>308</v>
       </c>
@@ -13319,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>312</v>
       </c>
@@ -13381,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>316</v>
       </c>
@@ -13443,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>320</v>
       </c>
@@ -13523,7 +13556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>324</v>
       </c>
@@ -13609,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>624</v>
       </c>
@@ -13689,7 +13722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>328</v>
       </c>
@@ -13763,7 +13796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>332</v>
       </c>
@@ -13840,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>332</v>
       </c>
@@ -13917,7 +13950,7 @@
       </c>
       <c r="AH119" s="3"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>332</v>
       </c>
@@ -13994,7 +14027,7 @@
       </c>
       <c r="AH120" s="3"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>332</v>
       </c>
@@ -14071,7 +14104,7 @@
       </c>
       <c r="AH121" s="3"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>332</v>
       </c>
@@ -14148,7 +14181,7 @@
       </c>
       <c r="AH122" s="3"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>332</v>
       </c>
@@ -14225,7 +14258,7 @@
       </c>
       <c r="AH123" s="3"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>332</v>
       </c>
@@ -14302,7 +14335,7 @@
       </c>
       <c r="AH124" s="3"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>332</v>
       </c>
@@ -14379,7 +14412,7 @@
       </c>
       <c r="AH125" s="3"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>332</v>
       </c>
@@ -14456,7 +14489,7 @@
       </c>
       <c r="AH126" s="3"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>332</v>
       </c>
@@ -14533,7 +14566,7 @@
       </c>
       <c r="AH127" s="3"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>332</v>
       </c>
@@ -14610,7 +14643,7 @@
       </c>
       <c r="AH128" s="3"/>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>340</v>
       </c>
@@ -14684,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>348</v>
       </c>
@@ -14755,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>352</v>
       </c>
@@ -14826,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>356</v>
       </c>
@@ -14852,7 +14885,7 @@
         <v>1053</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -14884,6 +14917,9 @@
       <c r="U132" t="s">
         <v>968</v>
       </c>
+      <c r="V132" t="s">
+        <v>1460</v>
+      </c>
       <c r="W132" t="s">
         <v>1278</v>
       </c>
@@ -14903,7 +14939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>356</v>
       </c>
@@ -14941,7 +14977,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>356</v>
       </c>
@@ -14979,7 +15015,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>356</v>
       </c>
@@ -15017,7 +15053,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>356</v>
       </c>
@@ -15055,7 +15091,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>356</v>
       </c>
@@ -15093,7 +15129,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>356</v>
       </c>
@@ -15131,7 +15167,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>356</v>
       </c>
@@ -15169,7 +15205,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>356</v>
       </c>
@@ -15207,7 +15243,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>356</v>
       </c>
@@ -15245,7 +15281,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>356</v>
       </c>
@@ -15283,7 +15319,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>356</v>
       </c>
@@ -15321,7 +15357,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>356</v>
       </c>
@@ -15359,7 +15395,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>356</v>
       </c>
@@ -15397,7 +15433,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>356</v>
       </c>
@@ -15435,7 +15471,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>356</v>
       </c>
@@ -15473,7 +15509,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>356</v>
       </c>
@@ -15511,7 +15547,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>356</v>
       </c>
@@ -15549,7 +15585,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>356</v>
       </c>
@@ -15587,7 +15623,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>356</v>
       </c>
@@ -15625,7 +15661,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>356</v>
       </c>
@@ -15663,7 +15699,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>356</v>
       </c>
@@ -15701,7 +15737,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>356</v>
       </c>
@@ -15739,7 +15775,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>356</v>
       </c>
@@ -15777,7 +15813,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>356</v>
       </c>
@@ -15815,7 +15851,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>356</v>
       </c>
@@ -15853,7 +15889,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>356</v>
       </c>
@@ -15891,7 +15927,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>356</v>
       </c>
@@ -15929,7 +15965,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>356</v>
       </c>
@@ -15967,7 +16003,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>356</v>
       </c>
@@ -16005,7 +16041,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>356</v>
       </c>
@@ -16043,7 +16079,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>356</v>
       </c>
@@ -16081,7 +16117,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>356</v>
       </c>
@@ -16119,7 +16155,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>356</v>
       </c>
@@ -16157,7 +16193,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>356</v>
       </c>
@@ -16195,7 +16231,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>356</v>
       </c>
@@ -16233,7 +16269,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>360</v>
       </c>
@@ -16313,7 +16349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>364</v>
       </c>
@@ -16333,7 +16369,7 @@
         <v>1055</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
         <v>1</v>
@@ -16365,6 +16401,9 @@
       <c r="U169" t="s">
         <v>968</v>
       </c>
+      <c r="V169" t="s">
+        <v>1459</v>
+      </c>
       <c r="W169" t="s">
         <v>1256</v>
       </c>
@@ -16384,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>368</v>
       </c>
@@ -16455,7 +16494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>372</v>
       </c>
@@ -16526,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>376</v>
       </c>
@@ -16594,7 +16633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>380</v>
       </c>
@@ -16665,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>388</v>
       </c>
@@ -16685,7 +16724,7 @@
         <v>1060</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174">
         <v>1</v>
@@ -16717,6 +16756,9 @@
       <c r="U174" t="s">
         <v>968</v>
       </c>
+      <c r="V174" t="s">
+        <v>1459</v>
+      </c>
       <c r="W174" t="s">
         <v>1225</v>
       </c>
@@ -16736,7 +16778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>392</v>
       </c>
@@ -16804,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>400</v>
       </c>
@@ -16878,7 +16920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>398</v>
       </c>
@@ -16898,7 +16940,7 @@
         <v>1063</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>1</v>
@@ -16930,6 +16972,9 @@
       <c r="U177" t="s">
         <v>968</v>
       </c>
+      <c r="V177" t="s">
+        <v>1459</v>
+      </c>
       <c r="W177" t="s">
         <v>1282</v>
       </c>
@@ -16949,7 +16994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>404</v>
       </c>
@@ -17035,7 +17080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>404</v>
       </c>
@@ -17115,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>404</v>
       </c>
@@ -17195,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>404</v>
       </c>
@@ -17275,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>404</v>
       </c>
@@ -17355,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>404</v>
       </c>
@@ -17435,7 +17480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>404</v>
       </c>
@@ -17515,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>404</v>
       </c>
@@ -17595,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>404</v>
       </c>
@@ -17675,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>296</v>
       </c>
@@ -17746,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>412</v>
       </c>
@@ -17818,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>414</v>
       </c>
@@ -17892,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>417</v>
       </c>
@@ -17966,7 +18011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>418</v>
       </c>
@@ -18040,7 +18085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>428</v>
       </c>
@@ -18111,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>422</v>
       </c>
@@ -18185,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>426</v>
       </c>
@@ -18271,7 +18316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>430</v>
       </c>
@@ -18351,7 +18396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>434</v>
       </c>
@@ -18422,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>440</v>
       </c>
@@ -18496,7 +18541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>442</v>
       </c>
@@ -18567,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>450</v>
       </c>
@@ -18653,7 +18698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>454</v>
       </c>
@@ -18739,7 +18784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>458</v>
       </c>
@@ -18819,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>462</v>
       </c>
@@ -18893,7 +18938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>466</v>
       </c>
@@ -18979,7 +19024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>470</v>
       </c>
@@ -19050,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>474</v>
       </c>
@@ -19112,7 +19157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>478</v>
       </c>
@@ -19192,7 +19237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>480</v>
       </c>
@@ -19215,7 +19260,7 @@
         <v>736</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>1</v>
@@ -19247,6 +19292,9 @@
       <c r="U207" t="s">
         <v>968</v>
       </c>
+      <c r="V207" t="s">
+        <v>1459</v>
+      </c>
       <c r="W207" t="s">
         <v>1296</v>
       </c>
@@ -19266,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>175</v>
       </c>
@@ -19328,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>484</v>
       </c>
@@ -19408,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>583</v>
       </c>
@@ -19479,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>496</v>
       </c>
@@ -19559,7 +19607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>499</v>
       </c>
@@ -19633,7 +19681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>504</v>
       </c>
@@ -19710,7 +19758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>508</v>
       </c>
@@ -19796,7 +19844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>508</v>
       </c>
@@ -19876,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>508</v>
       </c>
@@ -19956,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>508</v>
       </c>
@@ -20036,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>508</v>
       </c>
@@ -20116,7 +20164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>508</v>
       </c>
@@ -20196,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>508</v>
       </c>
@@ -20276,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>508</v>
       </c>
@@ -20356,7 +20404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>508</v>
       </c>
@@ -20436,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>508</v>
       </c>
@@ -20516,7 +20564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>508</v>
       </c>
@@ -20596,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>508</v>
       </c>
@@ -20676,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>104</v>
       </c>
@@ -20756,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>516</v>
       </c>
@@ -20842,7 +20890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>524</v>
       </c>
@@ -20922,7 +20970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>528</v>
       </c>
@@ -20993,7 +21041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>540</v>
       </c>
@@ -21055,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>554</v>
       </c>
@@ -21126,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>558</v>
       </c>
@@ -21200,7 +21248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>562</v>
       </c>
@@ -21286,7 +21334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>566</v>
       </c>
@@ -21315,7 +21363,7 @@
         <v>1218</v>
       </c>
       <c r="K234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234">
         <v>1</v>
@@ -21347,6 +21395,9 @@
       <c r="U234" t="s">
         <v>968</v>
       </c>
+      <c r="V234" t="s">
+        <v>1459</v>
+      </c>
       <c r="W234" t="s">
         <v>1306</v>
       </c>
@@ -21369,7 +21420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>566</v>
       </c>
@@ -21449,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>566</v>
       </c>
@@ -21529,7 +21580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>566</v>
       </c>
@@ -21609,7 +21660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>566</v>
       </c>
@@ -21689,7 +21740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>566</v>
       </c>
@@ -21769,7 +21820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>566</v>
       </c>
@@ -21849,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>566</v>
       </c>
@@ -21929,7 +21980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>566</v>
       </c>
@@ -22009,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>566</v>
       </c>
@@ -22089,7 +22140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>566</v>
       </c>
@@ -22169,7 +22220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>566</v>
       </c>
@@ -22249,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>566</v>
       </c>
@@ -22329,7 +22380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>566</v>
       </c>
@@ -22409,7 +22460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>566</v>
       </c>
@@ -22489,7 +22540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>566</v>
       </c>
@@ -22569,7 +22620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>566</v>
       </c>
@@ -22649,7 +22700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>566</v>
       </c>
@@ -22729,7 +22780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>566</v>
       </c>
@@ -22809,7 +22860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>566</v>
       </c>
@@ -22889,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>566</v>
       </c>
@@ -22969,7 +23020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>566</v>
       </c>
@@ -23049,7 +23100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>566</v>
       </c>
@@ -23129,7 +23180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>566</v>
       </c>
@@ -23209,7 +23260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>566</v>
       </c>
@@ -23289,7 +23340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>566</v>
       </c>
@@ -23369,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>566</v>
       </c>
@@ -23449,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>566</v>
       </c>
@@ -23529,7 +23580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>566</v>
       </c>
@@ -23609,7 +23660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>566</v>
       </c>
@@ -23689,7 +23740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>566</v>
       </c>
@@ -23769,7 +23820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>566</v>
       </c>
@@ -23849,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>566</v>
       </c>
@@ -23929,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>566</v>
       </c>
@@ -24009,7 +24060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>566</v>
       </c>
@@ -24089,7 +24140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>566</v>
       </c>
@@ -24169,7 +24220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>566</v>
       </c>
@@ -24249,7 +24300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>566</v>
       </c>
@@ -24329,7 +24380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>578</v>
       </c>
@@ -24349,7 +24400,7 @@
         <v>1101</v>
       </c>
       <c r="K272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272">
         <v>0</v>
@@ -24381,6 +24432,9 @@
       <c r="U272" t="s">
         <v>968</v>
       </c>
+      <c r="V272" t="s">
+        <v>1459</v>
+      </c>
       <c r="W272" t="s">
         <v>759</v>
       </c>
@@ -24397,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>275</v>
       </c>
@@ -24465,7 +24519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>512</v>
       </c>
@@ -24485,7 +24539,7 @@
         <v>1103</v>
       </c>
       <c r="K274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L274">
         <v>1</v>
@@ -24517,6 +24571,9 @@
       <c r="U274" t="s">
         <v>968</v>
       </c>
+      <c r="V274" t="s">
+        <v>1459</v>
+      </c>
       <c r="W274" t="s">
         <v>1285</v>
       </c>
@@ -24536,7 +24593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>586</v>
       </c>
@@ -24616,7 +24673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>591</v>
       </c>
@@ -24696,7 +24753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>598</v>
       </c>
@@ -24776,7 +24833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>600</v>
       </c>
@@ -24856,7 +24913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>604</v>
       </c>
@@ -24936,7 +24993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>608</v>
       </c>
@@ -25016,7 +25073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>616</v>
       </c>
@@ -25087,7 +25144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>620</v>
       </c>
@@ -25158,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>630</v>
       </c>
@@ -25220,7 +25277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>634</v>
       </c>
@@ -25294,7 +25351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>410</v>
       </c>
@@ -25365,7 +25422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>498</v>
       </c>
@@ -25439,7 +25496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>498</v>
       </c>
@@ -25515,7 +25572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>498</v>
       </c>
@@ -25591,7 +25648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>638</v>
       </c>
@@ -25653,7 +25710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>642</v>
       </c>
@@ -25727,7 +25784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>643</v>
       </c>
@@ -25747,7 +25804,7 @@
         <v>1118</v>
       </c>
       <c r="K291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L291">
         <v>1</v>
@@ -25779,6 +25836,9 @@
       <c r="U291" t="s">
         <v>968</v>
       </c>
+      <c r="V291" t="s">
+        <v>1460</v>
+      </c>
       <c r="W291" t="s">
         <v>1239</v>
       </c>
@@ -25798,7 +25858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>646</v>
       </c>
@@ -25884,7 +25944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>659</v>
       </c>
@@ -25955,7 +26015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>662</v>
       </c>
@@ -26026,7 +26086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>670</v>
       </c>
@@ -26097,7 +26157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>882</v>
       </c>
@@ -26168,7 +26228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>5733</v>
       </c>
@@ -26239,7 +26299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>678</v>
       </c>
@@ -26313,7 +26373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>682</v>
       </c>
@@ -26333,7 +26393,7 @@
         <v>1125</v>
       </c>
       <c r="K299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L299">
         <v>1</v>
@@ -26365,6 +26425,9 @@
       <c r="U299" t="s">
         <v>968</v>
       </c>
+      <c r="V299" t="s">
+        <v>1461</v>
+      </c>
       <c r="W299" t="s">
         <v>1285</v>
       </c>
@@ -26384,7 +26447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>686</v>
       </c>
@@ -26470,7 +26533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>688</v>
       </c>
@@ -26544,7 +26607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>690</v>
       </c>
@@ -26612,7 +26675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>694</v>
       </c>
@@ -26698,7 +26761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>702</v>
       </c>
@@ -26718,7 +26781,7 @@
         <v>1130</v>
       </c>
       <c r="K304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L304">
         <v>1</v>
@@ -26750,6 +26813,9 @@
       <c r="U304" t="s">
         <v>968</v>
       </c>
+      <c r="V304" t="s">
+        <v>1459</v>
+      </c>
       <c r="W304" t="s">
         <v>759</v>
       </c>
@@ -26769,7 +26835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>703</v>
       </c>
@@ -26843,7 +26909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>705</v>
       </c>
@@ -26917,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>90</v>
       </c>
@@ -26988,7 +27054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>706</v>
       </c>
@@ -27011,7 +27077,7 @@
         <v>741</v>
       </c>
       <c r="K308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L308">
         <v>1</v>
@@ -27043,6 +27109,9 @@
       <c r="U308" t="s">
         <v>968</v>
       </c>
+      <c r="V308" t="s">
+        <v>1459</v>
+      </c>
       <c r="W308" t="s">
         <v>1259</v>
       </c>
@@ -27065,7 +27134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>710</v>
       </c>
@@ -27151,7 +27220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>728</v>
       </c>
@@ -27231,7 +27300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>724</v>
       </c>
@@ -27299,7 +27368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>144</v>
       </c>
@@ -27373,7 +27442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>729</v>
       </c>
@@ -27393,7 +27462,7 @@
         <v>1139</v>
       </c>
       <c r="K313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L313">
         <v>1</v>
@@ -27425,6 +27494,9 @@
       <c r="U313" t="s">
         <v>968</v>
       </c>
+      <c r="V313" t="s">
+        <v>1459</v>
+      </c>
       <c r="W313" t="s">
         <v>1263</v>
       </c>
@@ -27447,7 +27519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>740</v>
       </c>
@@ -27518,7 +27590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>748</v>
       </c>
@@ -27604,7 +27676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>752</v>
       </c>
@@ -27672,7 +27744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>756</v>
       </c>
@@ -27692,7 +27764,7 @@
         <v>1143</v>
       </c>
       <c r="K317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L317">
         <v>0</v>
@@ -27724,6 +27796,9 @@
       <c r="U317" t="s">
         <v>968</v>
       </c>
+      <c r="V317" t="s">
+        <v>1459</v>
+      </c>
       <c r="W317" t="s">
         <v>759</v>
       </c>
@@ -27740,7 +27815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>760</v>
       </c>
@@ -27814,7 +27889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>762</v>
       </c>
@@ -27888,7 +27963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>807</v>
       </c>
@@ -27962,7 +28037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>764</v>
       </c>
@@ -28042,7 +28117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>626</v>
       </c>
@@ -28116,7 +28191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>768</v>
       </c>
@@ -28202,7 +28277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>768</v>
       </c>
@@ -28282,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>768</v>
       </c>
@@ -28362,7 +28437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>768</v>
       </c>
@@ -28442,7 +28517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>768</v>
       </c>
@@ -28522,7 +28597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>768</v>
       </c>
@@ -28602,7 +28677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>768</v>
       </c>
@@ -28682,7 +28757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>776</v>
       </c>
@@ -28753,7 +28828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>780</v>
       </c>
@@ -28827,7 +28902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>788</v>
       </c>
@@ -28904,7 +28979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>792</v>
       </c>
@@ -28975,7 +29050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>795</v>
       </c>
@@ -29046,7 +29121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>800</v>
       </c>
@@ -29132,7 +29207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>800</v>
       </c>
@@ -29212,7 +29287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>800</v>
       </c>
@@ -29292,7 +29367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>800</v>
       </c>
@@ -29372,7 +29447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>800</v>
       </c>
@@ -29452,7 +29527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>800</v>
       </c>
@@ -29532,7 +29607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>800</v>
       </c>
@@ -29612,7 +29687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>800</v>
       </c>
@@ -29692,7 +29767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>800</v>
       </c>
@@ -29772,7 +29847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>800</v>
       </c>
@@ -29852,7 +29927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>804</v>
       </c>
@@ -29872,7 +29947,7 @@
         <v>1156</v>
       </c>
       <c r="K345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L345">
         <v>1</v>
@@ -29904,6 +29979,9 @@
       <c r="U345" t="s">
         <v>968</v>
       </c>
+      <c r="V345" t="s">
+        <v>1461</v>
+      </c>
       <c r="W345" t="s">
         <v>1334</v>
       </c>
@@ -29923,7 +30001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>784</v>
       </c>
@@ -29994,7 +30072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>826</v>
       </c>
@@ -30062,7 +30140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>834</v>
       </c>
@@ -30148,7 +30226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>834</v>
       </c>
@@ -30228,7 +30306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>834</v>
       </c>
@@ -30308,7 +30386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>834</v>
       </c>
@@ -30388,7 +30466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>834</v>
       </c>
@@ -30468,7 +30546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>834</v>
       </c>
@@ -30548,7 +30626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>834</v>
       </c>
@@ -30628,7 +30706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>834</v>
       </c>
@@ -30708,7 +30786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>834</v>
       </c>
@@ -30788,7 +30866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>834</v>
       </c>
@@ -30868,7 +30946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>834</v>
       </c>
@@ -30948,7 +31026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>834</v>
       </c>
@@ -31028,7 +31106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>834</v>
       </c>
@@ -31108,7 +31186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>834</v>
       </c>
@@ -31188,7 +31266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>834</v>
       </c>
@@ -31268,7 +31346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>834</v>
       </c>
@@ -31348,7 +31426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>834</v>
       </c>
@@ -31428,7 +31506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>834</v>
       </c>
@@ -31508,7 +31586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>834</v>
       </c>
@@ -31588,7 +31666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>834</v>
       </c>
@@ -31668,7 +31746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>834</v>
       </c>
@@ -31748,7 +31826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>834</v>
       </c>
@@ -31828,7 +31906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>834</v>
       </c>
@@ -31908,7 +31986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>834</v>
       </c>
@@ -31988,7 +32066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>834</v>
       </c>
@@ -32068,7 +32146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>834</v>
       </c>
@@ -32148,7 +32226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>834</v>
       </c>
@@ -32228,7 +32306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>834</v>
       </c>
@@ -32308,7 +32386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>840</v>
       </c>
@@ -32328,7 +32406,7 @@
         <v>1160</v>
       </c>
       <c r="K376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L376">
         <v>0</v>
@@ -32360,6 +32438,9 @@
       <c r="U376" t="s">
         <v>968</v>
       </c>
+      <c r="V376" t="s">
+        <v>1459</v>
+      </c>
       <c r="W376" t="s">
         <v>759</v>
       </c>
@@ -32373,7 +32454,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="377" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>850</v>
       </c>
@@ -32432,7 +32513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>858</v>
       </c>
@@ -32506,7 +32587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>860</v>
       </c>
@@ -32526,7 +32607,7 @@
         <v>1163</v>
       </c>
       <c r="K379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L379">
         <v>1</v>
@@ -32558,6 +32639,9 @@
       <c r="U379" t="s">
         <v>968</v>
       </c>
+      <c r="V379" t="s">
+        <v>1459</v>
+      </c>
       <c r="W379" t="s">
         <v>1336</v>
       </c>
@@ -32577,7 +32661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>548</v>
       </c>
@@ -32645,7 +32729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>862</v>
       </c>
@@ -32716,7 +32800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>704</v>
       </c>
@@ -32742,7 +32826,7 @@
         <v>1166</v>
       </c>
       <c r="K382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L382">
         <v>1</v>
@@ -32774,6 +32858,9 @@
       <c r="U382" t="s">
         <v>968</v>
       </c>
+      <c r="V382" t="s">
+        <v>1459</v>
+      </c>
       <c r="W382" t="s">
         <v>1337</v>
       </c>
@@ -32793,7 +32880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>732</v>
       </c>
@@ -32855,7 +32942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>887</v>
       </c>
@@ -32929,7 +33016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>894</v>
       </c>
@@ -33015,7 +33102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>894</v>
       </c>
@@ -33095,7 +33182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>894</v>
       </c>
@@ -33175,7 +33262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>894</v>
       </c>
@@ -33255,7 +33342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>894</v>
       </c>
@@ -33335,7 +33422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>894</v>
       </c>
@@ -33415,7 +33502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>894</v>
       </c>
@@ -33495,7 +33582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>894</v>
       </c>
@@ -33575,7 +33662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>894</v>
       </c>
@@ -33655,7 +33742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>894</v>
       </c>
@@ -33735,7 +33822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>894</v>
       </c>
@@ -33815,7 +33902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>716</v>
       </c>
@@ -33901,7 +33988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>716</v>
       </c>
@@ -33981,7 +34068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>716</v>
       </c>
@@ -34061,7 +34148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>716</v>
       </c>
@@ -34141,7 +34228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>716</v>
       </c>
@@ -34221,7 +34308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>716</v>
       </c>
@@ -34301,7 +34388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>716</v>
       </c>
@@ -34381,7 +34468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>716</v>
       </c>
@@ -34461,7 +34548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>716</v>
       </c>
@@ -34541,7 +34628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>716</v>
       </c>
@@ -34621,7 +34708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>716</v>
       </c>
@@ -34714,14 +34801,14 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
-    <col min="3" max="4" width="73.21875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="4" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>668</v>
       </c>
@@ -34735,7 +34822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>903</v>
       </c>
@@ -34749,7 +34836,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>935</v>
       </c>
@@ -34763,7 +34850,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>927</v>
       </c>
@@ -34777,7 +34864,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>915</v>
       </c>
@@ -34791,7 +34878,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>916</v>
       </c>
@@ -34805,7 +34892,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5500</v>
       </c>
@@ -34819,7 +34906,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>910</v>
       </c>
@@ -34833,7 +34920,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1832</v>
       </c>
@@ -34847,7 +34934,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>906</v>
       </c>
@@ -34861,7 +34948,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>923</v>
       </c>
@@ -34875,7 +34962,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>908</v>
       </c>
@@ -34889,7 +34976,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1829</v>
       </c>
@@ -34903,7 +34990,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1503</v>
       </c>
@@ -34917,7 +35004,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>904</v>
       </c>
@@ -34931,7 +35018,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>941</v>
       </c>
@@ -34945,7 +35032,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>902</v>
       </c>
@@ -34959,7 +35046,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>948</v>
       </c>
@@ -34973,7 +35060,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>934</v>
       </c>
@@ -34987,7 +35074,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1501</v>
       </c>
@@ -35001,7 +35088,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -35015,7 +35102,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>928</v>
       </c>
@@ -35029,7 +35116,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>954</v>
       </c>
@@ -35043,7 +35130,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>911</v>
       </c>
@@ -35057,7 +35144,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1517</v>
       </c>
@@ -35071,7 +35158,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>901</v>
       </c>
@@ -35085,7 +35172,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1518</v>
       </c>
@@ -35099,7 +35186,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>912</v>
       </c>
@@ -35113,7 +35200,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>905</v>
       </c>
@@ -35127,7 +35214,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1833</v>
       </c>
@@ -35141,7 +35228,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>924</v>
       </c>
@@ -35155,7 +35242,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1835</v>
       </c>
@@ -35169,7 +35256,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>909</v>
       </c>
@@ -35183,7 +35270,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>957</v>
       </c>
@@ -35197,7 +35284,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>931</v>
       </c>
@@ -35211,7 +35298,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5501</v>
       </c>
@@ -35225,7 +35312,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1831</v>
       </c>
@@ -35239,7 +35326,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>920</v>
       </c>
@@ -35253,7 +35340,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>913</v>
       </c>
@@ -35267,7 +35354,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>925</v>
       </c>
@@ -35281,7 +35368,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1834</v>
       </c>
@@ -35295,7 +35382,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1502</v>
       </c>
@@ -35309,7 +35396,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>914</v>
       </c>
@@ -35323,7 +35410,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>922</v>
       </c>
@@ -35337,7 +35424,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>926</v>
       </c>
@@ -35351,7 +35438,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>900</v>
       </c>
@@ -35377,13 +35464,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>703</v>
       </c>
@@ -35391,7 +35478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>31100</v>
       </c>
@@ -35399,7 +35486,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31101</v>
       </c>
@@ -35407,7 +35494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31102</v>
       </c>
@@ -35415,7 +35502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31103</v>
       </c>
@@ -35423,7 +35510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31104</v>
       </c>
@@ -35431,7 +35518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31105</v>
       </c>
@@ -35439,7 +35526,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>31106</v>
       </c>
@@ -35447,7 +35534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31107</v>
       </c>
@@ -35455,7 +35542,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31108</v>
       </c>
@@ -35463,7 +35550,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31109</v>
       </c>
@@ -35471,7 +35558,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>31110</v>
       </c>
@@ -35479,7 +35566,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31111</v>
       </c>
@@ -35487,7 +35574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31112</v>
       </c>
@@ -35495,7 +35582,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31113</v>
       </c>
@@ -35503,7 +35590,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31114</v>
       </c>
@@ -35511,7 +35598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31115</v>
       </c>
@@ -35519,7 +35606,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31116</v>
       </c>
@@ -35527,7 +35614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31117</v>
       </c>
@@ -35535,7 +35622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>31118</v>
       </c>
@@ -35543,7 +35630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31119</v>
       </c>
@@ -35551,7 +35638,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31120</v>
       </c>
@@ -35571,9 +35658,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>670</v>
       </c>
@@ -35581,7 +35668,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -35661,7 +35748,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>686</v>
       </c>
@@ -35741,7 +35828,7 @@
         <v>0.199826844</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>687</v>
       </c>
@@ -35821,7 +35908,7 @@
         <v>0.25524005999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>688</v>
       </c>
@@ -35901,7 +35988,7 @@
         <v>0.20412380699999999</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>689</v>
       </c>
@@ -35981,7 +36068,7 @@
         <v>0.29957267999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>690</v>
       </c>
@@ -36061,7 +36148,7 @@
         <v>0.26680348199999998</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -36141,7 +36228,7 @@
         <v>0.23617002600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -36221,7 +36308,7 @@
         <v>0.28607152800000002</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>691</v>
       </c>
@@ -36301,7 +36388,7 @@
         <v>0.25205312499999999</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>692</v>
       </c>
@@ -36381,7 +36468,7 @@
         <v>0.24749605999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>693</v>
       </c>
@@ -36461,7 +36548,7 @@
         <v>0.23831311399999999</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>694</v>
       </c>
@@ -36541,7 +36628,7 @@
         <v>0.26037552000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>695</v>
       </c>
@@ -36621,7 +36708,7 @@
         <v>0.249594433</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>696</v>
       </c>
@@ -36701,7 +36788,7 @@
         <v>0.257790136</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>697</v>
       </c>
@@ -36781,7 +36868,7 @@
         <v>0.26470371500000001</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>698</v>
       </c>
@@ -36861,7 +36948,7 @@
         <v>0.298197449</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -36941,7 +37028,7 @@
         <v>0.24057669000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -37021,7 +37108,7 @@
         <v>0.319881423</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>699</v>
       </c>
@@ -37101,7 +37188,7 @@
         <v>0.30209310099999998</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>700</v>
       </c>
@@ -37181,7 +37268,7 @@
         <v>0.30532294700000001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>701</v>
       </c>
@@ -37261,7 +37348,7 @@
         <v>0.28461773499999998</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>702</v>
       </c>
@@ -37354,15 +37441,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="2"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>749</v>
       </c>
@@ -37376,7 +37463,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>753</v>
       </c>

--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" rupBuild="4506" lastEdited="4" lowestEdited="4"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="517"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="517"/>
   </bookViews>
   <sheets>
     <sheet name="CountryMaster" sheetId="1" r:id="flId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1462">
   <si>
     <t>Country Code</t>
   </si>
@@ -4065,6 +4065,9 @@
     <t>UNAIDS 2023</t>
   </si>
   <si>
+    <t>MICS 2000, MICS 2010, DHS 2015</t>
+  </si>
+  <si>
     <t>RHS 2002, MICS 2005, DHS 2008, DHS 2017</t>
   </si>
   <si>
@@ -4092,6 +4095,9 @@
     <t>MICS 2005, MICS 2006, MICS 2011, MICS 2012, MICS 2015</t>
   </si>
   <si>
+    <t>DHS 1996, DHS 2001, DHS 2006, DHS 2011, MICS 2014, DHS 2017</t>
+  </si>
+  <si>
     <t>DHS 1998, MICS 2000, DHS 2003, DHS 2008, NSS 2016</t>
   </si>
   <si>
@@ -4104,6 +4110,9 @@
     <t>DHS 1996, NSS 2006, UNICEF SOWC 2009-2013 2009, NSS 2013, NSS 2019</t>
   </si>
   <si>
+    <t>DHS 1998, DHS 2003, MICS 2006, DHS 2010, MIS 2014</t>
+  </si>
+  <si>
     <t>MICS 2000, MICS 2005, DHS 2010, MIS 2012, DHS 2016</t>
   </si>
   <si>
@@ -4122,6 +4131,9 @@
     <t>DHS 1996, MICS 2000, DHS 2004, DHS 2005, MICS 2010, DHS 2014, MICS 2019</t>
   </si>
   <si>
+    <t>DHS 1996, MICS 2000, DHS 2012</t>
+  </si>
+  <si>
     <t>DHS 2005, DHS 2011, MICS 2014</t>
   </si>
   <si>
@@ -4131,6 +4143,9 @@
     <t>MICS 2011, MICS 2018</t>
   </si>
   <si>
+    <t>DHS 1998, MICS 2000, AIS 2005, MICS 2006, DHS 2011, MICS 2016</t>
+  </si>
+  <si>
     <t>MICS 2006, MICS 2010, MICS 2014, MICS 2019</t>
   </si>
   <si>
@@ -4170,6 +4185,9 @@
     <t>MICS 2005, MICS 2018</t>
   </si>
   <si>
+    <t>DHS 1998, DHS 2003, MICS 2006, DHS 2008, MICS 2011, DHS 2014, MICS 2017</t>
+  </si>
+  <si>
     <t>DHS 1998, RHS 2002, RHS 2008, DHS 2014</t>
   </si>
   <si>
@@ -4284,6 +4302,9 @@
     <t>RHS 1998, RHS 2004, RHS 2008, MICS 2016</t>
   </si>
   <si>
+    <t>DHS 1996, DHS 2000, DHS 2004, DHS 2005, DHS 2006, DHS 2007, DHS 2008, DHS 2009, DHS 2010, DHS 2011, DHS 2012, DHS 2013, DHS 2014, DHS 2015, DHS 2016, DHS 2017, DHS 2018, DHS 2019, DHS 2020, DHS 2021</t>
+  </si>
+  <si>
     <t>DHS 1998, MICS 2000, DHS 2003, DHS 2008, DHS 2013, DHS 2017, DHS 2022</t>
   </si>
   <si>
@@ -4323,12 +4344,21 @@
     <t>MICS 2006, MICS 2010, MICS 2018</t>
   </si>
   <si>
+    <t>MICS 2000, DHS 2006, MICS 2010, MICS 2014</t>
+  </si>
+  <si>
     <t>MICS 2000, MICS 2005, DHS 2012, DHS 2017</t>
   </si>
   <si>
+    <t>DHS 1996, DHS 1999, DHS 2004, DHS 2010, DHS 2015</t>
+  </si>
+  <si>
     <t>MICS 2005, MICS 2011, MICS 2018</t>
   </si>
   <si>
+    <t>MICS 2005, MICS 2012, MICS 2015, MICS 2019</t>
+  </si>
+  <si>
     <t>DHS 1998, MICS 2006, MICS 2010, DHS 2013, MICS 2017</t>
   </si>
   <si>
@@ -4356,6 +4386,9 @@
     <t>DHS 1997, MICS 2000, DHS 2002, MICS 2006, MICS 2010, MICS 2013, MICS 2020</t>
   </si>
   <si>
+    <t>DHS 1997, MICS 2006, DHS 2013</t>
+  </si>
+  <si>
     <t>DHS 1996, MICS 1999, DHS 2001, DHS 2007, DHS 2013, DHS 2018</t>
   </si>
   <si>
@@ -4368,40 +4401,13 @@
     <t>LC</t>
   </si>
   <si>
-    <t>MICS 2000, MICS 2010, DHS 2015, MICS 2022</t>
-  </si>
-  <si>
-    <t>DHS 1996, DHS 2001, DHS 2006, DHS 2011, MICS 2014, DHS 2017, MICS 2021</t>
-  </si>
-  <si>
-    <t>DHS 1998, DHS 2003, MICS 2006, DHS 2010, MIS 2014, DHS 2021</t>
-  </si>
-  <si>
-    <t>DHS 1996, MICS 2000, DHS 2012, MICS 2022</t>
-  </si>
-  <si>
-    <t>DHS 1998, MICS 2000, AIS 2005, MICS 2006, DHS 2011, MICS 2016, DHS 2021</t>
-  </si>
-  <si>
-    <t>DHS 1998, DHS 2003, MICS 2006, DHS 2008, MICS 2011, DHS 2014, MICS 2017, DHS 2022</t>
-  </si>
-  <si>
-    <t>DHS 1996, DHS 2000, DHS 2004, DHS 2005, DHS 2006, DHS 2007, DHS 2008, DHS 2009, DHS 2010, DHS 2011, DHS 2012, DHS 2013, DHS 2014, DHS 2015, DHS 2016, DHS 2017, DHS 2018, DHS 2019, DHS 2020, DHS 2021, DHS 2022</t>
-  </si>
-  <si>
-    <t>MICS 2000, DHS 2006, MICS 2010, MICS 2014, MICS 2021</t>
-  </si>
-  <si>
-    <t>DHS 1996, DHS 1999, DHS 2004, DHS 2010, DHS 2015, DHS 2022</t>
-  </si>
-  <si>
-    <t>MICS 2005, MICS 2012, MICS 2015, MICS 2019, MICS 2022</t>
-  </si>
-  <si>
-    <t>MICS 2006, MICS 2011, MICS 2022</t>
-  </si>
-  <si>
-    <t>DHS 1997, MICS 2006, DHS 2013, MICS 2022</t>
+    <t>UNAIDS 2022</t>
+  </si>
+  <si>
+    <t>Avenir 2023</t>
+  </si>
+  <si>
+    <t>UNAIDS 2021</t>
   </si>
 </sst>
 </file>
@@ -4792,43 +4798,43 @@
   <dimension ref="A1:AH406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F281" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H300" sqref="H300"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C376" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.7109375" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5001,7 +5007,7 @@
         <v>1221</v>
       </c>
       <c r="X2" t="s">
-        <v>1448</v>
+        <v>1347</v>
       </c>
       <c r="AA2" t="s">
         <v>966</v>
@@ -5075,7 +5081,7 @@
         <v>1222</v>
       </c>
       <c r="X3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AE3" t="s">
         <v>708</v>
@@ -5146,7 +5152,7 @@
         <v>1223</v>
       </c>
       <c r="X4" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AA4" t="s">
         <v>966</v>
@@ -5223,7 +5229,7 @@
         <v>1224</v>
       </c>
       <c r="X5" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AA5" t="s">
         <v>966</v>
@@ -5368,7 +5374,7 @@
         <v>1226</v>
       </c>
       <c r="X7" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AA7" t="s">
         <v>966</v>
@@ -5442,7 +5448,7 @@
         <v>1227</v>
       </c>
       <c r="X8" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AA8" t="s">
         <v>966</v>
@@ -5678,7 +5684,7 @@
         <v>978</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -5710,11 +5716,14 @@
       <c r="U12" t="s">
         <v>968</v>
       </c>
+      <c r="V12" t="s">
+        <v>1459</v>
+      </c>
       <c r="W12" t="s">
         <v>1228</v>
       </c>
       <c r="X12" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AA12" t="s">
         <v>966</v>
@@ -5823,7 +5832,7 @@
         <v>980</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -5854,6 +5863,9 @@
       </c>
       <c r="U14" t="s">
         <v>968</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1459</v>
       </c>
       <c r="W14" t="s">
         <v>759</v>
@@ -5933,7 +5945,7 @@
         <v>1229</v>
       </c>
       <c r="X15" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="AA15" t="s">
         <v>966</v>
@@ -5968,7 +5980,7 @@
         <v>982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -5999,6 +6011,9 @@
       </c>
       <c r="U16" t="s">
         <v>968</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1459</v>
       </c>
       <c r="W16" t="s">
         <v>1230</v>
@@ -6078,7 +6093,7 @@
         <v>1231</v>
       </c>
       <c r="X17" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AA17" t="s">
         <v>966</v>
@@ -6220,7 +6235,7 @@
         <v>1232</v>
       </c>
       <c r="X19" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="AA19" t="s">
         <v>966</v>
@@ -6303,7 +6318,7 @@
         <v>1233</v>
       </c>
       <c r="X20" t="s">
-        <v>1449</v>
+        <v>1357</v>
       </c>
       <c r="AA20" t="s">
         <v>966</v>
@@ -7420,7 +7435,7 @@
         <v>1235</v>
       </c>
       <c r="X34" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="AA34" t="s">
         <v>966</v>
@@ -7488,7 +7503,7 @@
         <v>1236</v>
       </c>
       <c r="X35" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="AA35" t="s">
         <v>759</v>
@@ -7571,7 +7586,7 @@
         <v>759</v>
       </c>
       <c r="X36" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="AA36" t="s">
         <v>966</v>
@@ -7615,7 +7630,7 @@
         <v>992</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7647,11 +7662,14 @@
       <c r="U37" t="s">
         <v>968</v>
       </c>
+      <c r="V37" t="s">
+        <v>1460</v>
+      </c>
       <c r="W37" t="s">
         <v>1237</v>
       </c>
       <c r="X37" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="AA37" t="s">
         <v>966</v>
@@ -7876,7 +7894,7 @@
         <v>1240</v>
       </c>
       <c r="X40" t="s">
-        <v>1450</v>
+        <v>1362</v>
       </c>
       <c r="AA40" t="s">
         <v>966</v>
@@ -7956,7 +7974,7 @@
         <v>1241</v>
       </c>
       <c r="X41" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="AA41" t="s">
         <v>966</v>
@@ -8039,7 +8057,7 @@
         <v>1242</v>
       </c>
       <c r="X42" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="AA42" t="s">
         <v>966</v>
@@ -8122,7 +8140,7 @@
         <v>1243</v>
       </c>
       <c r="X43" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="AA43" t="s">
         <v>966</v>
@@ -8270,7 +8288,7 @@
         <v>1244</v>
       </c>
       <c r="X45" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="AA45" t="s">
         <v>966</v>
@@ -8350,7 +8368,7 @@
         <v>1245</v>
       </c>
       <c r="X46" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="AA46" t="s">
         <v>966</v>
@@ -8436,7 +8454,7 @@
         <v>1246</v>
       </c>
       <c r="X47" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="AA47" t="s">
         <v>966</v>
@@ -8619,7 +8637,7 @@
         <v>1004</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -8650,6 +8668,9 @@
       </c>
       <c r="U50" t="s">
         <v>968</v>
+      </c>
+      <c r="V50" t="s">
+        <v>1460</v>
       </c>
       <c r="W50" t="s">
         <v>1248</v>
@@ -8918,7 +8939,7 @@
         <v>1249</v>
       </c>
       <c r="X54" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AA54" t="s">
         <v>966</v>
@@ -8992,7 +9013,7 @@
         <v>1250</v>
       </c>
       <c r="X55" t="s">
-        <v>1451</v>
+        <v>1369</v>
       </c>
       <c r="AA55" t="s">
         <v>759</v>
@@ -9075,7 +9096,7 @@
         <v>1251</v>
       </c>
       <c r="X56" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="AA56" t="s">
         <v>966</v>
@@ -9152,7 +9173,7 @@
         <v>1252</v>
       </c>
       <c r="X57" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="AA57" t="s">
         <v>966</v>
@@ -9235,7 +9256,7 @@
         <v>1253</v>
       </c>
       <c r="X58" t="s">
-        <v>1452</v>
+        <v>1373</v>
       </c>
       <c r="AA58" t="s">
         <v>966</v>
@@ -10263,7 +10284,7 @@
         <v>1255</v>
       </c>
       <c r="X71" t="s">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="AA71" t="s">
         <v>966</v>
@@ -10541,7 +10562,7 @@
         <v>1257</v>
       </c>
       <c r="X75" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="AA75" t="s">
         <v>966</v>
@@ -10624,7 +10645,7 @@
         <v>1258</v>
       </c>
       <c r="X76" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="AA76" t="s">
         <v>966</v>
@@ -10733,7 +10754,7 @@
         <v>1021</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -10764,6 +10785,9 @@
       </c>
       <c r="U78" t="s">
         <v>968</v>
+      </c>
+      <c r="V78" t="s">
+        <v>1459</v>
       </c>
       <c r="W78" t="s">
         <v>1259</v>
@@ -10917,7 +10941,7 @@
         <v>1260</v>
       </c>
       <c r="X80" t="s">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="AA80" t="s">
         <v>966</v>
@@ -10997,7 +11021,7 @@
         <v>1261</v>
       </c>
       <c r="X81" t="s">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="AA81" t="s">
         <v>966</v>
@@ -11032,7 +11056,7 @@
         <v>1025</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -11064,11 +11088,14 @@
       <c r="U82" t="s">
         <v>968</v>
       </c>
+      <c r="V82" t="s">
+        <v>1461</v>
+      </c>
       <c r="W82" t="s">
         <v>1262</v>
       </c>
       <c r="X82" t="s">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="AA82" t="s">
         <v>966</v>
@@ -11151,7 +11178,7 @@
         <v>1263</v>
       </c>
       <c r="X83" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="AA83" t="s">
         <v>966</v>
@@ -11228,7 +11255,7 @@
         <v>1264</v>
       </c>
       <c r="X84" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="AA84" t="s">
         <v>966</v>
@@ -11308,7 +11335,7 @@
         <v>1265</v>
       </c>
       <c r="X85" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="AA85" t="s">
         <v>966</v>
@@ -11346,7 +11373,7 @@
         <v>1029</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -11377,6 +11404,9 @@
       </c>
       <c r="U86" t="s">
         <v>968</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1461</v>
       </c>
       <c r="W86" t="s">
         <v>1239</v>
@@ -11465,7 +11495,7 @@
         <v>1266</v>
       </c>
       <c r="X87" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="AA87" t="s">
         <v>966</v>
@@ -12502,7 +12532,7 @@
         <v>1267</v>
       </c>
       <c r="X100" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="AA100" t="s">
         <v>966</v>
@@ -12848,7 +12878,7 @@
         <v>1268</v>
       </c>
       <c r="X105" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="AA105" t="s">
         <v>966</v>
@@ -12928,7 +12958,7 @@
         <v>1269</v>
       </c>
       <c r="X106" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="AA106" t="s">
         <v>966</v>
@@ -13005,7 +13035,7 @@
         <v>1270</v>
       </c>
       <c r="X107" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="AA107" t="s">
         <v>966</v>
@@ -13156,7 +13186,7 @@
         <v>1271</v>
       </c>
       <c r="X109" t="s">
-        <v>1453</v>
+        <v>1387</v>
       </c>
       <c r="AA109" t="s">
         <v>966</v>
@@ -13508,7 +13538,7 @@
         <v>1272</v>
       </c>
       <c r="X114" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="AA114" t="s">
         <v>966</v>
@@ -13591,7 +13621,7 @@
         <v>1273</v>
       </c>
       <c r="X115" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="AA115" t="s">
         <v>966</v>
@@ -13671,7 +13701,7 @@
         <v>1274</v>
       </c>
       <c r="X116" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="AA116" t="s">
         <v>966</v>
@@ -13748,7 +13778,7 @@
         <v>1275</v>
       </c>
       <c r="X117" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="AA117" t="s">
         <v>966</v>
@@ -13825,7 +13855,7 @@
         <v>1276</v>
       </c>
       <c r="X118" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="AA118" t="s">
         <v>966</v>
@@ -14669,7 +14699,7 @@
         <v>1277</v>
       </c>
       <c r="X129" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="AA129" t="s">
         <v>966</v>
@@ -14852,7 +14882,7 @@
         <v>1053</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -14884,11 +14914,14 @@
       <c r="U132" t="s">
         <v>968</v>
       </c>
+      <c r="V132" t="s">
+        <v>1460</v>
+      </c>
       <c r="W132" t="s">
         <v>1278</v>
       </c>
       <c r="X132" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="AA132" t="s">
         <v>966</v>
@@ -16298,7 +16331,7 @@
         <v>1279</v>
       </c>
       <c r="X168" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="AA168" t="s">
         <v>966</v>
@@ -16333,7 +16366,7 @@
         <v>1055</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
         <v>1</v>
@@ -16364,6 +16397,9 @@
       </c>
       <c r="U169" t="s">
         <v>968</v>
+      </c>
+      <c r="V169" t="s">
+        <v>1459</v>
       </c>
       <c r="W169" t="s">
         <v>1256</v>
@@ -16440,7 +16476,7 @@
         <v>1280</v>
       </c>
       <c r="X170" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="AA170" t="s">
         <v>759</v>
@@ -16685,7 +16721,7 @@
         <v>1060</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174">
         <v>1</v>
@@ -16717,11 +16753,14 @@
       <c r="U174" t="s">
         <v>968</v>
       </c>
+      <c r="V174" t="s">
+        <v>1459</v>
+      </c>
       <c r="W174" t="s">
         <v>1225</v>
       </c>
       <c r="X174" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="AA174" t="s">
         <v>966</v>
@@ -16863,7 +16902,7 @@
         <v>1281</v>
       </c>
       <c r="X176" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="AA176" t="s">
         <v>759</v>
@@ -16898,7 +16937,7 @@
         <v>1063</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>1</v>
@@ -16930,11 +16969,14 @@
       <c r="U177" t="s">
         <v>968</v>
       </c>
+      <c r="V177" t="s">
+        <v>1459</v>
+      </c>
       <c r="W177" t="s">
         <v>1282</v>
       </c>
       <c r="X177" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="AA177" t="s">
         <v>966</v>
@@ -17017,7 +17059,7 @@
         <v>1283</v>
       </c>
       <c r="X178" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
       <c r="AA178" t="s">
         <v>966</v>
@@ -17731,7 +17773,7 @@
         <v>1284</v>
       </c>
       <c r="X187" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="AA187" t="s">
         <v>759</v>
@@ -17951,7 +17993,7 @@
         <v>1286</v>
       </c>
       <c r="X190" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="AA190" t="s">
         <v>966</v>
@@ -18025,7 +18067,7 @@
         <v>1287</v>
       </c>
       <c r="X191" t="s">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="AA191" t="s">
         <v>966</v>
@@ -18253,7 +18295,7 @@
         <v>1288</v>
       </c>
       <c r="X194" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="AA194" t="s">
         <v>966</v>
@@ -18333,7 +18375,7 @@
         <v>1289</v>
       </c>
       <c r="X195" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="AA195" t="s">
         <v>966</v>
@@ -18635,7 +18677,7 @@
         <v>1291</v>
       </c>
       <c r="X199" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="AA199" t="s">
         <v>966</v>
@@ -18721,7 +18763,7 @@
         <v>1292</v>
       </c>
       <c r="X200" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="AA200" t="s">
         <v>966</v>
@@ -18878,7 +18920,7 @@
         <v>1293</v>
       </c>
       <c r="X202" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="AA202" t="s">
         <v>966</v>
@@ -18961,7 +19003,7 @@
         <v>1294</v>
       </c>
       <c r="X203" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="AA203" t="s">
         <v>966</v>
@@ -19174,7 +19216,7 @@
         <v>1295</v>
       </c>
       <c r="X206" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="AA206" t="s">
         <v>966</v>
@@ -19215,7 +19257,7 @@
         <v>736</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>1</v>
@@ -19246,6 +19288,9 @@
       </c>
       <c r="U207" t="s">
         <v>968</v>
+      </c>
+      <c r="V207" t="s">
+        <v>1459</v>
       </c>
       <c r="W207" t="s">
         <v>1296</v>
@@ -19393,7 +19438,7 @@
         <v>1297</v>
       </c>
       <c r="X209" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="AA209" t="s">
         <v>966</v>
@@ -19544,7 +19589,7 @@
         <v>1298</v>
       </c>
       <c r="X211" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="AA211" t="s">
         <v>966</v>
@@ -19618,7 +19663,7 @@
         <v>1299</v>
       </c>
       <c r="X212" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="AA212" t="s">
         <v>966</v>
@@ -19692,7 +19737,7 @@
         <v>1300</v>
       </c>
       <c r="X213" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="AA213" t="s">
         <v>966</v>
@@ -19778,7 +19823,7 @@
         <v>1301</v>
       </c>
       <c r="X214" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="AA214" t="s">
         <v>966</v>
@@ -20741,7 +20786,7 @@
         <v>1224</v>
       </c>
       <c r="X226" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="AA226" t="s">
         <v>966</v>
@@ -20824,7 +20869,7 @@
         <v>1302</v>
       </c>
       <c r="X227" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="AA227" t="s">
         <v>966</v>
@@ -20907,7 +20952,7 @@
         <v>1303</v>
       </c>
       <c r="X228" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
       <c r="AA228" t="s">
         <v>966</v>
@@ -21185,7 +21230,7 @@
         <v>1304</v>
       </c>
       <c r="X232" t="s">
-        <v>1413</v>
+        <v>1419</v>
       </c>
       <c r="AA232" t="s">
         <v>966</v>
@@ -21268,7 +21313,7 @@
         <v>1305</v>
       </c>
       <c r="X233" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="AA233" t="s">
         <v>966</v>
@@ -21315,7 +21360,7 @@
         <v>1218</v>
       </c>
       <c r="K234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234">
         <v>1</v>
@@ -21347,11 +21392,14 @@
       <c r="U234" t="s">
         <v>968</v>
       </c>
+      <c r="V234" t="s">
+        <v>1459</v>
+      </c>
       <c r="W234" t="s">
         <v>1306</v>
       </c>
       <c r="X234" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="AA234" t="s">
         <v>966</v>
@@ -24349,7 +24397,7 @@
         <v>1101</v>
       </c>
       <c r="K272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272">
         <v>0</v>
@@ -24380,6 +24428,9 @@
       </c>
       <c r="U272" t="s">
         <v>968</v>
+      </c>
+      <c r="V272" t="s">
+        <v>1459</v>
       </c>
       <c r="W272" t="s">
         <v>759</v>
@@ -24453,7 +24504,7 @@
         <v>1307</v>
       </c>
       <c r="X273" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="AA273" t="s">
         <v>759</v>
@@ -24485,7 +24536,7 @@
         <v>1103</v>
       </c>
       <c r="K274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L274">
         <v>1</v>
@@ -24516,6 +24567,9 @@
       </c>
       <c r="U274" t="s">
         <v>968</v>
+      </c>
+      <c r="V274" t="s">
+        <v>1459</v>
       </c>
       <c r="W274" t="s">
         <v>1285</v>
@@ -24601,7 +24655,7 @@
         <v>1308</v>
       </c>
       <c r="X275" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="AA275" t="s">
         <v>966</v>
@@ -24761,7 +24815,7 @@
         <v>1310</v>
       </c>
       <c r="X277" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="AA277" t="s">
         <v>966</v>
@@ -24841,7 +24895,7 @@
         <v>1311</v>
       </c>
       <c r="X278" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="AA278" t="s">
         <v>966</v>
@@ -24921,7 +24975,7 @@
         <v>1312</v>
       </c>
       <c r="X279" t="s">
-        <v>1454</v>
+        <v>1426</v>
       </c>
       <c r="AA279" t="s">
         <v>966</v>
@@ -25001,7 +25055,7 @@
         <v>1313</v>
       </c>
       <c r="X280" t="s">
-        <v>1420</v>
+        <v>1427</v>
       </c>
       <c r="AA280" t="s">
         <v>966</v>
@@ -25424,7 +25478,7 @@
         <v>1315</v>
       </c>
       <c r="X286" t="s">
-        <v>1421</v>
+        <v>1428</v>
       </c>
       <c r="AA286" t="s">
         <v>966</v>
@@ -25747,7 +25801,7 @@
         <v>1118</v>
       </c>
       <c r="K291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L291">
         <v>1</v>
@@ -25778,6 +25832,9 @@
       </c>
       <c r="U291" t="s">
         <v>968</v>
+      </c>
+      <c r="V291" t="s">
+        <v>1460</v>
       </c>
       <c r="W291" t="s">
         <v>1239</v>
@@ -25866,7 +25923,7 @@
         <v>1316</v>
       </c>
       <c r="X292" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="AA292" t="s">
         <v>966</v>
@@ -26153,7 +26210,7 @@
         <v>1317</v>
       </c>
       <c r="X296" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
       <c r="AA296" t="s">
         <v>759</v>
@@ -26176,19 +26233,19 @@
         <v>520</v>
       </c>
       <c r="C297" t="s">
-        <v>1446</v>
+        <v>1457</v>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="F297" t="s">
-        <v>1447</v>
+        <v>1458</v>
       </c>
       <c r="G297">
         <v>100</v>
       </c>
       <c r="H297" t="s">
-        <v>1447</v>
+        <v>1458</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>521</v>
@@ -26298,7 +26355,7 @@
         <v>1318</v>
       </c>
       <c r="X298" t="s">
-        <v>1424</v>
+        <v>1431</v>
       </c>
       <c r="AA298" t="s">
         <v>966</v>
@@ -26333,7 +26390,7 @@
         <v>1125</v>
       </c>
       <c r="K299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L299">
         <v>1</v>
@@ -26364,6 +26421,9 @@
       </c>
       <c r="U299" t="s">
         <v>968</v>
+      </c>
+      <c r="V299" t="s">
+        <v>1461</v>
       </c>
       <c r="W299" t="s">
         <v>1285</v>
@@ -26452,7 +26512,7 @@
         <v>1319</v>
       </c>
       <c r="X300" t="s">
-        <v>1425</v>
+        <v>1432</v>
       </c>
       <c r="AA300" t="s">
         <v>966</v>
@@ -26529,7 +26589,7 @@
         <v>1320</v>
       </c>
       <c r="X301" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="AA301" t="s">
         <v>966</v>
@@ -26680,7 +26740,7 @@
         <v>1321</v>
       </c>
       <c r="X303" t="s">
-        <v>1427</v>
+        <v>1434</v>
       </c>
       <c r="AA303" t="s">
         <v>966</v>
@@ -26718,7 +26778,7 @@
         <v>1130</v>
       </c>
       <c r="K304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L304">
         <v>1</v>
@@ -26749,6 +26809,9 @@
       </c>
       <c r="U304" t="s">
         <v>968</v>
+      </c>
+      <c r="V304" t="s">
+        <v>1459</v>
       </c>
       <c r="W304" t="s">
         <v>759</v>
@@ -27011,7 +27074,7 @@
         <v>741</v>
       </c>
       <c r="K308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L308">
         <v>1</v>
@@ -27042,6 +27105,9 @@
       </c>
       <c r="U308" t="s">
         <v>968</v>
+      </c>
+      <c r="V308" t="s">
+        <v>1459</v>
       </c>
       <c r="W308" t="s">
         <v>1259</v>
@@ -27133,7 +27199,7 @@
         <v>1322</v>
       </c>
       <c r="X309" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
       <c r="AA309" t="s">
         <v>966</v>
@@ -27213,7 +27279,7 @@
         <v>1323</v>
       </c>
       <c r="X310" t="s">
-        <v>1431</v>
+        <v>1438</v>
       </c>
       <c r="AA310" t="s">
         <v>759</v>
@@ -27358,7 +27424,7 @@
         <v>1324</v>
       </c>
       <c r="X312" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
       <c r="AA312" t="s">
         <v>966</v>
@@ -27393,7 +27459,7 @@
         <v>1139</v>
       </c>
       <c r="K313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L313">
         <v>1</v>
@@ -27425,11 +27491,14 @@
       <c r="U313" t="s">
         <v>968</v>
       </c>
+      <c r="V313" t="s">
+        <v>1459</v>
+      </c>
       <c r="W313" t="s">
         <v>1263</v>
       </c>
       <c r="X313" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
       <c r="AA313" t="s">
         <v>966</v>
@@ -27503,7 +27572,7 @@
         <v>1325</v>
       </c>
       <c r="X314" t="s">
-        <v>1432</v>
+        <v>1439</v>
       </c>
       <c r="AA314" t="s">
         <v>966</v>
@@ -27586,7 +27655,7 @@
         <v>1326</v>
       </c>
       <c r="X315" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="AA315" t="s">
         <v>966</v>
@@ -27692,7 +27761,7 @@
         <v>1143</v>
       </c>
       <c r="K317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L317">
         <v>0</v>
@@ -27723,6 +27792,9 @@
       </c>
       <c r="U317" t="s">
         <v>968</v>
+      </c>
+      <c r="V317" t="s">
+        <v>1459</v>
       </c>
       <c r="W317" t="s">
         <v>759</v>
@@ -27873,7 +27945,7 @@
         <v>1328</v>
       </c>
       <c r="X319" t="s">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="AA319" t="s">
         <v>966</v>
@@ -27947,7 +28019,7 @@
         <v>1254</v>
       </c>
       <c r="X320" t="s">
-        <v>1434</v>
+        <v>1443</v>
       </c>
       <c r="AA320" t="s">
         <v>759</v>
@@ -28027,7 +28099,7 @@
         <v>759</v>
       </c>
       <c r="X321" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="AA321" t="s">
         <v>966</v>
@@ -28101,7 +28173,7 @@
         <v>1293</v>
       </c>
       <c r="X322" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="AA322" t="s">
         <v>759</v>
@@ -28184,7 +28256,7 @@
         <v>1329</v>
       </c>
       <c r="X323" t="s">
-        <v>1435</v>
+        <v>1445</v>
       </c>
       <c r="AA323" t="s">
         <v>966</v>
@@ -28738,7 +28810,7 @@
         <v>1317</v>
       </c>
       <c r="X330" t="s">
-        <v>1436</v>
+        <v>1446</v>
       </c>
       <c r="AA330" t="s">
         <v>759</v>
@@ -28812,7 +28884,7 @@
         <v>1330</v>
       </c>
       <c r="X331" t="s">
-        <v>1458</v>
+        <v>1359</v>
       </c>
       <c r="AA331" t="s">
         <v>966</v>
@@ -28886,7 +28958,7 @@
         <v>1252</v>
       </c>
       <c r="X332" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="AA332" t="s">
         <v>966</v>
@@ -28960,7 +29032,7 @@
         <v>1331</v>
       </c>
       <c r="X333" t="s">
-        <v>1437</v>
+        <v>1447</v>
       </c>
       <c r="AA333" t="s">
         <v>966</v>
@@ -29031,7 +29103,7 @@
         <v>1332</v>
       </c>
       <c r="X334" t="s">
-        <v>1438</v>
+        <v>1448</v>
       </c>
       <c r="AA334" t="s">
         <v>759</v>
@@ -29114,7 +29186,7 @@
         <v>1333</v>
       </c>
       <c r="X335" t="s">
-        <v>1439</v>
+        <v>1449</v>
       </c>
       <c r="AA335" t="s">
         <v>966</v>
@@ -29872,7 +29944,7 @@
         <v>1156</v>
       </c>
       <c r="K345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L345">
         <v>1</v>
@@ -29904,11 +29976,14 @@
       <c r="U345" t="s">
         <v>968</v>
       </c>
+      <c r="V345" t="s">
+        <v>1461</v>
+      </c>
       <c r="W345" t="s">
         <v>1334</v>
       </c>
       <c r="X345" t="s">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA345" t="s">
         <v>966</v>
@@ -30130,7 +30205,7 @@
         <v>1335</v>
       </c>
       <c r="X348" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="AA348" t="s">
         <v>966</v>
@@ -32328,7 +32403,7 @@
         <v>1160</v>
       </c>
       <c r="K376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L376">
         <v>0</v>
@@ -32359,6 +32434,9 @@
       </c>
       <c r="U376" t="s">
         <v>968</v>
+      </c>
+      <c r="V376" t="s">
+        <v>1459</v>
       </c>
       <c r="W376" t="s">
         <v>759</v>
@@ -32526,7 +32604,7 @@
         <v>1163</v>
       </c>
       <c r="K379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L379">
         <v>1</v>
@@ -32558,11 +32636,14 @@
       <c r="U379" t="s">
         <v>968</v>
       </c>
+      <c r="V379" t="s">
+        <v>1459</v>
+      </c>
       <c r="W379" t="s">
         <v>1336</v>
       </c>
       <c r="X379" t="s">
-        <v>1441</v>
+        <v>1451</v>
       </c>
       <c r="AA379" t="s">
         <v>966</v>
@@ -32633,7 +32714,7 @@
         <v>1238</v>
       </c>
       <c r="X380" t="s">
-        <v>1442</v>
+        <v>1452</v>
       </c>
       <c r="AE380" t="s">
         <v>708</v>
@@ -32742,7 +32823,7 @@
         <v>1166</v>
       </c>
       <c r="K382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L382">
         <v>1</v>
@@ -32774,11 +32855,14 @@
       <c r="U382" t="s">
         <v>968</v>
       </c>
+      <c r="V382" t="s">
+        <v>1459</v>
+      </c>
       <c r="W382" t="s">
         <v>1337</v>
       </c>
       <c r="X382" t="s">
-        <v>1443</v>
+        <v>1453</v>
       </c>
       <c r="AA382" t="s">
         <v>966</v>
@@ -32914,7 +32998,7 @@
         <v>1338</v>
       </c>
       <c r="X384" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="AA384" t="s">
         <v>966</v>
@@ -32997,7 +33081,7 @@
         <v>1339</v>
       </c>
       <c r="X385" t="s">
-        <v>1444</v>
+        <v>1455</v>
       </c>
       <c r="AA385" t="s">
         <v>966</v>
@@ -33883,7 +33967,7 @@
         <v>1340</v>
       </c>
       <c r="X396" t="s">
-        <v>1445</v>
+        <v>1456</v>
       </c>
       <c r="AA396" t="s">
         <v>966</v>
@@ -34715,11 +34799,11 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
-    <col min="3" max="4" width="73.21875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="4" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35378,10 +35462,10 @@
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35572,7 +35656,7 @@
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="C1" t="s">
@@ -37356,12 +37440,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="2"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" rupBuild="4506" lastEdited="4" lowestEdited="4"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="517"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="517"/>
   </bookViews>
   <sheets>
     <sheet name="CountryMaster" sheetId="1" r:id="flId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1463">
   <si>
     <t>Country Code</t>
   </si>
@@ -4366,6 +4366,15 @@
   </si>
   <si>
     <t>LC</t>
+  </si>
+  <si>
+    <t>UNAIDS 2022</t>
+  </si>
+  <si>
+    <t>Avenir 2023</t>
+  </si>
+  <si>
+    <t>UNAIDS 2021</t>
   </si>
   <si>
     <t>MICS 2000, MICS 2010, DHS 2015, MICS 2022</t>
@@ -4792,43 +4801,43 @@
   <dimension ref="A1:AH406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F281" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H300" sqref="H300"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C376" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.7109375" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5001,7 +5010,7 @@
         <v>1221</v>
       </c>
       <c r="X2" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="AA2" t="s">
         <v>966</v>
@@ -5678,7 +5687,7 @@
         <v>978</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -5709,6 +5718,9 @@
       </c>
       <c r="U12" t="s">
         <v>968</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1448</v>
       </c>
       <c r="W12" t="s">
         <v>1228</v>
@@ -5823,7 +5835,7 @@
         <v>980</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -5854,6 +5866,9 @@
       </c>
       <c r="U14" t="s">
         <v>968</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1448</v>
       </c>
       <c r="W14" t="s">
         <v>759</v>
@@ -5968,7 +5983,7 @@
         <v>982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -5999,6 +6014,9 @@
       </c>
       <c r="U16" t="s">
         <v>968</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1448</v>
       </c>
       <c r="W16" t="s">
         <v>1230</v>
@@ -6303,7 +6321,7 @@
         <v>1233</v>
       </c>
       <c r="X20" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="AA20" t="s">
         <v>966</v>
@@ -7615,7 +7633,7 @@
         <v>992</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7646,6 +7664,9 @@
       </c>
       <c r="U37" t="s">
         <v>968</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1449</v>
       </c>
       <c r="W37" t="s">
         <v>1237</v>
@@ -7876,7 +7897,7 @@
         <v>1240</v>
       </c>
       <c r="X40" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="AA40" t="s">
         <v>966</v>
@@ -8619,7 +8640,7 @@
         <v>1004</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -8650,6 +8671,9 @@
       </c>
       <c r="U50" t="s">
         <v>968</v>
+      </c>
+      <c r="V50" t="s">
+        <v>1449</v>
       </c>
       <c r="W50" t="s">
         <v>1248</v>
@@ -8992,7 +9016,7 @@
         <v>1250</v>
       </c>
       <c r="X55" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="AA55" t="s">
         <v>759</v>
@@ -9235,7 +9259,7 @@
         <v>1253</v>
       </c>
       <c r="X58" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="AA58" t="s">
         <v>966</v>
@@ -10733,7 +10757,7 @@
         <v>1021</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -10764,6 +10788,9 @@
       </c>
       <c r="U78" t="s">
         <v>968</v>
+      </c>
+      <c r="V78" t="s">
+        <v>1448</v>
       </c>
       <c r="W78" t="s">
         <v>1259</v>
@@ -11032,7 +11059,7 @@
         <v>1025</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -11063,6 +11090,9 @@
       </c>
       <c r="U82" t="s">
         <v>968</v>
+      </c>
+      <c r="V82" t="s">
+        <v>1450</v>
       </c>
       <c r="W82" t="s">
         <v>1262</v>
@@ -11346,7 +11376,7 @@
         <v>1029</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -11377,6 +11407,9 @@
       </c>
       <c r="U86" t="s">
         <v>968</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1450</v>
       </c>
       <c r="W86" t="s">
         <v>1239</v>
@@ -13156,7 +13189,7 @@
         <v>1271</v>
       </c>
       <c r="X109" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="AA109" t="s">
         <v>966</v>
@@ -14852,7 +14885,7 @@
         <v>1053</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -14883,6 +14916,9 @@
       </c>
       <c r="U132" t="s">
         <v>968</v>
+      </c>
+      <c r="V132" t="s">
+        <v>1449</v>
       </c>
       <c r="W132" t="s">
         <v>1278</v>
@@ -16333,7 +16369,7 @@
         <v>1055</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
         <v>1</v>
@@ -16364,6 +16400,9 @@
       </c>
       <c r="U169" t="s">
         <v>968</v>
+      </c>
+      <c r="V169" t="s">
+        <v>1448</v>
       </c>
       <c r="W169" t="s">
         <v>1256</v>
@@ -16685,7 +16724,7 @@
         <v>1060</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174">
         <v>1</v>
@@ -16716,6 +16755,9 @@
       </c>
       <c r="U174" t="s">
         <v>968</v>
+      </c>
+      <c r="V174" t="s">
+        <v>1448</v>
       </c>
       <c r="W174" t="s">
         <v>1225</v>
@@ -16898,7 +16940,7 @@
         <v>1063</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>1</v>
@@ -16929,6 +16971,9 @@
       </c>
       <c r="U177" t="s">
         <v>968</v>
+      </c>
+      <c r="V177" t="s">
+        <v>1448</v>
       </c>
       <c r="W177" t="s">
         <v>1282</v>
@@ -19215,7 +19260,7 @@
         <v>736</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>1</v>
@@ -19246,6 +19291,9 @@
       </c>
       <c r="U207" t="s">
         <v>968</v>
+      </c>
+      <c r="V207" t="s">
+        <v>1448</v>
       </c>
       <c r="W207" t="s">
         <v>1296</v>
@@ -21315,7 +21363,7 @@
         <v>1218</v>
       </c>
       <c r="K234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234">
         <v>1</v>
@@ -21346,6 +21394,9 @@
       </c>
       <c r="U234" t="s">
         <v>968</v>
+      </c>
+      <c r="V234" t="s">
+        <v>1448</v>
       </c>
       <c r="W234" t="s">
         <v>1306</v>
@@ -24349,7 +24400,7 @@
         <v>1101</v>
       </c>
       <c r="K272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272">
         <v>0</v>
@@ -24380,6 +24431,9 @@
       </c>
       <c r="U272" t="s">
         <v>968</v>
+      </c>
+      <c r="V272" t="s">
+        <v>1448</v>
       </c>
       <c r="W272" t="s">
         <v>759</v>
@@ -24485,7 +24539,7 @@
         <v>1103</v>
       </c>
       <c r="K274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L274">
         <v>1</v>
@@ -24516,6 +24570,9 @@
       </c>
       <c r="U274" t="s">
         <v>968</v>
+      </c>
+      <c r="V274" t="s">
+        <v>1448</v>
       </c>
       <c r="W274" t="s">
         <v>1285</v>
@@ -24921,7 +24978,7 @@
         <v>1312</v>
       </c>
       <c r="X279" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="AA279" t="s">
         <v>966</v>
@@ -25747,7 +25804,7 @@
         <v>1118</v>
       </c>
       <c r="K291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L291">
         <v>1</v>
@@ -25778,6 +25835,9 @@
       </c>
       <c r="U291" t="s">
         <v>968</v>
+      </c>
+      <c r="V291" t="s">
+        <v>1449</v>
       </c>
       <c r="W291" t="s">
         <v>1239</v>
@@ -26333,7 +26393,7 @@
         <v>1125</v>
       </c>
       <c r="K299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L299">
         <v>1</v>
@@ -26364,6 +26424,9 @@
       </c>
       <c r="U299" t="s">
         <v>968</v>
+      </c>
+      <c r="V299" t="s">
+        <v>1450</v>
       </c>
       <c r="W299" t="s">
         <v>1285</v>
@@ -26718,7 +26781,7 @@
         <v>1130</v>
       </c>
       <c r="K304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L304">
         <v>1</v>
@@ -26749,6 +26812,9 @@
       </c>
       <c r="U304" t="s">
         <v>968</v>
+      </c>
+      <c r="V304" t="s">
+        <v>1448</v>
       </c>
       <c r="W304" t="s">
         <v>759</v>
@@ -27011,7 +27077,7 @@
         <v>741</v>
       </c>
       <c r="K308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L308">
         <v>1</v>
@@ -27042,6 +27108,9 @@
       </c>
       <c r="U308" t="s">
         <v>968</v>
+      </c>
+      <c r="V308" t="s">
+        <v>1448</v>
       </c>
       <c r="W308" t="s">
         <v>1259</v>
@@ -27393,7 +27462,7 @@
         <v>1139</v>
       </c>
       <c r="K313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L313">
         <v>1</v>
@@ -27424,6 +27493,9 @@
       </c>
       <c r="U313" t="s">
         <v>968</v>
+      </c>
+      <c r="V313" t="s">
+        <v>1448</v>
       </c>
       <c r="W313" t="s">
         <v>1263</v>
@@ -27586,7 +27658,7 @@
         <v>1326</v>
       </c>
       <c r="X315" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="AA315" t="s">
         <v>966</v>
@@ -27692,7 +27764,7 @@
         <v>1143</v>
       </c>
       <c r="K317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L317">
         <v>0</v>
@@ -27723,6 +27795,9 @@
       </c>
       <c r="U317" t="s">
         <v>968</v>
+      </c>
+      <c r="V317" t="s">
+        <v>1448</v>
       </c>
       <c r="W317" t="s">
         <v>759</v>
@@ -28027,7 +28102,7 @@
         <v>759</v>
       </c>
       <c r="X321" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="AA321" t="s">
         <v>966</v>
@@ -28812,7 +28887,7 @@
         <v>1330</v>
       </c>
       <c r="X331" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="AA331" t="s">
         <v>966</v>
@@ -29872,7 +29947,7 @@
         <v>1156</v>
       </c>
       <c r="K345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L345">
         <v>1</v>
@@ -29903,6 +29978,9 @@
       </c>
       <c r="U345" t="s">
         <v>968</v>
+      </c>
+      <c r="V345" t="s">
+        <v>1450</v>
       </c>
       <c r="W345" t="s">
         <v>1334</v>
@@ -30130,7 +30208,7 @@
         <v>1335</v>
       </c>
       <c r="X348" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="AA348" t="s">
         <v>966</v>
@@ -32328,7 +32406,7 @@
         <v>1160</v>
       </c>
       <c r="K376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L376">
         <v>0</v>
@@ -32359,6 +32437,9 @@
       </c>
       <c r="U376" t="s">
         <v>968</v>
+      </c>
+      <c r="V376" t="s">
+        <v>1448</v>
       </c>
       <c r="W376" t="s">
         <v>759</v>
@@ -32526,7 +32607,7 @@
         <v>1163</v>
       </c>
       <c r="K379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L379">
         <v>1</v>
@@ -32557,6 +32638,9 @@
       </c>
       <c r="U379" t="s">
         <v>968</v>
+      </c>
+      <c r="V379" t="s">
+        <v>1448</v>
       </c>
       <c r="W379" t="s">
         <v>1336</v>
@@ -32742,7 +32826,7 @@
         <v>1166</v>
       </c>
       <c r="K382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L382">
         <v>1</v>
@@ -32773,6 +32857,9 @@
       </c>
       <c r="U382" t="s">
         <v>968</v>
+      </c>
+      <c r="V382" t="s">
+        <v>1448</v>
       </c>
       <c r="W382" t="s">
         <v>1337</v>
@@ -32914,7 +33001,7 @@
         <v>1338</v>
       </c>
       <c r="X384" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="AA384" t="s">
         <v>966</v>
@@ -34715,11 +34802,11 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
-    <col min="3" max="4" width="73.21875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="4" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35378,10 +35465,10 @@
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35572,7 +35659,7 @@
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="C1" t="s">
@@ -37356,12 +37443,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="2"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" rupBuild="4506" lastEdited="4" lowestEdited="4"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11103B6-B498-452B-B0A3-BC454DA924BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" tabRatio="517"/>
   </bookViews>
   <sheets>
-    <sheet name="CountryMaster" sheetId="1" r:id="rId1"/>
-    <sheet name="WPP" sheetId="2" r:id="rId2"/>
-    <sheet name="GBD" sheetId="3" r:id="rId3"/>
-    <sheet name="DisabilityWeights" sheetId="4" r:id="rId4"/>
-    <sheet name="Revision Log" sheetId="5" r:id="rId5"/>
+    <sheet name="CountryMaster" sheetId="1" r:id="flId1"/>
+    <sheet name="WPP" sheetId="2" r:id="flId2"/>
+    <sheet name="GBD" sheetId="3" r:id="flId3"/>
+    <sheet name="DisabilityWeights" sheetId="4" r:id="flId4"/>
+    <sheet name="Revision Log" sheetId="5" r:id="flId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2305,7 +2303,7 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>Changed 36 UPD files that ended with "_NOAIDS" to "_R1", as requested by Jill.  Here is the list of countries on one line, as requested: Bahamas,Belize,Botswana,Burkina Faso,Cameroon,Central African Republic,Chad,Congo,Democratic Republic of the Congo,Djiboiti,Equatorial Guinea,Tritrea,Gabon,Gambia,Ghana,Guinea,Guinea-Bissau,Jamaica,Kenya,Lesotho,Liberia,Malawi,Mali,Mozambique,Namibia,Rwanda,Sierra Leone,South Africa,South Sudan,Swaziland,Thailand,Togo,Uganda,United Republic of Tanzania,Zambia,Zimbabwe</t>
+    <t xml:space="preserve">Changed 36 UPD files that ended with "_NOAIDS" to "_R1", as requested by Jill.  Here is the list of countries on one line, as requested: Bahamas,Belize,Botswana,Burkina Faso,Cameroon,Central African Republic,Chad,Congo,Democratic Republic of the Congo,Djiboiti,Equatorial Guinea,Tritrea,Gabon,Gambia,Ghana,Guinea,Guinea-Bissau,Jamaica,Kenya,Lesotho,Liberia,Malawi,Mali,Mozambique,Namibia,Rwanda,Sierra Leone,South Africa,South Sudan,Swaziland,Thailand,Togo,Uganda,United Republic of Tanzania,Zambia,Zimbabwe</t>
   </si>
   <si>
     <t>ISO</t>
@@ -4264,9 +4262,6 @@
     <t>DHS 2003, UNICEF SOWC 2009-2013 2009</t>
   </si>
   <si>
-    <t>DHS 1997, DHS 2003, MICS 2008, DHS 2011, DHS 2015</t>
-  </si>
-  <si>
     <t>MICS 2009, DHS 2015</t>
   </si>
   <si>
@@ -4430,13 +4425,16 @@
   </si>
   <si>
     <t>RP Source</t>
+  </si>
+  <si>
+    <t>DHS 1997, DHS 2003, MICS 2008, DHS 2011, DHS 2015, DHS 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4466,6 +4464,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color auto="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4489,22 +4488,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf fontId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="3" numFmtId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyFont="1" applyAlignment="1" fontId="1" numFmtId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyNumberFormat="1" fontId="0" numFmtId="49" fillId="0" borderId="0" xfId="0"/>
+    <xf applyFont="1" fontId="2" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyFont="1" fontId="2" numFmtId="0" fillId="0" borderId="0" xfId="1"/>
+    <xf applyFont="1" fontId="4" numFmtId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4815,17 +4814,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AJ406"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -4863,7 +4860,7 @@
     <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4925,7 +4922,7 @@
         <v>706</v>
       </c>
       <c r="U1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="V1" t="s">
         <v>16</v>
@@ -4961,7 +4958,7 @@
         <v>707</v>
       </c>
       <c r="AG1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AH1" t="s">
         <v>703</v>
@@ -4973,7 +4970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>1221</v>
       </c>
       <c r="Y2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="AB2" t="s">
         <v>966</v>
@@ -5056,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -5130,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>12</v>
       </c>
@@ -5207,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>24</v>
       </c>
@@ -5290,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>28</v>
       </c>
@@ -5361,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>32</v>
       </c>
@@ -5438,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>51</v>
       </c>
@@ -5515,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>533</v>
       </c>
@@ -5580,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>36</v>
       </c>
@@ -5654,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>40</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>31</v>
       </c>
@@ -5781,7 +5778,7 @@
         <v>968</v>
       </c>
       <c r="W12" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X12" t="s">
         <v>1228</v>
@@ -5802,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>44</v>
       </c>
@@ -5879,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>48</v>
       </c>
@@ -5935,7 +5932,7 @@
         <v>968</v>
       </c>
       <c r="W14" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X14" t="s">
         <v>759</v>
@@ -5956,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>50</v>
       </c>
@@ -6033,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>52</v>
       </c>
@@ -6089,7 +6086,7 @@
         <v>968</v>
       </c>
       <c r="W16" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X16" t="s">
         <v>1230</v>
@@ -6110,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>112</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>56</v>
       </c>
@@ -6258,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>84</v>
       </c>
@@ -6335,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>204</v>
       </c>
@@ -6406,7 +6403,7 @@
         <v>1233</v>
       </c>
       <c r="Y20" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AB20" t="s">
         <v>966</v>
@@ -6424,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="3">
         <v>204</v>
       </c>
@@ -6508,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="3">
         <v>204</v>
       </c>
@@ -6592,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="3">
         <v>204</v>
       </c>
@@ -6676,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="3">
         <v>204</v>
       </c>
@@ -6760,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="3">
         <v>204</v>
       </c>
@@ -6844,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="3">
         <v>204</v>
       </c>
@@ -6928,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="3">
         <v>204</v>
       </c>
@@ -7012,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="3">
         <v>204</v>
       </c>
@@ -7096,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="3">
         <v>204</v>
       </c>
@@ -7180,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="3">
         <v>204</v>
       </c>
@@ -7264,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="3">
         <v>204</v>
       </c>
@@ -7348,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="3">
         <v>204</v>
       </c>
@@ -7432,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33">
         <v>64</v>
       </c>
@@ -7509,7 +7506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34">
         <v>68</v>
       </c>
@@ -7589,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35">
         <v>70</v>
       </c>
@@ -7663,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36">
         <v>72</v>
       </c>
@@ -7752,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37">
         <v>76</v>
       </c>
@@ -7814,7 +7811,7 @@
         <v>968</v>
       </c>
       <c r="W37" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="X37" t="s">
         <v>1237</v>
@@ -7835,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38">
         <v>96</v>
       </c>
@@ -7909,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39">
         <v>100</v>
       </c>
@@ -7983,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40">
         <v>854</v>
       </c>
@@ -8054,7 +8051,7 @@
         <v>1240</v>
       </c>
       <c r="Y40" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AB40" t="s">
         <v>966</v>
@@ -8072,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41">
         <v>108</v>
       </c>
@@ -8155,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42">
         <v>116</v>
       </c>
@@ -8238,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43">
         <v>120</v>
       </c>
@@ -8327,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44">
         <v>124</v>
       </c>
@@ -8398,7 +8395,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45">
         <v>132</v>
       </c>
@@ -8475,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46">
         <v>140</v>
       </c>
@@ -8564,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47">
         <v>148</v>
       </c>
@@ -8653,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48">
         <v>830</v>
       </c>
@@ -8718,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49">
         <v>152</v>
       </c>
@@ -8798,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50">
         <v>156</v>
       </c>
@@ -8860,7 +8857,7 @@
         <v>968</v>
       </c>
       <c r="W50" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="X50" t="s">
         <v>1248</v>
@@ -8881,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51">
         <v>344</v>
       </c>
@@ -8946,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52">
         <v>446</v>
       </c>
@@ -9011,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53">
         <v>158</v>
       </c>
@@ -9079,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54">
         <v>170</v>
       </c>
@@ -9156,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55">
         <v>174</v>
       </c>
@@ -9218,7 +9215,7 @@
         <v>1250</v>
       </c>
       <c r="Y55" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="AB55" t="s">
         <v>759</v>
@@ -9233,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56">
         <v>178</v>
       </c>
@@ -9322,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57">
         <v>188</v>
       </c>
@@ -9399,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58">
         <v>384</v>
       </c>
@@ -9470,7 +9467,7 @@
         <v>1253</v>
       </c>
       <c r="Y58" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="AB58" t="s">
         <v>966</v>
@@ -9485,7 +9482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="3">
         <v>384</v>
       </c>
@@ -9569,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="3">
         <v>384</v>
       </c>
@@ -9653,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="3">
         <v>384</v>
       </c>
@@ -9737,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="3">
         <v>384</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="3">
         <v>384</v>
       </c>
@@ -9905,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="3">
         <v>384</v>
       </c>
@@ -9989,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="3">
         <v>384</v>
       </c>
@@ -10073,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="3">
         <v>384</v>
       </c>
@@ -10157,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="3">
         <v>384</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="3">
         <v>384</v>
       </c>
@@ -10325,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="3">
         <v>384</v>
       </c>
@@ -10409,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70">
         <v>191</v>
       </c>
@@ -10486,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71">
       <c r="A71">
         <v>192</v>
       </c>
@@ -10563,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72">
       <c r="A72">
         <v>531</v>
       </c>
@@ -10628,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73">
         <v>196</v>
       </c>
@@ -10702,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74">
         <v>203</v>
       </c>
@@ -10779,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75">
       <c r="A75">
         <v>408</v>
       </c>
@@ -10853,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76">
         <v>180</v>
       </c>
@@ -10942,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77">
       <c r="A77">
         <v>208</v>
       </c>
@@ -11016,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78">
       <c r="A78">
         <v>262</v>
       </c>
@@ -11072,7 +11069,7 @@
         <v>968</v>
       </c>
       <c r="W78" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X78" t="s">
         <v>1259</v>
@@ -11096,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79">
       <c r="A79">
         <v>212</v>
       </c>
@@ -11164,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80">
       <c r="A80">
         <v>214</v>
       </c>
@@ -11247,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81">
       <c r="A81">
         <v>218</v>
       </c>
@@ -11330,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82">
       <c r="A82">
         <v>818</v>
       </c>
@@ -11386,7 +11383,7 @@
         <v>968</v>
       </c>
       <c r="W82" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="X82" t="s">
         <v>1262</v>
@@ -11410,7 +11407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83">
         <v>222</v>
       </c>
@@ -11493,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84">
       <c r="A84">
         <v>226</v>
       </c>
@@ -11576,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85">
       <c r="A85">
         <v>232</v>
       </c>
@@ -11659,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="86">
       <c r="A86">
         <v>233</v>
       </c>
@@ -11715,7 +11712,7 @@
         <v>968</v>
       </c>
       <c r="W86" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="X86" t="s">
         <v>1239</v>
@@ -11736,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="87">
       <c r="A87">
         <v>231</v>
       </c>
@@ -11825,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="88">
       <c r="A88" s="3">
         <v>231</v>
       </c>
@@ -11909,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="89">
       <c r="A89" s="3">
         <v>231</v>
       </c>
@@ -11993,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="90">
       <c r="A90" s="3">
         <v>231</v>
       </c>
@@ -12077,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="91">
       <c r="A91" s="3">
         <v>231</v>
       </c>
@@ -12161,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="92">
       <c r="A92" s="3">
         <v>231</v>
       </c>
@@ -12245,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="93">
       <c r="A93" s="3">
         <v>231</v>
       </c>
@@ -12329,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="94">
       <c r="A94" s="3">
         <v>231</v>
       </c>
@@ -12413,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="95">
       <c r="A95" s="3">
         <v>231</v>
       </c>
@@ -12497,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="96">
       <c r="A96" s="3">
         <v>231</v>
       </c>
@@ -12581,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="97">
       <c r="A97" s="3">
         <v>231</v>
       </c>
@@ -12665,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="98">
       <c r="A98" s="3">
         <v>231</v>
       </c>
@@ -12749,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="99">
       <c r="A99" s="3">
         <v>231</v>
       </c>
@@ -12833,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="100">
       <c r="A100">
         <v>242</v>
       </c>
@@ -12910,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="101">
       <c r="A101">
         <v>246</v>
       </c>
@@ -12981,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="102">
       <c r="A102">
         <v>250</v>
       </c>
@@ -13055,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="103">
       <c r="A103">
         <v>254</v>
       </c>
@@ -13120,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="104">
       <c r="A104">
         <v>258</v>
       </c>
@@ -13185,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="105">
       <c r="A105">
         <v>266</v>
       </c>
@@ -13274,7 +13271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="106">
       <c r="A106">
         <v>270</v>
       </c>
@@ -13357,7 +13354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="107">
       <c r="A107">
         <v>268</v>
       </c>
@@ -13434,7 +13431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="108">
       <c r="A108">
         <v>276</v>
       </c>
@@ -13505,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="109">
       <c r="A109">
         <v>288</v>
       </c>
@@ -13576,7 +13573,7 @@
         <v>1271</v>
       </c>
       <c r="Y109" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="AB109" t="s">
         <v>966</v>
@@ -13594,7 +13591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="110">
       <c r="A110">
         <v>300</v>
       </c>
@@ -13668,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="111">
       <c r="A111">
         <v>308</v>
       </c>
@@ -13745,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="112">
       <c r="A112">
         <v>312</v>
       </c>
@@ -13810,7 +13807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="113">
       <c r="A113">
         <v>316</v>
       </c>
@@ -13875,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="114">
       <c r="A114">
         <v>320</v>
       </c>
@@ -13958,7 +13955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="115">
       <c r="A115">
         <v>324</v>
       </c>
@@ -14047,7 +14044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="116">
       <c r="A116">
         <v>624</v>
       </c>
@@ -14130,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="117">
       <c r="A117">
         <v>328</v>
       </c>
@@ -14207,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="118">
       <c r="A118">
         <v>332</v>
       </c>
@@ -14287,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="119">
       <c r="A119" s="3">
         <v>332</v>
       </c>
@@ -14368,7 +14365,7 @@
       </c>
       <c r="AJ119" s="3"/>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="120">
       <c r="A120" s="3">
         <v>332</v>
       </c>
@@ -14449,7 +14446,7 @@
       </c>
       <c r="AJ120" s="3"/>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="121">
       <c r="A121" s="3">
         <v>332</v>
       </c>
@@ -14530,7 +14527,7 @@
       </c>
       <c r="AJ121" s="3"/>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="122">
       <c r="A122" s="3">
         <v>332</v>
       </c>
@@ -14611,7 +14608,7 @@
       </c>
       <c r="AJ122" s="3"/>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="123">
       <c r="A123" s="3">
         <v>332</v>
       </c>
@@ -14692,7 +14689,7 @@
       </c>
       <c r="AJ123" s="3"/>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="124">
       <c r="A124" s="3">
         <v>332</v>
       </c>
@@ -14773,7 +14770,7 @@
       </c>
       <c r="AJ124" s="3"/>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="125">
       <c r="A125" s="3">
         <v>332</v>
       </c>
@@ -14854,7 +14851,7 @@
       </c>
       <c r="AJ125" s="3"/>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="126">
       <c r="A126" s="3">
         <v>332</v>
       </c>
@@ -14935,7 +14932,7 @@
       </c>
       <c r="AJ126" s="3"/>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="127">
       <c r="A127" s="3">
         <v>332</v>
       </c>
@@ -15016,7 +15013,7 @@
       </c>
       <c r="AJ127" s="3"/>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="128">
       <c r="A128" s="3">
         <v>332</v>
       </c>
@@ -15097,7 +15094,7 @@
       </c>
       <c r="AJ128" s="3"/>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="129">
       <c r="A129">
         <v>340</v>
       </c>
@@ -15174,7 +15171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="130">
       <c r="A130">
         <v>348</v>
       </c>
@@ -15248,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="131">
       <c r="A131">
         <v>352</v>
       </c>
@@ -15322,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="132">
       <c r="A132">
         <v>356</v>
       </c>
@@ -15384,7 +15381,7 @@
         <v>968</v>
       </c>
       <c r="W132" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="X132" t="s">
         <v>1278</v>
@@ -15405,7 +15402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="133">
       <c r="A133">
         <v>356</v>
       </c>
@@ -15446,7 +15443,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="134">
       <c r="A134">
         <v>356</v>
       </c>
@@ -15487,7 +15484,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="135">
       <c r="A135">
         <v>356</v>
       </c>
@@ -15528,7 +15525,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="136">
       <c r="A136">
         <v>356</v>
       </c>
@@ -15569,7 +15566,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="137">
       <c r="A137">
         <v>356</v>
       </c>
@@ -15610,7 +15607,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="138">
       <c r="A138">
         <v>356</v>
       </c>
@@ -15651,7 +15648,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="139">
       <c r="A139">
         <v>356</v>
       </c>
@@ -15692,7 +15689,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="140">
       <c r="A140">
         <v>356</v>
       </c>
@@ -15733,7 +15730,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="141">
       <c r="A141">
         <v>356</v>
       </c>
@@ -15774,7 +15771,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="142">
       <c r="A142">
         <v>356</v>
       </c>
@@ -15815,7 +15812,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="143">
       <c r="A143">
         <v>356</v>
       </c>
@@ -15856,7 +15853,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="144">
       <c r="A144">
         <v>356</v>
       </c>
@@ -15897,7 +15894,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="145">
       <c r="A145">
         <v>356</v>
       </c>
@@ -15938,7 +15935,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="146">
       <c r="A146">
         <v>356</v>
       </c>
@@ -15979,7 +15976,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="147">
       <c r="A147">
         <v>356</v>
       </c>
@@ -16020,7 +16017,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="148">
       <c r="A148">
         <v>356</v>
       </c>
@@ -16061,7 +16058,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="149">
       <c r="A149">
         <v>356</v>
       </c>
@@ -16102,7 +16099,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="150">
       <c r="A150">
         <v>356</v>
       </c>
@@ -16143,7 +16140,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="151">
       <c r="A151">
         <v>356</v>
       </c>
@@ -16184,7 +16181,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="152">
       <c r="A152">
         <v>356</v>
       </c>
@@ -16225,7 +16222,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="153">
       <c r="A153">
         <v>356</v>
       </c>
@@ -16266,7 +16263,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="154">
       <c r="A154">
         <v>356</v>
       </c>
@@ -16307,7 +16304,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="155">
       <c r="A155">
         <v>356</v>
       </c>
@@ -16348,7 +16345,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="156">
       <c r="A156">
         <v>356</v>
       </c>
@@ -16389,7 +16386,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="157">
       <c r="A157">
         <v>356</v>
       </c>
@@ -16430,7 +16427,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="158">
       <c r="A158">
         <v>356</v>
       </c>
@@ -16471,7 +16468,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="159">
       <c r="A159">
         <v>356</v>
       </c>
@@ -16512,7 +16509,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="160">
       <c r="A160">
         <v>356</v>
       </c>
@@ -16553,7 +16550,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="161">
       <c r="A161">
         <v>356</v>
       </c>
@@ -16594,7 +16591,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="162">
       <c r="A162">
         <v>356</v>
       </c>
@@ -16635,7 +16632,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="163">
       <c r="A163">
         <v>356</v>
       </c>
@@ -16676,7 +16673,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="164">
       <c r="A164">
         <v>356</v>
       </c>
@@ -16717,7 +16714,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="165">
       <c r="A165">
         <v>356</v>
       </c>
@@ -16758,7 +16755,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="166">
       <c r="A166">
         <v>356</v>
       </c>
@@ -16799,7 +16796,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="167">
       <c r="A167">
         <v>356</v>
       </c>
@@ -16840,7 +16837,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="168">
       <c r="A168">
         <v>360</v>
       </c>
@@ -16923,7 +16920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="169">
       <c r="A169">
         <v>364</v>
       </c>
@@ -16979,7 +16976,7 @@
         <v>968</v>
       </c>
       <c r="W169" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X169" t="s">
         <v>1256</v>
@@ -17000,7 +16997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="170">
       <c r="A170">
         <v>368</v>
       </c>
@@ -17074,7 +17071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="171">
       <c r="A171">
         <v>372</v>
       </c>
@@ -17148,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="172">
       <c r="A172">
         <v>376</v>
       </c>
@@ -17219,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="173">
       <c r="A173">
         <v>380</v>
       </c>
@@ -17293,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="174">
       <c r="A174">
         <v>388</v>
       </c>
@@ -17349,7 +17346,7 @@
         <v>968</v>
       </c>
       <c r="W174" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X174" t="s">
         <v>1225</v>
@@ -17370,7 +17367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="175">
       <c r="A175">
         <v>392</v>
       </c>
@@ -17441,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="176">
       <c r="A176">
         <v>400</v>
       </c>
@@ -17518,7 +17515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="177">
       <c r="A177">
         <v>398</v>
       </c>
@@ -17574,7 +17571,7 @@
         <v>968</v>
       </c>
       <c r="W177" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X177" t="s">
         <v>1282</v>
@@ -17595,7 +17592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="178">
       <c r="A178">
         <v>404</v>
       </c>
@@ -17684,7 +17681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="179">
       <c r="A179" s="3">
         <v>404</v>
       </c>
@@ -17768,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="180">
       <c r="A180" s="3">
         <v>404</v>
       </c>
@@ -17852,7 +17849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="181">
       <c r="A181" s="3">
         <v>404</v>
       </c>
@@ -17936,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="182">
       <c r="A182" s="3">
         <v>404</v>
       </c>
@@ -18020,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="183">
       <c r="A183" s="3">
         <v>404</v>
       </c>
@@ -18104,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="184">
       <c r="A184" s="3">
         <v>404</v>
       </c>
@@ -18188,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="185">
       <c r="A185" s="3">
         <v>404</v>
       </c>
@@ -18272,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="186">
       <c r="A186" s="3">
         <v>404</v>
       </c>
@@ -18356,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="187">
       <c r="A187">
         <v>296</v>
       </c>
@@ -18430,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="188">
       <c r="A188" s="5">
         <v>412</v>
       </c>
@@ -18506,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="189">
       <c r="A189">
         <v>414</v>
       </c>
@@ -18583,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="190">
       <c r="A190">
         <v>417</v>
       </c>
@@ -18660,7 +18657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="191">
       <c r="A191">
         <v>418</v>
       </c>
@@ -18737,7 +18734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="192">
       <c r="A192">
         <v>428</v>
       </c>
@@ -18811,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="193">
       <c r="A193">
         <v>422</v>
       </c>
@@ -18888,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="194">
       <c r="A194">
         <v>426</v>
       </c>
@@ -18977,7 +18974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="195">
       <c r="A195">
         <v>430</v>
       </c>
@@ -19060,7 +19057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="196">
       <c r="A196">
         <v>434</v>
       </c>
@@ -19134,7 +19131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="197">
       <c r="A197">
         <v>440</v>
       </c>
@@ -19211,7 +19208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="198">
       <c r="A198">
         <v>442</v>
       </c>
@@ -19285,7 +19282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="199">
       <c r="A199">
         <v>450</v>
       </c>
@@ -19374,7 +19371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="200">
       <c r="A200">
         <v>454</v>
       </c>
@@ -19463,7 +19460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="201">
       <c r="A201">
         <v>458</v>
       </c>
@@ -19546,7 +19543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="202">
       <c r="A202">
         <v>462</v>
       </c>
@@ -19623,7 +19620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="203">
       <c r="A203">
         <v>466</v>
       </c>
@@ -19712,7 +19709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="204">
       <c r="A204">
         <v>470</v>
       </c>
@@ -19786,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="205">
       <c r="A205">
         <v>474</v>
       </c>
@@ -19851,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="206">
       <c r="A206">
         <v>478</v>
       </c>
@@ -19934,7 +19931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="207">
       <c r="A207">
         <v>480</v>
       </c>
@@ -19993,7 +19990,7 @@
         <v>968</v>
       </c>
       <c r="W207" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X207" t="s">
         <v>1296</v>
@@ -20014,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="208">
       <c r="A208">
         <v>175</v>
       </c>
@@ -20079,7 +20076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="209">
       <c r="A209">
         <v>484</v>
       </c>
@@ -20162,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="210">
       <c r="A210">
         <v>583</v>
       </c>
@@ -20236,7 +20233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="211">
       <c r="A211">
         <v>496</v>
       </c>
@@ -20319,7 +20316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="212">
       <c r="A212">
         <v>499</v>
       </c>
@@ -20396,7 +20393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="213">
       <c r="A213">
         <v>504</v>
       </c>
@@ -20476,7 +20473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="214">
       <c r="A214">
         <v>508</v>
       </c>
@@ -20547,7 +20544,7 @@
         <v>1301</v>
       </c>
       <c r="Y214" t="s">
-        <v>1409</v>
+        <v>1464</v>
       </c>
       <c r="AB214" t="s">
         <v>966</v>
@@ -20565,7 +20562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="215">
       <c r="A215" s="3">
         <v>508</v>
       </c>
@@ -20649,7 +20646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="216">
       <c r="A216" s="3">
         <v>508</v>
       </c>
@@ -20733,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="217">
       <c r="A217" s="3">
         <v>508</v>
       </c>
@@ -20817,7 +20814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="218">
       <c r="A218" s="3">
         <v>508</v>
       </c>
@@ -20901,7 +20898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="219">
       <c r="A219" s="3">
         <v>508</v>
       </c>
@@ -20985,7 +20982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="220">
       <c r="A220" s="3">
         <v>508</v>
       </c>
@@ -21069,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="221">
       <c r="A221" s="3">
         <v>508</v>
       </c>
@@ -21153,7 +21150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="222">
       <c r="A222" s="3">
         <v>508</v>
       </c>
@@ -21237,7 +21234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="223">
       <c r="A223" s="3">
         <v>508</v>
       </c>
@@ -21321,7 +21318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="224">
       <c r="A224" s="3">
         <v>508</v>
       </c>
@@ -21405,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="225">
       <c r="A225" s="3">
         <v>508</v>
       </c>
@@ -21489,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="226">
       <c r="A226">
         <v>104</v>
       </c>
@@ -21557,7 +21554,7 @@
         <v>1224</v>
       </c>
       <c r="Y226" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AB226" t="s">
         <v>966</v>
@@ -21572,7 +21569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="227">
       <c r="A227">
         <v>516</v>
       </c>
@@ -21643,7 +21640,7 @@
         <v>1302</v>
       </c>
       <c r="Y227" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AB227" t="s">
         <v>966</v>
@@ -21661,7 +21658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="228">
       <c r="A228">
         <v>524</v>
       </c>
@@ -21729,7 +21726,7 @@
         <v>1303</v>
       </c>
       <c r="Y228" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AB228" t="s">
         <v>966</v>
@@ -21744,7 +21741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="229">
       <c r="A229">
         <v>528</v>
       </c>
@@ -21818,7 +21815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="230">
       <c r="A230">
         <v>540</v>
       </c>
@@ -21883,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="231">
       <c r="A231">
         <v>554</v>
       </c>
@@ -21957,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="232">
       <c r="A232">
         <v>558</v>
       </c>
@@ -22019,7 +22016,7 @@
         <v>1304</v>
       </c>
       <c r="Y232" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AB232" t="s">
         <v>966</v>
@@ -22034,7 +22031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="233">
       <c r="A233">
         <v>562</v>
       </c>
@@ -22105,7 +22102,7 @@
         <v>1305</v>
       </c>
       <c r="Y233" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="AB233" t="s">
         <v>966</v>
@@ -22123,7 +22120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="234">
       <c r="A234">
         <v>566</v>
       </c>
@@ -22188,13 +22185,13 @@
         <v>968</v>
       </c>
       <c r="W234" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X234" t="s">
         <v>1306</v>
       </c>
       <c r="Y234" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AB234" t="s">
         <v>966</v>
@@ -22212,7 +22209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="235">
       <c r="A235" s="3">
         <v>566</v>
       </c>
@@ -22296,7 +22293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="236">
       <c r="A236" s="3">
         <v>566</v>
       </c>
@@ -22380,7 +22377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="237">
       <c r="A237" s="3">
         <v>566</v>
       </c>
@@ -22464,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="238">
       <c r="A238" s="3">
         <v>566</v>
       </c>
@@ -22548,7 +22545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="239">
       <c r="A239" s="3">
         <v>566</v>
       </c>
@@ -22632,7 +22629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="240">
       <c r="A240" s="3">
         <v>566</v>
       </c>
@@ -22716,7 +22713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="241">
       <c r="A241" s="3">
         <v>566</v>
       </c>
@@ -22800,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="242">
       <c r="A242" s="3">
         <v>566</v>
       </c>
@@ -22884,7 +22881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="243">
       <c r="A243" s="3">
         <v>566</v>
       </c>
@@ -22968,7 +22965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="244">
       <c r="A244" s="3">
         <v>566</v>
       </c>
@@ -23052,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="245">
       <c r="A245" s="3">
         <v>566</v>
       </c>
@@ -23136,7 +23133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="246">
       <c r="A246" s="3">
         <v>566</v>
       </c>
@@ -23220,7 +23217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="247">
       <c r="A247" s="3">
         <v>566</v>
       </c>
@@ -23304,7 +23301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="248">
       <c r="A248" s="3">
         <v>566</v>
       </c>
@@ -23388,7 +23385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="249">
       <c r="A249" s="3">
         <v>566</v>
       </c>
@@ -23472,7 +23469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="250">
       <c r="A250" s="3">
         <v>566</v>
       </c>
@@ -23556,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="251">
       <c r="A251" s="3">
         <v>566</v>
       </c>
@@ -23640,7 +23637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="252">
       <c r="A252" s="3">
         <v>566</v>
       </c>
@@ -23724,7 +23721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="253">
       <c r="A253" s="3">
         <v>566</v>
       </c>
@@ -23808,7 +23805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="254">
       <c r="A254" s="3">
         <v>566</v>
       </c>
@@ -23892,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="255">
       <c r="A255" s="3">
         <v>566</v>
       </c>
@@ -23976,7 +23973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="256">
       <c r="A256" s="3">
         <v>566</v>
       </c>
@@ -24060,7 +24057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="257">
       <c r="A257" s="3">
         <v>566</v>
       </c>
@@ -24144,7 +24141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="258">
       <c r="A258" s="3">
         <v>566</v>
       </c>
@@ -24228,7 +24225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="259">
       <c r="A259" s="3">
         <v>566</v>
       </c>
@@ -24312,7 +24309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="260">
       <c r="A260" s="3">
         <v>566</v>
       </c>
@@ -24396,7 +24393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="261">
       <c r="A261" s="3">
         <v>566</v>
       </c>
@@ -24480,7 +24477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="262">
       <c r="A262" s="3">
         <v>566</v>
       </c>
@@ -24564,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="263">
       <c r="A263" s="3">
         <v>566</v>
       </c>
@@ -24648,7 +24645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="264">
       <c r="A264" s="3">
         <v>566</v>
       </c>
@@ -24732,7 +24729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="265">
       <c r="A265" s="3">
         <v>566</v>
       </c>
@@ -24816,7 +24813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="266">
       <c r="A266" s="3">
         <v>566</v>
       </c>
@@ -24900,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="267">
       <c r="A267" s="3">
         <v>566</v>
       </c>
@@ -24984,7 +24981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="268">
       <c r="A268" s="3">
         <v>566</v>
       </c>
@@ -25068,7 +25065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="269">
       <c r="A269" s="3">
         <v>566</v>
       </c>
@@ -25152,7 +25149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="270">
       <c r="A270" s="3">
         <v>566</v>
       </c>
@@ -25236,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="271">
       <c r="A271" s="3">
         <v>566</v>
       </c>
@@ -25320,7 +25317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="272">
       <c r="A272">
         <v>578</v>
       </c>
@@ -25376,7 +25373,7 @@
         <v>968</v>
       </c>
       <c r="W272" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X272" t="s">
         <v>759</v>
@@ -25394,7 +25391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="273">
       <c r="A273">
         <v>275</v>
       </c>
@@ -25453,7 +25450,7 @@
         <v>1307</v>
       </c>
       <c r="Y273" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="AB273" t="s">
         <v>759</v>
@@ -25465,7 +25462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="274">
       <c r="A274">
         <v>512</v>
       </c>
@@ -25521,7 +25518,7 @@
         <v>968</v>
       </c>
       <c r="W274" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X274" t="s">
         <v>1285</v>
@@ -25542,7 +25539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="275">
       <c r="A275">
         <v>586</v>
       </c>
@@ -25610,7 +25607,7 @@
         <v>1308</v>
       </c>
       <c r="Y275" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="AB275" t="s">
         <v>966</v>
@@ -25625,7 +25622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="276">
       <c r="A276">
         <v>591</v>
       </c>
@@ -25708,7 +25705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="277">
       <c r="A277">
         <v>598</v>
       </c>
@@ -25776,7 +25773,7 @@
         <v>1310</v>
       </c>
       <c r="Y277" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="AB277" t="s">
         <v>966</v>
@@ -25791,7 +25788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="278">
       <c r="A278">
         <v>600</v>
       </c>
@@ -25859,7 +25856,7 @@
         <v>1311</v>
       </c>
       <c r="Y278" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="AB278" t="s">
         <v>966</v>
@@ -25874,7 +25871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="279">
       <c r="A279">
         <v>604</v>
       </c>
@@ -25942,7 +25939,7 @@
         <v>1312</v>
       </c>
       <c r="Y279" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AB279" t="s">
         <v>966</v>
@@ -25957,7 +25954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="280">
       <c r="A280">
         <v>608</v>
       </c>
@@ -26025,7 +26022,7 @@
         <v>1313</v>
       </c>
       <c r="Y280" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="AB280" t="s">
         <v>966</v>
@@ -26040,7 +26037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="281">
       <c r="A281">
         <v>616</v>
       </c>
@@ -26114,7 +26111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="282">
       <c r="A282">
         <v>620</v>
       </c>
@@ -26188,7 +26185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="283">
       <c r="A283">
         <v>630</v>
       </c>
@@ -26253,7 +26250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="284">
       <c r="A284">
         <v>634</v>
       </c>
@@ -26330,7 +26327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="285">
       <c r="A285">
         <v>410</v>
       </c>
@@ -26404,7 +26401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="286">
       <c r="A286">
         <v>498</v>
       </c>
@@ -26466,7 +26463,7 @@
         <v>1315</v>
       </c>
       <c r="Y286" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="AB286" t="s">
         <v>966</v>
@@ -26481,7 +26478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="287">
       <c r="A287" s="3">
         <v>498</v>
       </c>
@@ -26561,7 +26558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="288">
       <c r="A288" s="3">
         <v>498</v>
       </c>
@@ -26641,7 +26638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="289">
       <c r="A289">
         <v>638</v>
       </c>
@@ -26706,7 +26703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="290">
       <c r="A290">
         <v>642</v>
       </c>
@@ -26783,7 +26780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="291">
       <c r="A291">
         <v>643</v>
       </c>
@@ -26839,7 +26836,7 @@
         <v>968</v>
       </c>
       <c r="W291" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="X291" t="s">
         <v>1239</v>
@@ -26860,7 +26857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="292">
       <c r="A292">
         <v>646</v>
       </c>
@@ -26931,7 +26928,7 @@
         <v>1316</v>
       </c>
       <c r="Y292" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="AB292" t="s">
         <v>966</v>
@@ -26949,7 +26946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="293">
       <c r="A293">
         <v>659</v>
       </c>
@@ -27023,7 +27020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="294">
       <c r="A294">
         <v>662</v>
       </c>
@@ -27097,7 +27094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="295">
       <c r="A295">
         <v>670</v>
       </c>
@@ -27171,7 +27168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="296">
       <c r="A296">
         <v>882</v>
       </c>
@@ -27230,7 +27227,7 @@
         <v>1317</v>
       </c>
       <c r="Y296" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="AB296" t="s">
         <v>759</v>
@@ -27245,7 +27242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="297">
       <c r="A297">
         <v>5733</v>
       </c>
@@ -27253,19 +27250,19 @@
         <v>520</v>
       </c>
       <c r="C297" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="F297" t="s">
         <v>1446</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-      <c r="F297" t="s">
-        <v>1447</v>
       </c>
       <c r="G297">
         <v>100</v>
       </c>
       <c r="H297" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>521</v>
@@ -27319,7 +27316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="298">
       <c r="A298">
         <v>678</v>
       </c>
@@ -27381,7 +27378,7 @@
         <v>1318</v>
       </c>
       <c r="Y298" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="AB298" t="s">
         <v>966</v>
@@ -27396,7 +27393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="299">
       <c r="A299">
         <v>682</v>
       </c>
@@ -27452,7 +27449,7 @@
         <v>968</v>
       </c>
       <c r="W299" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="X299" t="s">
         <v>1285</v>
@@ -27473,7 +27470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="300">
       <c r="A300">
         <v>686</v>
       </c>
@@ -27544,7 +27541,7 @@
         <v>1319</v>
       </c>
       <c r="Y300" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="AB300" t="s">
         <v>966</v>
@@ -27562,7 +27559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="301">
       <c r="A301">
         <v>688</v>
       </c>
@@ -27624,7 +27621,7 @@
         <v>1320</v>
       </c>
       <c r="Y301" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="AB301" t="s">
         <v>966</v>
@@ -27639,7 +27636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="302">
       <c r="A302">
         <v>690</v>
       </c>
@@ -27710,7 +27707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="303">
       <c r="A303">
         <v>694</v>
       </c>
@@ -27781,7 +27778,7 @@
         <v>1321</v>
       </c>
       <c r="Y303" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="AB303" t="s">
         <v>966</v>
@@ -27799,7 +27796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="304">
       <c r="A304">
         <v>702</v>
       </c>
@@ -27855,7 +27852,7 @@
         <v>968</v>
       </c>
       <c r="W304" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X304" t="s">
         <v>759</v>
@@ -27876,7 +27873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="305">
       <c r="A305">
         <v>703</v>
       </c>
@@ -27953,7 +27950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="306">
       <c r="A306">
         <v>705</v>
       </c>
@@ -28030,7 +28027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="307">
       <c r="A307">
         <v>90</v>
       </c>
@@ -28104,7 +28101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="308">
       <c r="A308">
         <v>706</v>
       </c>
@@ -28163,7 +28160,7 @@
         <v>968</v>
       </c>
       <c r="W308" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X308" t="s">
         <v>1259</v>
@@ -28187,7 +28184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="309">
       <c r="A309">
         <v>710</v>
       </c>
@@ -28258,7 +28255,7 @@
         <v>1322</v>
       </c>
       <c r="Y309" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="AB309" t="s">
         <v>966</v>
@@ -28276,7 +28273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="310">
       <c r="A310">
         <v>728</v>
       </c>
@@ -28341,7 +28338,7 @@
         <v>1323</v>
       </c>
       <c r="Y310" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="AB310" t="s">
         <v>759</v>
@@ -28359,7 +28356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="311">
       <c r="A311">
         <v>724</v>
       </c>
@@ -28430,7 +28427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="312">
       <c r="A312">
         <v>144</v>
       </c>
@@ -28492,7 +28489,7 @@
         <v>1324</v>
       </c>
       <c r="Y312" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="AB312" t="s">
         <v>966</v>
@@ -28507,7 +28504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="313">
       <c r="A313">
         <v>729</v>
       </c>
@@ -28563,13 +28560,13 @@
         <v>968</v>
       </c>
       <c r="W313" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X313" t="s">
         <v>1263</v>
       </c>
       <c r="Y313" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="AB313" t="s">
         <v>966</v>
@@ -28587,7 +28584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="314">
       <c r="A314">
         <v>740</v>
       </c>
@@ -28646,7 +28643,7 @@
         <v>1325</v>
       </c>
       <c r="Y314" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="AB314" t="s">
         <v>966</v>
@@ -28661,7 +28658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="315">
       <c r="A315">
         <v>748</v>
       </c>
@@ -28732,7 +28729,7 @@
         <v>1326</v>
       </c>
       <c r="Y315" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AB315" t="s">
         <v>966</v>
@@ -28750,7 +28747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="316">
       <c r="A316">
         <v>752</v>
       </c>
@@ -28821,7 +28818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="317">
       <c r="A317">
         <v>756</v>
       </c>
@@ -28877,7 +28874,7 @@
         <v>968</v>
       </c>
       <c r="W317" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X317" t="s">
         <v>759</v>
@@ -28895,7 +28892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="318">
       <c r="A318">
         <v>760</v>
       </c>
@@ -28972,7 +28969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="319">
       <c r="A319">
         <v>762</v>
       </c>
@@ -29034,7 +29031,7 @@
         <v>1328</v>
       </c>
       <c r="Y319" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="AB319" t="s">
         <v>966</v>
@@ -29049,7 +29046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="320">
       <c r="A320">
         <v>807</v>
       </c>
@@ -29111,7 +29108,7 @@
         <v>1254</v>
       </c>
       <c r="Y320" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AB320" t="s">
         <v>759</v>
@@ -29126,7 +29123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="321">
       <c r="A321">
         <v>764</v>
       </c>
@@ -29143,7 +29140,7 @@
         <v>596</v>
       </c>
       <c r="G321">
-        <v>33.130000000000003</v>
+        <v>33.13</v>
       </c>
       <c r="H321" t="s">
         <v>597</v>
@@ -29194,7 +29191,7 @@
         <v>759</v>
       </c>
       <c r="Y321" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="AB321" t="s">
         <v>966</v>
@@ -29209,7 +29206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="322">
       <c r="A322">
         <v>626</v>
       </c>
@@ -29286,7 +29283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="323">
       <c r="A323">
         <v>768</v>
       </c>
@@ -29357,7 +29354,7 @@
         <v>1329</v>
       </c>
       <c r="Y323" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="AB323" t="s">
         <v>966</v>
@@ -29375,7 +29372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="324">
       <c r="A324" s="3">
         <v>768</v>
       </c>
@@ -29459,7 +29456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="325">
       <c r="A325" s="3">
         <v>768</v>
       </c>
@@ -29543,7 +29540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="326">
       <c r="A326" s="3">
         <v>768</v>
       </c>
@@ -29627,7 +29624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="327">
       <c r="A327" s="3">
         <v>768</v>
       </c>
@@ -29711,7 +29708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="328">
       <c r="A328" s="3">
         <v>768</v>
       </c>
@@ -29795,7 +29792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="329">
       <c r="A329" s="3">
         <v>768</v>
       </c>
@@ -29879,7 +29876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="330">
       <c r="A330">
         <v>776</v>
       </c>
@@ -29938,7 +29935,7 @@
         <v>1317</v>
       </c>
       <c r="Y330" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="AB330" t="s">
         <v>759</v>
@@ -29953,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="331">
       <c r="A331">
         <v>780</v>
       </c>
@@ -30015,7 +30012,7 @@
         <v>1330</v>
       </c>
       <c r="Y331" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="AB331" t="s">
         <v>966</v>
@@ -30030,7 +30027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="332">
       <c r="A332">
         <v>788</v>
       </c>
@@ -30110,7 +30107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="333">
       <c r="A333">
         <v>792</v>
       </c>
@@ -30169,7 +30166,7 @@
         <v>1331</v>
       </c>
       <c r="Y333" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AB333" t="s">
         <v>966</v>
@@ -30184,7 +30181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="334">
       <c r="A334">
         <v>795</v>
       </c>
@@ -30243,7 +30240,7 @@
         <v>1332</v>
       </c>
       <c r="Y334" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="AB334" t="s">
         <v>759</v>
@@ -30258,7 +30255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="335">
       <c r="A335">
         <v>800</v>
       </c>
@@ -30329,7 +30326,7 @@
         <v>1333</v>
       </c>
       <c r="Y335" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="AB335" t="s">
         <v>966</v>
@@ -30347,7 +30344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="336">
       <c r="A336" s="3">
         <v>800</v>
       </c>
@@ -30431,7 +30428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="337">
       <c r="A337" s="3">
         <v>800</v>
       </c>
@@ -30515,7 +30512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="338">
       <c r="A338" s="3">
         <v>800</v>
       </c>
@@ -30599,7 +30596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="339">
       <c r="A339" s="3">
         <v>800</v>
       </c>
@@ -30683,7 +30680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="340">
       <c r="A340" s="3">
         <v>800</v>
       </c>
@@ -30767,7 +30764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="341">
       <c r="A341" s="3">
         <v>800</v>
       </c>
@@ -30851,7 +30848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="342">
       <c r="A342" s="3">
         <v>800</v>
       </c>
@@ -30935,7 +30932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="343">
       <c r="A343" s="3">
         <v>800</v>
       </c>
@@ -31019,7 +31016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="344">
       <c r="A344" s="3">
         <v>800</v>
       </c>
@@ -31103,7 +31100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="345">
       <c r="A345">
         <v>804</v>
       </c>
@@ -31159,13 +31156,13 @@
         <v>968</v>
       </c>
       <c r="W345" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="X345" t="s">
         <v>1334</v>
       </c>
       <c r="Y345" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="AB345" t="s">
         <v>966</v>
@@ -31180,7 +31177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="346">
       <c r="A346">
         <v>784</v>
       </c>
@@ -31254,7 +31251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="347">
       <c r="A347">
         <v>826</v>
       </c>
@@ -31325,7 +31322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="348">
       <c r="A348">
         <v>834</v>
       </c>
@@ -31396,7 +31393,7 @@
         <v>1335</v>
       </c>
       <c r="Y348" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AB348" t="s">
         <v>966</v>
@@ -31414,7 +31411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="349">
       <c r="A349" s="3">
         <v>834</v>
       </c>
@@ -31498,7 +31495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="350">
       <c r="A350" s="3">
         <v>834</v>
       </c>
@@ -31582,7 +31579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="351">
       <c r="A351" s="3">
         <v>834</v>
       </c>
@@ -31666,7 +31663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="352">
       <c r="A352" s="3">
         <v>834</v>
       </c>
@@ -31750,7 +31747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="353">
       <c r="A353" s="3">
         <v>834</v>
       </c>
@@ -31834,7 +31831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="354">
       <c r="A354" s="3">
         <v>834</v>
       </c>
@@ -31918,7 +31915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="355">
       <c r="A355" s="3">
         <v>834</v>
       </c>
@@ -32002,7 +31999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="356">
       <c r="A356" s="3">
         <v>834</v>
       </c>
@@ -32086,7 +32083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="357">
       <c r="A357" s="3">
         <v>834</v>
       </c>
@@ -32170,7 +32167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="358">
       <c r="A358" s="3">
         <v>834</v>
       </c>
@@ -32254,7 +32251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="359">
       <c r="A359" s="3">
         <v>834</v>
       </c>
@@ -32338,7 +32335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="360">
       <c r="A360" s="3">
         <v>834</v>
       </c>
@@ -32422,7 +32419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="361">
       <c r="A361" s="3">
         <v>834</v>
       </c>
@@ -32506,7 +32503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="362">
       <c r="A362" s="3">
         <v>834</v>
       </c>
@@ -32590,7 +32587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="363">
       <c r="A363" s="3">
         <v>834</v>
       </c>
@@ -32674,7 +32671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="364">
       <c r="A364" s="3">
         <v>834</v>
       </c>
@@ -32758,7 +32755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="365">
       <c r="A365" s="3">
         <v>834</v>
       </c>
@@ -32842,7 +32839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="366">
       <c r="A366" s="3">
         <v>834</v>
       </c>
@@ -32926,7 +32923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="367">
       <c r="A367" s="3">
         <v>834</v>
       </c>
@@ -33010,7 +33007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="368">
       <c r="A368" s="3">
         <v>834</v>
       </c>
@@ -33094,7 +33091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="369">
       <c r="A369" s="3">
         <v>834</v>
       </c>
@@ -33178,7 +33175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="370">
       <c r="A370" s="3">
         <v>834</v>
       </c>
@@ -33262,7 +33259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="371">
       <c r="A371" s="3">
         <v>834</v>
       </c>
@@ -33346,7 +33343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="372">
       <c r="A372" s="3">
         <v>834</v>
       </c>
@@ -33430,7 +33427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="373">
       <c r="A373" s="3">
         <v>834</v>
       </c>
@@ -33514,7 +33511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="374">
       <c r="A374" s="3">
         <v>834</v>
       </c>
@@ -33598,7 +33595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="375">
       <c r="A375" s="3">
         <v>834</v>
       </c>
@@ -33682,7 +33679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="376">
       <c r="A376">
         <v>840</v>
       </c>
@@ -33738,7 +33735,7 @@
         <v>968</v>
       </c>
       <c r="W376" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X376" t="s">
         <v>759</v>
@@ -33753,7 +33750,7 @@
         <v>31112</v>
       </c>
     </row>
-    <row r="377" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="377">
       <c r="A377">
         <v>850</v>
       </c>
@@ -33815,7 +33812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="378">
       <c r="A378">
         <v>858</v>
       </c>
@@ -33892,7 +33889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="379">
       <c r="A379">
         <v>860</v>
       </c>
@@ -33948,13 +33945,13 @@
         <v>968</v>
       </c>
       <c r="W379" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X379" t="s">
         <v>1336</v>
       </c>
       <c r="Y379" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="AB379" t="s">
         <v>966</v>
@@ -33969,7 +33966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="380">
       <c r="A380">
         <v>548</v>
       </c>
@@ -34028,7 +34025,7 @@
         <v>1238</v>
       </c>
       <c r="Y380" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="AF380" t="s">
         <v>708</v>
@@ -34040,7 +34037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="381">
       <c r="A381">
         <v>862</v>
       </c>
@@ -34114,7 +34111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="382">
       <c r="A382">
         <v>704</v>
       </c>
@@ -34176,13 +34173,13 @@
         <v>968</v>
       </c>
       <c r="W382" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X382" t="s">
         <v>1337</v>
       </c>
       <c r="Y382" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AB382" t="s">
         <v>966</v>
@@ -34197,7 +34194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="383">
       <c r="A383">
         <v>732</v>
       </c>
@@ -34262,7 +34259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="384">
       <c r="A384">
         <v>887</v>
       </c>
@@ -34324,7 +34321,7 @@
         <v>1338</v>
       </c>
       <c r="Y384" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AB384" t="s">
         <v>966</v>
@@ -34339,7 +34336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="385">
       <c r="A385">
         <v>894</v>
       </c>
@@ -34410,7 +34407,7 @@
         <v>1339</v>
       </c>
       <c r="Y385" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="AB385" t="s">
         <v>966</v>
@@ -34428,7 +34425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="386">
       <c r="A386" s="3">
         <v>894</v>
       </c>
@@ -34512,7 +34509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="387">
       <c r="A387" s="3">
         <v>894</v>
       </c>
@@ -34596,7 +34593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="388">
       <c r="A388" s="3">
         <v>894</v>
       </c>
@@ -34680,7 +34677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="389">
       <c r="A389" s="3">
         <v>894</v>
       </c>
@@ -34764,7 +34761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="390">
       <c r="A390" s="3">
         <v>894</v>
       </c>
@@ -34848,7 +34845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="391">
       <c r="A391" s="3">
         <v>894</v>
       </c>
@@ -34932,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="392">
       <c r="A392" s="3">
         <v>894</v>
       </c>
@@ -35016,7 +35013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="393">
       <c r="A393" s="3">
         <v>894</v>
       </c>
@@ -35100,7 +35097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="394">
       <c r="A394" s="3">
         <v>894</v>
       </c>
@@ -35184,7 +35181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="395">
       <c r="A395" s="3">
         <v>894</v>
       </c>
@@ -35268,7 +35265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="396">
       <c r="A396">
         <v>716</v>
       </c>
@@ -35339,7 +35336,7 @@
         <v>1340</v>
       </c>
       <c r="Y396" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="AB396" t="s">
         <v>966</v>
@@ -35357,7 +35354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="397">
       <c r="A397" s="3">
         <v>716</v>
       </c>
@@ -35441,7 +35438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="398">
       <c r="A398" s="3">
         <v>716</v>
       </c>
@@ -35525,7 +35522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="399">
       <c r="A399" s="3">
         <v>716</v>
       </c>
@@ -35609,7 +35606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="400">
       <c r="A400" s="3">
         <v>716</v>
       </c>
@@ -35693,7 +35690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="401">
       <c r="A401" s="3">
         <v>716</v>
       </c>
@@ -35777,7 +35774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="402">
       <c r="A402" s="3">
         <v>716</v>
       </c>
@@ -35861,7 +35858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="403">
       <c r="A403" s="3">
         <v>716</v>
       </c>
@@ -35945,7 +35942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="404">
       <c r="A404" s="3">
         <v>716</v>
       </c>
@@ -36029,7 +36026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="405">
       <c r="A405" s="3">
         <v>716</v>
       </c>
@@ -36113,7 +36110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="406">
       <c r="A406" s="3">
         <v>716</v>
       </c>
@@ -36199,25 +36196,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup usePrinterDefaults="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A1" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="52.33203125" customWidth="1"/>
     <col min="3" max="4" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>668</v>
       </c>
@@ -36231,7 +36229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>903</v>
       </c>
@@ -36245,7 +36243,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>935</v>
       </c>
@@ -36259,7 +36257,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>927</v>
       </c>
@@ -36273,7 +36271,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>915</v>
       </c>
@@ -36287,7 +36285,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>916</v>
       </c>
@@ -36301,7 +36299,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>5500</v>
       </c>
@@ -36315,7 +36313,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>910</v>
       </c>
@@ -36329,7 +36327,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>1832</v>
       </c>
@@ -36343,7 +36341,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>906</v>
       </c>
@@ -36357,7 +36355,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>923</v>
       </c>
@@ -36371,7 +36369,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>908</v>
       </c>
@@ -36385,7 +36383,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>1829</v>
       </c>
@@ -36399,7 +36397,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>1503</v>
       </c>
@@ -36413,7 +36411,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>904</v>
       </c>
@@ -36427,7 +36425,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>941</v>
       </c>
@@ -36441,7 +36439,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>902</v>
       </c>
@@ -36455,7 +36453,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>948</v>
       </c>
@@ -36469,7 +36467,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>934</v>
       </c>
@@ -36483,7 +36481,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>1501</v>
       </c>
@@ -36497,7 +36495,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -36511,7 +36509,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22">
         <v>928</v>
       </c>
@@ -36525,7 +36523,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23">
         <v>954</v>
       </c>
@@ -36539,7 +36537,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24">
         <v>911</v>
       </c>
@@ -36553,7 +36551,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25">
         <v>1517</v>
       </c>
@@ -36567,7 +36565,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26">
         <v>901</v>
       </c>
@@ -36581,7 +36579,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27">
         <v>1518</v>
       </c>
@@ -36595,7 +36593,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28">
         <v>912</v>
       </c>
@@ -36609,7 +36607,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29">
         <v>905</v>
       </c>
@@ -36623,7 +36621,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30">
         <v>1833</v>
       </c>
@@ -36637,7 +36635,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31">
         <v>924</v>
       </c>
@@ -36651,7 +36649,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32">
         <v>1835</v>
       </c>
@@ -36665,7 +36663,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33">
         <v>909</v>
       </c>
@@ -36679,7 +36677,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34">
         <v>957</v>
       </c>
@@ -36693,7 +36691,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35">
         <v>931</v>
       </c>
@@ -36707,7 +36705,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36">
         <v>5501</v>
       </c>
@@ -36721,7 +36719,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37">
         <v>1831</v>
       </c>
@@ -36735,7 +36733,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38">
         <v>920</v>
       </c>
@@ -36749,7 +36747,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39">
         <v>913</v>
       </c>
@@ -36763,7 +36761,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40">
         <v>925</v>
       </c>
@@ -36777,7 +36775,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41">
         <v>1834</v>
       </c>
@@ -36791,7 +36789,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42">
         <v>1502</v>
       </c>
@@ -36805,7 +36803,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43">
         <v>914</v>
       </c>
@@ -36819,7 +36817,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44">
         <v>922</v>
       </c>
@@ -36833,7 +36831,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45">
         <v>926</v>
       </c>
@@ -36847,7 +36845,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46">
         <v>900</v>
       </c>
@@ -36863,23 +36861,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="flId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>703</v>
       </c>
@@ -36887,7 +36885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>31100</v>
       </c>
@@ -36895,7 +36893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>31101</v>
       </c>
@@ -36903,7 +36901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>31102</v>
       </c>
@@ -36911,7 +36909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>31103</v>
       </c>
@@ -36919,7 +36917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>31104</v>
       </c>
@@ -36927,7 +36925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>31105</v>
       </c>
@@ -36935,7 +36933,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>31106</v>
       </c>
@@ -36943,7 +36941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>31107</v>
       </c>
@@ -36951,7 +36949,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>31108</v>
       </c>
@@ -36959,7 +36957,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>31109</v>
       </c>
@@ -36967,7 +36965,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>31110</v>
       </c>
@@ -36975,7 +36973,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>31111</v>
       </c>
@@ -36983,7 +36981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>31112</v>
       </c>
@@ -36991,7 +36989,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>31113</v>
       </c>
@@ -36999,7 +36997,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>31114</v>
       </c>
@@ -37007,7 +37005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>31115</v>
       </c>
@@ -37015,7 +37013,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>31116</v>
       </c>
@@ -37023,7 +37021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>31117</v>
       </c>
@@ -37031,7 +37029,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>31118</v>
       </c>
@@ -37039,7 +37037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21">
         <v>31119</v>
       </c>
@@ -37047,7 +37045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22">
         <v>31120</v>
       </c>
@@ -37057,19 +37055,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="flId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="C1" t="s">
         <v>670</v>
       </c>
@@ -37077,7 +37075,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -37157,7 +37155,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>686</v>
       </c>
@@ -37165,79 +37163,79 @@
         <v>124</v>
       </c>
       <c r="C3">
-        <v>1.7950172E-2</v>
+        <v>0.017950172</v>
       </c>
       <c r="D3">
-        <v>2.8451616999999998E-2</v>
+        <v>0.028451617</v>
       </c>
       <c r="E3">
-        <v>3.8953061999999997E-2</v>
+        <v>0.038953062</v>
       </c>
       <c r="F3">
-        <v>4.9454507000000002E-2</v>
+        <v>0.049454507</v>
       </c>
       <c r="G3">
-        <v>5.9955951E-2</v>
+        <v>0.059955951</v>
       </c>
       <c r="H3">
-        <v>7.0457396000000005E-2</v>
+        <v>0.070457396</v>
       </c>
       <c r="I3">
-        <v>8.6209564000000002E-2</v>
+        <v>0.086209564</v>
       </c>
       <c r="J3">
         <v>0.107212453</v>
       </c>
       <c r="K3">
-        <v>0.12821534300000001</v>
+        <v>0.128215343</v>
       </c>
       <c r="L3">
-        <v>0.14921823300000001</v>
+        <v>0.149218233</v>
       </c>
       <c r="M3">
         <v>0.170221123</v>
       </c>
       <c r="N3">
-        <v>0.19647473500000001</v>
+        <v>0.196474735</v>
       </c>
       <c r="O3">
-        <v>1.8761085E-2</v>
+        <v>0.018761085</v>
       </c>
       <c r="P3">
-        <v>2.9412012000000001E-2</v>
+        <v>0.029412012</v>
       </c>
       <c r="Q3">
-        <v>4.0062938999999999E-2</v>
+        <v>0.040062939</v>
       </c>
       <c r="R3">
-        <v>5.0713866000000003E-2</v>
+        <v>0.050713866</v>
       </c>
       <c r="S3">
-        <v>6.1364793000000001E-2</v>
+        <v>0.061364793</v>
       </c>
       <c r="T3">
-        <v>7.2015720000000005E-2</v>
+        <v>0.07201572</v>
       </c>
       <c r="U3">
-        <v>8.7992110999999998E-2</v>
+        <v>0.087992111</v>
       </c>
       <c r="V3">
-        <v>0.10929396399999999</v>
+        <v>0.109293964</v>
       </c>
       <c r="W3">
         <v>0.130595818</v>
       </c>
       <c r="X3">
-        <v>0.15189767200000001</v>
+        <v>0.151897672</v>
       </c>
       <c r="Y3">
-        <v>0.17319952599999999</v>
+        <v>0.173199526</v>
       </c>
       <c r="Z3">
         <v>0.199826844</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>687</v>
       </c>
@@ -37245,64 +37243,64 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>3.1003078E-2</v>
+        <v>0.031003078</v>
       </c>
       <c r="D4">
-        <v>4.4371762000000002E-2</v>
+        <v>0.044371762</v>
       </c>
       <c r="E4">
-        <v>5.7740447E-2</v>
+        <v>0.057740447</v>
       </c>
       <c r="F4">
-        <v>7.1109132000000005E-2</v>
+        <v>0.071109132</v>
       </c>
       <c r="G4">
-        <v>8.4477816999999997E-2</v>
+        <v>0.084477817</v>
       </c>
       <c r="H4">
-        <v>9.7846502000000002E-2</v>
+        <v>0.097846502</v>
       </c>
       <c r="I4">
         <v>0.117899529</v>
       </c>
       <c r="J4">
-        <v>0.14463689800000001</v>
+        <v>0.144636898</v>
       </c>
       <c r="K4">
         <v>0.171374268</v>
       </c>
       <c r="L4">
-        <v>0.19811163700000001</v>
+        <v>0.198111637</v>
       </c>
       <c r="M4">
-        <v>0.22484900699999999</v>
+        <v>0.224849007</v>
       </c>
       <c r="N4">
-        <v>0.25827071899999998</v>
+        <v>0.258270719</v>
       </c>
       <c r="O4">
-        <v>3.4381024000000003E-2</v>
+        <v>0.034381024</v>
       </c>
       <c r="P4">
-        <v>4.7372732000000001E-2</v>
+        <v>0.047372732</v>
       </c>
       <c r="Q4">
-        <v>6.0364439999999998E-2</v>
+        <v>0.06036444</v>
       </c>
       <c r="R4">
-        <v>7.3356147999999996E-2</v>
+        <v>0.073356148</v>
       </c>
       <c r="S4">
-        <v>8.6347856000000001E-2</v>
+        <v>0.086347856</v>
       </c>
       <c r="T4">
-        <v>9.9339564000000005E-2</v>
+        <v>0.099339564</v>
       </c>
       <c r="U4">
-        <v>0.11882712600000001</v>
+        <v>0.118827126</v>
       </c>
       <c r="V4">
-        <v>0.14481054199999999</v>
+        <v>0.144810542</v>
       </c>
       <c r="W4">
         <v>0.170793958</v>
@@ -37311,13 +37309,13 @@
         <v>0.196777374</v>
       </c>
       <c r="Y4">
-        <v>0.22276078999999999</v>
+        <v>0.22276079</v>
       </c>
       <c r="Z4">
-        <v>0.25524005999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.25524006</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>688</v>
       </c>
@@ -37325,79 +37323,79 @@
         <v>163</v>
       </c>
       <c r="C5">
-        <v>2.5336837000000001E-2</v>
+        <v>0.025336837</v>
       </c>
       <c r="D5">
-        <v>3.6289687000000001E-2</v>
+        <v>0.036289687</v>
       </c>
       <c r="E5">
-        <v>4.7242538000000001E-2</v>
+        <v>0.047242538</v>
       </c>
       <c r="F5">
-        <v>5.8195388000000001E-2</v>
+        <v>0.058195388</v>
       </c>
       <c r="G5">
-        <v>6.9148239E-2</v>
+        <v>0.069148239</v>
       </c>
       <c r="H5">
-        <v>8.0101089E-2</v>
+        <v>0.080101089</v>
       </c>
       <c r="I5">
-        <v>9.6530365000000007E-2</v>
+        <v>0.096530365</v>
       </c>
       <c r="J5">
-        <v>0.11843606600000001</v>
+        <v>0.118436066</v>
       </c>
       <c r="K5">
-        <v>0.14034176700000001</v>
+        <v>0.140341767</v>
       </c>
       <c r="L5">
-        <v>0.16224746800000001</v>
+        <v>0.162247468</v>
       </c>
       <c r="M5">
-        <v>0.18415316900000001</v>
+        <v>0.184153169</v>
       </c>
       <c r="N5">
-        <v>0.21153529500000001</v>
+        <v>0.211535295</v>
       </c>
       <c r="O5">
-        <v>2.2542375E-2</v>
+        <v>0.022542375</v>
       </c>
       <c r="P5">
-        <v>3.3223636000000001E-2</v>
+        <v>0.033223636</v>
       </c>
       <c r="Q5">
-        <v>4.3904896999999998E-2</v>
+        <v>0.043904897</v>
       </c>
       <c r="R5">
-        <v>5.4586157000000003E-2</v>
+        <v>0.054586157</v>
       </c>
       <c r="S5">
-        <v>6.5267417999999994E-2</v>
+        <v>0.065267418</v>
       </c>
       <c r="T5">
-        <v>7.5948679000000005E-2</v>
+        <v>0.075948679</v>
       </c>
       <c r="U5">
-        <v>9.1970570000000001E-2</v>
+        <v>0.09197057</v>
       </c>
       <c r="V5">
         <v>0.113333091</v>
       </c>
       <c r="W5">
-        <v>0.13469561199999999</v>
+        <v>0.134695612</v>
       </c>
       <c r="X5">
-        <v>0.15605813399999999</v>
+        <v>0.156058134</v>
       </c>
       <c r="Y5">
-        <v>0.17742065500000001</v>
+        <v>0.177420655</v>
       </c>
       <c r="Z5">
-        <v>0.20412380699999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.204123807</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>689</v>
       </c>
@@ -37405,19 +37403,19 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>3.8096154E-2</v>
+        <v>0.038096154</v>
       </c>
       <c r="D6">
-        <v>5.3409444E-2</v>
+        <v>0.053409444</v>
       </c>
       <c r="E6">
-        <v>6.8722732999999994E-2</v>
+        <v>0.068722733</v>
       </c>
       <c r="F6">
-        <v>8.4036023000000001E-2</v>
+        <v>0.084036023</v>
       </c>
       <c r="G6">
-        <v>9.9349312999999995E-2</v>
+        <v>0.099349313</v>
       </c>
       <c r="H6">
         <v>0.114662602</v>
@@ -37426,31 +37424,31 @@
         <v>0.137632537</v>
       </c>
       <c r="J6">
-        <v>0.16825911599999999</v>
+        <v>0.168259116</v>
       </c>
       <c r="K6">
         <v>0.198885696</v>
       </c>
       <c r="L6">
-        <v>0.22951227499999999</v>
+        <v>0.229512275</v>
       </c>
       <c r="M6">
-        <v>0.26013885399999997</v>
+        <v>0.260138854</v>
       </c>
       <c r="N6">
-        <v>0.29842207900000001</v>
+        <v>0.298422079</v>
       </c>
       <c r="O6">
-        <v>4.2669196999999999E-2</v>
+        <v>0.042669197</v>
       </c>
       <c r="P6">
-        <v>5.7781166000000002E-2</v>
+        <v>0.057781166</v>
       </c>
       <c r="Q6">
-        <v>7.2893135999999997E-2</v>
+        <v>0.072893136</v>
       </c>
       <c r="R6">
-        <v>8.8005106E-2</v>
+        <v>0.088005106</v>
       </c>
       <c r="S6">
         <v>0.103117075</v>
@@ -37459,7 +37457,7 @@
         <v>0.118229045</v>
       </c>
       <c r="U6">
-        <v>0.14089699899999999</v>
+        <v>0.140896999</v>
       </c>
       <c r="V6">
         <v>0.171120939</v>
@@ -37468,16 +37466,16 @@
         <v>0.201344878</v>
       </c>
       <c r="X6">
-        <v>0.23156881700000001</v>
+        <v>0.231568817</v>
       </c>
       <c r="Y6">
-        <v>0.26179275600000002</v>
+        <v>0.261792756</v>
       </c>
       <c r="Z6">
-        <v>0.29957267999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.29957268</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>690</v>
       </c>
@@ -37485,55 +37483,55 @@
         <v>137</v>
       </c>
       <c r="C7">
-        <v>3.3563087999999998E-2</v>
+        <v>0.033563088</v>
       </c>
       <c r="D7">
-        <v>4.7287214000000001E-2</v>
+        <v>0.047287214</v>
       </c>
       <c r="E7">
-        <v>6.1011338999999998E-2</v>
+        <v>0.061011339</v>
       </c>
       <c r="F7">
-        <v>7.4735464000000001E-2</v>
+        <v>0.074735464</v>
       </c>
       <c r="G7">
-        <v>8.8459589000000005E-2</v>
+        <v>0.088459589</v>
       </c>
       <c r="H7">
-        <v>0.10218371399999999</v>
+        <v>0.102183714</v>
       </c>
       <c r="I7">
         <v>0.122769901</v>
       </c>
       <c r="J7">
-        <v>0.15021815099999999</v>
+        <v>0.150218151</v>
       </c>
       <c r="K7">
         <v>0.177666402</v>
       </c>
       <c r="L7">
-        <v>0.20511465200000001</v>
+        <v>0.205114652</v>
       </c>
       <c r="M7">
-        <v>0.23256290199999999</v>
+        <v>0.232562902</v>
       </c>
       <c r="N7">
-        <v>0.26687321400000003</v>
+        <v>0.266873214</v>
       </c>
       <c r="O7">
-        <v>3.1125096000000001E-2</v>
+        <v>0.031125096</v>
       </c>
       <c r="P7">
-        <v>4.4988529999999999E-2</v>
+        <v>0.04498853</v>
       </c>
       <c r="Q7">
-        <v>5.8851964999999999E-2</v>
+        <v>0.058851965</v>
       </c>
       <c r="R7">
-        <v>7.2715399E-2</v>
+        <v>0.072715399</v>
       </c>
       <c r="S7">
-        <v>8.6578832999999994E-2</v>
+        <v>0.086578833</v>
       </c>
       <c r="T7">
         <v>0.100442268</v>
@@ -37545,19 +37543,19 @@
         <v>0.148964289</v>
       </c>
       <c r="W7">
-        <v>0.17669115799999999</v>
+        <v>0.176691158</v>
       </c>
       <c r="X7">
         <v>0.204418027</v>
       </c>
       <c r="Y7">
-        <v>0.23214489599999999</v>
+        <v>0.232144896</v>
       </c>
       <c r="Z7">
-        <v>0.26680348199999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.266803482</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -37565,79 +37563,79 @@
         <v>66</v>
       </c>
       <c r="C8">
-        <v>2.1689887000000001E-2</v>
+        <v>0.021689887</v>
       </c>
       <c r="D8">
-        <v>3.3993712000000002E-2</v>
+        <v>0.033993712</v>
       </c>
       <c r="E8">
-        <v>4.6297536E-2</v>
+        <v>0.046297536</v>
       </c>
       <c r="F8">
-        <v>5.8601359999999998E-2</v>
+        <v>0.05860136</v>
       </c>
       <c r="G8">
-        <v>7.0905183999999996E-2</v>
+        <v>0.070905184</v>
       </c>
       <c r="H8">
-        <v>8.3209008000000001E-2</v>
+        <v>0.083209008</v>
       </c>
       <c r="I8">
         <v>0.101664744</v>
       </c>
       <c r="J8">
-        <v>0.12627239300000001</v>
+        <v>0.126272393</v>
       </c>
       <c r="K8">
-        <v>0.15088004099999999</v>
+        <v>0.150880041</v>
       </c>
       <c r="L8">
         <v>0.175487689</v>
       </c>
       <c r="M8">
-        <v>0.20009533700000001</v>
+        <v>0.200095337</v>
       </c>
       <c r="N8">
         <v>0.230854898</v>
       </c>
       <c r="O8">
-        <v>2.2745659000000001E-2</v>
+        <v>0.022745659</v>
       </c>
       <c r="P8">
-        <v>3.5300034000000001E-2</v>
+        <v>0.035300034</v>
       </c>
       <c r="Q8">
-        <v>4.7854408000000001E-2</v>
+        <v>0.047854408</v>
       </c>
       <c r="R8">
-        <v>6.0408783000000001E-2</v>
+        <v>0.060408783</v>
       </c>
       <c r="S8">
-        <v>7.2963157000000001E-2</v>
+        <v>0.072963157</v>
       </c>
       <c r="T8">
-        <v>8.5517531999999993E-2</v>
+        <v>0.085517532</v>
       </c>
       <c r="U8">
         <v>0.104349093</v>
       </c>
       <c r="V8">
-        <v>0.12945784199999999</v>
+        <v>0.129457842</v>
       </c>
       <c r="W8">
         <v>0.154566591</v>
       </c>
       <c r="X8">
-        <v>0.17967534099999999</v>
+        <v>0.179675341</v>
       </c>
       <c r="Y8">
         <v>0.20478409</v>
       </c>
       <c r="Z8">
-        <v>0.23617002600000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.236170026</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -37645,79 +37643,79 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>4.5956354999999997E-2</v>
+        <v>0.045956355</v>
       </c>
       <c r="D9">
-        <v>6.1179052999999997E-2</v>
+        <v>0.061179053</v>
       </c>
       <c r="E9">
-        <v>7.6401752000000003E-2</v>
+        <v>0.076401752</v>
       </c>
       <c r="F9">
-        <v>9.1624450999999996E-2</v>
+        <v>0.091624451</v>
       </c>
       <c r="G9">
         <v>0.106847149</v>
       </c>
       <c r="H9">
-        <v>0.12206984799999999</v>
+        <v>0.122069848</v>
       </c>
       <c r="I9">
         <v>0.144903896</v>
       </c>
       <c r="J9">
-        <v>0.17534929299999999</v>
+        <v>0.175349293</v>
       </c>
       <c r="K9">
         <v>0.20579469</v>
       </c>
       <c r="L9">
-        <v>0.23624008799999999</v>
+        <v>0.236240088</v>
       </c>
       <c r="M9">
         <v>0.266685485</v>
       </c>
       <c r="N9">
-        <v>0.30474223099999997</v>
+        <v>0.304742231</v>
       </c>
       <c r="O9">
-        <v>4.8051175000000002E-2</v>
+        <v>0.048051175</v>
       </c>
       <c r="P9">
-        <v>6.2052373000000001E-2</v>
+        <v>0.062052373</v>
       </c>
       <c r="Q9">
-        <v>7.6053570000000001E-2</v>
+        <v>0.07605357</v>
       </c>
       <c r="R9">
-        <v>9.0054766999999994E-2</v>
+        <v>0.090054767</v>
       </c>
       <c r="S9">
         <v>0.104055964</v>
       </c>
       <c r="T9">
-        <v>0.11805716099999999</v>
+        <v>0.118057161</v>
       </c>
       <c r="U9">
-        <v>0.13905895700000001</v>
+        <v>0.139058957</v>
       </c>
       <c r="V9">
         <v>0.167061352</v>
       </c>
       <c r="W9">
-        <v>0.19506374600000001</v>
+        <v>0.195063746</v>
       </c>
       <c r="X9">
         <v>0.22306614</v>
       </c>
       <c r="Y9">
-        <v>0.25106853499999998</v>
+        <v>0.251068535</v>
       </c>
       <c r="Z9">
-        <v>0.28607152800000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.286071528</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>691</v>
       </c>
@@ -37725,61 +37723,61 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>2.7863054000000002E-2</v>
+        <v>0.027863054</v>
       </c>
       <c r="D10">
-        <v>4.1703514999999997E-2</v>
+        <v>0.041703515</v>
       </c>
       <c r="E10">
-        <v>5.5543975000000002E-2</v>
+        <v>0.055543975</v>
       </c>
       <c r="F10">
-        <v>6.9384435999999994E-2</v>
+        <v>0.069384436</v>
       </c>
       <c r="G10">
-        <v>8.3224896000000007E-2</v>
+        <v>0.083224896</v>
       </c>
       <c r="H10">
-        <v>9.7065357000000005E-2</v>
+        <v>0.097065357</v>
       </c>
       <c r="I10">
         <v>0.117826047</v>
       </c>
       <c r="J10">
-        <v>0.14550696799999999</v>
+        <v>0.145506968</v>
       </c>
       <c r="K10">
-        <v>0.17318788900000001</v>
+        <v>0.173187889</v>
       </c>
       <c r="L10">
-        <v>0.20086881000000001</v>
+        <v>0.20086881</v>
       </c>
       <c r="M10">
-        <v>0.22854973100000001</v>
+        <v>0.228549731</v>
       </c>
       <c r="N10">
-        <v>0.26315088199999997</v>
+        <v>0.263150882</v>
       </c>
       <c r="O10">
-        <v>2.5109323999999999E-2</v>
+        <v>0.025109324</v>
       </c>
       <c r="P10">
-        <v>3.8458959000000001E-2</v>
+        <v>0.038458959</v>
       </c>
       <c r="Q10">
-        <v>5.1808593999999999E-2</v>
+        <v>0.051808594</v>
       </c>
       <c r="R10">
-        <v>6.5158229999999998E-2</v>
+        <v>0.06515823</v>
       </c>
       <c r="S10">
-        <v>7.8507864999999996E-2</v>
+        <v>0.078507865</v>
       </c>
       <c r="T10">
-        <v>9.1857499999999995E-2</v>
+        <v>0.0918575</v>
       </c>
       <c r="U10">
-        <v>0.11188195300000001</v>
+        <v>0.111881953</v>
       </c>
       <c r="V10">
         <v>0.138581224</v>
@@ -37791,13 +37789,13 @@
         <v>0.191979766</v>
       </c>
       <c r="Y10">
-        <v>0.21867903599999999</v>
+        <v>0.218679036</v>
       </c>
       <c r="Z10">
-        <v>0.25205312499999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.252053125</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>692</v>
       </c>
@@ -37805,19 +37803,19 @@
         <v>92</v>
       </c>
       <c r="C11">
-        <v>3.4940371999999997E-2</v>
+        <v>0.034940372</v>
       </c>
       <c r="D11">
-        <v>4.8532520000000003E-2</v>
+        <v>0.04853252</v>
       </c>
       <c r="E11">
-        <v>6.2124669E-2</v>
+        <v>0.062124669</v>
       </c>
       <c r="F11">
-        <v>7.5716817000000006E-2</v>
+        <v>0.075716817</v>
       </c>
       <c r="G11">
-        <v>8.9308966000000004E-2</v>
+        <v>0.089308966</v>
       </c>
       <c r="H11">
         <v>0.102901114</v>
@@ -37829,55 +37827,55 @@
         <v>0.150473634</v>
       </c>
       <c r="K11">
-        <v>0.17765793099999999</v>
+        <v>0.177657931</v>
       </c>
       <c r="L11">
-        <v>0.20484222799999999</v>
+        <v>0.204842228</v>
       </c>
       <c r="M11">
-        <v>0.23202652400000001</v>
+        <v>0.232026524</v>
       </c>
       <c r="N11">
-        <v>0.26600689599999999</v>
+        <v>0.266006896</v>
       </c>
       <c r="O11">
-        <v>2.9936845E-2</v>
+        <v>0.029936845</v>
       </c>
       <c r="P11">
-        <v>4.2734446000000002E-2</v>
+        <v>0.042734446</v>
       </c>
       <c r="Q11">
-        <v>5.5532047000000001E-2</v>
+        <v>0.055532047</v>
       </c>
       <c r="R11">
-        <v>6.8329648000000007E-2</v>
+        <v>0.068329648</v>
       </c>
       <c r="S11">
-        <v>8.1127248999999999E-2</v>
+        <v>0.081127249</v>
       </c>
       <c r="T11">
-        <v>9.3924850000000004E-2</v>
+        <v>0.09392485</v>
       </c>
       <c r="U11">
-        <v>0.11312125100000001</v>
+        <v>0.113121251</v>
       </c>
       <c r="V11">
-        <v>0.13871645299999999</v>
+        <v>0.138716453</v>
       </c>
       <c r="W11">
         <v>0.164311654</v>
       </c>
       <c r="X11">
-        <v>0.18990685600000001</v>
+        <v>0.189906856</v>
       </c>
       <c r="Y11">
         <v>0.215502058</v>
       </c>
       <c r="Z11">
-        <v>0.24749605999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.24749606</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>693</v>
       </c>
@@ -37885,58 +37883,58 @@
         <v>72</v>
       </c>
       <c r="C12">
-        <v>2.0538445999999998E-2</v>
+        <v>0.020538446</v>
       </c>
       <c r="D12">
-        <v>3.3189611000000001E-2</v>
+        <v>0.033189611</v>
       </c>
       <c r="E12">
-        <v>4.5840775E-2</v>
+        <v>0.045840775</v>
       </c>
       <c r="F12">
-        <v>5.8491939999999999E-2</v>
+        <v>0.05849194</v>
       </c>
       <c r="G12">
-        <v>7.1143103999999999E-2</v>
+        <v>0.071143104</v>
       </c>
       <c r="H12">
-        <v>8.3794269000000005E-2</v>
+        <v>0.083794269</v>
       </c>
       <c r="I12">
-        <v>0.10277101600000001</v>
+        <v>0.102771016</v>
       </c>
       <c r="J12">
-        <v>0.12807334400000001</v>
+        <v>0.128073344</v>
       </c>
       <c r="K12">
-        <v>0.15337567299999999</v>
+        <v>0.153375673</v>
       </c>
       <c r="L12">
         <v>0.178678002</v>
       </c>
       <c r="M12">
-        <v>0.20398033099999999</v>
+        <v>0.203980331</v>
       </c>
       <c r="N12">
-        <v>0.23560824299999999</v>
+        <v>0.235608243</v>
       </c>
       <c r="O12">
-        <v>2.2021964000000002E-2</v>
+        <v>0.022021964</v>
       </c>
       <c r="P12">
-        <v>3.4744972999999998E-2</v>
+        <v>0.034744973</v>
       </c>
       <c r="Q12">
-        <v>4.7467980999999999E-2</v>
+        <v>0.047467981</v>
       </c>
       <c r="R12">
-        <v>6.019099E-2</v>
+        <v>0.06019099</v>
       </c>
       <c r="S12">
-        <v>7.2913998999999993E-2</v>
+        <v>0.072913999</v>
       </c>
       <c r="T12">
-        <v>8.5637008000000001E-2</v>
+        <v>0.085637008</v>
       </c>
       <c r="U12">
         <v>0.104721521</v>
@@ -37945,19 +37943,19 @@
         <v>0.130167539</v>
       </c>
       <c r="W12">
-        <v>0.15561355700000001</v>
+        <v>0.155613557</v>
       </c>
       <c r="X12">
         <v>0.181059574</v>
       </c>
       <c r="Y12">
-        <v>0.20650559199999999</v>
+        <v>0.206505592</v>
       </c>
       <c r="Z12">
-        <v>0.23831311399999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.238313114</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>694</v>
       </c>
@@ -37965,19 +37963,19 @@
         <v>108</v>
       </c>
       <c r="C13">
-        <v>3.8826988E-2</v>
+        <v>0.038826988</v>
       </c>
       <c r="D13">
-        <v>5.1610845000000002E-2</v>
+        <v>0.051610845</v>
       </c>
       <c r="E13">
-        <v>6.4394701999999998E-2</v>
+        <v>0.064394702</v>
       </c>
       <c r="F13">
-        <v>7.7178559999999993E-2</v>
+        <v>0.07717856</v>
       </c>
       <c r="G13">
-        <v>8.9962417000000003E-2</v>
+        <v>0.089962417</v>
       </c>
       <c r="H13">
         <v>0.102746274</v>
@@ -37986,34 +37984,34 @@
         <v>0.12192206</v>
       </c>
       <c r="J13">
-        <v>0.14748977399999999</v>
+        <v>0.147489774</v>
       </c>
       <c r="K13">
-        <v>0.17305748900000001</v>
+        <v>0.173057489</v>
       </c>
       <c r="L13">
         <v>0.198625203</v>
       </c>
       <c r="M13">
-        <v>0.22419291799999999</v>
+        <v>0.224192918</v>
       </c>
       <c r="N13">
         <v>0.256152561</v>
       </c>
       <c r="O13">
-        <v>3.6088505E-2</v>
+        <v>0.036088505</v>
       </c>
       <c r="P13">
-        <v>4.9281857999999998E-2</v>
+        <v>0.049281858</v>
       </c>
       <c r="Q13">
-        <v>6.2475212000000002E-2</v>
+        <v>0.062475212</v>
       </c>
       <c r="R13">
-        <v>7.5668566000000007E-2</v>
+        <v>0.075668566</v>
       </c>
       <c r="S13">
-        <v>8.8861919999999997E-2</v>
+        <v>0.08886192</v>
       </c>
       <c r="T13">
         <v>0.102055274</v>
@@ -38025,19 +38023,19 @@
         <v>0.148232012</v>
       </c>
       <c r="W13">
-        <v>0.17461872000000001</v>
+        <v>0.17461872</v>
       </c>
       <c r="X13">
-        <v>0.20100542800000001</v>
+        <v>0.201005428</v>
       </c>
       <c r="Y13">
         <v>0.227392135</v>
       </c>
       <c r="Z13">
-        <v>0.26037552000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.26037552</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>695</v>
       </c>
@@ -38045,67 +38043,67 @@
         <v>176</v>
       </c>
       <c r="C14">
-        <v>2.9709165999999999E-2</v>
+        <v>0.029709166</v>
       </c>
       <c r="D14">
-        <v>4.2101131E-2</v>
+        <v>0.042101131</v>
       </c>
       <c r="E14">
-        <v>5.4493094999999998E-2</v>
+        <v>0.054493095</v>
       </c>
       <c r="F14">
-        <v>6.6885058999999997E-2</v>
+        <v>0.066885059</v>
       </c>
       <c r="G14">
-        <v>7.9277024000000001E-2</v>
+        <v>0.079277024</v>
       </c>
       <c r="H14">
-        <v>9.1668988000000007E-2</v>
+        <v>0.091668988</v>
       </c>
       <c r="I14">
         <v>0.110256934</v>
       </c>
       <c r="J14">
-        <v>0.13504086300000001</v>
+        <v>0.135040863</v>
       </c>
       <c r="K14">
-        <v>0.15982479099999999</v>
+        <v>0.159824791</v>
       </c>
       <c r="L14">
         <v>0.18460872</v>
       </c>
       <c r="M14">
-        <v>0.20939264899999999</v>
+        <v>0.209392649</v>
       </c>
       <c r="N14">
-        <v>0.24037255900000001</v>
+        <v>0.240372559</v>
       </c>
       <c r="O14">
-        <v>2.7596235E-2</v>
+        <v>0.027596235</v>
       </c>
       <c r="P14">
-        <v>4.0654953000000001E-2</v>
+        <v>0.040654953</v>
       </c>
       <c r="Q14">
-        <v>5.3713669999999998E-2</v>
+        <v>0.05371367</v>
       </c>
       <c r="R14">
-        <v>6.6772388000000002E-2</v>
+        <v>0.066772388</v>
       </c>
       <c r="S14">
-        <v>7.9831104999999999E-2</v>
+        <v>0.079831105</v>
       </c>
       <c r="T14">
-        <v>9.2889822999999996E-2</v>
+        <v>0.092889823</v>
       </c>
       <c r="U14">
-        <v>0.11247789900000001</v>
+        <v>0.112477899</v>
       </c>
       <c r="V14">
-        <v>0.13859533399999999</v>
+        <v>0.138595334</v>
       </c>
       <c r="W14">
-        <v>0.16471276900000001</v>
+        <v>0.164712769</v>
       </c>
       <c r="X14">
         <v>0.190830204</v>
@@ -38117,7 +38115,7 @@
         <v>0.249594433</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>696</v>
       </c>
@@ -38125,58 +38123,58 @@
         <v>54</v>
       </c>
       <c r="C15">
-        <v>2.3089864000000002E-2</v>
+        <v>0.023089864</v>
       </c>
       <c r="D15">
-        <v>3.6878745999999997E-2</v>
+        <v>0.036878746</v>
       </c>
       <c r="E15">
-        <v>5.0667627999999999E-2</v>
+        <v>0.050667628</v>
       </c>
       <c r="F15">
-        <v>6.4456509999999995E-2</v>
+        <v>0.06445651</v>
       </c>
       <c r="G15">
-        <v>7.8245390999999997E-2</v>
+        <v>0.078245391</v>
       </c>
       <c r="H15">
-        <v>9.2034273E-2</v>
+        <v>0.092034273</v>
       </c>
       <c r="I15">
         <v>0.112717595</v>
       </c>
       <c r="J15">
-        <v>0.14029535900000001</v>
+        <v>0.140295359</v>
       </c>
       <c r="K15">
-        <v>0.16787312200000001</v>
+        <v>0.167873122</v>
       </c>
       <c r="L15">
-        <v>0.19545088599999999</v>
+        <v>0.195450886</v>
       </c>
       <c r="M15">
         <v>0.223028649</v>
       </c>
       <c r="N15">
-        <v>0.25750085299999997</v>
+        <v>0.257500853</v>
       </c>
       <c r="O15">
-        <v>2.0670160999999999E-2</v>
+        <v>0.020670161</v>
       </c>
       <c r="P15">
-        <v>3.4618393999999997E-2</v>
+        <v>0.034618394</v>
       </c>
       <c r="Q15">
-        <v>4.8566628000000001E-2</v>
+        <v>0.048566628</v>
       </c>
       <c r="R15">
-        <v>6.2514862000000004E-2</v>
+        <v>0.062514862</v>
       </c>
       <c r="S15">
-        <v>7.6463095999999994E-2</v>
+        <v>0.076463096</v>
       </c>
       <c r="T15">
-        <v>9.0411329999999998E-2</v>
+        <v>0.09041133</v>
       </c>
       <c r="U15">
         <v>0.11133368</v>
@@ -38185,19 +38183,19 @@
         <v>0.139230148</v>
       </c>
       <c r="W15">
-        <v>0.16712661600000001</v>
+        <v>0.167126616</v>
       </c>
       <c r="X15">
-        <v>0.19502308300000001</v>
+        <v>0.195023083</v>
       </c>
       <c r="Y15">
-        <v>0.22291955099999999</v>
+        <v>0.222919551</v>
       </c>
       <c r="Z15">
         <v>0.257790136</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>697</v>
       </c>
@@ -38205,19 +38203,19 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>3.4617762000000003E-2</v>
+        <v>0.034617762</v>
       </c>
       <c r="D16">
-        <v>4.7754705000000001E-2</v>
+        <v>0.047754705</v>
       </c>
       <c r="E16">
-        <v>6.0891648999999999E-2</v>
+        <v>0.060891649</v>
       </c>
       <c r="F16">
-        <v>7.4028593000000004E-2</v>
+        <v>0.074028593</v>
       </c>
       <c r="G16">
-        <v>8.7165537000000001E-2</v>
+        <v>0.087165537</v>
       </c>
       <c r="H16">
         <v>0.10030248</v>
@@ -38229,31 +38227,31 @@
         <v>0.146281784</v>
       </c>
       <c r="K16">
-        <v>0.17255567099999999</v>
+        <v>0.172555671</v>
       </c>
       <c r="L16">
-        <v>0.19882955899999999</v>
+        <v>0.198829559</v>
       </c>
       <c r="M16">
-        <v>0.22510344600000001</v>
+        <v>0.225103446</v>
       </c>
       <c r="N16">
         <v>0.257945806</v>
       </c>
       <c r="O16">
-        <v>3.2450693000000003E-2</v>
+        <v>0.032450693</v>
       </c>
       <c r="P16">
-        <v>4.6112635999999999E-2</v>
+        <v>0.046112636</v>
       </c>
       <c r="Q16">
-        <v>5.9774578000000002E-2</v>
+        <v>0.059774578</v>
       </c>
       <c r="R16">
-        <v>7.3436521000000005E-2</v>
+        <v>0.073436521</v>
       </c>
       <c r="S16">
-        <v>8.7098463000000001E-2</v>
+        <v>0.087098463</v>
       </c>
       <c r="T16">
         <v>0.100760406</v>
@@ -38262,22 +38260,22 @@
         <v>0.121253319</v>
       </c>
       <c r="V16">
-        <v>0.14857720399999999</v>
+        <v>0.148577204</v>
       </c>
       <c r="W16">
-        <v>0.17590108900000001</v>
+        <v>0.175901089</v>
       </c>
       <c r="X16">
         <v>0.203224974</v>
       </c>
       <c r="Y16">
-        <v>0.23054885899999999</v>
+        <v>0.230548859</v>
       </c>
       <c r="Z16">
-        <v>0.26470371500000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.264703715</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>698</v>
       </c>
@@ -38285,19 +38283,19 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>2.8542662E-2</v>
+        <v>0.028542662</v>
       </c>
       <c r="D17">
-        <v>4.3148786000000001E-2</v>
+        <v>0.043148786</v>
       </c>
       <c r="E17">
-        <v>5.775491E-2</v>
+        <v>0.05775491</v>
       </c>
       <c r="F17">
-        <v>7.2361034000000005E-2</v>
+        <v>0.072361034</v>
       </c>
       <c r="G17">
-        <v>8.6967158000000003E-2</v>
+        <v>0.086967158</v>
       </c>
       <c r="H17">
         <v>0.101573281</v>
@@ -38306,10 +38304,10 @@
         <v>0.123482467</v>
       </c>
       <c r="J17">
-        <v>0.15269471400000001</v>
+        <v>0.152694714</v>
       </c>
       <c r="K17">
-        <v>0.18190696200000001</v>
+        <v>0.181906962</v>
       </c>
       <c r="L17">
         <v>0.21111921</v>
@@ -38318,46 +38316,46 @@
         <v>0.240331457</v>
       </c>
       <c r="N17">
-        <v>0.27684676600000002</v>
+        <v>0.276846766</v>
       </c>
       <c r="O17">
-        <v>3.2818234000000002E-2</v>
+        <v>0.032818234</v>
       </c>
       <c r="P17">
-        <v>4.8428776E-2</v>
+        <v>0.048428776</v>
       </c>
       <c r="Q17">
-        <v>6.4039317999999998E-2</v>
+        <v>0.064039318</v>
       </c>
       <c r="R17">
-        <v>7.9649860000000003E-2</v>
+        <v>0.07964986</v>
       </c>
       <c r="S17">
-        <v>9.5260401999999994E-2</v>
+        <v>0.095260402</v>
       </c>
       <c r="T17">
         <v>0.110870944</v>
       </c>
       <c r="U17">
-        <v>0.13428675700000001</v>
+        <v>0.134286757</v>
       </c>
       <c r="V17">
-        <v>0.16550784199999999</v>
+        <v>0.165507842</v>
       </c>
       <c r="W17">
         <v>0.196728926</v>
       </c>
       <c r="X17">
-        <v>0.22795001000000001</v>
+        <v>0.22795001</v>
       </c>
       <c r="Y17">
-        <v>0.25917109399999999</v>
+        <v>0.259171094</v>
       </c>
       <c r="Z17">
         <v>0.298197449</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -38365,31 +38363,31 @@
         <v>144</v>
       </c>
       <c r="C18">
-        <v>1.9532239E-2</v>
+        <v>0.019532239</v>
       </c>
       <c r="D18">
-        <v>3.2265567000000002E-2</v>
+        <v>0.032265567</v>
       </c>
       <c r="E18">
-        <v>4.4998894999999997E-2</v>
+        <v>0.044998895</v>
       </c>
       <c r="F18">
-        <v>5.7732222999999999E-2</v>
+        <v>0.057732223</v>
       </c>
       <c r="G18">
-        <v>7.0465551000000001E-2</v>
+        <v>0.070465551</v>
       </c>
       <c r="H18">
-        <v>8.3198879000000003E-2</v>
+        <v>0.083198879</v>
       </c>
       <c r="I18">
         <v>0.102298872</v>
       </c>
       <c r="J18">
-        <v>0.12776552799999999</v>
+        <v>0.127765528</v>
       </c>
       <c r="K18">
-        <v>0.15323218399999999</v>
+        <v>0.153232184</v>
       </c>
       <c r="L18">
         <v>0.178698841</v>
@@ -38401,43 +38399,43 @@
         <v>0.235998817</v>
       </c>
       <c r="O18">
-        <v>2.0810975999999998E-2</v>
+        <v>0.020810976</v>
       </c>
       <c r="P18">
-        <v>3.3738371000000003E-2</v>
+        <v>0.033738371</v>
       </c>
       <c r="Q18">
-        <v>4.6665765999999997E-2</v>
+        <v>0.046665766</v>
       </c>
       <c r="R18">
-        <v>5.9593160999999999E-2</v>
+        <v>0.059593161</v>
       </c>
       <c r="S18">
-        <v>7.2520556E-2</v>
+        <v>0.072520556</v>
       </c>
       <c r="T18">
-        <v>8.5447950999999994E-2</v>
+        <v>0.085447951</v>
       </c>
       <c r="U18">
-        <v>0.10483904300000001</v>
+        <v>0.104839043</v>
       </c>
       <c r="V18">
-        <v>0.13069383300000001</v>
+        <v>0.130693833</v>
       </c>
       <c r="W18">
         <v>0.156548623</v>
       </c>
       <c r="X18">
-        <v>0.18240341299999999</v>
+        <v>0.182403413</v>
       </c>
       <c r="Y18">
         <v>0.208258203</v>
       </c>
       <c r="Z18">
-        <v>0.24057669000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.24057669</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -38445,19 +38443,19 @@
         <v>245</v>
       </c>
       <c r="C19">
-        <v>3.8031263000000003E-2</v>
+        <v>0.038031263</v>
       </c>
       <c r="D19">
-        <v>5.4100955999999999E-2</v>
+        <v>0.054100956</v>
       </c>
       <c r="E19">
-        <v>7.0170649000000002E-2</v>
+        <v>0.070170649</v>
       </c>
       <c r="F19">
-        <v>8.6240341999999998E-2</v>
+        <v>0.086240342</v>
       </c>
       <c r="G19">
-        <v>0.10231003599999999</v>
+        <v>0.102310036</v>
       </c>
       <c r="H19">
         <v>0.118379729</v>
@@ -38466,43 +38464,43 @@
         <v>0.142484269</v>
       </c>
       <c r="J19">
-        <v>0.17462365499999999</v>
+        <v>0.174623655</v>
       </c>
       <c r="K19">
-        <v>0.20676304100000001</v>
+        <v>0.206763041</v>
       </c>
       <c r="L19">
         <v>0.238902428</v>
       </c>
       <c r="M19">
-        <v>0.27104181399999999</v>
+        <v>0.271041814</v>
       </c>
       <c r="N19">
         <v>0.311216047</v>
       </c>
       <c r="O19">
-        <v>3.6267289000000001E-2</v>
+        <v>0.036267289</v>
       </c>
       <c r="P19">
-        <v>5.2950472999999998E-2</v>
+        <v>0.052950473</v>
       </c>
       <c r="Q19">
-        <v>6.9633658000000001E-2</v>
+        <v>0.069633658</v>
       </c>
       <c r="R19">
-        <v>8.6316842000000005E-2</v>
+        <v>0.086316842</v>
       </c>
       <c r="S19">
-        <v>0.10300002599999999</v>
+        <v>0.103000026</v>
       </c>
       <c r="T19">
         <v>0.119683211</v>
       </c>
       <c r="U19">
-        <v>0.14470798700000001</v>
+        <v>0.144707987</v>
       </c>
       <c r="V19">
-        <v>0.17807435599999999</v>
+        <v>0.178074356</v>
       </c>
       <c r="W19">
         <v>0.211440725</v>
@@ -38511,13 +38509,13 @@
         <v>0.244807093</v>
       </c>
       <c r="Y19">
-        <v>0.27817346199999998</v>
+        <v>0.278173462</v>
       </c>
       <c r="Z19">
         <v>0.319881423</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>699</v>
       </c>
@@ -38525,13 +38523,13 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>6.0134284000000003E-2</v>
+        <v>0.060134284</v>
       </c>
       <c r="D20">
-        <v>7.4656416000000003E-2</v>
+        <v>0.074656416</v>
       </c>
       <c r="E20">
-        <v>8.9178547999999996E-2</v>
+        <v>0.089178548</v>
       </c>
       <c r="F20">
         <v>0.10370068</v>
@@ -38543,31 +38541,31 @@
         <v>0.132744945</v>
       </c>
       <c r="I20">
-        <v>0.15452814300000001</v>
+        <v>0.154528143</v>
       </c>
       <c r="J20">
-        <v>0.18357240799999999</v>
+        <v>0.183572408</v>
       </c>
       <c r="K20">
-        <v>0.21261667300000001</v>
+        <v>0.212616673</v>
       </c>
       <c r="L20">
-        <v>0.24166093699999999</v>
+        <v>0.241660937</v>
       </c>
       <c r="M20">
-        <v>0.27070520199999998</v>
+        <v>0.270705202</v>
       </c>
       <c r="N20">
-        <v>0.30701053299999997</v>
+        <v>0.307010533</v>
       </c>
       <c r="O20">
-        <v>6.0234625E-2</v>
+        <v>0.060234625</v>
       </c>
       <c r="P20">
-        <v>7.4461594000000006E-2</v>
+        <v>0.074461594</v>
       </c>
       <c r="Q20">
-        <v>8.8688562999999998E-2</v>
+        <v>0.088688563</v>
       </c>
       <c r="R20">
         <v>0.102915533</v>
@@ -38576,28 +38574,28 @@
         <v>0.117142502</v>
       </c>
       <c r="T20">
-        <v>0.13136947099999999</v>
+        <v>0.131369471</v>
       </c>
       <c r="U20">
         <v>0.152709925</v>
       </c>
       <c r="V20">
-        <v>0.18116386300000001</v>
+        <v>0.181163863</v>
       </c>
       <c r="W20">
-        <v>0.20961780099999999</v>
+        <v>0.209617801</v>
       </c>
       <c r="X20">
         <v>0.238071739</v>
       </c>
       <c r="Y20">
-        <v>0.26652567799999999</v>
+        <v>0.266525678</v>
       </c>
       <c r="Z20">
-        <v>0.30209310099999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.302093101</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>700</v>
       </c>
@@ -38605,16 +38603,16 @@
         <v>133</v>
       </c>
       <c r="C21">
-        <v>4.8559840999999999E-2</v>
+        <v>0.048559841</v>
       </c>
       <c r="D21">
-        <v>6.3595201000000004E-2</v>
+        <v>0.063595201</v>
       </c>
       <c r="E21">
-        <v>7.8630560000000002E-2</v>
+        <v>0.07863056</v>
       </c>
       <c r="F21">
-        <v>9.366592E-2</v>
+        <v>0.09366592</v>
       </c>
       <c r="G21">
         <v>0.10870128</v>
@@ -38623,7 +38621,7 @@
         <v>0.123736639</v>
       </c>
       <c r="I21">
-        <v>0.14628967900000001</v>
+        <v>0.146289679</v>
       </c>
       <c r="J21">
         <v>0.176360398</v>
@@ -38632,34 +38630,34 @@
         <v>0.206431117</v>
       </c>
       <c r="L21">
-        <v>0.23650183699999999</v>
+        <v>0.236501837</v>
       </c>
       <c r="M21">
-        <v>0.26657255600000002</v>
+        <v>0.266572556</v>
       </c>
       <c r="N21">
-        <v>0.30416095500000001</v>
+        <v>0.304160955</v>
       </c>
       <c r="O21">
-        <v>5.0216368999999997E-2</v>
+        <v>0.050216369</v>
       </c>
       <c r="P21">
-        <v>6.5222637999999999E-2</v>
+        <v>0.065222638</v>
       </c>
       <c r="Q21">
-        <v>8.0228908000000002E-2</v>
+        <v>0.080228908</v>
       </c>
       <c r="R21">
-        <v>9.5235177000000004E-2</v>
+        <v>0.095235177</v>
       </c>
       <c r="S21">
-        <v>0.11024144600000001</v>
+        <v>0.110241446</v>
       </c>
       <c r="T21">
-        <v>0.12524771600000001</v>
+        <v>0.125247716</v>
       </c>
       <c r="U21">
-        <v>0.14775711999999999</v>
+        <v>0.14775712</v>
       </c>
       <c r="V21">
         <v>0.177769658</v>
@@ -38668,16 +38666,16 @@
         <v>0.207782197</v>
       </c>
       <c r="X21">
-        <v>0.23779473500000001</v>
+        <v>0.237794735</v>
       </c>
       <c r="Y21">
-        <v>0.26780727399999998</v>
+        <v>0.267807274</v>
       </c>
       <c r="Z21">
-        <v>0.30532294700000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.305322947</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>701</v>
       </c>
@@ -38685,16 +38683,16 @@
         <v>116</v>
       </c>
       <c r="C22">
-        <v>5.1099435999999998E-2</v>
+        <v>0.051099436</v>
       </c>
       <c r="D22">
-        <v>6.5445584000000001E-2</v>
+        <v>0.065445584</v>
       </c>
       <c r="E22">
-        <v>7.9791732000000004E-2</v>
+        <v>0.079791732</v>
       </c>
       <c r="F22">
-        <v>9.4137879999999993E-2</v>
+        <v>0.09413788</v>
       </c>
       <c r="G22">
         <v>0.108484029</v>
@@ -38703,34 +38701,34 @@
         <v>0.122830177</v>
       </c>
       <c r="I22">
-        <v>0.14434939899999999</v>
+        <v>0.144349399</v>
       </c>
       <c r="J22">
-        <v>0.17304169599999999</v>
+        <v>0.173041696</v>
       </c>
       <c r="K22">
         <v>0.201733992</v>
       </c>
       <c r="L22">
-        <v>0.23042628900000001</v>
+        <v>0.230426289</v>
       </c>
       <c r="M22">
-        <v>0.25911858500000001</v>
+        <v>0.259118585</v>
       </c>
       <c r="N22">
-        <v>0.29498395599999999</v>
+        <v>0.294983956</v>
       </c>
       <c r="O22">
-        <v>5.2423445999999999E-2</v>
+        <v>0.052423446</v>
       </c>
       <c r="P22">
-        <v>6.6081932999999995E-2</v>
+        <v>0.066081933</v>
       </c>
       <c r="Q22">
-        <v>7.9740421000000006E-2</v>
+        <v>0.079740421</v>
       </c>
       <c r="R22">
-        <v>9.3398908000000003E-2</v>
+        <v>0.093398908</v>
       </c>
       <c r="S22">
         <v>0.107057396</v>
@@ -38745,19 +38743,19 @@
         <v>0.16852059</v>
       </c>
       <c r="W22">
-        <v>0.19583756499999999</v>
+        <v>0.195837565</v>
       </c>
       <c r="X22">
-        <v>0.22315454100000001</v>
+        <v>0.223154541</v>
       </c>
       <c r="Y22">
-        <v>0.25047151600000001</v>
+        <v>0.250471516</v>
       </c>
       <c r="Z22">
-        <v>0.28461773499999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.284617735</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>702</v>
       </c>
@@ -38765,49 +38763,49 @@
         <v>102</v>
       </c>
       <c r="C23">
-        <v>5.3640569999999999E-2</v>
+        <v>0.05364057</v>
       </c>
       <c r="D23">
-        <v>6.8009360000000005E-2</v>
+        <v>0.06800936</v>
       </c>
       <c r="E23">
-        <v>8.2378149999999997E-2</v>
+        <v>0.08237815</v>
       </c>
       <c r="F23">
-        <v>9.6746941000000003E-2</v>
+        <v>0.096746941</v>
       </c>
       <c r="G23">
         <v>0.111115731</v>
       </c>
       <c r="H23">
-        <v>0.12548452099999999</v>
+        <v>0.125484521</v>
       </c>
       <c r="I23">
-        <v>0.14703770599999999</v>
+        <v>0.147037706</v>
       </c>
       <c r="J23">
         <v>0.175775287</v>
       </c>
       <c r="K23">
-        <v>0.20451286699999999</v>
+        <v>0.204512867</v>
       </c>
       <c r="L23">
         <v>0.233250448</v>
       </c>
       <c r="M23">
-        <v>0.26198802799999998</v>
+        <v>0.261988028</v>
       </c>
       <c r="N23">
-        <v>0.29791000400000001</v>
+        <v>0.297910004</v>
       </c>
       <c r="O23">
-        <v>5.7437642999999997E-2</v>
+        <v>0.057437643</v>
       </c>
       <c r="P23">
-        <v>7.1978005999999997E-2</v>
+        <v>0.071978006</v>
       </c>
       <c r="Q23">
-        <v>8.6518369999999997E-2</v>
+        <v>0.08651837</v>
       </c>
       <c r="R23">
         <v>0.101058733</v>
@@ -38816,7 +38814,7 @@
         <v>0.115599096</v>
       </c>
       <c r="T23">
-        <v>0.13013945900000001</v>
+        <v>0.130139459</v>
       </c>
       <c r="U23">
         <v>0.151950004</v>
@@ -38831,26 +38829,27 @@
         <v>0.239192184</v>
       </c>
       <c r="Y23">
-        <v>0.26827290999999998</v>
+        <v>0.26827291</v>
       </c>
       <c r="Z23">
-        <v>0.30462381799999999</v>
+        <v>0.304623818</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup usePrinterDefaults="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
@@ -38858,7 +38857,7 @@
     <col min="4" max="4" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>749</v>
       </c>
@@ -38872,7 +38871,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>753</v>
       </c>
@@ -38888,7 +38887,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="flId1"/>
 </worksheet>
 </file>
 

--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE038212-1307-4FC9-A169-F93BE3A0F37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EFF849-B027-44EA-A199-F4E84A84B4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4495,7 +4495,7 @@
     <t>Sample country_5733.upd</t>
   </si>
   <si>
-    <t>WHO 2023</t>
+    <t>WHO 2024</t>
   </si>
 </sst>
 </file>
@@ -4891,10 +4891,10 @@
   <dimension ref="A1:AJ416"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C233" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K365" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+      <selection pane="bottomRight" activeCell="AB406" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39658,12 +39658,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39869,15 +39866,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639808B5-4725-4AE9-9DF1-1833AC18DC8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39901,17 +39909,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639808B5-4725-4AE9-9DF1-1833AC18DC8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EFF849-B027-44EA-A199-F4E84A84B4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7629631F-1913-4D2D-AD6A-F353F0321AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4495,7 +4495,7 @@
     <t>Sample country_5733.upd</t>
   </si>
   <si>
-    <t>WHO 2024</t>
+    <t>WHO 2023</t>
   </si>
 </sst>
 </file>
@@ -4891,10 +4891,10 @@
   <dimension ref="A1:AJ416"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K365" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB406" sqref="AB1:AB1048576"/>
+      <selection pane="bottomRight" activeCell="W315" sqref="W315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39658,9 +39658,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39866,26 +39869,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639808B5-4725-4AE9-9DF1-1833AC18DC8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39909,9 +39901,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639808B5-4725-4AE9-9DF1-1833AC18DC8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SourceData/globals/GBModData.xlsx
+++ b/SourceData/globals/GBModData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7629631F-1913-4D2D-AD6A-F353F0321AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D30C0-0111-4886-AC71-ABBF9A557599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4495,7 +4495,7 @@
     <t>Sample country_5733.upd</t>
   </si>
   <si>
-    <t>WHO 2023</t>
+    <t>WHO 2024</t>
   </si>
 </sst>
 </file>
@@ -4894,7 +4894,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="J296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W315" sqref="W315"/>
+      <selection pane="bottomRight" activeCell="AA305" sqref="AA305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39658,12 +39658,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39869,15 +39866,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639808B5-4725-4AE9-9DF1-1833AC18DC8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39901,17 +39909,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639808B5-4725-4AE9-9DF1-1833AC18DC8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E04ADD-AF0C-45F3-A990-50A9A3A5EFA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2c9bee02-199a-488a-b277-ba7f212fbf06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>